--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="调式" sheetId="1" r:id="rId1"/>
@@ -1699,10 +1699,10 @@
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -2467,10 +2467,10 @@
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>

--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="调式" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="145">
   <si>
     <t>功能名称</t>
   </si>
@@ -289,9 +289,6 @@
   <si>
     <t>测试通过
 2022-06-28 14:57:06</t>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的报表-球类报表-主查询  /winOrLost/sport，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>球类报表-单独球类数据对比</t>
@@ -331,9 +328,6 @@
 2022-06-28 14:57:13</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-球类报表-子查询（根据其球类查询盘口）  ["/winOrLost/sport","/winOrLost/market"]，接口数据比对全部正确\x1b[0m']</t>
-  </si>
-  <si>
     <t>联赛报表-全部联赛查询数据对比</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
 2022-06-28 14:57:19</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-联赛报表-主查询  /winOrLost/tournament，接口数据比对全部正确\x1b[0m']</t>
-  </si>
-  <si>
     <t>赛事盈亏-全部赛事查询数据对比</t>
   </si>
   <si>
@@ -391,9 +382,6 @@
 2022-06-28 14:57:25</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-赛事盈亏-主查询  /winOrLost/match，接口数据比对全部正确\x1b[0m']</t>
-  </si>
-  <si>
     <t>赛事盈亏-单独赛事盘口数据对比</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
 2022-06-28 14:57:34</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-赛事盈亏-子查询（根据其赛事查询其盘口）  ["/winOrLost/match","/winOrLost/market"]，接口数据比对全部正确\x1b[0m']</t>
-  </si>
-  <si>
     <t>混合串关-全部串关查询数据对比</t>
   </si>
   <si>
@@ -447,9 +432,6 @@
   <si>
     <t>测试通过
 2022-06-28 14:57:54</t>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的报表-混合串关-主查询  /winOrLost/multiterm，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>备注1</t>
@@ -1699,10 +1681,10 @@
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -2067,12 +2049,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2140,7 +2122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="108" customHeight="1" spans="1:16">
+    <row r="2" ht="108" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2181,25 +2163,19 @@
       <c r="N2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" ht="135" customHeight="1" spans="1:14">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" ht="135" customHeight="1" spans="1:16">
-      <c r="A3" t="s">
+      <c r="B3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
@@ -2208,22 +2184,22 @@
         <v>18</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>25</v>
@@ -2231,25 +2207,19 @@
       <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="O3" t="s">
+    </row>
+    <row r="4" ht="135" customHeight="1" spans="1:14">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="P3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" ht="135" customHeight="1" spans="1:16">
-      <c r="A4" t="s">
+      <c r="C4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2258,20 +2228,20 @@
         <v>18</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="M4" t="s">
         <v>25</v>
@@ -2279,25 +2249,19 @@
       <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" ht="135" customHeight="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="P4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" ht="135" customHeight="1" spans="1:16">
-      <c r="A5" t="s">
+      <c r="D5" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2306,20 +2270,20 @@
         <v>18</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
         <v>25</v>
@@ -2327,25 +2291,19 @@
       <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="O5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" customHeight="1" spans="1:16">
+    </row>
+    <row r="6" ht="40.5" customHeight="1" spans="1:14">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2354,22 +2312,22 @@
         <v>18</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s">
         <v>25</v>
@@ -2377,25 +2335,19 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" ht="135" customHeight="1" spans="1:16">
+    </row>
+    <row r="7" ht="135" customHeight="1" spans="1:14">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2404,31 +2356,25 @@
         <v>18</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
         <v>25</v>
       </c>
       <c r="N7" t="s">
         <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2467,10 +2413,10 @@
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -2528,21 +2474,21 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="143" customHeight="1" spans="1:15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2551,39 +2497,39 @@
         <v>18</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="142" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2592,22 +2538,22 @@
         <v>18</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -2616,7 +2562,7 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1"/>
@@ -2687,13 +2633,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G2" s="12"/>
     </row>
@@ -2784,13 +2730,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
@@ -2806,18 +2752,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -2825,7 +2771,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>23</v>
@@ -2833,7 +2779,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -2841,7 +2787,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>

--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="调式" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
   <si>
     <t>功能名称</t>
   </si>
@@ -69,13 +69,16 @@
     <t>备注</t>
   </si>
   <si>
-    <t>未完成交易-登0代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>未完成交易-登0-主查询</t>
-  </si>
-  <si>
-    <t>/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList</t>
+    <t>球类报表-盘口下会员订单数据对比</t>
+  </si>
+  <si>
+    <t>报表-球类报表-订单查询（根据其盘口查询订单）</t>
+  </si>
+  <si>
+    <t>"/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"</t>
+  </si>
+  <si>
+    <t>companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,mixNum</t>
   </si>
   <si>
     <t>{
@@ -85,13 +88,43 @@
     }</t>
   </si>
   <si>
+    <t>[{"matchId":"", "sportId":"","queryDateType":3, "begin":begin,"end":end,"searchAccount":"", "page":1,"limit":50},{"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end},{"begin":begin,"end":end,"dateType":3,"page":1,"limit":500,"sportId":"sr:sport:1","marketId":"1","account":"","queryDateType":3,"tournamentId":""}]</t>
+  </si>
+  <si>
+    <t>sportId</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
+@f"SELECT any_value (f.mark_id) FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.sport_id='{all}' GROUP BY f.mark_id"
+@f"SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND a.market_id='{all_order_no}' AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC"
+@f"SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.settlement_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND a.market_id='{all_order_no}' AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.settlement_time,c.efficient_amount,c.create_time ORDER BY c.create_time DESC"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.settlement_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.settlement_time,c.efficient_amount,c.create_time ORDER BY c.create_time DESC"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no='{all_order_no}'"</t>
+  </si>
+  <si>
+    <t>account,orderNo</t>
+  </si>
+  <si>
+    <t>接口返回不需要的字段处理传参</t>
+  </si>
+  <si>
+    <t>未完成交易-登0代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>未完成交易-登0-主查询</t>
+  </si>
+  <si>
+    <t>/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList</t>
+  </si>
+  <si>
     <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442"}]</t>
   </si>
   <si>
     <t>parentId</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
@@ -103,13 +136,10 @@
   </si>
   <si>
     <t>测试通过
-2022-06-28 14:54:03</t>
+2022-06-29 18:02:34</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的未完成交易-登0-主查询  /agentBackground/UndoneTransaction/queryProxyUndoneTransactionList，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>未完成交易-登0,登3跳转会员代理查询下级跳转</t>
@@ -127,10 +157,7 @@
   </si>
   <si>
     <t>测试通过
-2022-06-28 14:54:04</t>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的未完成交易-登0-登3-会员-子查询  /agentBackground/UndoneTransaction/queryProxyUndoneTransactionList，接口数据比对全部正确\x1b[0m']</t>
+2022-06-29 18:02:36</t>
   </si>
   <si>
     <t>未完成交易-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
@@ -159,14 +186,8 @@
 @f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no='{all_order_no}'"</t>
   </si>
   <si>
-    <t>account,orderNo</t>
-  </si>
-  <si>
     <t>测试通过
-2022-06-28 14:56:12</t>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的未完成交易-登0-登3-会员-查看订单详情-子查询  "/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList","/agentBackground/UndoneTransaction/queryMemberUndoneOrderList"，接口数据比对全部正确\x1b[0m']</t>
+2022-06-29 14:50:56</t>
   </si>
   <si>
     <t>盈亏详情-登0代理查询下级跳转</t>
@@ -190,17 +211,8 @@
 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
   </si>
   <si>
-    <t>测试不通过
-2022-06-28 14:56:15</t>
-  </si>
-  <si>
-    <t>[[{'account': 'd0d1/d10', 'accountId': '1531517033355976705', 'companyTotal': -52.31, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -52.3, 'level0WinOrLose': -52.2, 'level1Commission': -0.1, 'level1Total': -52.3, 'level1WinOrLose': -52.2, 'level2Commission': -0.09, 'level2Total': -52.29, 'level2WinOrLose': -52.2, 'level3Commission': 0.14, 'level3Total': -52.06, 'level3WinOrLose': -52.2, 'levelId': 1, 'levelName': '登1', 'memberCommission': 0.26, 'memberTotal': 261.26, 'memberWinOrLose': 261.0, 'name': '杜鑫登1', 'numberOfBets': 2, 'parentId': '1531516017847869442', 'totalBet': 1010.0, 'totalCommission': 0.11, 'totalEfficientAmount': 250.0}, {'account': 'd0d1d2/d2', 'accountId': '1531517351158390786', 'companyTotal': -52.31, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -52.3, 'level0WinOrLose': -52.2, 'level1Commission': -0.1, 'level1Total': -52.3, 'level1WinOrLose': -52.2, 'level2Commission': -0.09, 'level2Total': -52.29, 'level2WinOrLose': -52.2, 'level3Commission': 0.14, 'level3Total': -52.06, 'level3WinOrLose': -52.2, 'levelId': 2, 'levelName': '登2', 'memberCommission': 0.26, 'memberTotal': 261.26, 'memberWinOrLose': 261.0, 'name': '杜鑫登2', 'numberOfBets': 2, 'parentId': '1531517033355976705', 'totalBet': 1010.0, 'totalCommission': 0.11, 'totalEfficientAmount': 250.0}, {'account': 'd0d1d2d3/d3', 'accountId': '1531517760300163074', 'companyTotal': -52.31, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -52.3, 'level0WinOrLose': -52.2, 'level1Commission': -0.1, 'level1Total': -52.3, 'level1WinOrLose': -52.2, 'level2Commission': -0.09, 'level2Total': -52.29, 'level2WinOrLose': -52.2, 'level3Commission': 0.14, 'level3Total': -52.06, 'level3WinOrLose': -52.2, 'levelId': 3, 'levelName': '登3', 'memberCommission': 0.26, 'memberTotal': 261.26, 'memberWinOrLose': 261.0, 'name': '杜鑫登3', 'numberOfBets': 2, 'parentId': '1531517351158390786', 'totalBet': 1010.0, 'totalCommission': 0.11, 'totalEfficientAmount': 250.0}], [{'account': 'd0d1/d10', 'accountId': '1531517033355976705', 'companyTotal': -928.38, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -928.21, 'level0WinOrLose': -928.11, 'level1Commission': -0.1, 'level1Total': -928.21, 'level1WinOrLose': -928.11, 'level2Commission': -0.09, 'level2Total': -928.2, 'level2WinOrLose': -928.11, 'level3Commission': 0.2, 'level3Total': -927.91, 'level3WinOrLose': -928.11, 'levelId': 1, 'levelName': '登1', 'memberCommission': 0.27, 'memberTotal': 4640.91, 'memberWinOrLose': 4640.64, 'name': '杜鑫登1', 'numberOfBets': 70, 'parentId': '1531516017847869442', 'totalBet': 5800.0, 'totalCommission': 0.28, 'totalEfficientAmount': 4121.69}, {'account': 'd0d1d2/d2', 'accountId': '1531517351158390786', 'companyTotal': -928.38, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -928.21, 'level0WinOrLose': -928.11, 'level1Commission': -0.1, 'level1Total': -928.21, 'level1WinOrLose': -928.11, 'level2Commission': -0.09, 'level2Total': -928.2, 'level2WinOrLose': -928.11, 'level3Commission': 0.2, 'level3Total': -927.91, 'level3WinOrLose': -928.11, 'levelId': 2, 'levelName': '登2', 'memberCommission': 0.27, 'memberTotal': 4640.91, 'memberWinOrLose': 4640.64, 'name': '杜鑫登2', 'numberOfBets': 70, 'parentId': '1531517033355976705', 'totalBet': 5800.0, 'totalCommission': 0.38, 'totalEfficientAmount': 4121.69}, {'account': 'd0d1d2d3/d3', 'accountId': '1531517760300163074', 'companyTotal': -928.38, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -928.21, 'level0WinOrLose': -928.11, 'level1Commission': -0.1, 'level1Total': -928.21, 'level1WinOrLose': -928.11, 'level2Commission': -0.09, 'level2Total': -928.2, 'level2WinOrLose': -928.11, 'level3Commission': 0.2, 'level3Total': -927.91, 'level3WinOrLose': -928.11, 'levelId': 3, 'levelName': '登3', 'memberCommission': 0.27, 'memberTotal': 4640.91, 'memberWinOrLose': 4640.64, 'name': '杜鑫登3', 'numberOfBets': 70, 'parentId': '1531517351158390786', 'totalBet': 5800.0, 'totalCommission': 0.47, 'totalEfficientAmount': 4121.69}]]</t>
-  </si>
-  <si>
-    <t>['d0d1/d10-1531516017847869442/1531516017847869442/companyTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.31/-928.38', 'd0d1/d10-1531516017847869442/1531516017847869442/level0Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.3/-928.21', 'd0d1/d10-1531516017847869442/1531516017847869442/level0WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1/d10-1531516017847869442/1531516017847869442/level1Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.3/-928.21', 'd0d1/d10-1531516017847869442/1531516017847869442/level1WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1/d10-1531516017847869442/1531516017847869442/level2Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.29/-928.2', 'd0d1/d10-1531516017847869442/1531516017847869442/level2WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1/d10-1531516017847869442/1531516017847869442/level3Commission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.14/0.2', 'd0d1/d10-1531516017847869442/1531516017847869442/level3Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.06/-927.91', 'd0d1/d10-1531516017847869442/1531516017847869442/level3WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1/d10-1531516017847869442/1531516017847869442/memberCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.26/0.27', 'd0d1/d10-1531516017847869442/1531516017847869442/memberTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：261.26/4640.91', 'd0d1/d10-1531516017847869442/1531516017847869442/memberWinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：261.0/4640.64', 'd0d1/d10-1531516017847869442/1531516017847869442/numberOfBets的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2/70', 'd0d1/d10-1531516017847869442/1531516017847869442/totalBet的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1010.0/5800.0', 'd0d1/d10-1531516017847869442/1531516017847869442/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.11/0.28', 'd0d1/d10-1531516017847869442/1531516017847869442/totalEfficientAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：250.0/4121.69', 'd0d1d2/d2-1531517033355976705/1531517033355976705/companyTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.31/-928.38', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level0Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.3/-928.21', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level0WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level1Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.3/-928.21', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level1WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level2Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.29/-928.2', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level2WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level3Commission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.14/0.2', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level3Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.06/-927.91', 'd0d1d2/d2-1531517033355976705/1531517033355976705/level3WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2/d2-1531517033355976705/1531517033355976705/memberCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.26/0.27', 'd0d1d2/d2-1531517033355976705/1531517033355976705/memberTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：261.26/4640.91', 'd0d1d2/d2-1531517033355976705/1531517033355976705/memberWinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：261.0/4640.64', 'd0d1d2/d2-1531517033355976705/1531517033355976705/numberOfBets的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2/70', 'd0d1d2/d2-1531517033355976705/1531517033355976705/totalBet的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1010.0/5800.0', 'd0d1d2/d2-1531517033355976705/1531517033355976705/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.11/0.38', 'd0d1d2/d2-1531517033355976705/1531517033355976705/totalEfficientAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：250.0/4121.69', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/companyTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.31/-928.38', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level0Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.3/-928.21', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level0WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level1Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.3/-928.21', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level1WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level2Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.29/-928.2', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level2WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level3Commission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.14/0.2', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level3Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.06/-927.91', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/level3WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-52.2/-928.11', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/memberCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.26/0.27', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/memberTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：261.26/4640.91', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/memberWinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：261.0/4640.64', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/numberOfBets的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2/70', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/totalBet的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1010.0/5800.0', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.11/0.47', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/totalEfficientAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：250.0/4121.69']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的盈亏详情-登0-主查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,3,0\x1b[0m']</t>
+    <t>测试通过
+2022-06-29 14:51:05</t>
   </si>
   <si>
     <t>盈亏详情-登0,登3跳转会员代理查询下级跳转</t>
@@ -215,17 +227,8 @@
     <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
   </si>
   <si>
-    <t>测试不通过
-2022-06-28 14:56:33</t>
-  </si>
-  <si>
-    <t>[[{'account': 'd0d1d2d30b/fceshi01', 'accountId': '1531519190650101761', 'companyTotal': -48.11, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -48.1, 'level0WinOrLose': -48.0, 'level1Commission': -0.1, 'level1Total': -48.1, 'level1WinOrLose': -48.0, 'level2Commission': -0.09, 'level2Total': -48.09, 'level2WinOrLose': -48.0, 'level3Commission': 0.14, 'level3Total': -47.86, 'level3WinOrLose': -48.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.26, 'memberTotal': 240.26, 'memberWinOrLose': 240.0, 'name': '杜鑫test账号ab', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 1000.0, 'totalCommission': 0.11, 'totalEfficientAmount': 240.0}, {'account': 'd0d1d2d3qt/fceshi0687', 'accountId': '1531522468255408130', 'companyTotal': -4.2, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.2, 'level0WinOrLose': -4.2, 'level1Commission': 0.0, 'level1Total': -4.2, 'level1WinOrLose': -4.2, 'level2Commission': 0.0, 'level2Total': -4.2, 'level2WinOrLose': -4.2, 'level3Commission': 0.0, 'level3Total': -4.2, 'level3WinOrLose': -4.2, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 21.0, 'memberWinOrLose': 21.0, 'name': '杜鑫test账号qt', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}], [{'account': 'd0d1d2d30b/fceshi01', 'accountId': '1531519190650101761', 'companyTotal': -44.11, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': -44.1, 'level0WinOrLose': -44.0, 'level1Commission': -0.1, 'level1Total': -44.1, 'level1WinOrLose': -44.0, 'level2Commission': -0.09, 'level2Total': -44.09, 'level2WinOrLose': -44.0, 'level3Commission': 0.14, 'level3Total': -43.86, 'level3WinOrLose': -44.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.26, 'memberTotal': 220.26, 'memberWinOrLose': 220.0, 'name': '杜鑫test账号ab', 'numberOfBets': 3, 'parentId': '1531517760300163074', 'totalBet': 1020.0, 'totalCommission': 0.26, 'totalEfficientAmount': 260.0}, {'account': 'd0d1d2d30m/fceshi012', 'accountId': '1531519243502526466', 'companyTotal': -108.24, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -108.2, 'level0WinOrLose': -108.2, 'level1Commission': 0.0, 'level1Total': -108.2, 'level1WinOrLose': -108.2, 'level2Commission': 0.0, 'level2Total': -108.2, 'level2WinOrLose': -108.2, 'level3Commission': 0.0, 'level3Total': -108.2, 'level3WinOrLose': -108.2, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 541.04, 'memberWinOrLose': 541.04, 'name': '杜鑫test账号am', 'numberOfBets': 4, 'parentId': '1531517760300163074', 'totalBet': 320.0, 'totalCommission': 0.0, 'totalEfficientAmount': 320.0}, {'account': 'd0d1d2d35e/fceshi0126', 'accountId': '1531520000230465537', 'companyTotal': -1.39, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.38, 'level0WinOrLose': -1.38, 'level1Commission': 0.0, 'level1Total': -1.38, 'level1WinOrLose': -1.38, 'level2Commission': 0.0, 'level2Total': -1.38, 'level2WinOrLose': -1.38, 'level3Commission': 0.01, 'level3Total': -1.37, 'level3WinOrLose': -1.38, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.9, 'memberWinOrLose': 6.9, 'name': '杜鑫test账号fe', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.9}, {'account': 'd0d1d2d30o/fceshi014', 'accountId': '1531519253065539586', 'companyTotal': 8.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 8.0, 'level0WinOrLose': 8.0, 'level1Commission': 0.0, 'level1Total': 8.0, 'level1WinOrLose': 8.0, 'level2Commission': 0.0, 'level2Total': 8.0, 'level2WinOrLose': 8.0, 'level3Commission': 0.0, 'level3Total': 8.0, 'level3WinOrLose': 8.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -40.0, 'memberWinOrLose': -40.0, 'name': '杜鑫test账号ao', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 40.0}, {'account': 'd0d1d2d30p/fceshi015', 'accountId': '1531519257226289154', 'companyTotal': -18.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -18.0, 'level0WinOrLose': -18.0, 'level1Commission': 0.0, 'level1Total': -18.0, 'level1WinOrLose': -18.0, 'level2Commission': 0.0, 'level2Total': -18.0, 'level2WinOrLose': -18.0, 'level3Commission': 0.0, 'level3Total': -18.0, 'level3WinOrLose': -18.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 90.0, 'memberWinOrLose': 90.0, 'name': '杜鑫test账号ap', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 70.0, 'totalCommission': 0.0, 'totalEfficientAmount': 30.0}, {'account': 'd0d1d2d30q/fceshi016', 'accountId': '1531519261340901378', 'companyTotal': 28.13, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 28.13, 'level0WinOrLose': 28.13, 'level1Commission': 0.0, 'level1Total': 28.13, 'level1WinOrLose': 28.13, 'level2Commission': 0.0, 'level2Total': 28.13, 'level2WinOrLose': 28.13, 'level3Commission': 0.0, 'level3Total': 28.13, 'level3WinOrLose': 28.13, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -140.65, 'memberWinOrLose': -140.65, 'name': '杜鑫test账号aq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 150.0, 'totalCommission': 0.0, 'totalEfficientAmount': 140.65}, {'account': 'd0d1d2d30r/fceshi017', 'accountId': '1531519265463902210', 'companyTotal': 7.36, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 7.36, 'level0WinOrLose': 7.36, 'level1Commission': 0.0, 'level1Total': 7.36, 'level1WinOrLose': 7.36, 'level2Commission': 0.0, 'level2Total': 7.36, 'level2WinOrLose': 7.36, 'level3Commission': 0.0, 'level3Total': 7.36, 'level3WinOrLose': 7.36, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -36.8, 'memberWinOrLose': -36.8, 'name': '杜鑫test账号ar', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 50.0, 'totalCommission': 0.0, 'totalEfficientAmount': 36.8}, {'account': 'd0d1d2d36x/fceshi0171', 'accountId': '1531520192103096322', 'companyTotal': -19.9, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -19.9, 'level0WinOrLose': -19.9, 'level1Commission': 0.0, 'level1Total': -19.9, 'level1WinOrLose': -19.9, 'level2Commission': 0.0, 'level2Total': -19.9, 'level2WinOrLose': -19.9, 'level3Commission': 0.0, 'level3Total': -19.9, 'level3WinOrLose': -19.9, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 99.5, 'memberWinOrLose': 99.5, 'name': '杜鑫test账号gx', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30s/fceshi018', 'accountId': '1531519269557542914', 'companyTotal': 29.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 29.3, 'level0WinOrLose': 29.3, 'level1Commission': 0.0, 'level1Total': 29.3, 'level1WinOrLose': 29.3, 'level2Commission': 0.0, 'level2Total': 29.3, 'level2WinOrLose': 29.3, 'level3Commission': 0.0, 'level3Total': 29.3, 'level3WinOrLose': 29.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -146.5, 'memberWinOrLose': -146.5, 'name': '杜鑫test账号as', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 260.0, 'totalCommission': 0.0, 'totalEfficientAmount': 146.5}, {'account': 'd0d1d2d30c/fceshi02', 'accountId': '1531519197046415362', 'companyTotal': -54.87, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -54.85, 'level0WinOrLose': -54.85, 'level1Commission': 0.0, 'level1Total': -54.85, 'level1WinOrLose': -54.85, 'level2Commission': 0.0, 'level2Total': -54.85, 'level2WinOrLose': -54.85, 'level3Commission': 0.0, 'level3Total': -54.85, 'level3WinOrLose': -54.85, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 274.27, 'memberWinOrLose': 274.27, 'name': '杜鑫test账号ac', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 190.0, 'totalCommission': 0.0, 'totalEfficientAmount': 190.0}, {'account': 'd0d1d2d31a/fceshi026', 'accountId': '1531519302432497666', 'companyTotal': -152.15, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -152.14, 'level0WinOrLose': -152.14, 'level1Commission': 0.0, 'level1Total': -152.14, 'level1WinOrLose': -152.14, 'level2Commission': 0.0, 'level2Total': -152.14, 'level2WinOrLose': -152.14, 'level3Commission': 0.0, 'level3Total': -152.14, 'level3WinOrLose': -152.14, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 760.71, 'memberWinOrLose': 760.71, 'name': '杜鑫test账号ba', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 160.0, 'totalCommission': 0.0, 'totalEfficientAmount': 160.0}, {'account': 'd0d1d2d3ax/fceshi0275', 'accountId': '1531520731645779969', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ax', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31c/fceshi028', 'accountId': '1531519310657527809', 'companyTotal': 30.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 30.0, 'level0WinOrLose': 30.0, 'level1Commission': 0.0, 'level1Total': 30.0, 'level1WinOrLose': 30.0, 'level2Commission': 0.0, 'level2Total': 30.0, 'level2WinOrLose': 30.0, 'level3Commission': 0.0, 'level3Total': 30.0, 'level3WinOrLose': 30.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -150.0, 'memberWinOrLose': -150.0, 'name': '杜鑫test账号bc', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 150.0, 'totalCommission': 0.0, 'totalEfficientAmount': 150.0}, {'account': 'd0d1d2d3bd/fceshi0281', 'accountId': '1531520756333453313', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号bd', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3bq/fceshi0294', 'accountId': '1531520809617891329', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号bq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31f/fceshi031', 'accountId': '1531519323030724609', 'companyTotal': 4.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 4.0, 'level0WinOrLose': 4.0, 'level1Commission': 0.0, 'level1Total': 4.0, 'level1WinOrLose': 4.0, 'level2Commission': 0.0, 'level2Total': 4.0, 'level2WinOrLose': 4.0, 'level3Commission': 0.0, 'level3Total': 4.0, 'level3WinOrLose': 4.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -20.0, 'memberWinOrLose': -20.0, 'name': '杜鑫test账号bf', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 20.0, 'totalCommission': 0.0, 'totalEfficientAmount': 20.0}, {'account': 'd0d1d2d31g/fceshi032', 'accountId': '1531519327241805825', 'companyTotal': -4.22, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.21, 'level0WinOrLose': -4.21, 'level1Commission': 0.0, 'level1Total': -4.21, 'level1WinOrLose': -4.21, 'level2Commission': 0.0, 'level2Total': -4.21, 'level2WinOrLose': -4.21, 'level3Commission': 0.0, 'level3Total': -4.21, 'level3WinOrLose': -4.21, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 21.06, 'memberWinOrLose': 21.06, 'name': '杜鑫test账号bg', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 21.06}, {'account': 'd0d1d2d31j/fceshi035', 'accountId': '1531519339581448193', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号bj', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31o/fceshi040', 'accountId': '1531519360410361857', 'companyTotal': 12.72, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 12.74, 'level0WinOrLose': 12.74, 'level1Commission': 0.0, 'level1Total': 12.74, 'level1WinOrLose': 12.74, 'level2Commission': 0.0, 'level2Total': 12.74, 'level2WinOrLose': 12.74, 'level3Commission': 0.0, 'level3Total': 12.74, 'level3WinOrLose': 12.74, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -63.68, 'memberWinOrLose': -63.68, 'name': '杜鑫test账号bo', 'numberOfBets': 3, 'parentId': '1531517760300163074', 'totalBet': 290.0, 'totalCommission': 0.0, 'totalEfficientAmount': 146.32}, {'account': 'd0d1d2d31p/fceshi041', 'accountId': '1531519364529168386', 'companyTotal': -146.94, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -146.92, 'level0WinOrLose': -146.92, 'level1Commission': 0.0, 'level1Total': -146.92, 'level1WinOrLose': -146.92, 'level2Commission': 0.0, 'level2Total': -146.92, 'level2WinOrLose': -146.92, 'level3Commission': 0.0, 'level3Total': -146.92, 'level3WinOrLose': -146.92, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 734.62, 'memberWinOrLose': 734.62, 'name': '杜鑫test账号bp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 60.0, 'totalCommission': 0.0, 'totalEfficientAmount': 60.0}, {'account': 'd0d1d2d31q/fceshi042', 'accountId': '1531519368656363522', 'companyTotal': 7.1, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 7.1, 'level0WinOrLose': 7.1, 'level1Commission': 0.0, 'level1Total': 7.1, 'level1WinOrLose': 7.1, 'level2Commission': 0.0, 'level2Total': 7.1, 'level2WinOrLose': 7.1, 'level3Commission': 0.0, 'level3Total': 7.1, 'level3WinOrLose': 7.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -35.5, 'memberWinOrLose': -35.5, 'name': '杜鑫test账号bq', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 70.0, 'totalCommission': 0.0, 'totalEfficientAmount': 44.5}, {'account': 'd0d1d2d3gq/fceshi0424', 'accountId': '1531521359801524225', 'companyTotal': -2.77, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.76, 'level0WinOrLose': -2.76, 'level1Commission': 0.0, 'level1Total': -2.76, 'level1WinOrLose': -2.76, 'level2Commission': 0.0, 'level2Total': -2.76, 'level2WinOrLose': -2.76, 'level3Commission': 0.01, 'level3Total': -2.75, 'level3WinOrLose': -2.76, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 13.8, 'memberWinOrLose': 13.8, 'name': '杜鑫test账号gq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3gv/fceshi0429', 'accountId': '1531521380181647362', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号gv', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31r/fceshi043', 'accountId': '1531519378554920961', 'companyTotal': 1.92, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 1.93, 'level0WinOrLose': 1.93, 'level1Commission': 0.0, 'level1Total': 1.93, 'level1WinOrLose': 1.93, 'level2Commission': 0.0, 'level2Total': 1.93, 'level2WinOrLose': 1.93, 'level3Commission': 0.0, 'level3Total': 1.93, 'level3WinOrLose': 1.93, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -9.64, 'memberWinOrLose': -9.64, 'name': '杜鑫test账号br', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 120.0, 'totalCommission': 0.0, 'totalEfficientAmount': 50.36}, {'account': 'd0d1d2d32a/fceshi044', 'accountId': '1531519635850305537', 'companyTotal': -550.86, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -550.88, 'level0WinOrLose': -550.88, 'level1Commission': 0.0, 'level1Total': -550.88, 'level1WinOrLose': -550.88, 'level2Commission': 0.0, 'level2Total': -550.88, 'level2WinOrLose': -550.88, 'level3Commission': 0.0, 'level3Total': -550.88, 'level3WinOrLose': -550.88, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 2754.38, 'memberWinOrLose': 2754.38, 'name': '杜鑫test账号ca', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 1140.0, 'totalCommission': 0.0, 'totalEfficientAmount': 1053.74}, {'account': 'd0d1d2d3ig/fceshi0466', 'accountId': '1531521538898305025', 'companyTotal': -1.65, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.64, 'level0WinOrLose': -1.64, 'level1Commission': 0.0, 'level1Total': -1.64, 'level1WinOrLose': -1.64, 'level2Commission': 0.0, 'level2Total': -1.64, 'level2WinOrLose': -1.64, 'level3Commission': 0.01, 'level3Total': -1.63, 'level3WinOrLose': -1.64, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 8.2, 'memberWinOrLose': 8.2, 'name': '杜鑫test账号ig', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 8.2}, {'account': 'd0d1d2d32d/fceshi047', 'accountId': '1531519648210919426', 'companyTotal': 15.25, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 15.23, 'level0WinOrLose': 15.23, 'level1Commission': 0.0, 'level1Total': 15.23, 'level1WinOrLose': 15.23, 'level2Commission': 0.0, 'level2Total': 15.23, 'level2WinOrLose': 15.23, 'level3Commission': 0.0, 'level3Total': 15.23, 'level3WinOrLose': 15.23, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -76.17, 'memberWinOrLose': -76.17, 'name': '杜鑫test账号cd', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 76.17}, {'account': 'd0d1d2d32e/fceshi048', 'accountId': '1531519652338114562', 'companyTotal': 12.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 12.0, 'level0WinOrLose': 12.0, 'level1Commission': 0.0, 'level1Total': 12.0, 'level1WinOrLose': 12.0, 'level2Commission': 0.0, 'level2Total': 12.0, 'level2WinOrLose': 12.0, 'level3Commission': 0.0, 'level3Total': 12.0, 'level3WinOrLose': 12.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -60.0, 'memberWinOrLose': -60.0, 'name': '杜鑫test账号ce', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 60.0, 'totalCommission': 0.0, 'totalEfficientAmount': 60.0}, {'account': 'd0d1d2d32g/fceshi050', 'accountId': '1531519660558950401', 'companyTotal': 15.74, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 15.74, 'level0WinOrLose': 15.74, 'level1Commission': 0.0, 'level1Total': 15.74, 'level1WinOrLose': 15.74, 'level2Commission': 0.0, 'level2Total': 15.74, 'level2WinOrLose': 15.74, 'level3Commission': 0.0, 'level3Total': 15.74, 'level3WinOrLose': 15.74, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -78.7, 'memberWinOrLose': -78.7, 'name': '杜鑫test账号cg', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 100.0, 'totalCommission': 0.0, 'totalEfficientAmount': 78.7}, {'account': 'd0d1d2d32i/fceshi052', 'accountId': '1531519668859478017', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ci', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3kp/fceshi0527', 'accountId': '1531521794973147137', 'companyTotal': -4.6, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.6, 'level0WinOrLose': -4.6, 'level1Commission': 0.0, 'level1Total': -4.6, 'level1WinOrLose': -4.6, 'level2Commission': 0.0, 'level2Total': -4.6, 'level2WinOrLose': -4.6, 'level3Commission': 0.0, 'level3Total': -4.6, 'level3WinOrLose': -4.6, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 23.0, 'memberWinOrLose': 23.0, 'name': '杜鑫test账号kp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32k/fceshi054', 'accountId': '1531519677063536642', 'companyTotal': 8.86, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 8.86, 'level0WinOrLose': 8.86, 'level1Commission': 0.0, 'level1Total': 8.86, 'level1WinOrLose': 8.86, 'level2Commission': 0.0, 'level2Total': 8.86, 'level2WinOrLose': 8.86, 'level3Commission': 0.0, 'level3Total': 8.86, 'level3WinOrLose': 8.86, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -44.3, 'memberWinOrLose': -44.3, 'name': '杜鑫test账号ck', 'numberOfBets': 3, 'parentId': '1531517760300163074', 'totalBet': 60.0, 'totalCommission': 0.0, 'totalEfficientAmount': 44.3}, {'account': 'd0d1d2d32l/fceshi055', 'accountId': '1531519681106845698', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32m/fceshi056', 'accountId': '1531519685234040833', 'companyTotal': 34.7, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 34.7, 'level0WinOrLose': 34.7, 'level1Commission': 0.0, 'level1Total': 34.7, 'level1WinOrLose': 34.7, 'level2Commission': 0.0, 'level2Total': 34.7, 'level2WinOrLose': 34.7, 'level3Commission': 0.0, 'level3Total': 34.7, 'level3WinOrLose': 34.7, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -173.5, 'memberWinOrLose': -173.5, 'name': '杜鑫test账号cm', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 200.0, 'totalCommission': 0.0, 'totalEfficientAmount': 173.5}, {'account': 'd0d1d2d32p/fceshi059', 'accountId': '1531519697598849026', 'companyTotal': -136.61, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -136.57, 'level0WinOrLose': -136.57, 'level1Commission': 0.0, 'level1Total': -136.57, 'level1WinOrLose': -136.57, 'level2Commission': 0.0, 'level2Total': -136.57, 'level2WinOrLose': -136.57, 'level3Commission': 0.0, 'level3Total': -136.57, 'level3WinOrLose': -136.57, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 682.89, 'memberWinOrLose': 682.89, 'name': '杜鑫test账号cp', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 160.0, 'totalCommission': 0.0, 'totalEfficientAmount': 160.0}, {'account': 'd0d1d2d30g/fceshi06', 'accountId': '1531519218764521474', 'companyTotal': 6.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 6.0, 'level0WinOrLose': 6.0, 'level1Commission': 0.0, 'level1Total': 6.0, 'level1WinOrLose': 6.0, 'level2Commission': 0.0, 'level2Total': 6.0, 'level2WinOrLose': 6.0, 'level3Commission': 0.0, 'level3Total': 6.0, 'level3WinOrLose': 6.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -30.0, 'memberWinOrLose': -30.0, 'name': '杜鑫test账号ag', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 30.0}, {'account': 'd0d1d2d32t/fceshi063', 'accountId': '1531519714225070082', 'companyTotal': 17.88, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 17.88, 'level0WinOrLose': 17.88, 'level1Commission': 0.0, 'level1Total': 17.88, 'level1WinOrLose': 17.88, 'level2Commission': 0.0, 'level2Total': 17.88, 'level2WinOrLose': 17.88, 'level3Commission': 0.0, 'level3Total': 17.88, 'level3WinOrLose': 17.88, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -89.4, 'memberWinOrLose': -89.4, 'name': '杜鑫test账号ct', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 89.4}, {'account': 'd0d1d2d3pd/fceshi0645', 'accountId': '1531522293508120578', 'companyTotal': 0.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 0.0, 'level0WinOrLose': 0.0, 'level1Commission': 0.0, 'level1Total': 0.0, 'level1WinOrLose': 0.0, 'level2Commission': 0.0, 'level2Total': 0.0, 'level2WinOrLose': 0.0, 'level3Commission': 0.0, 'level3Total': 0.0, 'level3WinOrLose': 0.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 0.0, 'memberWinOrLose': 0.0, 'name': '杜鑫test账号pd', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 0.0}, {'account': 'd0d1d2d32v/fceshi065', 'accountId': '1531519722500431873', 'companyTotal': 20.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 20.0, 'level0WinOrLose': 20.0, 'level1Commission': 0.0, 'level1Total': 20.0, 'level1WinOrLose': 20.0, 'level2Commission': 0.0, 'level2Total': 20.0, 'level2WinOrLose': 20.0, 'level3Commission': 0.0, 'level3Total': 20.0, 'level3WinOrLose': 20.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -100.0, 'memberWinOrLose': -100.0, 'name': '杜鑫test账号cv', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 100.0}, {'account': 'd0d1d2d3px/fceshi0665', 'accountId': '1531522376018468866', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号px', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32x/fceshi067', 'accountId': '1531519730788376577', 'companyTotal': 31.16, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 31.16, 'level0WinOrLose': 31.16, 'level1Commission': 0.0, 'level1Total': 31.16, 'level1WinOrLose': 31.16, 'level2Commission': 0.0, 'level2Total': 31.16, 'level2WinOrLose': 31.16, 'level3Commission': 0.0, 'level3Total': 31.16, 'level3WinOrLose': 31.16, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -155.8, 'memberWinOrLose': -155.8, 'name': '杜鑫test账号cx', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 320.0, 'totalCommission': 0.0, 'totalEfficientAmount': 203.2}, {'account': 'd0d1d2d32z/fceshi069', 'accountId': '1531519738950492161', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cz', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d33a/fceshi070', 'accountId': '1531519743081881601', 'companyTotal': -2.26, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.26, 'level0WinOrLose': -2.26, 'level1Commission': 0.0, 'level1Total': -2.26, 'level1WinOrLose': -2.26, 'level2Commission': 0.0, 'level2Total': -2.26, 'level2WinOrLose': -2.26, 'level3Commission': 0.0, 'level3Total': -2.26, 'level3WinOrLose': -2.26, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 11.3, 'memberWinOrLose': 11.3, 'name': '杜鑫test账号da', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d33b/fceshi071', 'accountId': '1531519747196493826', 'companyTotal': 0.31, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 0.27, 'level0WinOrLose': 0.27, 'level1Commission': 0.0, 'level1Total': 0.27, 'level1WinOrLose': 0.27, 'level2Commission': 0.0, 'level2Total': 0.27, 'level2WinOrLose': 0.27, 'level3Commission': 0.0, 'level3Total': 0.27, 'level3WinOrLose': 0.27, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -1.39, 'memberWinOrLose': -1.39, 'name': '杜鑫test账号db', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 100.0, 'totalCommission': 0.0, 'totalEfficientAmount': 1.39}, {'account': 'd0d1d2d3tt/fceshi0765', 'accountId': '1531522809348792321', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号tt', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30i/fceshi08', 'accountId': '1531519226964385794', 'companyTotal': 14.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 14.0, 'level0WinOrLose': 14.0, 'level1Commission': 0.0, 'level1Total': 14.0, 'level1WinOrLose': 14.0, 'level2Commission': 0.0, 'level2Total': 14.0, 'level2WinOrLose': 14.0, 'level3Commission': 0.0, 'level3Total': 14.0, 'level3WinOrLose': 14.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -70.0, 'memberWinOrLose': -70.0, 'name': '杜鑫test账号ai', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 70.0}]]</t>
-  </si>
-  <si>
-    <t>['d0d1d2d30b/fceshi01-1531517760300163074/companyTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.11/-44.11', 'd0d1d2d30b/fceshi01-1531517760300163074/level0Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.1/-44.1', 'd0d1d2d30b/fceshi01-1531517760300163074/level0WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.0/-44.0', 'd0d1d2d30b/fceshi01-1531517760300163074/level1Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.1/-44.1', 'd0d1d2d30b/fceshi01-1531517760300163074/level1WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.0/-44.0', 'd0d1d2d30b/fceshi01-1531517760300163074/level2Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.09/-44.09', 'd0d1d2d30b/fceshi01-1531517760300163074/level2WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.0/-44.0', 'd0d1d2d30b/fceshi01-1531517760300163074/level3Total的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-47.86/-43.86', 'd0d1d2d30b/fceshi01-1531517760300163074/level3WinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-48.0/-44.0', 'd0d1d2d30b/fceshi01-1531517760300163074/memberTotal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：240.26/220.26', 'd0d1d2d30b/fceshi01-1531517760300163074/memberWinOrLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：240.0/220.0', 'd0d1d2d30b/fceshi01-1531517760300163074/numberOfBets的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1/3', 'd0d1d2d30b/fceshi01-1531517760300163074/totalBet的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1000.0/1020.0', 'd0d1d2d30b/fceshi01-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.11/0.26', 'd0d1d2d30b/fceshi01-1531517760300163074/totalEfficientAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：240.0/260.0']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的盈亏详情-登0-登3-会员-子查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,2,1\x1b[0m']</t>
+    <t>测试通过
+2022-06-29 14:54:50</t>
   </si>
   <si>
     <t>盈亏详情-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
@@ -251,13 +254,7 @@
   </si>
   <si>
     <t>测试通过
-2022-06-28 14:57:05</t>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的盈亏详情-登0-登3-会员-查看订单详情-子查询  "/agentBackground/profitAndLoss/queryProxyProfitAndLossList","/agentBackground/profitAndLoss/queryMemberProfitAndLossOrderList"，接口数据比对全部正确\x1b[0m']</t>
-  </si>
-  <si>
-    <t>接口返回不需要的字段处理传参</t>
+2022-06-29 15:01:12</t>
   </si>
   <si>
     <t>球类报表-全部球类查询数据对比</t>
@@ -287,8 +284,7 @@
     <t>sportName</t>
   </si>
   <si>
-    <t>测试通过
-2022-06-28 14:57:06</t>
+    <t>['\x1b[32m代理d0的报表-球类报表-主查询  /winOrLost/sport，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>球类报表-单独球类数据对比</t>
@@ -313,9 +309,6 @@
 {"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end}]</t>
   </si>
   <si>
-    <t>sportId</t>
-  </si>
-  <si>
     <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
 @f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额', '公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (f.mark_id),any_value (d.market_name),SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),any_value (f.mark_name),CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.sport_id='{all}' GROUP BY f.mark_id"
 @f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢','串关','串关',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),'串关',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type !=1 AND c.sport_id='{all}' GROUP BY c.sport_id"</t>
@@ -324,8 +317,7 @@
     <t>sportName,sportMarketName</t>
   </si>
   <si>
-    <t>测试通过
-2022-06-28 14:57:13</t>
+    <t>['\x1b[32m代理d0的报表-球类报表-子查询（根据其球类查询盘口）  ["/winOrLost/sport","/winOrLost/market"]，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>联赛报表-全部联赛查询数据对比</t>
@@ -351,8 +343,7 @@
     <t>tournamentId</t>
   </si>
   <si>
-    <t>测试通过
-2022-06-28 14:57:19</t>
+    <t>['\x1b[32m代理d0的报表-联赛报表-主查询  /winOrLost/tournament，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>赛事盈亏-全部赛事查询数据对比</t>
@@ -378,8 +369,7 @@
     <t>tournamentId,matchId</t>
   </si>
   <si>
-    <t>测试通过
-2022-06-28 14:57:25</t>
+    <t>['\x1b[32m代理d0的报表-赛事盈亏-主查询  /winOrLost/match，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>赛事盈亏-单独赛事盘口数据对比</t>
@@ -405,8 +395,7 @@
     <t>sportName,marketName</t>
   </si>
   <si>
-    <t>测试通过
-2022-06-28 14:57:34</t>
+    <t>['\x1b[32m代理d0的报表-赛事盈亏-子查询（根据其赛事查询其盘口）  ["/winOrLost/match","/winOrLost/market"]，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>混合串关-全部串关查询数据对比</t>
@@ -430,16 +419,12 @@
     <t>userName,loginAccount</t>
   </si>
   <si>
-    <t>测试通过
-2022-06-28 14:57:54</t>
+    <t>['\x1b[32m代理d0的报表-混合串关-主查询  /winOrLost/multiterm，接口数据比对全部正确\x1b[0m']</t>
   </si>
   <si>
     <t>备注1</t>
   </si>
   <si>
-    <t>备注2</t>
-  </si>
-  <si>
     <t>混合串关-全部账号查询数据对比</t>
   </si>
   <si>
@@ -456,16 +441,16 @@
   </si>
   <si>
     <t>测试不通过
-2022-06-28 14:58:16</t>
+2022-06-29 13:46:29</t>
   </si>
   <si>
     <t>[[{'account': 'd0d1d2d31b', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:25', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi027', 'mix': '6串1', 'mixType': '串关', 'name': '杜鑫test账号bb', 'oddType': '欧赔', 'odds': 160.97, 'orderNo': 'XHwyNSceRwK2', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30z', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:29', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi025', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号az', 'oddType': '欧赔', 'odds': 2190.46, 'orderNo': 'XHwyQ3rDrA6S', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31i', 'betAmount': 200.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:33', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi034', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号bi', 'oddType': '欧赔', 'odds': 100.83, 'orderNo': 'XHwyRqGF99ab', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32o', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:37', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi058', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号co', 'oddType': '欧赔', 'odds': 409.03, 'orderNo': 'XHwySEiELFJY', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32b', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:41', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi045', 'mix': '5串1', 'mixType': '复式串关', 'name': '杜鑫test账号cb', 'oddType': '欧赔', 'odds': 84.37, 'orderNo': 'XHwyTPAAShR8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30w', 'betAmount': 570.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:45', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi022', 'mix': '6串57', 'mixType': '复式串关', 'name': '杜鑫test账号aw', 'oddType': '欧赔', 'odds': 27350.98, 'orderNo': 'XHwyUYuABcWv', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32u', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi064', 'mix': '7串1', 'mixType': '串关', 'name': '杜鑫test账号cu', 'oddType': '欧赔', 'odds': 1050.75, 'orderNo': 'XHwyWaC2x3bB', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31i', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:56', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi034', 'mix': '9串1', 'mixType': '串关', 'name': '杜鑫test账号bi', 'oddType': '欧赔', 'odds': 22972.16, 'orderNo': 'XHwyYCeJNuDx', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32u', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:01:32', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi064', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号cu', 'oddType': '港赔', 'odds': 8.11, 'orderNo': 'XHwzccz6vhfD', 'orderStatus': '未结算', 'sportName': '篮球'}, {'account': 'd0d1d2d32t', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:33', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi063', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号ct', 'oddType': '欧赔', 'odds': 5.72, 'orderNo': 'XHwAyNsmxcGZ', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30w', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:38', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi022', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号aw', 'oddType': '欧赔', 'odds': 66.09, 'orderNo': 'XHwAAwyz67du', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30y', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:42', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi024', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ay', 'oddType': '欧赔', 'odds': 865.41, 'orderNo': 'XHwABRVbDQjf', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32d', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi047', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号cd', 'oddType': '欧赔', 'odds': 10.07, 'orderNo': 'XHwADC9QdsJg', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32j', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:51', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi053', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号cj', 'oddType': '欧赔', 'odds': 38.79, 'orderNo': 'XHwAEL8PKvQT', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31l', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:56', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi037', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bl', 'oddType': '欧赔', 'odds': 210.5, 'orderNo': 'XHwAGh2wtnNv', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31f', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:00', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi031', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号bf', 'oddType': '欧赔', 'odds': 14.55, 'orderNo': 'XHwAHxWxiyA8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30d', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:04', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi03', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号ad', 'oddType': '欧赔', 'odds': 224.84, 'orderNo': 'XHwAJFRitPU9', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30y', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:07', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi024', 'mix': '5串1', 'mixType': '串关', 'name': '杜鑫test账号ay', 'oddType': '欧赔', 'odds': 60.45, 'orderNo': 'XHwAKUSppxEs', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31i', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:11', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi034', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bi', 'oddType': '欧赔', 'odds': 33.44, 'orderNo': 'XHwAM46dA3Ep', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32r', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:15', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi061', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号cr', 'oddType': '欧赔', 'odds': 88.93, 'orderNo': 'XHwANk6HLGcS', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30q', 'betAmount': 50.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:19', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi016', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号aq', 'oddType': '欧赔', 'odds': 6637.46, 'orderNo': 'XHwAPu97BGnn', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32y', 'betAmount': 260.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:22', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi068', 'mix': '5串26', 'mixType': '复式串关', 'name': '杜鑫test账号cy', 'oddType': '欧赔', 'odds': 18760.21, 'orderNo': 'XHwAQCrYtzZP', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32w', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:02', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi066', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号cw', 'oddType': '欧赔', 'odds': 22.54, 'orderNo': 'XHwD8cmU7M6b', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32a', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:06', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi044', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号ca', 'oddType': '欧赔', 'odds': 13.43, 'orderNo': 'XHwD9kXZktsi', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31a', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:09', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi026', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ba', 'oddType': '欧赔', 'odds': 655.21, 'orderNo': 'XHwDauHjq6k8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d33a', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:13', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi070', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号da', 'oddType': '欧赔', 'odds': 31.96, 'orderNo': 'XHwDbBUAm5g5', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31e', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:17', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi030', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号be', 'oddType': '欧赔', 'odds': 1707.66, 'orderNo': 'XHwDcKui9mdV', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31q', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:20', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi042', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bq', 'oddType': '欧赔', 'odds': 22.83, 'orderNo': 'XHwDdSUnjHWZ', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32o', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:24', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi058', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号co', 'oddType': '欧赔', 'odds': 220.98, 'orderNo': 'XHwDf4uUUKkS', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32z', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:28', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi069', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号cz', 'oddType': '欧赔', 'odds': 66.69, 'orderNo': 'XHwDgstkKsdV', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32y', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:12', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi068', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号cy', 'oddType': '欧赔', 'odds': 15.62, 'orderNo': 'XHwDwj7wEcpp', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30h', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:16', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi07', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号ah', 'oddType': '欧赔', 'odds': 96.19, 'orderNo': 'XHwDxNJWmMuj', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32e', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:20', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi048', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ce', 'oddType': '欧赔', 'odds': 8.08, 'orderNo': 'XHwDyWhjVVS8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31g', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:24', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi032', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号bg', 'oddType': '欧赔', 'odds': 29.51, 'orderNo': 'XHwDA8sVdqZB', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32z', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:28', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi069', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号cz', 'oddType': '欧赔', 'odds': 15.13, 'orderNo': 'XHwDBnEdvMCE', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31d', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:31', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi029', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bd', 'oddType': '欧赔', 'odds': 1795.9, 'orderNo': 'XHwDCvEC26by', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32w', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:35', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi066', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号cw', 'oddType': '欧赔', 'odds': 57.4, 'orderNo': 'XHwDDCZxhZNL', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32p', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:39', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi059', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号cp', 'oddType': '欧赔', 'odds': 11151.03, 'orderNo': 'XHwDEVL4V6Nk', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31j', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:43', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi035', 'mix': '5串1', 'mixType': '串关', 'name': '杜鑫test账号bj', 'oddType': '欧赔', 'odds': 1500.34, 'orderNo': 'XHwDGhje6efE', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31d', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:47', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi029', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bd', 'oddType': '欧赔', 'odds': 164.49, 'orderNo': 'XHwDHCQRJmKz', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30g', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:53', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi06', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号ag', 'oddType': '欧赔', 'odds': 444.52, 'orderNo': 'XHwDKrbDDx6u', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30j', 'betAmount': 50.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:59', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi09', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号aj', 'oddType': '欧赔', 'odds': 394.05, 'orderNo': 'XHwDMkrmPJKV', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31p', 'betAmount': 260.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:02', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi041', 'mix': '5串26', 'mixType': '复式串关', 'name': '杜鑫test账号bp', 'oddType': '欧赔', 'odds': 11677.87, 'orderNo': 'XHwDNuunycJE', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32n', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:06', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi057', 'mix': '6串1', 'mixType': '串关', 'name': '杜鑫test账号cn', 'oddType': '欧赔', 'odds': 285.31, 'orderNo': 'XHwDPCwPRKf3', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30c', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:10', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi02', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ac', 'oddType': '欧赔', 'odds': 234.37, 'orderNo': 'XHwDQTqFNQT7', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30p', 'betAmount': 200.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:13', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi015', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号ap', 'oddType': '欧赔', 'odds': 290.59, 'orderNo': 'XHwDS3waAStC', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31c', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:17', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi028', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号bc', 'oddType': '欧赔', 'odds': 535.29, 'orderNo': 'XHwDTbqX9R2E', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32z', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:21', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi069', 'mix': '5串1', 'mixType': '复式串关', 'name': '杜鑫test账号cz', 'oddType': '欧赔', 'odds': 400.23, 'orderNo': 'XHwDUjNPyE2e', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31m', 'betAmount': 570.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:25', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi038', 'mix': '6串57', 'mixType': '复式串关', 'name': '杜鑫test账号bm', 'oddType': '欧赔', 'odds': 398.89, 'orderNo': 'XHwDVJrkf2Ae', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30k', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:29', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi010', 'mix': '7串1', 'mixType': '串关', 'name': '杜鑫test账号ak', 'oddType': '欧赔', 'odds': 4275.55, 'orderNo': 'XHwDWTNm2xZJ', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30b', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:45', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi01', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号ab', 'oddType': '港赔', 'odds': 9.67, 'orderNo': 'XHwPgDthFZgy', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32r', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi061', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号cr', 'oddType': '港赔', 'odds': 28.75, 'orderNo': 'XHwPhM9c2UYt', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d33b', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:52', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi071', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号db', 'oddType': '港赔', 'odds': 24.22, 'orderNo': 'XHwPiVhGS2tw', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30m', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:58', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi012', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号am', 'oddType': '港赔', 'odds': 51.39, 'orderNo': 'XHwPkMPNQmdb', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30t', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:02', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi019', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号at', 'oddType': '港赔', 'odds': 67.04, 'orderNo': 'XHwPmXb5uhdM', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32h', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:05', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi051', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ch', 'oddType': '港赔', 'odds': 63.83, 'orderNo': 'XHwPp7Cdw3cU', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30q', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:09', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi016', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号aq', 'oddType': '港赔', 'odds': 86.46, 'orderNo': 'XHwPqfvctxFR', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32w', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:13', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi066', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号cw', 'oddType': '港赔', 'odds': 164.93, 'orderNo': 'XHwPrsp223qL', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30x', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:19', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi023', 'mix': '5串1', 'mixType': '串关', 'name': '杜鑫test账号ax', 'oddType': '港赔', 'odds': 268.49, 'orderNo': 'XHwPttJm3L5Y', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30x', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:22', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi023', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ax', 'oddType': '港赔', 'odds': 106.86, 'orderNo': 'XHwPuBqMakDY', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30m', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:26', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi012', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号am', 'oddType': '港赔', 'odds': 257.06, 'orderNo': 'XHwPvMmteY95', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32s', 'betAmount': 50.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:30', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi062', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号cs', 'oddType': '港赔', 'odds': 407.5, 'orderNo': 'XHwPwYsD8Rhe', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31o', 'betAmount': 260.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:34', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi040', 'mix': '5串26', 'mixType': '复式串关', 'name': '杜鑫test账号bo', 'oddType': '港赔', 'odds': 928.41, 'orderNo': 'XHwPy9acVy2R', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31e', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:37', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi030', 'mix': '6串1', 'mixType': '串关', 'name': '杜鑫test账号be', 'oddType': '港赔', 'odds': 532.4, 'orderNo': 'XHwPzhHHjZM7', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30j', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:41', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi09', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号aj', 'oddType': '港赔', 'odds': 156.41, 'orderNo': 'XHwPAxhj928p', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32f', 'betAmount': 200.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:45', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi049', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号cf', 'oddType': '港赔', 'odds': 473.61, 'orderNo': 'XHwPBGBfb8sf', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32d', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi047', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号cd', 'oddType': '港赔', 'odds': 1498.37, 'orderNo': 'XHwPCSGq3Vwt', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31e', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:01', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi030', 'mix': '5串1', 'mixType': '复式串关', 'name': '杜鑫test账号be', 'oddType': '港赔', 'odds': 1277.45, 'orderNo': 'XHwPH4nC9sYz', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31r', 'betAmount': 570.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:07', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi043', 'mix': '6串57', 'mixType': '复式串关', 'name': '杜鑫test账号br', 'oddType': '港赔', 'odds': 5874.15, 'orderNo': 'XHwPJRgjRjYK', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32c', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:11', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi046', 'mix': '7串1', 'mixType': '串关', 'name': '杜鑫test账号cc', 'oddType': '港赔', 'odds': 3177.18, 'orderNo': 'XHwPLazSv2uk', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32i', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:15', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi052', 'mix': '8串1', 'mixType': '串关', 'name': '杜鑫test账号ci', 'oddType': '港赔', 'odds': 5296.14, 'orderNo': 'XHwPMkawJQm4', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30c', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:19', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'l</t>
   </si>
   <si>
-    <t>['d0d1d2d31b-XHwyNSceRwK2/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30z-XHwyQ3rDrA6S/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31i-XHwyRqGF99ab/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32o-XHwySEiELFJY/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32b-XHwyTPAAShR8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30w-XHwyUYuABcWv/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32u-XHwyWaC2x3bB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31i-XHwyYCeJNuDx/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32u-XHwzccz6vhfD/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32u-XHwzccz6vhfD/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：8.11/3.41', 'd0d1d2d32t-XHwAyNsmxcGZ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30w-XHwAAwyz67du/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30y-XHwABRVbDQjf/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32d-XHwADC9QdsJg/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32j-XHwAEL8PKvQT/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31l-XHwAGh2wtnNv/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31f-XHwAHxWxiyA8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30d-XHwAJFRitPU9/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30y-XHwAKUSppxEs/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31i-XHwAM46dA3Ep/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32r-XHwANk6HLGcS/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30q-XHwAPu97BGnn/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32y-XHwAQCrYtzZP/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32w-XHwD8cmU7M6b/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32a-XHwD9kXZktsi/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31a-XHwDauHjq6k8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d33a-XHwDbBUAm5g5/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31e-XHwDcKui9mdV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31q-XHwDdSUnjHWZ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32o-XHwDf4uUUKkS/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32z-XHwDgstkKsdV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32y-XHwDwj7wEcpp/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30h-XHwDxNJWmMuj/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32e-XHwDyWhjVVS8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31g-XHwDA8sVdqZB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32z-XHwDBnEdvMCE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31d-XHwDCvEC26by/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32w-XHwDDCZxhZNL/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32p-XHwDEVL4V6Nk/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31j-XHwDGhje6efE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31d-XHwDHCQRJmKz/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30g-XHwDKrbDDx6u/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30j-XHwDMkrmPJKV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31p-XHwDNuunycJE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32n-XHwDPCwPRKf3/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30c-XHwDQTqFNQT7/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30p-XHwDS3waAStC/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31c-XHwDTbqX9R2E/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d32z-XHwDUjNPyE2e/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d31m-XHwDVJrkf2Ae/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30k-XHwDWTNm2xZJ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港盘', 'd0d1d2d30b-XHwPgDthFZgy/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30b-XHwPgDthFZgy/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.67/4.45', 'd0d1d2d32r-XHwPhM9c2UYt/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32r-XHwPhM9c2UYt/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：28.75/8.7', 'd0d1d2d33b-XHwPiVhGS2tw/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d33b-XHwPiVhGS2tw/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：24.22/10.04', 'd0d1d2d30m-XHwPkMPNQmdb/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30m-XHwPkMPNQmdb/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.39/18.46', 'd0d1d2d30t-XHwPmXb5uhdM/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30t-XHwPmXb5uhdM/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：67.04/11.85', 'd0d1d2d32h-XHwPp7Cdw3cU/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32h-XHwPp7Cdw3cU/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：63.83/30.65', 'd0d1d2d30q-XHwPqfvctxFR/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30q-XHwPqfvctxFR/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：86.46/22.68', 'd0d1d2d32w-XHwPrsp223qL/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32w-XHwPrsp223qL/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：164.93/41.15', 'd0d1d2d30x-XHwPttJm3L5Y/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30x-XHwPttJm3L5Y/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：268.49/36.5', 'd0d1d2d30x-XHwPuBqMakDY/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30x-XHwPuBqMakDY/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：106.86/51.46', 'd0d1d2d30m-XHwPvMmteY95/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30m-XHwPvMmteY95/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：257.06/73.56', 'd0d1d2d32s-XHwPwYsD8Rhe/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32s-XHwPwYsD8Rhe/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：407.5/77.73', 'd0d1d2d31o-XHwPy9acVy2R/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d31o-XHwPy9acVy2R/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：928.41/204.56', 'd0d1d2d31e-XHwPzhHHjZM7/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d31e-XHwPzhHHjZM7/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：532.4/38.31', 'd0d1d2d30j-XHwPAxhj928p/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30j-XHwPAxhj928p/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：156.41/74.51', 'd0d1d2d32f-XHwPBGBfb8sf/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32f-XHwPBGBfb8sf/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：473.61/130.55', 'd0d1d2d32d-XHwPCSGq3Vwt/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32d-XHwPCSGq3Vwt/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1498.37/316.61', 'd0d1d2d31e-XHwPH4nC9sYz/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d31e-XHwPH4nC9sYz/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1277.45/155.54', 'd0d1d2d31r-XHwPJRgjRjYK/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d31r-XHwPJRgjRjYK/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：5874.15/1147.43', 'd0d1d2d32c-XHwPLazSv2uk/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32c-XHwPLazSv2uk/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3177.18/214.18', 'd0d1d2d32i-XHwPMkawJQm4/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d32i-XHwPMkawJQm4/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：5296.14/178.66', 'd0d1d2d30c-XHwPNuS9cRJz/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30c-XHwPNuS9cRJz/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：21781.26/564.84', 'd0d1d2d30d-XHwPPCTHvKfX/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d30d-XHwPPCTHvKfX/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：35313.7/443.1', 'd0d1d2d31m-XHwPTavzurPB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：港赔/港盘', 'd0d1d2d31m-XHwPTavzurPB/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：7.92/3.29']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的总投注-混合串关-主查询  /betManagement/agent/mixBetOrder，数据错误，需要比对,74,0\x1b[0m']</t>
+    <t>['d0d1d2d31b-XHwyNSceRwK2/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30z-XHwyQ3rDrA6S/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31i-XHwyRqGF99ab/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32o-XHwySEiELFJY/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32b-XHwyTPAAShR8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30w-XHwyUYuABcWv/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32u-XHwyWaC2x3bB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31i-XHwyYCeJNuDx/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32u-XHwzccz6vhfD/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：8.11/3.41', 'd0d1d2d32t-XHwAyNsmxcGZ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30w-XHwAAwyz67du/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30y-XHwABRVbDQjf/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32d-XHwADC9QdsJg/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32j-XHwAEL8PKvQT/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31l-XHwAGh2wtnNv/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31f-XHwAHxWxiyA8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30d-XHwAJFRitPU9/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30y-XHwAKUSppxEs/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31i-XHwAM46dA3Ep/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32r-XHwANk6HLGcS/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30q-XHwAPu97BGnn/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32y-XHwAQCrYtzZP/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32w-XHwD8cmU7M6b/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32a-XHwD9kXZktsi/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31a-XHwDauHjq6k8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d33a-XHwDbBUAm5g5/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31e-XHwDcKui9mdV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31q-XHwDdSUnjHWZ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32o-XHwDf4uUUKkS/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32z-XHwDgstkKsdV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32y-XHwDwj7wEcpp/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30h-XHwDxNJWmMuj/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32e-XHwDyWhjVVS8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31g-XHwDA8sVdqZB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32z-XHwDBnEdvMCE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31d-XHwDCvEC26by/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32w-XHwDDCZxhZNL/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32p-XHwDEVL4V6Nk/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31j-XHwDGhje6efE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31d-XHwDHCQRJmKz/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30g-XHwDKrbDDx6u/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30j-XHwDMkrmPJKV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31p-XHwDNuunycJE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32n-XHwDPCwPRKf3/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30c-XHwDQTqFNQT7/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30p-XHwDS3waAStC/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31c-XHwDTbqX9R2E/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32z-XHwDUjNPyE2e/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31m-XHwDVJrkf2Ae/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30k-XHwDWTNm2xZJ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30b-XHwPgDthFZgy/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.67/4.45', 'd0d1d2d32r-XHwPhM9c2UYt/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：28.75/8.7', 'd0d1d2d33b-XHwPiVhGS2tw/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：24.22/10.04', 'd0d1d2d30m-XHwPkMPNQmdb/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.39/18.46', 'd0d1d2d30t-XHwPmXb5uhdM/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：67.04/11.85', 'd0d1d2d32h-XHwPp7Cdw3cU/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：63.83/30.65', 'd0d1d2d30q-XHwPqfvctxFR/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：86.46/22.68', 'd0d1d2d32w-XHwPrsp223qL/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：164.93/41.15', 'd0d1d2d30x-XHwPttJm3L5Y/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：268.49/36.5', 'd0d1d2d30x-XHwPuBqMakDY/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：106.86/51.46', 'd0d1d2d30m-XHwPvMmteY95/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：257.06/73.56', 'd0d1d2d32s-XHwPwYsD8Rhe/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：407.5/77.73', 'd0d1d2d31o-XHwPy9acVy2R/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：928.41/204.56', 'd0d1d2d31e-XHwPzhHHjZM7/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：532.4/38.31', 'd0d1d2d30j-XHwPAxhj928p/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：156.41/74.51', 'd0d1d2d32f-XHwPBGBfb8sf/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：473.61/130.55', 'd0d1d2d32d-XHwPCSGq3Vwt/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1498.37/316.61', 'd0d1d2d31e-XHwPH4nC9sYz/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1277.45/155.54', 'd0d1d2d31r-XHwPJRgjRjYK/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：5874.15/1147.43', 'd0d1d2d32c-XHwPLazSv2uk/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3177.18/214.18', 'd0d1d2d32i-XHwPMkawJQm4/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：5296.14/178.66', 'd0d1d2d30c-XHwPNuS9cRJz/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：21781.26/564.84', 'd0d1d2d30d-XHwPPCTHvKfX/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：35313.7/443.1']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的总投注-混合串关-主查询  /betManagement/agent/mixBetOrder，数据错误，需要比对,73,0\x1b[0m']</t>
   </si>
   <si>
     <t>混合串关-注单号查询数据对比</t>
@@ -492,10 +477,7 @@
   </si>
   <si>
     <t>测试通过
-2022-06-28 14:58:46</t>
-  </si>
-  <si>
-    <t>['\x1b[32m代理d0的总投注-混合串关-子查询(查询其注单号，包含的比赛)  ["/betManagement/agent/mixBetOrder","/betManagement/agent/mixBetOrderInfo"]\n，接口数据比对全部正确\x1b[0m']</t>
+2022-06-29 13:47:29</t>
   </si>
   <si>
     <t>让球/大小/独赢/滚球全部球类查询数据对比</t>
@@ -1215,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,41 +1251,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1311,25 +1259,62 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1679,23 +1664,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J$1:K$1048576"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="2" max="2" width="45" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="23" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="30" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="22" customWidth="1"/>
     <col min="8" max="9" width="9" style="3" customWidth="1"/>
     <col min="10" max="10" width="35" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
@@ -1710,34 +1695,34 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1750,294 +1735,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="118" customHeight="1" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="13.5" customHeight="1" spans="1:11">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="23" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="G2" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="37" t="s">
         <v>22</v>
       </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" ht="100" customHeight="1" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="134" customHeight="1" spans="1:16">
-      <c r="A4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
-      <c r="A7" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1"/>
+    <row r="4" ht="13.5" customHeight="1"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="9" spans="7:7">
+      <c r="G9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,12 +1788,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J$1:K$1048576"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2070,7 +1809,7 @@
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="18" customWidth="1"/>
     <col min="11" max="11" width="26.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="27.25" style="17" customWidth="1"/>
     <col min="13" max="13" width="15.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" style="1" customWidth="1"/>
   </cols>
@@ -2086,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2122,284 +1861,581 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="108" customHeight="1" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" s="3" customFormat="1" ht="118" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="100" customHeight="1" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="134" customHeight="1" spans="1:16">
+      <c r="A4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
+      <c r="A7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7"/>
+    </row>
+    <row r="8" ht="108" customHeight="1" spans="1:15">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="K8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="9">
+      <c r="L8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" ht="135" customHeight="1" spans="1:15">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" ht="135" customHeight="1" spans="1:15">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="135" customHeight="1" spans="1:14">
-      <c r="A3" t="s">
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" ht="135" customHeight="1" spans="1:15">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" customHeight="1" spans="1:15">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" ht="135" customHeight="1" spans="1:14">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4">
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" ht="135" customHeight="1" spans="1:15">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="135" customHeight="1" spans="1:14">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" customHeight="1" spans="1:14">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="135" customHeight="1" spans="1:14">
-      <c r="A7" t="s">
+      <c r="F13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="K13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="L13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
         <v>114</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="8"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="8"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+      <c r="O13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="8"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" s="8"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="8"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,26 +2447,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
     <col min="11" max="12" width="14.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="31.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:16">
+    <row r="1" ht="27" customHeight="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2474,101 +2511,101 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" ht="143" customHeight="1" spans="1:15">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
         <v>124</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" ht="142" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
     <row r="7" ht="13.5" customHeight="1" spans="7:7">
       <c r="G7" s="9"/>
     </row>
+    <row r="8" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2598,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2633,13 +2670,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G2" s="12"/>
     </row>
@@ -2672,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2724,73 +2761,73 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="调式" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="143">
   <si>
     <t>功能名称</t>
   </si>
@@ -97,16 +97,27 @@
     <t>post</t>
   </si>
   <si>
-    <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
-@f"SELECT any_value (f.mark_id) FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.sport_id='{all}' GROUP BY f.mark_id"
-@f"SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND a.market_id='{all_order_no}' AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC"
-@f"SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.settlement_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND a.market_id='{all_order_no}' AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.settlement_time,c.efficient_amount,c.create_time ORDER BY c.create_time DESC"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.settlement_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.sport_id='{all}' AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.settlement_time,c.efficient_amount,c.create_time ORDER BY c.create_time DESC"
-@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no='{all_order_no}'"</t>
+    <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.create_time"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.create_time"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.order_no)"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.order_no) GROUP BY order_no,away_team_name,bet_score,home_team_name,market_name,match_time,is_live,credit_odds,odds_type,outcome_name,specifier,tournament_name"</t>
   </si>
   <si>
     <t>account,orderNo</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-06-30 18:41:39</t>
+  </si>
+  <si>
+    <t>[[{'account': 'd0d1d2d3pe/fceshi0646', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 09:02:58', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pe', 'odds': 2.75, 'oddsType': '1', 'options': [{'awayTeamName': '海德堡联', 'betScore': None, 'homeTeamName': '阿东那', 'marketName': '独赢', 'matchTime': '2022-06-25 04:00:00', 'matchType': '早盘', 'odds': 2.75, 'oddsType': '1', 'orderNo': 'XH4AeukHvicj', 'outcomeName': '阿东那', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}], 'orderNo': 'XH4AeukHvicj', 'settlementTime': '2022-06-25 05:58:10', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d38y/fceshi0224', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:57:04', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号iy', 'odds': 1.69, 'oddsType': '1', 'options': [{'awayTeamName': '芹苴', 'betScore': None, 'homeTeamName': 'QNK广南足球俱乐部', 'marketName': '独赢', 'matchTime': '2022-06-25 06:00:00', 'matchType': '早盘', 'odds': 1.69, 'oddsType': '1', 'orderNo': 'XH4ydmPbRncK', 'outcomeName': 'QNK广南足球俱乐部', 'specifier': '', 'tournamentName': '越南职业足球乙级联赛'}], 'orderNo': 'XH4ydmPbRncK', 'settlementTime': '2022-06-25 08:01:45', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3cm/fceshi0316', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:56:19', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': -2.64, 'level0WinOrLose': -2.64, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': -2.64, 'level1WinOrLose': -2.64, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': -2.64, 'level2WinOrLose': -2.64, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': -2.64, 'level3WinOrLose': -2.64, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': 13.2, 'memberWinOrLose': 13.2, 'name': '杜鑫test账号cm', 'odds': 2.32, 'oddsType': '1', 'options': [{'awayTeamName': 'KFUM奥斯陆', 'betScore': None, 'homeTeamName': '雷海姆', 'marketName': '独赢', 'matchTime': '2022-06-27 12:00:00', 'matchType': '早盘', 'odds': 2.32, 'oddsType': '1', 'orderNo': 'XH4xX3HLPS2f', 'outcomeName': '雷海姆', 'specifier': '', 'tournamentName': '挪威甲级联赛'}], 'orderNo': 'XH4xX3HLPS2f', 'settlementTime': '2022-06-27 13:54:12', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 13.2}, {'account': 'd0d1d2d3mm/fceshi0576', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:51:05', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号mm', 'odds': 1.61, 'oddsType': '1', 'options': [{'awayTeamName': '博塞科普', 'betScore': None, 'homeTeamName': '芬科斯', 'marketName': '独赢', 'matchTime': '2022-06-25 08:00:00', 'matchType': '早盘', 'odds': 1.61, 'oddsType': '1', 'orderNo': 'XH4wb2UBmYgA', 'outcomeName': '芬科斯', 'specifier': '', 'tournamentName': '挪威丙级联赛第6组'}], 'orderNo': 'XH4wb2UBmYgA', 'settlementTime': '2022-06-25 11:20:57', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d36h/fceshi0155', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:47:12', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号gh', 'odds': 4.55, 'oddsType': '1', 'options': [{'awayTeamName': '年轻非洲人体育俱乐部', 'betScore': None, 'homeTeamName': '姆贝亚城', 'marketName': '独赢', 'matchTime': '2022-06-25 09:00:00', 'matchType': '早盘', 'odds': 4.55, 'oddsType': '1', 'orderNo': 'XH4uQCcTuCQc', 'outcomeName': '姆贝亚城', 'specifier': '', 'tournamentName': '坦桑尼亚超级联赛'}], 'orderNo': 'XH4uQCcTuCQc', 'settlementTime': '2022-06-25 10:26:06', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3un/fceshi0785', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:45:39', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': -3.0, 'level0WinOrLose': -3.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': -3.0, 'level1WinOrLose': -3.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': -3.0, 'level2WinOrLose': -3.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': -3.0, 'level3WinOrLose': -3.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': 15.0, 'memberWinOrLose': 15.0, 'name': '杜鑫test账号un', 'odds': 2.5, 'oddsType': '1', 'options': [{'awayTeamName': 'PR巴拉纳', 'betScore': None, 'homeTeamName': 'RJ葡萄牙人竞技', 'marketName': '独赢', 'matchTime': '2022-06-25 14:00:00', 'matchType': '早盘', 'odds': 2.5, 'oddsType': '1', 'orderNo': 'XH4uja3NfeKy', 'outcomeName': 'RJ葡萄牙人竞技', 'specifier': '', 'tournamentName': '巴西丁级联赛'}], 'orderNo': 'XH4uja3NfeKy', 'settlementTime': '2022-06-25 15:54:29', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 15.0}, {'account': 'd0d1d2d3lm/fceshi0550', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:44:16', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号lm', 'odds': 2.35, 'oddsType': '1', 'options': [{'awayTeamName': 'Orgryte IS', 'betScore': None, 'homeTeamName': 'Jonkopings Sodra IF', 'marketName': '独赢', 'matchTime': '2022-06-28 13:00:00', 'matchType': '早盘', 'odds': 2.35, 'oddsType': '1', 'orderNo': 'XH4tQBwNf9SJ', 'outcomeName': '乔科平所达', 'specifier': '', 'tournamentName': '瑞典超甲级联赛'}], 'orderNo': 'XH4tQBwNf9SJ', 'settlementTime': '2022-06-28 14:55:35', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3to/fceshi0760', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:42:32', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号to', 'odds': 1.37, 'oddsType': '1', 'options': [{'awayTeamName': '芒特德瑞特城流浪者', 'betScore': None, 'homeTeamName': '马柯尼', 'marketName': '独赢', 'matchTime': '2022-06-25 05:00:00', 'matchType': '早盘', 'odds': 1.37, 'oddsType': '1', 'orderNo': 'XH4tfwCKTWjm', 'outcomeName': '马柯尼', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}], 'orderNo': 'XH4tfwCKTWjm', 'settlementTime': '2022-06-25 06:59:29', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d30y/fceshi024', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:57:51', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': -1.92, 'level0WinOrLose': -1.92, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': -1.92, 'level1WinOrLose': -1.92, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': -1.92, 'level2WinOrLose': -1.92, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': -1.92, 'level3WinOrLose': -1.92, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': 9.6, 'memberWinOrLose': 9.6, 'name': '杜鑫test账号ay', 'odds': 1.96, 'oddsType': '1', 'options': [{'awayTeamName': 'America FC MG', 'betScore': None, 'homeTeamName': '法林明高RJ', 'marketName': '上半场 - 独赢', 'matchTime': '2022-06-25 18:00:00', 'matchType': '早盘', 'odds': 1.96, 'oddsType': '1', 'orderNo': 'XH4yuzXpRbrb', 'outcomeName': '法林明高RJ', 'specifier': '', 'tournamentName': '巴西甲级联赛'}], 'orderNo': 'XH4yuzXpRbrb', 'settlementTime': '2022-06-25 19:59:15', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 9.6, 'winOrLose': 9.6}, {'account': 'd0d1d2d3bc/fceshi0280', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 09:00:13', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -2.28, 'level0WinOrLose': -2.28, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -2.28, 'level1WinOrLose': -2.28, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -2.28, 'level2WinOrLose': -2.28, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -2.27, 'level3WinOrLose': -2.28, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': 11.4, 'memberWinOrLose': 11.4, 'name': '杜鑫test账号bc', 'odds': 1.14, 'oddsType': '2', 'options': [{'awayTeamName': 'MT库亚巴', 'betScore': None, 'homeTeamName': '戈伊亚斯GO', 'marketName': '让球', 'matchTime': '2022-06-26 17:00:00', 'matchType': '早盘', 'odds': 1.14, 'oddsType': '2', 'orderNo': 'XH4zhJqGzADV', 'outcomeName': '戈伊亚斯GO ', 'specifier': 'hcp=-0.5', 'tournamentName': '巴西甲级联赛'}], 'orderNo': 'XH4zhJqGzADV', 'settlementTime': '2022-06-26 19:01:36', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 11.4}, {'account': 'd0d1d2d35q/fceshi0138', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:59:12', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -2.38, 'level0WinOrLose': -2.38, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -2.38, 'level1WinOrLose': -2.38, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -2.38, 'level2WinOrLose': -2.38, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -2.37, 'level3WinOrLose': -2.38, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0002, 'memberTotal': 11.9, 'memberWinOrLose': 11.9, 'name': '杜鑫test账号fq', 'odds': 1.19, 'oddsType': '2', 'options': [{'awayTeamName': '河北', 'betScore': None, 'homeTeamName': '武汉三镇', 'marketName': '让球', 'matchTime': '2022-06-26 03:30:00', 'matchType': '早盘', 'odds': 1.19, 'oddsType': '2', 'orderNo': 'XH4yWcQ5k8DV', 'outcomeName': '武汉三镇 ', 'specifier': 'hcp=-2.75', 'tournamentName': '中国超级联赛'}], 'orderNo': 'XH4yWcQ5k8DV', 'settlementTime': '2022-06-26 05:22:08', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 11.9}, {'account': 'd0d1d2d3kp/fceshi0527', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:58:35', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0003, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号kp', 'odds': 0.59, 'oddsType': '2', 'options': [{'awayTeamName': '欧克莱卡诺', 'betScore': None, 'homeTeamName': '墨尔本港鲨鱼', 'marketName': '让球', 'matchTime': '2022-06-25 03:30:00', 'matchType': '早盘', 'odds': 0.59, 'oddsType': '2', 'orderNo': 'XH4yJpXnSLXR', 'outcomeName': '墨尔本港鲨鱼 ', 'specifier': 'hcp=0.25', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}], 'orderNo': 'XH4yJpXnSLXR', 'settlementTime': '2022-06-25 05:24:37', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3mi/fceshi0572', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:50:29', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0003, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号mi', 'odds': 0.75, 'oddsType': '2', 'options': [{'awayTeamName': 'Tampa Bay United', 'betScore': None, 'homeTeamName': '村子', 'marketName': '让球', 'matchTime': '2022-06-25 19:00:00', 'matchType': '早盘', 'odds': 0.75, 'oddsType': '2', 'orderNo': 'XH4vXHsW9Ljy', 'outcomeName': '村子 ', 'specifier': 'hcp=-0.75', 'tournamentName': '美国美足联乙级联赛'}], 'orderNo': 'XH4vXHsW9Ljy', 'settlementTime': '2022-06-25 22:28:04', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3ho/fceshi0448', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:44:27', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.01, 'memberCommissionRatio': 0.0011, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ho', 'odds': 1.13, 'oddsType': '2', 'options': [{'awayTeamName': '马里士他卡沙', 'betScore': None, 'homeTeamName': '幼狮队', 'marketName': '让球', 'matchTime': '2022-06-25 05:30:00', 'matchType': '早盘', 'odds': 1.13, 'oddsType': '2', 'orderNo': 'XH4tU9VapizB', 'outcomeName': '幼狮队 ', 'specifier': 'hcp=0', 'tournamentName': '新加坡足球超级联赛'}], 'orderNo': 'XH4tU9VapizB', 'settlementTime': '2022-06-25 07:26:07', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d33p/fceshi085', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '和', 'betTime': '2022-06-24 08:58:39', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 0.0, 'level0WinOrLose': 0.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 0.0, 'level1WinOrLose': 0.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 0.0, 'level2WinOrLose': 0.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 0.0, 'level3WinOrLose': 0.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0007, 'memberTotal': 0.0, 'memberWinOrLose': 0.0, 'name': '杜鑫test账号dp', 'odds': 2.12, 'oddsType': '2', 'options': [{'awayTeamName': 'AIK', 'betScore': None, 'homeTeamName': 'Degerfors IF', 'marketName': '上半场 - 让球', 'matchTime': '2022-06-26 09:00:00', 'matchType': '早盘', 'odds': 2.12, 'oddsType': '2', 'orderNo': 'XH4yKFwWuxNp', 'outcomeName': '戴戈福斯 ', 'specifier': 'hcp=0', 'tournamentName': '瑞典超级联赛'}], 'orderNo': 'XH4yKFwWuxNp', 'settlementTime': '2022-06-26 09:50:53', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 0.0, 'winOrLose': 0.0}, {'account': 'd0d1d2d3pt/fceshi0661', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:55:28', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0002, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pt', 'odds': 1.13, 'oddsType': '2', 'options': [{'awayTeamName': '拉贾卡萨布兰卡', 'betScore': None, 'homeTeamName': 'Hassania Union Sport Agadir', 'marketName': '上半场 - 让球', 'matchTime': '2022-06-25 15:30:00', 'matchType': '早盘', 'odds': 1.13, 'oddsType': '2', 'orderNo': 'XH4xEVvptWyg', 'outcomeName': '阿加迪尔哈萨尼亚 ', 'specifier': 'hcp=0', 'tournamentName': '摩洛哥足球甲级联赛'}], 'orderNo': 'XH4xEVvptWyg', 'settlementTime': '2022-06-25 17:39:28', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3sj/fceshi0729', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 09:02:32', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -2.68, 'level0WinOrLose': -2.68, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -2.68, 'level1WinOrLose': -2.68, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -2.68, 'level2WinOrLose': -2.68, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -2.68, 'level3WinOrLose': -2.68, 'memberCommission': 0.01, 'memberCommissionRatio': 0.0011, 'memberTotal': 13.41, 'memberWinOrLose': 13.4, 'name': '杜鑫test账号sj', 'odds': 1.34, 'oddsType': '2', 'options': [{'awayTeamName': 'Kashiwa Reysol', 'betScore': None, 'homeTeamName': 'Yokohama Marinos', 'marketName': '大/小', 'matchTime': '2022-06-25 03:00:00', 'matchType': '早盘', 'odds': 1.34, 'oddsType': '2', 'orderNo': 'XH4A6fvGnmJr', 'outcomeName': '大3.5', 'specifier': 'total=3.5', 'tournamentName': '日本J联赛'}], 'orderNo': 'XH4A6fvGnmJr', 'settlementTime': '2022-06-25 04:11:19', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 13.4}, {'account': 'd0d1d2d37q/fceshi0190', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:52:55', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -1.32, 'level0WinOrLose': -1.32, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -1.32, 'level1WinOrLose': -1.32, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -1.32, 'level2WinOrLose': -1.32, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -1.31, 'level3WinOrLose': -1.32, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': 6.6, 'memberWinOrLose': 6.6, 'name': '杜鑫test账号hq', 'odds': 0.66, 'oddsType': '2', 'options': [{'awayTeamName': 'Iwaki FC', 'betScore': None, 'homeTeamName': '松本山雅', 'marketName': '大/小', 'matchTime': '2022-06-26 05:00:00', 'matchType': '早盘', 'odds': 0.66, 'oddsType': '2', 'orderNo': 'XH4wNeu7F4S9', 'outcomeName': '大2/2.5', 'specifier': 'total=2.25', 'tournamentName': '日本丙级联赛'}], 'orderNo': 'XH4wNeu7F4S9', 'settlementTime': '2022-06-26 06:15:16', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 6.6, 'winOrLose': 6.6}, {'account': 'd0d1d2d3hk/fceshi0444', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:49:53', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号hk', 'odds': 0.48, 'oddsType': '2', 'options': [{'awayTeamName': '奥哈卡', 'betScore': None, 'homeTeamName': '瓜达拉哈拉大学黑狮子', 'marketName': '大/小', 'matchTime': '2022-06-25 22:05:00', 'matchType': '早盘', 'odds': 0.48, 'oddsType': '2', 'orderNo': 'XH4vKVNEYuf2', 'outcomeName': '大2', 'specifier': 'total=2', 'tournamentName': '墨西哥乙级联赛，秋季赛'}], 'orderNo': 'XH4vKVNEYuf2', 'settlementTime': '2022-06-25 23:58:08', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3dq/fceshi0346', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:47:02', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0007, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dq', 'odds': 0.56, 'oddsType': '2', 'options': [{'awayTeamName': '地铁之星', 'betScore': None, 'homeTeamName': '阿德莱得城', 'marketName': '大/小', 'matchTime': '2022-06-25 03:30:00', 'matchType': '早盘', 'odds': 0.56, 'oddsType': '2', 'orderNo': 'XH4uMt9VjnrN', 'outcomeName': '大2.5', 'specifier': 'total=2.5', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}], 'orderNo': 'XH4uMt9VjnrN', 'settlementTime': '2022-06-25 05:26:58', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3ms/fceshi0582', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:52:30', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0007, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ms', 'odds': 1.34, 'oddsType': '2', 'options': [{'awayTeamName': 'Columbus Crew', 'betScore': None, 'homeTeamName': 'Real Salt Lake', 'marketName': '上半场 - 大/小', 'matchTime': '2022-06-25 22:00:00', 'matchType': '早盘', 'odds': 1.34, 'oddsType': '2', 'orderNo': 'XH4wEczdk9ht', 'outcomeName': '大1/1.5', 'specifier': 'total=1.25', 'tournamentName': '美国职业足球大联盟'}], 'orderNo': 'XH4wEczdk9ht', 'settlementTime': '2022-06-25 23:00:09', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3cw/fceshi0326', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:40:29', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -0.81, 'level0WinOrLose': -0.81, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -0.81, 'level1WinOrLose': -0.81, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -0.81, 'level2WinOrLose': -0.81, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -0.81, 'level3WinOrLose': -0.81, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': 4.05, 'memberWinOrLose': 4.05, 'name': '杜鑫test账号cw', 'odds': 0.81, 'oddsType': '2', 'options': [{'awayTeamName': '拉贾卡萨布兰卡', 'betScore': None, 'homeTeamName': 'Hassania Union Sport Agadir', 'marketName': '上半场 - 大/小', 'matchTime': '2022-06-25 15:30:00', 'matchType': '早盘', 'odds': 0.81, 'oddsType': '2', 'orderNo': 'XH4synpbiUaD', 'outcomeName': '大0.5/1', 'specifier': 'total=0.75', 'tournamentName': '摩洛哥足球甲级联赛'}], 'orderNo': 'XH4synpbiUaD', 'settlementTime': '2022-06-25 17:39:28', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 4.05, 'winOrLose': 4.05}, {'account': 'd0d1d2d35b/fceshi0123', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 09:03:44', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号fb', 'odds': 100.95, 'oddsType': '1', 'options': [{'awayTeamName': 'Pouso Alegre MG', 'betScore': None, 'homeTeamName': '卡尔登塞', 'marketName': '波胆', 'matchTime': '2022-06-25 15:00:00', 'matchType': '早盘', 'odds': 100.95, 'oddsType': '1', 'orderNo': 'XH4Av5Ua2y6B', 'outcomeName': '4:3', 'specifier': '', 'tournamentName': '巴西丁级联赛'}], 'orderNo': 'XH4Av5Ua2y6B', 'settlementTime': '2022-06-25 16:56:20', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3jl/fceshi0497', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:56:15', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号jl', 'odds': 12.95, 'oddsType': '1', 'options': [{'awayTeamName': 'Colorado Rapids', 'betScore': None, 'homeTeamName': 'Portland Timbers', 'marketName': '波胆', 'matchTime': '2022-06-25 22:30:00', 'matchType': '早盘', 'odds': 12.95, 'oddsType': '1', 'orderNo': 'XH4xVUvtYgy7', 'outcomeName': '2:0', 'specifier': '', 'tournamentName': '美国职业足球大联盟'}], 'orderNo': 'XH4xVUvtYgy7', 'settlementTime': '2022-06-26 00:39:29', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3tc/fceshi0748', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:53:58', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号tc', 'odds': 10.95, 'oddsType': '1', 'options': [{'awayTeamName': '里塞克洛斯特', 'betScore': None, 'homeTeamName': '法纳', 'marketName': '波胆', 'matchTime': '2022-06-25 09:00:00', 'matchType': '早盘', 'odds': 10.95, 'oddsType': '1', 'orderNo': 'XH4xabBgC5jK', 'outcomeName': '2:1', 'specifier': '', 'tournamentName': '挪威丙级联赛第3组'}], 'orderNo': 'XH4xabBgC5jK', 'settlementTime': '2022-06-25 11:30:42', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3nj/fceshi0599', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:51:43', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0,</t>
+  </si>
+  <si>
+    <t>["d0d1d2d3pe/fceshi0646-XH4AeukHvicj/sr:sport:1/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '海德堡联', 'betScore': None, 'homeTeamName': '阿东那', 'marketName': '独赢', 'matchTime': '2022-06-25 04:00:00', 'matchType': '早盘', 'odds': 2.75, 'oddsType': '1', 'orderNo': 'XH4AeukHvicj', 'outcomeName': '阿东那', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d38y/fceshi0224-XH4ydmPbRncK/sr:sport:20/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '芹苴', 'betScore': None, 'homeTeamName': 'QNK广南足球俱乐部', 'marketName': '独赢', 'matchTime': '2022-06-25 06:00:00', 'matchType': '早盘', 'odds': 1.69, 'oddsType': '1', 'orderNo': 'XH4ydmPbRncK', 'outcomeName': 'QNK广南足球俱乐部', 'specifier': '', 'tournamentName': '越南职业足球乙级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3cm/fceshi0316-XH4xX3HLPS2f/sr:sport:23/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'KFUM奥斯陆', 'betScore': None, 'homeTeamName': '雷海姆', 'marketName': '独赢', 'matchTime': '2022-06-27 12:00:00', 'matchType': '早盘', 'odds': 2.32, 'oddsType': '1', 'orderNo': 'XH4xX3HLPS2f', 'outcomeName': '雷海姆', 'specifier': '', 'tournamentName': '挪威甲级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3mm/fceshi0576-XH4wb2UBmYgA/sr:sport:5/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '博塞科普', 'betScore': None, 'homeTeamName': '芬科斯', 'marketName': '独赢', 'matchTime': '2022-06-25 08:00:00', 'matchType': '早盘', 'odds': 1.61, 'oddsType': '1', 'orderNo': 'XH4wb2UBmYgA', 'outcomeName': '芬科斯', 'specifier': '', 'tournamentName': '挪威丙级联赛第6组'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d36h/fceshi0155-XH4uQCcTuCQc/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '年轻非洲人体育俱乐部', 'betScore': None, 'homeTeamName': '姆贝亚城', 'marketName': '独赢', 'matchTime': '2022-06-25 09:00:00', 'matchType': '早盘', 'odds': 4.55, 'oddsType': '1', 'orderNo': 'XH4uQCcTuCQc', 'outcomeName': '姆贝亚城', 'specifier': '', 'tournamentName': '坦桑尼亚超级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3un/fceshi0785-XH4uja3NfeKy/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'PR巴拉纳', 'betScore': None, 'homeTeamName': 'RJ葡萄牙人竞技', 'marketName': '独赢', 'matchTime': '2022-06-25 14:00:00', 'matchType': '早盘', 'odds': 2.5, 'oddsType': '1', 'orderNo': 'XH4uja3NfeKy', 'outcomeName': 'RJ葡萄牙人竞技', 'specifier': '', 'tournamentName': '巴西丁级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3lm/fceshi0550-XH4tQBwNf9SJ/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'Orgryte IS', 'betScore': None, 'homeTeamName': 'Jonkopings Sodra IF', 'marketName': '独赢', 'matchTime': '2022-06-28 13:00:00', 'matchType': '早盘', 'odds': 2.35, 'oddsType': '1', 'orderNo': 'XH4tQBwNf9SJ', 'outcomeName': '乔科平所达', 'specifier': '', 'tournamentName': '瑞典超甲级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3to/fceshi0760-XH4tfwCKTWjm/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '芒特德瑞特城流浪者', 'betScore': None, 'homeTeamName': '马柯尼', 'marketName': '独赢', 'matchTime': '2022-06-25 05:00:00', 'matchType': '早盘', 'odds': 1.37, 'oddsType': '1', 'orderNo': 'XH4tfwCKTWjm', 'outcomeName': '马柯尼', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3vc/fceshi0800-XHwDkw5qi2ny/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'Croatia Mediterranean Team', 'betScore': None, 'homeTeamName': 'Serbia Mediterranean Team', 'marketName': '独赢', 'matchTime': '2022-06-27 07:00:00', 'matchType': '滚球盘', 'odds': 7.7, 'oddsType': '1', 'orderNo': 'XHwDkw5qi2ny', 'outcomeName': 'Serbia Mediterranean Team', 'specifier': '', 'tournamentName': '国际Mediterranean Games'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]"]</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-球类报表-订单查询（根据其盘口查询订单）  "/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"，数据错误，需要比对,193,0\x1b[0m']</t>
   </si>
   <si>
     <t>接口返回不需要的字段处理传参</t>
@@ -208,7 +219,7 @@
     <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
 @f"SELECT id,role_id FROM m_account WHERE id='{all}'"
 @f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID','公司总计' AS '公司总计',b.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS=2 AND c.proxy{num}_id='{all}' \
-AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
+AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
   </si>
   <si>
     <t>测试通过
@@ -224,7 +235,7 @@
     <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end}]</t>
   </si>
   <si>
-    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
+    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
   </si>
   <si>
     <t>测试通过
@@ -246,10 +257,10 @@
     <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end},{"page":1,"limit":50,"account":"","parentId":"1531519668859478017"}]</t>
   </si>
   <si>
-    <t>@f"SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY c.user_id"
+    <t>@f"SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id"
 @f"SELECT SUM(level0_backwater_amount),SUM(level0_win_or_lose),SUM(level0_win_or_lose-level0_backwater_amount),SUM(level1_backwater_amount),SUM(level1_win_or_lose),SUM(level1_win_or_lose-level1_backwater_amount),SUM(level2_backwater_amount),SUM(level2_win_or_lose),SUM(level2_win_or_lose-level2_backwater_amount),SUM(level3_backwater_amount),SUM(level3_win_or_lose),SUM(level3_win_or_lose-level3_backwater_amount),SUM(backwater_amount) '会员佣金',SUM(handicap_win_or_lose+backwater_amount) '会员总计',SUM(handicap_win_or_lose) '会员输/赢',SUM(efficient_amount),SUM(handicap_win_or_lose) '会员输/赢' FROM o_account_order WHERE user_id='{all}' AND STATUS=2 AND award_time IS NOT NULL"
 @f"SELECT order_no FROM o_account_order WHERE user_id='{all}' AND STATUS=2  AND award_time IS NOT NULL"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),any_value (c.bet_type) '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称','options' AS '比赛',c.order_no,c.settlement_time,c.sport_id, CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS=2 AND order_no='{all_order_no}' AND c.award_time IS NOT NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.settlement_time,c.efficient_amount"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),any_value (c.bet_type) '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称','options' AS '比赛',c.order_no,c.award_time,c.sport_id, CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS=2 AND order_no='{all_order_no}' AND c.award_time IS NOT NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount"
 @f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no='{all_order_no}'"</t>
   </si>
   <si>
@@ -278,7 +289,7 @@
             "page":1,"limit":50}]</t>
   </si>
   <si>
-    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计' as  '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"</t>
+    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计' as  '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"</t>
   </si>
   <si>
     <t>sportName</t>
@@ -309,9 +320,9 @@
 {"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end}]</t>
   </si>
   <si>
-    <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
-@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额', '公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (f.mark_id),any_value (d.market_name),SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),any_value (f.mark_name),CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND c.sport_id='{all}' GROUP BY f.mark_id"
-@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢','串关','串关',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),'串关',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type !=1 AND c.sport_id='{all}' GROUP BY c.sport_id"</t>
+    <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
+@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额', '公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (f.mark_id),any_value (d.market_name),SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),any_value (f.mark_name),CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type=1 AND c.sport_id='{all}' GROUP BY f.mark_id"
+@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢','串关','串关',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),'串关',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type !=1 AND c.sport_id='{all}' GROUP BY c.sport_id"</t>
   </si>
   <si>
     <t>sportName,sportMarketName</t>
@@ -336,8 +347,8 @@
 ]</t>
   </si>
   <si>
-    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (d.tournament_id) '联赛ID',any_value (d.tournament_name) '联赛名称' FROM o_account_order AS c JOIN o_account_order_match AS d ON c.order_no=d.order_no AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type=1 GROUP BY d.tournament_id"
-@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢','串关' AS '串关','串关' AS '串关' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type !=1 AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}'"</t>
+    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (d.tournament_id) '联赛ID',any_value (d.tournament_name) '联赛名称' FROM o_account_order AS c JOIN o_account_order_match AS d ON c.order_no=d.order_no AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type=1 GROUP BY d.tournament_id"
+@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢','串关' AS '串关','串关' AS '串关' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type !=1 AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}'"</t>
   </si>
   <si>
     <t>tournamentId</t>
@@ -362,8 +373,8 @@
 ]</t>
   </si>
   <si>
-    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额',any_value (d.away_team_name) '客队','公司总计'as '公司总计',any_value (d.home_team_name) '主队输赢',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',d.match_id'赛事ID',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (d.tournament_id) '联赛ID',any_value (d.tournament_name) '联赛名称' FROM o_account_order AS c LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type=1 AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY d.match_id "
-@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','串关' AS '串关','公司总计'as '公司总计','串关' AS '串关',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢','串关' AS '串关',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢','串关' AS '串关','串关' AS '串关' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type !=1 AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}'"</t>
+    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额',any_value (d.away_team_name) '客队','公司总计'as '公司总计',any_value (d.home_team_name) '主队输赢',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',d.match_id'赛事ID',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (d.tournament_id) '联赛ID',any_value (d.tournament_name) '联赛名称' FROM o_account_order AS c LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type=1 AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY d.match_id "
+@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','串关' AS '串关','公司总计'as '公司总计','串关' AS '串关',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢','串关' AS '串关',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢','串关' AS '串关','串关' AS '串关' FROM o_account_order AS c WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type !=1 AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}'"</t>
   </si>
   <si>
     <t>tournamentId,matchId</t>
@@ -388,8 +399,8 @@
     <t>matchId</t>
   </si>
   <si>
-    <t>@f"SELECT d.match_id'赛事ID' FROM o_account_order AS c LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type=1 AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY d.match_id" 
-@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (f.mark_id),any_value (d.market_name),SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),any_value(f.mark_name),CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' AND c.bet_type=1 AND d.match_id='{all}' GROUP BY f.mark_id"</t>
+    <t>@f"SELECT d.match_id'赛事ID' FROM o_account_order AS c LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.bet_type=1 AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY d.match_id" 
+@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (f.mark_id),any_value (d.market_name),SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',any_value (c.sport_id),any_value(f.mark_name),CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id LEFT JOIN o_account_order_match AS d ON c.order_no=d.order_no RIGHT JOIN group_market_name AS f ON (f.mark_id=d.market_id AND f.sport_id=d.sport_id) WHERE c.STATUS=2 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type=1 AND d.match_id='{all}' GROUP BY f.mark_id"</t>
   </si>
   <si>
     <t>sportName,marketName</t>
@@ -413,7 +424,7 @@
     <t>[{"matchId":"","sportId":"","queryDateType":3,"begin":begin,"end":end,"searchAccount":"","page":1,"limit":50}]</t>
   </si>
   <si>
-    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (c.login_account) AS '登入账号',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',c.user_name AS '账号' FROM o_account_order AS c WHERE c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.STATUS=2 AND c.bet_type&gt; 1 AND c.award_time IS NOT NULL AND c.settlement_time&gt;='{begin}' AND c.settlement_time&lt;='{end}' GROUP BY c.user_name"</t>
+    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (c.login_account) AS '登入账号',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',c.user_name AS '账号' FROM o_account_order AS c WHERE c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.STATUS=2 AND c.bet_type&gt; 1 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name"</t>
   </si>
   <si>
     <t>userName,loginAccount</t>
@@ -1197,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1312,9 +1323,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1666,10 +1674,10 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1735,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:11">
+    <row r="2" ht="13.5" customHeight="1" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1760,7 +1768,7 @@
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="24" t="s">
@@ -1768,6 +1776,18 @@
       </c>
       <c r="K2" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
@@ -1793,7 +1813,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1825,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -1863,13 +1883,13 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="118" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3">
@@ -1879,43 +1899,43 @@
         <v>19</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P2"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="100" customHeight="1" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
@@ -1925,44 +1945,44 @@
         <v>19</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P3"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="134" customHeight="1" spans="1:16">
       <c r="A4" s="20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1971,46 +1991,46 @@
         <v>19</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P4"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -2019,46 +2039,46 @@
         <v>19</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P5"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
       <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2067,43 +2087,43 @@
         <v>19</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P6"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
       <c r="A7" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -2112,46 +2132,46 @@
         <v>19</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7"/>
     </row>
     <row r="8" ht="108" customHeight="1" spans="1:15">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
@@ -2160,43 +2180,43 @@
         <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="135" customHeight="1" spans="1:15">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="9">
         <v>2</v>
@@ -2205,7 +2225,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>21</v>
@@ -2214,36 +2234,36 @@
         <v>22</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M9" s="34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="135" customHeight="1" spans="1:15">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2252,43 +2272,43 @@
         <v>19</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" ht="135" customHeight="1" spans="1:15">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2297,43 +2317,43 @@
         <v>19</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="40.5" customHeight="1" spans="1:15">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2342,45 +2362,45 @@
         <v>19</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" ht="135" customHeight="1" spans="1:15">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2389,28 +2409,28 @@
         <v>19</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2452,7 +2472,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -2511,18 +2531,18 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="143" customHeight="1" spans="1:15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2531,39 +2551,39 @@
         <v>19</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="142" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2572,31 +2592,31 @@
         <v>19</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1"/>
@@ -2635,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2670,13 +2690,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G2" s="12"/>
     </row>
@@ -2709,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2767,21 +2787,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
@@ -2789,18 +2809,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
@@ -2808,23 +2828,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>

--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="调式" sheetId="1" r:id="rId1"/>
     <sheet name="报表" sheetId="2" r:id="rId2"/>
-    <sheet name="总投注" sheetId="3" r:id="rId3"/>
-    <sheet name="首页" sheetId="4" r:id="rId4"/>
-    <sheet name="用户管理" sheetId="5" r:id="rId5"/>
+    <sheet name="未完成、盈亏详情" sheetId="3" r:id="rId3"/>
+    <sheet name="总投注" sheetId="4" r:id="rId4"/>
+    <sheet name="首页" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
   <si>
     <t>功能名称</t>
   </si>
@@ -78,7 +78,7 @@
     <t>"/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"</t>
   </si>
   <si>
-    <t>companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,mixNum</t>
+    <t>betMix,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,mixNum</t>
   </si>
   <si>
     <t>{
@@ -97,175 +97,21 @@
     <t>post</t>
   </si>
   <si>
-    <t>@f"SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.create_time"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称',any_value (a.credit_odds) '赔率',any_value (a.odds_type) '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.create_time"
-@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.order_no)"
-@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.bet_type!=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id='{all}' GROUP BY c.order_no) GROUP BY order_no,away_team_name,bet_score,home_team_name,market_name,match_time,is_live,credit_odds,odds_type,outcome_name,specifier,tournament_name"</t>
+    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id IN(SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id) GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.create_time ORDER BY c.create_time ASC"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id IN(SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id) GROUP BY c.order_no) GROUP BY order_no,away_team_name,bet_score,home_team_name,market_name,match_time,is_live,credit_odds,odds_type,outcome_name,specifier,tournament_name,create_time ORDER BY create_time ASC"</t>
   </si>
   <si>
     <t>account,orderNo</t>
   </si>
   <si>
-    <t>测试不通过
-2022-06-30 18:41:39</t>
-  </si>
-  <si>
-    <t>[[{'account': 'd0d1d2d3pe/fceshi0646', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 09:02:58', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pe', 'odds': 2.75, 'oddsType': '1', 'options': [{'awayTeamName': '海德堡联', 'betScore': None, 'homeTeamName': '阿东那', 'marketName': '独赢', 'matchTime': '2022-06-25 04:00:00', 'matchType': '早盘', 'odds': 2.75, 'oddsType': '1', 'orderNo': 'XH4AeukHvicj', 'outcomeName': '阿东那', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}], 'orderNo': 'XH4AeukHvicj', 'settlementTime': '2022-06-25 05:58:10', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d38y/fceshi0224', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:57:04', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号iy', 'odds': 1.69, 'oddsType': '1', 'options': [{'awayTeamName': '芹苴', 'betScore': None, 'homeTeamName': 'QNK广南足球俱乐部', 'marketName': '独赢', 'matchTime': '2022-06-25 06:00:00', 'matchType': '早盘', 'odds': 1.69, 'oddsType': '1', 'orderNo': 'XH4ydmPbRncK', 'outcomeName': 'QNK广南足球俱乐部', 'specifier': '', 'tournamentName': '越南职业足球乙级联赛'}], 'orderNo': 'XH4ydmPbRncK', 'settlementTime': '2022-06-25 08:01:45', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3cm/fceshi0316', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:56:19', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': -2.64, 'level0WinOrLose': -2.64, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': -2.64, 'level1WinOrLose': -2.64, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': -2.64, 'level2WinOrLose': -2.64, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': -2.64, 'level3WinOrLose': -2.64, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': 13.2, 'memberWinOrLose': 13.2, 'name': '杜鑫test账号cm', 'odds': 2.32, 'oddsType': '1', 'options': [{'awayTeamName': 'KFUM奥斯陆', 'betScore': None, 'homeTeamName': '雷海姆', 'marketName': '独赢', 'matchTime': '2022-06-27 12:00:00', 'matchType': '早盘', 'odds': 2.32, 'oddsType': '1', 'orderNo': 'XH4xX3HLPS2f', 'outcomeName': '雷海姆', 'specifier': '', 'tournamentName': '挪威甲级联赛'}], 'orderNo': 'XH4xX3HLPS2f', 'settlementTime': '2022-06-27 13:54:12', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 13.2}, {'account': 'd0d1d2d3mm/fceshi0576', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:51:05', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号mm', 'odds': 1.61, 'oddsType': '1', 'options': [{'awayTeamName': '博塞科普', 'betScore': None, 'homeTeamName': '芬科斯', 'marketName': '独赢', 'matchTime': '2022-06-25 08:00:00', 'matchType': '早盘', 'odds': 1.61, 'oddsType': '1', 'orderNo': 'XH4wb2UBmYgA', 'outcomeName': '芬科斯', 'specifier': '', 'tournamentName': '挪威丙级联赛第6组'}], 'orderNo': 'XH4wb2UBmYgA', 'settlementTime': '2022-06-25 11:20:57', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d36h/fceshi0155', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:47:12', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号gh', 'odds': 4.55, 'oddsType': '1', 'options': [{'awayTeamName': '年轻非洲人体育俱乐部', 'betScore': None, 'homeTeamName': '姆贝亚城', 'marketName': '独赢', 'matchTime': '2022-06-25 09:00:00', 'matchType': '早盘', 'odds': 4.55, 'oddsType': '1', 'orderNo': 'XH4uQCcTuCQc', 'outcomeName': '姆贝亚城', 'specifier': '', 'tournamentName': '坦桑尼亚超级联赛'}], 'orderNo': 'XH4uQCcTuCQc', 'settlementTime': '2022-06-25 10:26:06', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3un/fceshi0785', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:45:39', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': -3.0, 'level0WinOrLose': -3.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': -3.0, 'level1WinOrLose': -3.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': -3.0, 'level2WinOrLose': -3.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': -3.0, 'level3WinOrLose': -3.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': 15.0, 'memberWinOrLose': 15.0, 'name': '杜鑫test账号un', 'odds': 2.5, 'oddsType': '1', 'options': [{'awayTeamName': 'PR巴拉纳', 'betScore': None, 'homeTeamName': 'RJ葡萄牙人竞技', 'marketName': '独赢', 'matchTime': '2022-06-25 14:00:00', 'matchType': '早盘', 'odds': 2.5, 'oddsType': '1', 'orderNo': 'XH4uja3NfeKy', 'outcomeName': 'RJ葡萄牙人竞技', 'specifier': '', 'tournamentName': '巴西丁级联赛'}], 'orderNo': 'XH4uja3NfeKy', 'settlementTime': '2022-06-25 15:54:29', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 15.0}, {'account': 'd0d1d2d3lm/fceshi0550', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:44:16', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号lm', 'odds': 2.35, 'oddsType': '1', 'options': [{'awayTeamName': 'Orgryte IS', 'betScore': None, 'homeTeamName': 'Jonkopings Sodra IF', 'marketName': '独赢', 'matchTime': '2022-06-28 13:00:00', 'matchType': '早盘', 'odds': 2.35, 'oddsType': '1', 'orderNo': 'XH4tQBwNf9SJ', 'outcomeName': '乔科平所达', 'specifier': '', 'tournamentName': '瑞典超甲级联赛'}], 'orderNo': 'XH4tQBwNf9SJ', 'settlementTime': '2022-06-28 14:55:35', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3to/fceshi0760', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:42:32', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号to', 'odds': 1.37, 'oddsType': '1', 'options': [{'awayTeamName': '芒特德瑞特城流浪者', 'betScore': None, 'homeTeamName': '马柯尼', 'marketName': '独赢', 'matchTime': '2022-06-25 05:00:00', 'matchType': '早盘', 'odds': 1.37, 'oddsType': '1', 'orderNo': 'XH4tfwCKTWjm', 'outcomeName': '马柯尼', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}], 'orderNo': 'XH4tfwCKTWjm', 'settlementTime': '2022-06-25 06:59:29', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d30y/fceshi024', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:57:51', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': -1.92, 'level0WinOrLose': -1.92, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': -1.92, 'level1WinOrLose': -1.92, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': -1.92, 'level2WinOrLose': -1.92, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': -1.92, 'level3WinOrLose': -1.92, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': 9.6, 'memberWinOrLose': 9.6, 'name': '杜鑫test账号ay', 'odds': 1.96, 'oddsType': '1', 'options': [{'awayTeamName': 'America FC MG', 'betScore': None, 'homeTeamName': '法林明高RJ', 'marketName': '上半场 - 独赢', 'matchTime': '2022-06-25 18:00:00', 'matchType': '早盘', 'odds': 1.96, 'oddsType': '1', 'orderNo': 'XH4yuzXpRbrb', 'outcomeName': '法林明高RJ', 'specifier': '', 'tournamentName': '巴西甲级联赛'}], 'orderNo': 'XH4yuzXpRbrb', 'settlementTime': '2022-06-25 19:59:15', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 9.6, 'winOrLose': 9.6}, {'account': 'd0d1d2d3bc/fceshi0280', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 09:00:13', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -2.28, 'level0WinOrLose': -2.28, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -2.28, 'level1WinOrLose': -2.28, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -2.28, 'level2WinOrLose': -2.28, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -2.27, 'level3WinOrLose': -2.28, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': 11.4, 'memberWinOrLose': 11.4, 'name': '杜鑫test账号bc', 'odds': 1.14, 'oddsType': '2', 'options': [{'awayTeamName': 'MT库亚巴', 'betScore': None, 'homeTeamName': '戈伊亚斯GO', 'marketName': '让球', 'matchTime': '2022-06-26 17:00:00', 'matchType': '早盘', 'odds': 1.14, 'oddsType': '2', 'orderNo': 'XH4zhJqGzADV', 'outcomeName': '戈伊亚斯GO ', 'specifier': 'hcp=-0.5', 'tournamentName': '巴西甲级联赛'}], 'orderNo': 'XH4zhJqGzADV', 'settlementTime': '2022-06-26 19:01:36', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 11.4}, {'account': 'd0d1d2d35q/fceshi0138', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:59:12', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -2.38, 'level0WinOrLose': -2.38, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -2.38, 'level1WinOrLose': -2.38, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -2.38, 'level2WinOrLose': -2.38, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -2.37, 'level3WinOrLose': -2.38, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0002, 'memberTotal': 11.9, 'memberWinOrLose': 11.9, 'name': '杜鑫test账号fq', 'odds': 1.19, 'oddsType': '2', 'options': [{'awayTeamName': '河北', 'betScore': None, 'homeTeamName': '武汉三镇', 'marketName': '让球', 'matchTime': '2022-06-26 03:30:00', 'matchType': '早盘', 'odds': 1.19, 'oddsType': '2', 'orderNo': 'XH4yWcQ5k8DV', 'outcomeName': '武汉三镇 ', 'specifier': 'hcp=-2.75', 'tournamentName': '中国超级联赛'}], 'orderNo': 'XH4yWcQ5k8DV', 'settlementTime': '2022-06-26 05:22:08', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 11.9}, {'account': 'd0d1d2d3kp/fceshi0527', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:58:35', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0003, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号kp', 'odds': 0.59, 'oddsType': '2', 'options': [{'awayTeamName': '欧克莱卡诺', 'betScore': None, 'homeTeamName': '墨尔本港鲨鱼', 'marketName': '让球', 'matchTime': '2022-06-25 03:30:00', 'matchType': '早盘', 'odds': 0.59, 'oddsType': '2', 'orderNo': 'XH4yJpXnSLXR', 'outcomeName': '墨尔本港鲨鱼 ', 'specifier': 'hcp=0.25', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}], 'orderNo': 'XH4yJpXnSLXR', 'settlementTime': '2022-06-25 05:24:37', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3mi/fceshi0572', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:50:29', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0003, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号mi', 'odds': 0.75, 'oddsType': '2', 'options': [{'awayTeamName': 'Tampa Bay United', 'betScore': None, 'homeTeamName': '村子', 'marketName': '让球', 'matchTime': '2022-06-25 19:00:00', 'matchType': '早盘', 'odds': 0.75, 'oddsType': '2', 'orderNo': 'XH4vXHsW9Ljy', 'outcomeName': '村子 ', 'specifier': 'hcp=-0.75', 'tournamentName': '美国美足联乙级联赛'}], 'orderNo': 'XH4vXHsW9Ljy', 'settlementTime': '2022-06-25 22:28:04', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3ho/fceshi0448', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:44:27', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.01, 'memberCommissionRatio': 0.0011, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ho', 'odds': 1.13, 'oddsType': '2', 'options': [{'awayTeamName': '马里士他卡沙', 'betScore': None, 'homeTeamName': '幼狮队', 'marketName': '让球', 'matchTime': '2022-06-25 05:30:00', 'matchType': '早盘', 'odds': 1.13, 'oddsType': '2', 'orderNo': 'XH4tU9VapizB', 'outcomeName': '幼狮队 ', 'specifier': 'hcp=0', 'tournamentName': '新加坡足球超级联赛'}], 'orderNo': 'XH4tU9VapizB', 'settlementTime': '2022-06-25 07:26:07', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d33p/fceshi085', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '和', 'betTime': '2022-06-24 08:58:39', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 0.0, 'level0WinOrLose': 0.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 0.0, 'level1WinOrLose': 0.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 0.0, 'level2WinOrLose': 0.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 0.0, 'level3WinOrLose': 0.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0007, 'memberTotal': 0.0, 'memberWinOrLose': 0.0, 'name': '杜鑫test账号dp', 'odds': 2.12, 'oddsType': '2', 'options': [{'awayTeamName': 'AIK', 'betScore': None, 'homeTeamName': 'Degerfors IF', 'marketName': '上半场 - 让球', 'matchTime': '2022-06-26 09:00:00', 'matchType': '早盘', 'odds': 2.12, 'oddsType': '2', 'orderNo': 'XH4yKFwWuxNp', 'outcomeName': '戴戈福斯 ', 'specifier': 'hcp=0', 'tournamentName': '瑞典超级联赛'}], 'orderNo': 'XH4yKFwWuxNp', 'settlementTime': '2022-06-26 09:50:53', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 0.0, 'winOrLose': 0.0}, {'account': 'd0d1d2d3pt/fceshi0661', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:55:28', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0002, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pt', 'odds': 1.13, 'oddsType': '2', 'options': [{'awayTeamName': '拉贾卡萨布兰卡', 'betScore': None, 'homeTeamName': 'Hassania Union Sport Agadir', 'marketName': '上半场 - 让球', 'matchTime': '2022-06-25 15:30:00', 'matchType': '早盘', 'odds': 1.13, 'oddsType': '2', 'orderNo': 'XH4xEVvptWyg', 'outcomeName': '阿加迪尔哈萨尼亚 ', 'specifier': 'hcp=0', 'tournamentName': '摩洛哥足球甲级联赛'}], 'orderNo': 'XH4xEVvptWyg', 'settlementTime': '2022-06-25 17:39:28', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3sj/fceshi0729', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 09:02:32', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -2.68, 'level0WinOrLose': -2.68, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -2.68, 'level1WinOrLose': -2.68, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -2.68, 'level2WinOrLose': -2.68, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -2.68, 'level3WinOrLose': -2.68, 'memberCommission': 0.01, 'memberCommissionRatio': 0.0011, 'memberTotal': 13.41, 'memberWinOrLose': 13.4, 'name': '杜鑫test账号sj', 'odds': 1.34, 'oddsType': '2', 'options': [{'awayTeamName': 'Kashiwa Reysol', 'betScore': None, 'homeTeamName': 'Yokohama Marinos', 'marketName': '大/小', 'matchTime': '2022-06-25 03:00:00', 'matchType': '早盘', 'odds': 1.34, 'oddsType': '2', 'orderNo': 'XH4A6fvGnmJr', 'outcomeName': '大3.5', 'specifier': 'total=3.5', 'tournamentName': '日本J联赛'}], 'orderNo': 'XH4A6fvGnmJr', 'settlementTime': '2022-06-25 04:11:19', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': 13.4}, {'account': 'd0d1d2d37q/fceshi0190', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:52:55', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -1.32, 'level0WinOrLose': -1.32, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -1.32, 'level1WinOrLose': -1.32, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -1.32, 'level2WinOrLose': -1.32, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -1.31, 'level3WinOrLose': -1.32, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': 6.6, 'memberWinOrLose': 6.6, 'name': '杜鑫test账号hq', 'odds': 0.66, 'oddsType': '2', 'options': [{'awayTeamName': 'Iwaki FC', 'betScore': None, 'homeTeamName': '松本山雅', 'marketName': '大/小', 'matchTime': '2022-06-26 05:00:00', 'matchType': '早盘', 'odds': 0.66, 'oddsType': '2', 'orderNo': 'XH4wNeu7F4S9', 'outcomeName': '大2/2.5', 'specifier': 'total=2.25', 'tournamentName': '日本丙级联赛'}], 'orderNo': 'XH4wNeu7F4S9', 'settlementTime': '2022-06-26 06:15:16', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 6.6, 'winOrLose': 6.6}, {'account': 'd0d1d2d3hk/fceshi0444', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:49:53', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号hk', 'odds': 0.48, 'oddsType': '2', 'options': [{'awayTeamName': '奥哈卡', 'betScore': None, 'homeTeamName': '瓜达拉哈拉大学黑狮子', 'marketName': '大/小', 'matchTime': '2022-06-25 22:05:00', 'matchType': '早盘', 'odds': 0.48, 'oddsType': '2', 'orderNo': 'XH4vKVNEYuf2', 'outcomeName': '大2', 'specifier': 'total=2', 'tournamentName': '墨西哥乙级联赛，秋季赛'}], 'orderNo': 'XH4vKVNEYuf2', 'settlementTime': '2022-06-25 23:58:08', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3dq/fceshi0346', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:47:02', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0007, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dq', 'odds': 0.56, 'oddsType': '2', 'options': [{'awayTeamName': '地铁之星', 'betScore': None, 'homeTeamName': '阿德莱得城', 'marketName': '大/小', 'matchTime': '2022-06-25 03:30:00', 'matchType': '早盘', 'odds': 0.56, 'oddsType': '2', 'orderNo': 'XH4uMt9VjnrN', 'outcomeName': '大2.5', 'specifier': 'total=2.5', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}], 'orderNo': 'XH4uMt9VjnrN', 'settlementTime': '2022-06-25 05:26:58', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3ms/fceshi0582', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:52:30', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0007, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ms', 'odds': 1.34, 'oddsType': '2', 'options': [{'awayTeamName': 'Columbus Crew', 'betScore': None, 'homeTeamName': 'Real Salt Lake', 'marketName': '上半场 - 大/小', 'matchTime': '2022-06-25 22:00:00', 'matchType': '早盘', 'odds': 1.34, 'oddsType': '2', 'orderNo': 'XH4wEczdk9ht', 'outcomeName': '大1/1.5', 'specifier': 'total=1.25', 'tournamentName': '美国职业足球大联盟'}], 'orderNo': 'XH4wEczdk9ht', 'settlementTime': '2022-06-25 23:00:09', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3cw/fceshi0326', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '赢', 'betTime': '2022-06-24 08:40:29', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0021, 'level0Percentage': 0.2, 'level0Total': -0.81, 'level0WinOrLose': -0.81, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0021, 'level1Percentage': 0.2, 'level1Total': -0.81, 'level1WinOrLose': -0.81, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0021, 'level2Percentage': 0.2, 'level2Total': -0.81, 'level2WinOrLose': -0.81, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0021, 'level3Percentage': 0.2, 'level3Total': -0.81, 'level3WinOrLose': -0.81, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0005, 'memberTotal': 4.05, 'memberWinOrLose': 4.05, 'name': '杜鑫test账号cw', 'odds': 0.81, 'oddsType': '2', 'options': [{'awayTeamName': '拉贾卡萨布兰卡', 'betScore': None, 'homeTeamName': 'Hassania Union Sport Agadir', 'marketName': '上半场 - 大/小', 'matchTime': '2022-06-25 15:30:00', 'matchType': '早盘', 'odds': 0.81, 'oddsType': '2', 'orderNo': 'XH4synpbiUaD', 'outcomeName': '大0.5/1', 'specifier': 'total=0.75', 'tournamentName': '摩洛哥足球甲级联赛'}], 'orderNo': 'XH4synpbiUaD', 'settlementTime': '2022-06-25 17:39:28', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 4.05, 'winOrLose': 4.05}, {'account': 'd0d1d2d35b/fceshi0123', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 09:03:44', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号fb', 'odds': 100.95, 'oddsType': '1', 'options': [{'awayTeamName': 'Pouso Alegre MG', 'betScore': None, 'homeTeamName': '卡尔登塞', 'marketName': '波胆', 'matchTime': '2022-06-25 15:00:00', 'matchType': '早盘', 'odds': 100.95, 'oddsType': '1', 'orderNo': 'XH4Av5Ua2y6B', 'outcomeName': '4:3', 'specifier': '', 'tournamentName': '巴西丁级联赛'}], 'orderNo': 'XH4Av5Ua2y6B', 'settlementTime': '2022-06-25 16:56:20', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3jl/fceshi0497', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:56:15', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号jl', 'odds': 12.95, 'oddsType': '1', 'options': [{'awayTeamName': 'Colorado Rapids', 'betScore': None, 'homeTeamName': 'Portland Timbers', 'marketName': '波胆', 'matchTime': '2022-06-25 22:30:00', 'matchType': '早盘', 'odds': 12.95, 'oddsType': '1', 'orderNo': 'XH4xVUvtYgy7', 'outcomeName': '2:0', 'specifier': '', 'tournamentName': '美国职业足球大联盟'}], 'orderNo': 'XH4xVUvtYgy7', 'settlementTime': '2022-06-26 00:39:29', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3tc/fceshi0748', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:53:58', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2CommissionRatio': 0.0, 'level2Percentage': 0.2, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3CommissionRatio': 0.0, 'level3Percentage': 0.2, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'memberCommission': 0.0, 'memberCommissionRatio': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号tc', 'odds': 10.95, 'oddsType': '1', 'options': [{'awayTeamName': '里塞克洛斯特', 'betScore': None, 'homeTeamName': '法纳', 'marketName': '波胆', 'matchTime': '2022-06-25 09:00:00', 'matchType': '早盘', 'odds': 10.95, 'oddsType': '1', 'orderNo': 'XH4xabBgC5jK', 'outcomeName': '2:1', 'specifier': '', 'tournamentName': '挪威丙级联赛第3组'}], 'orderNo': 'XH4xabBgC5jK', 'settlementTime': '2022-06-25 11:30:42', 'sportId': 'sr:sport:1', 'sportType': '足球', 'validAmount': 10.0, 'winOrLose': -10.0}, {'account': 'd0d1d2d3nj/fceshi0599', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betIpAddress': '局域网', 'betResult': '输', 'betTime': '2022-06-24 08:51:43', 'betType': '单注', 'level0Commission': 0.0, 'level0CommissionRatio': 0.0, 'level0Percentage': 0.2, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1CommissionRatio': 0.0, 'level1Percentage': 0.2, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0,</t>
-  </si>
-  <si>
-    <t>["d0d1d2d3pe/fceshi0646-XH4AeukHvicj/sr:sport:1/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '海德堡联', 'betScore': None, 'homeTeamName': '阿东那', 'marketName': '独赢', 'matchTime': '2022-06-25 04:00:00', 'matchType': '早盘', 'odds': 2.75, 'oddsType': '1', 'orderNo': 'XH4AeukHvicj', 'outcomeName': '阿东那', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d38y/fceshi0224-XH4ydmPbRncK/sr:sport:20/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '芹苴', 'betScore': None, 'homeTeamName': 'QNK广南足球俱乐部', 'marketName': '独赢', 'matchTime': '2022-06-25 06:00:00', 'matchType': '早盘', 'odds': 1.69, 'oddsType': '1', 'orderNo': 'XH4ydmPbRncK', 'outcomeName': 'QNK广南足球俱乐部', 'specifier': '', 'tournamentName': '越南职业足球乙级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3cm/fceshi0316-XH4xX3HLPS2f/sr:sport:23/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'KFUM奥斯陆', 'betScore': None, 'homeTeamName': '雷海姆', 'marketName': '独赢', 'matchTime': '2022-06-27 12:00:00', 'matchType': '早盘', 'odds': 2.32, 'oddsType': '1', 'orderNo': 'XH4xX3HLPS2f', 'outcomeName': '雷海姆', 'specifier': '', 'tournamentName': '挪威甲级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3mm/fceshi0576-XH4wb2UBmYgA/sr:sport:5/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '博塞科普', 'betScore': None, 'homeTeamName': '芬科斯', 'marketName': '独赢', 'matchTime': '2022-06-25 08:00:00', 'matchType': '早盘', 'odds': 1.61, 'oddsType': '1', 'orderNo': 'XH4wb2UBmYgA', 'outcomeName': '芬科斯', 'specifier': '', 'tournamentName': '挪威丙级联赛第6组'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d36h/fceshi0155-XH4uQCcTuCQc/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '年轻非洲人体育俱乐部', 'betScore': None, 'homeTeamName': '姆贝亚城', 'marketName': '独赢', 'matchTime': '2022-06-25 09:00:00', 'matchType': '早盘', 'odds': 4.55, 'oddsType': '1', 'orderNo': 'XH4uQCcTuCQc', 'outcomeName': '姆贝亚城', 'specifier': '', 'tournamentName': '坦桑尼亚超级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3un/fceshi0785-XH4uja3NfeKy/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'PR巴拉纳', 'betScore': None, 'homeTeamName': 'RJ葡萄牙人竞技', 'marketName': '独赢', 'matchTime': '2022-06-25 14:00:00', 'matchType': '早盘', 'odds': 2.5, 'oddsType': '1', 'orderNo': 'XH4uja3NfeKy', 'outcomeName': 'RJ葡萄牙人竞技', 'specifier': '', 'tournamentName': '巴西丁级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3lm/fceshi0550-XH4tQBwNf9SJ/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'Orgryte IS', 'betScore': None, 'homeTeamName': 'Jonkopings Sodra IF', 'marketName': '独赢', 'matchTime': '2022-06-28 13:00:00', 'matchType': '早盘', 'odds': 2.35, 'oddsType': '1', 'orderNo': 'XH4tQBwNf9SJ', 'outcomeName': '乔科平所达', 'specifier': '', 'tournamentName': '瑞典超甲级联赛'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3to/fceshi0760-XH4tfwCKTWjm/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': '芒特德瑞特城流浪者', 'betScore': None, 'homeTeamName': '马柯尼', 'marketName': '独赢', 'matchTime': '2022-06-25 05:00:00', 'matchType': '早盘', 'odds': 1.37, 'oddsType': '1', 'orderNo': 'XH4tfwCKTWjm', 'outcomeName': '马柯尼', 'specifier': '', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]", "d0d1d2d3vc/fceshi0800-XHwDkw5qi2ny/参数已用完/options的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：[{'awayTeamName': 'Croatia Mediterranean Team', 'betScore': None, 'homeTeamName': 'Serbia Mediterranean Team', 'marketName': '独赢', 'matchTime': '2022-06-27 07:00:00', 'matchType': '滚球盘', 'odds': 7.7, 'oddsType': '1', 'orderNo': 'XHwDkw5qi2ny', 'outcomeName': 'Serbia Mediterranean Team', 'specifier': '', 'tournamentName': '国际Mediterranean Games'}]/[{'awayTeamName': '0', 'betScore': None, 'homeTeamName': '2', 'marketName': '3', 'matchTime': '4', 'matchType': '5', 'odds': 6.0, 'oddsType': '7', 'orderNo': '8', 'outcomeName': '9', 'specifier': '10', 'tournamentName': '11'}]"]</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的报表-球类报表-订单查询（根据其盘口查询订单）  "/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"，数据错误，需要比对,193,0\x1b[0m']</t>
+    <t>测试通过
+2022-07-12 18:08:21</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>接口返回不需要的字段处理传参</t>
-  </si>
-  <si>
-    <t>未完成交易-登0代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>未完成交易-登0-主查询</t>
-  </si>
-  <si>
-    <t>/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442"}]</t>
-  </si>
-  <si>
-    <t>parentId</t>
-  </si>
-  <si>
-    <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
-@f"SELECT id,role_id FROM m_account WHERE id='{all}'"
-@f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID',SUM(c.company_actual_percentage*c.bet_amount) '公司占成',b.currency '货币',SUM(c.level0_actual_percentage*c.bet_amount) '总代理占成',SUM(c.level1_actual_percentage*c.bet_amount) '一级代理占成',SUM(c.level2_actual_percentage*c.bet_amount) '二级代理占成',SUM(c.level3_actual_percentage*c.bet_amount) '三级代理占成',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS IN (1,2) AND c.proxy{num}_id='{all}' AND c.award_time IS NULL GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency"</t>
-  </si>
-  <si>
-    <t>account,parentId</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-06-29 18:02:34</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>未完成交易-登0,登3跳转会员代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>未完成交易-登0-登3-会员-子查询</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074"}]</t>
-  </si>
-  <si>
-    <t>@SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID',SUM(c.company_actual_percentage*c.bet_amount) '公司占成',c.currency '货币',SUM(c.level0_actual_percentage*c.bet_amount) '总代理占成',SUM(c.level1_actual_percentage*c.bet_amount) '一级代理占成',SUM(c.level2_actual_percentage*c.bet_amount) '二级代理占成',SUM(c.level3_actual_percentage*c.bet_amount) '三级代理占成',a.role_id '代理角色ID','会员' AS '代理级别',b.name '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount) '总投注额' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id 
-WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency,c.proxy3_id
-ORDER BY c.login_account ASC</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-06-29 18:02:36</t>
-  </si>
-  <si>
-    <t>未完成交易-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>未完成交易-登0-登3-会员-查看订单详情-子查询</t>
-  </si>
-  <si>
-    <t>"/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList","/agentBackground/UndoneTransaction/queryMemberUndoneOrderList"</t>
-  </si>
-  <si>
-    <t>companyCommissionRatio</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074"},{"page":1,"limit":50,"account":"","parentId":"jnj"}]</t>
-  </si>
-  <si>
-    <t>accountId</t>
-  </si>
-  <si>
-    <t>@SELECT c.user_id '下级代理ID' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id 
-WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL GROUP BY c.user_id
-@f"SELECT SUM(bet_amount) FROM o_account_order WHERE user_id='{all}' AND STATUS IN (1,2)  AND award_time IS NULL"
-@f"SELECT order_no FROM o_account_order WHERE user_id='{all}' AND STATUS IN (1,2)  AND award_time IS NULL"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.STATUS) WHEN '0' THEN '待确认' WHEN '1' THEN '未结算' WHEN '2' THEN '已结算' WHEN '3' THEN '已取消' END) AS '注单状态',any_value (c.bet_type) '注单状态',any_value (c.create_time),any_value (c.company_actual_percentage) '公司占成',any_value (c.company_retreat_proportion) '总代理佣金比例',any_value (c.level0_actual_percentage) '总代理占成',any_value (c.level0_retreat_proportion) '一级代理佣金',any_value (c.level1_actual_percentage) '一级代理占成',any_value (c.level1_retreat_proportion) '二级代理佣金',any_value (c.level2_actual_percentage) '二级代理占成',any_value (c.level2_retreat_proportion) '三级代理佣金',SUM(c.level3_actual_percentage) '三级代理占成',any_value (c.level3_retreat_proportion) '会员佣金',any_value (b.NAME) '名称','options' AS '比赛',order_no,CASE sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS IN (1,2) AND order_no='{all_order_no}' AND c.award_time IS NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no"
-@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no='{all_order_no}'"</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-06-29 14:50:56</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0-主查询</t>
-  </si>
-  <si>
-    <t>/agentBackground/profitAndLoss/queryProxyProfitAndLossList</t>
-  </si>
-  <si>
-    <t>companyCommission,companyWinOrLose,id,payout,settlementDate,updateTime</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442","startTime":begin,"endTime":end}]</t>
-  </si>
-  <si>
-    <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
-@f"SELECT id,role_id FROM m_account WHERE id='{all}'"
-@f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID','公司总计' AS '公司总计',b.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS=2 AND c.proxy{num}_id='{all}' \
-AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-06-29 14:51:05</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0,登3跳转会员代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0-登3-会员-子查询</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end}]</t>
-  </si>
-  <si>
-    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-06-29 14:54:50</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0-登3-会员-查看订单详情-子查询</t>
-  </si>
-  <si>
-    <t>"/agentBackground/profitAndLoss/queryProxyProfitAndLossList","/agentBackground/profitAndLoss/queryMemberProfitAndLossOrderList"</t>
-  </si>
-  <si>
-    <t>betTime,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,settlementTime</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end},{"page":1,"limit":50,"account":"","parentId":"1531519668859478017"}]</t>
-  </si>
-  <si>
-    <t>@f"SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id"
-@f"SELECT SUM(level0_backwater_amount),SUM(level0_win_or_lose),SUM(level0_win_or_lose-level0_backwater_amount),SUM(level1_backwater_amount),SUM(level1_win_or_lose),SUM(level1_win_or_lose-level1_backwater_amount),SUM(level2_backwater_amount),SUM(level2_win_or_lose),SUM(level2_win_or_lose-level2_backwater_amount),SUM(level3_backwater_amount),SUM(level3_win_or_lose),SUM(level3_win_or_lose-level3_backwater_amount),SUM(backwater_amount) '会员佣金',SUM(handicap_win_or_lose+backwater_amount) '会员总计',SUM(handicap_win_or_lose) '会员输/赢',SUM(efficient_amount),SUM(handicap_win_or_lose) '会员输/赢' FROM o_account_order WHERE user_id='{all}' AND STATUS=2 AND award_time IS NOT NULL"
-@f"SELECT order_no FROM o_account_order WHERE user_id='{all}' AND STATUS=2  AND award_time IS NOT NULL"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),any_value (c.bet_type) '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称','options' AS '比赛',c.order_no,c.award_time,c.sport_id, CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS=2 AND order_no='{all_order_no}' AND c.award_time IS NOT NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount"
-@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no='{all_order_no}'"</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-06-29 15:01:12</t>
   </si>
   <si>
     <t>球类报表-全部球类查询数据对比</t>
@@ -295,7 +141,17 @@
     <t>sportName</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-球类报表-主查询  /winOrLost/sport，接口数据比对全部正确\x1b[0m']</t>
+    <t>测试不通过
+2022-07-11 19:54:43</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 1290.0, 'allBackwater': -0.228522, 'allEfficient': 1142.61, 'companyFinal': -90.98, 'level0Backwater': -0.02, 'level0Final': -90.77, 'level0WinLose': -90.75, 'level1Backwater': -0.02, 'level1Final': -90.77, 'level1WinLose': -90.75, 'level2Backwater': -0.01, 'level2Final': -90.76, 'level2WinLose': -90.75, 'level3Backwater': 0.16, 'level3Final': -90.59, 'level3WinLose': -90.75, 'memberBackwater': 0.04, 'memberFinal': 453.87, 'memberWinLose': 453.83, 'sportId': 'sr:sport:1', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportName': '棒球'}, {'allAmount': 100.0, 'allBackwater': -0.0358, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'sportId': 'sr:sport:2', 'sportName': '篮球'}], [{'allAmount': 1290.0, 'allBackwater': 0.35, 'allEfficient': 1142.61, 'companyFinal': -90.98, 'level0Backwater': -0.02, 'level0Final': -90.77, 'level0WinLose': -90.75, 'level1Backwater': -0.02, 'level1Final': -90.77, 'level1WinLose': -90.75, 'level2Backwater': -0.01, 'level2Final': -90.76, 'level2WinLose': -90.75, 'level3Backwater': 0.16, 'level3Final': -90.59, 'level3WinLose': -90.75, 'memberBackwater': 0.04, 'memberFinal': 453.87, 'memberWinLose': 453.83, 'sportId': 'sr:sport:1', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportName': '棒球'}, {'allAmount': 100.0, 'allBackwater': 0.18, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'sportId': 'sr:sport:2', 'sportName': '篮球'}]]</t>
+  </si>
+  <si>
+    <t>["足球/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'足球'}/{'足球'}", "棒球/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'棒球'}/{'棒球'}", "篮球/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'篮球'}/{'篮球'}"]</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-球类报表-主查询  /winOrLost/sport，数据错误，需要比对,3,0\x1b[0m']</t>
   </si>
   <si>
     <t>球类报表-单独球类数据对比</t>
@@ -328,7 +184,17 @@
     <t>sportName,sportMarketName</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-球类报表-子查询（根据其球类查询盘口）  ["/winOrLost/sport","/winOrLost/market"]，接口数据比对全部正确\x1b[0m']</t>
+    <t>测试不通过
+2022-07-11 19:55:03</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 100.0, 'allBackwater': 0.0, 'allEfficient': 100.0, 'companyFinal': 20.0, 'level0Backwater': 0.0, 'level0Final': 20.0, 'level0WinLose': 20.0, 'level1Backwater': 0.0, 'level1Final': 20.0, 'level1WinLose': 20.0, 'level2Backwater': 0.0, 'level2Final': 20.0, 'level2WinLose': 20.0, 'level3Backwater': 0.0, 'level3Final': 20.0, 'level3WinLose': 20.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -100.0, 'memberWinLose': -100.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 60.0, 'allBackwater': -0.012, 'allEfficient': 60.0, 'companyFinal': -8.24, 'level0Backwater': -0.02, 'level0Final': -8.22, 'level0WinLose': -8.2, 'level1Backwater': -0.02, 'level1Final': -8.22, 'level1WinLose': -8.2, 'level2Backwater': -0.01, 'level2Final': -8.21, 'level2WinLose': -8.2, 'level3Backwater': 0.07, 'level3Final': -8.13, 'level3WinLose': -8.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 41.02, 'memberWinLose': 41.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -0.8, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.02, 'level3Final': -0.76, 'level3WinLose': -0.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '45', 'marketName': '波胆', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '波胆', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '71', 'marketName': '上半场 - 总入球 ', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '30', 'marketName': '哪队进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '哪队进球', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 23.9, 'companyFinal': 3.22, 'level0Backwater': 0.0, 'level0Final': 3.22, 'level0WinLose': 3.22, 'level1Backwater': 0.0, 'level1Final': 3.22, 'level1WinLose': 3.22, 'level2Backwater': 0.0, 'level2Final': 3.22, 'level2WinLose': 3.22, 'level3Backwater': 0.0, 'level3Final': 3.22, 'level3WinLose': 3.22, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': -16.1, 'memberWinLose': -16.1, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 29.0, 'companyFinal': 2.17, 'level0Backwater': 0.0, 'level0Final': 2.2, 'level0WinLose': 2.2, 'level1Backwater': 0.0, 'level1Final': 2.2, 'level1WinLose': 2.2, 'level2Backwater': 0.0, 'level2Final': 2.2, 'level2WinLose': 2.2, 'level3Backwater': 0.02, 'level3Final': 2.22, 'level3WinLose': 2.2, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -10.99, 'memberWinLose': -11.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -7.1, 'level0Backwater': 0.0, 'level0Final': -7.1, 'level0WinLose': -7.1, 'level1Backwater': 0.0, 'level1Final': -7.1, 'level1WinLose': -7.1, 'level2Backwater': 0.0, 'level2Final': -7.1, 'level2WinLose': -7.1, 'level3Backwater': 0.0, 'level3Final': -7.1, 'level3WinLose': -7.1, 'marketId': '15', 'marketName': '净胜球数', 'memberBackwater': 0.0, 'memberFinal': 35.5, 'memberWinLose': 35.5, 'sportId': 'sr:sport:1', 'sportMarketName': '净胜球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.4, 'companyFinal': -1.28, 'level0Backwater': 0.0, 'level0Final': -1.28, 'level0WinLose': -1.28, 'level1Backwater': 0.0, 'level1Final': -1.28, 'level1WinLose': -1.28, 'level2Backwater': 0.0, 'level2Final': -1.28, 'level2WinLose': -1.28, 'level3Backwater': 0.0, 'level3Final': -1.28, 'level3WinLose': -1.28, 'marketId': '11', 'marketName': '平局退款', 'memberBackwater': 0.0, 'memberFinal': 6.4, 'memberWinLose': 6.4, 'sportId': 'sr:sport:1', 'sportMarketName': '平局退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.5, 'companyFinal': -1.3, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'marketId': '77', 'marketName': '上半场 - FK Haugesund 不失球', 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 客队 不失球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -10.6, 'level0Backwater': 0.0, 'level0Final': -10.6, 'level0WinLose': -10.6, 'level1Backwater': 0.0, 'level1Final': -10.6, 'level1WinLose': -10.6, 'level2Backwater': 0.0, 'level2Final': -10.6, 'level2WinLose': -10.6, 'level3Backwater': 0.0, 'level3Final': -10.6, 'level3WinLose': -10.6, 'marketId': '34', 'marketName': '维京古 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 53.0, 'memberWinLose': 53.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -3.32, 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -1.6, 'level0Backwater': 0.0, 'level0Final': -1.6, 'level0WinLose': -1.6, 'level1Backwater': 0.0, 'level1Final': -1.6, 'level1WinLose': -1.6, 'level2Backwater': 0.0, 'level2Final': -1.6, 'level2WinLose': -1.6, 'level3Backwater': 0.0, 'level3Final': -1.6, 'level3WinLose': -1.6, 'marketId': '23', 'marketName': '尼斯坦 进球数', 'memberBackwater': 0.0, 'memberFinal': 8.0, 'memberWinLose': 8.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': -3.7, 'level0Backwater': 0.0, 'level0Final': -3.7, 'level0WinLose': -3.7, 'level1Backwater': 0.0, 'level1Final': -3.7, 'level1WinLose': -3.7, 'level2Backwater': 0.0, 'level2Final': -3.7, 'level2WinLose': -3.7, 'level3Backwater': 0.0, 'level3Final': -3.7, 'level3WinLose': -3.7, 'marketId': '24', 'marketName': '德文波特市 进球数', 'memberBackwater': 0.0, 'memberFinal': 18.5, 'memberWinLose': 18.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'companyFinal': -1.34, 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'marketId': '542', 'marketName': '上半场 - 双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '51', 'marketName': 'Skovde AIK 赢任何半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 赢任何半场', 'sportName': '足球'}, {'allAmount': 830.0, 'allBackwater': 0.0, 'allEfficient': 700.11, 'companyFinal': -93.05, 'level0Backwater': 0.0, 'level0Final': -92.97, 'level0WinLose': -92.97, 'level1Backwater': 0.0, 'level1Final': -92.97, 'level1WinLose': -92.97, 'level2Backwater': 0.0, 'level2Final': -92.97, 'level2WinLose': -92.97, 'level3Backwater': 0.0, 'level3Final': -92.97, 'level3WinLose': -92.97, 'marketId': '串关', 'marketName': '串关', 'memberBackwater': 0.0, 'memberFinal': 464.93, 'memberWinLose': 464.93, 'sportId': 'sr:sport:1', 'sportMarketName': '串关', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 50.0, 'allBackwater': -0.0079, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}], [{'allAmount': 60.0, 'allBackwater': 0.12, 'allEfficient': 60.0, 'companyFinal': -8.24, 'level0Backwater': -0.02, 'level0Final': -8.22, 'level0WinLose': -8.2, 'level1Backwater': -0.02, 'level1Final': -8.22, 'level1WinLose': -8.2, 'level2Backwater': -0.01, 'level2Final': -8.21, 'level2WinLose': -8.2, 'level3Backwater': 0.07, 'level3Final': -8.13, 'level3WinLose': -8.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 41.02, 'memberWinLose': 41.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'companyFinal': -0.8, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.02, 'level3Final': -0.76, 'level3WinLose': -0.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.06, 'allEfficient': 29.0, 'companyFinal': 2.17, 'level0Backwater': 0.0, 'level0Final': 2.2, 'level0WinLose': 2.2, 'level1Backwater': 0.0, 'level1Final': 2.2, 'level1WinLose': 2.2, 'level2Backwater': 0.0, 'level2Final': 2.2, 'level2WinLose': 2.2, 'level3Backwater': 0.02, 'level3Final': 2.22, 'level3WinLose': 2.2, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -10.99, 'memberWinLose': -11.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'companyFinal': -3.32, 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0, 'allEfficient': 20.0, 'companyFinal': -1.6, 'level0Backwater': 0.0, 'level0Final': -1.6, 'level0WinLose': -1.6, 'level1Backwater': 0.0, 'level1Final': -1.6, 'level1WinLose': -1.6, 'level2Backwater': 0.0, 'level2Final': -1.6, 'level2WinLose': -1.6, 'level3Backwater': 0.0, 'level3Final': -1.6, 'level3WinLose': -1.6, 'marketId': '23', 'marketName': '斯图特狮子 进球数', 'memberBackwater': 0.0, 'memberFinal': 8.0, 'memberWinLose': 8.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0, 'allEfficient': 30.0, 'companyFinal': -3.7, 'level0Backwater': 0.0, 'level0Final': -3.7, 'level0WinLose': -3.7, 'level1Backwater': 0.0, 'level1Final': -3.7, 'level1WinLose': -3.7, 'level2Backwater': 0.0, 'level2Final': -3.7, 'level2WinLose': -3.7, 'level3Backwater': 0.0, 'level3Final': -3.7, 'level3WinLose': -3.7, 'marketId': '24', 'marketName': '湾水市 进球数', 'memberBackwater': 0.0, 'memberFinal': 18.5, 'memberWinLose': 18.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 50.0, 'allBackwater': 0.08, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}]]</t>
+  </si>
+  <si>
+    <t>['足球-让球/sr:sport:3/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.012/0.12', '足球-上半场 - 大/小/sr:sport:2/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.04', '足球-客队 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.06', '足球-上半场 - 单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.04', '足球-两个半场 小1.5/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-主队 进球数/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：尼斯坦 进球数/斯图特狮子 进球数', '足球-客队 进球数/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：德文波特市 进球数/湾水市 进球数', '足球-双重机会&amp;大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '棒球-让球 (包括加时赛)/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.403/0.65', '篮球-让球/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.0079/0.08', '篮球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-球类报表-子查询（根据其球类查询盘口）  ["/winOrLost/sport","/winOrLost/market"]，数据错误，需要比对,25,12\x1b[0m']</t>
   </si>
   <si>
     <t>联赛报表-全部联赛查询数据对比</t>
@@ -354,7 +220,17 @@
     <t>tournamentId</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-联赛报表-主查询  /winOrLost/tournament，接口数据比对全部正确\x1b[0m']</t>
+    <t>测试不通过
+2022-07-11 19:55:13</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': 1.7, 'level0Backwater': 0.0, 'level0Final': 1.7, 'level0WinLose': 1.7, 'level1Backwater': 0.0, 'level1Final': 1.7, 'level1WinLose': 1.7, 'level2Backwater': 0.0, 'level2Final': 1.7, 'level2WinLose': 1.7, 'level3Backwater': 0.0, 'level3Final': 1.7, 'level3WinLose': 1.7, 'memberBackwater': 0.0, 'memberFinal': -8.5, 'memberWinLose': -8.5, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 70.0, 'allBackwater': 0.0, 'allEfficient': 66.4, 'companyFinal': 0.99, 'level0Backwater': 0.0, 'level0Final': 1.02, 'level0WinLose': 1.02, 'level1Backwater': 0.0, 'level1Final': 1.02, 'level1WinLose': 1.02, 'level2Backwater': 0.0, 'level2Final': 1.02, 'level2WinLose': 1.02, 'level3Backwater': 0.02, 'level3Final': 1.04, 'level3WinLose': 1.02, 'memberBackwater': 0.01, 'memberFinal': -5.09, 'memberWinLose': -5.1, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -6.39, 'level0Backwater': 0.0, 'level0Final': -6.38, 'level0WinLose': -6.38, 'level1Backwater': 0.0, 'level1Final': -6.38, 'level1WinLose': -6.38, 'level2Backwater': 0.0, 'level2Final': -6.38, 'level2WinLose': -6.38, 'level3Backwater': 0.01, 'level3Final': -6.37, 'level3WinLose': -6.38, 'memberBackwater': 0.0, 'memberFinal': 31.9, 'memberWinLose': 31.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'tournamentId': 'sr:tournament:188', 'tournamentName': '冰岛足球超级联赛'}, {'allAmount': 150.0, 'allBackwater': -0.03, 'allEfficient': 150.0, 'companyFinal': 9.77, 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 830.0, 'allBackwater': 0.0, 'allEfficient': 700.11, 'companyFinal': -93.05, 'level0Backwater': 0.0, 'level0Final': -92.97, 'level0WinLose': -92.97, 'level1Backwater': 0.0, 'level1Final': -92.97, 'level1WinLose': -92.97, 'level2Backwater': 0.0, 'level2Final': -92.97, 'level2WinLose': -92.97, 'level3Backwater': 0.0, 'level3Final': -92.97, 'level3WinLose': -92.97, 'memberBackwater': 0.0, 'memberFinal': 464.93, 'memberWinLose': 464.93, 'tournamentId': '串关', 'tournamentName': '串关'}, {'allAmount': 100.0, 'allBackwater': -0.0358, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 4.0, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1626', 'tournamentName': '澳大利亚全国超级联赛,塔斯马尼亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': -1.33, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.03, 'level3Final': -1.27, 'level3WinLose': -1.3, 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 40.0, 'allBackwater': 0.0, 'allEfficient': 36.5, 'companyFinal': -6.41, 'level0Backwater': 0.0, 'level0Final': -6.4, 'level0WinLose': -6.4, 'level1Backwater': 0.0, 'level1Final': -6.4, 'level1WinLose': -6.4, 'level2Backwater': 0.0, 'level2Final': -6.4, 'level2WinLose': -6.4, 'level3Backwater': 0.01, 'level3Final': -6.39, 'level3WinLose': -6.4, 'memberBackwater': 0.0, 'memberFinal': 32.0, 'memberWinLose': 32.0, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'companyFinal': -1.34, 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.9, 'companyFinal': -0.78, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.0, 'level3Final': -0.78, 'level3WinLose': -0.78, 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'tournamentId': 'sr:tournament:1274', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}], [{'allAmount': 70.0, 'allBackwater': 0.06, 'allEfficient': 66.4, 'companyFinal': 0.99, 'level0Backwater': 0.0, 'level0Final': 1.02, 'level0WinLose': 1.02, 'level1Backwater': 0.0, 'level1Final': 1.02, 'level1WinLose': 1.02, 'level2Backwater': 0.0, 'level2Final': 1.02, 'level2WinLose': 1.02, 'level3Backwater': 0.02, 'level3Final': 1.04, 'level3WinLose': 1.02, 'memberBackwater': 0.01, 'memberFinal': -5.09, 'memberWinLose': -5.1, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 40.0, 'allBackwater': 0.02, 'allEfficient': 36.5, 'companyFinal': -6.41, 'level0Backwater': 0.0, 'level0Final': -6.4, 'level0WinLose': -6.4, 'level1Backwater': 0.0, 'level1Final': -6.4, 'level1WinLose': -6.4, 'level2Backwater': 0.0, 'level2Final': -6.4, 'level2WinLose': -6.4, 'level3Backwater': 0.01, 'level3Final': -6.39, 'level3WinLose': -6.4, 'memberBackwater': 0.0, 'memberFinal': 32.0, 'memberWinLose': 32.0, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': -6.39, 'level0Backwater': 0.0, 'level0Final': -6.38, 'level0WinLose': -6.38, 'level1Backwater': 0.0, 'level1Final': -6.38, 'level1WinLose': -6.38, 'level2Backwater': 0.0, 'level2Final': -6.38, 'level2WinLose': -6.38, 'level3Backwater': 0.01, 'level3Final': -6.37, 'level3WinLose': -6.38, 'memberBackwater': 0.0, 'memberFinal': 31.9, 'memberWinLose': 31.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 30.0, 'allBackwater': 0.06, 'allEfficient': 30.0, 'companyFinal': -1.33, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.03, 'level3Final': -1.27, 'level3WinLose': -1.3, 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 150.0, 'allBackwater': 0.1, 'allEfficient': 150.0, 'companyFinal': 9.77, 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 100.0, 'allBackwater': 0.18, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}]]</t>
+  </si>
+  <si>
+    <t>["sr:tournament:2541/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:2541'}/{'sr:tournament:2541'}", "sr:tournament:1270/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1270'}/{'sr:tournament:1270'}", "sr:tournament:55/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:55'}/{'sr:tournament:55'}", "sr:tournament:1347/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1347'}/{'sr:tournament:1347'}", "sr:tournament:29170/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:29170'}/{'sr:tournament:29170'}", "sr:tournament:1258/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1258'}/{'sr:tournament:1258'}", "sr:tournament:41/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:41'}/{'sr:tournament:41'}", "sr:tournament:20/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:20'}/{'sr:tournament:20'}", "sr:tournament:46/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:46'}/{'sr:tournament:46'}", "sr:tournament:27464/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:27464'}/{'sr:tournament:27464'}", "sr:tournament:1260/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1260'}/{'sr:tournament:1260'}"]</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-联赛报表-主查询  /winOrLost/tournament，数据错误，需要比对,17,6\x1b[0m']</t>
   </si>
   <si>
     <t>赛事盈亏-全部赛事查询数据对比</t>
@@ -380,7 +256,17 @@
     <t>tournamentId,matchId</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-赛事盈亏-主查询  /winOrLost/match，接口数据比对全部正确\x1b[0m']</t>
+    <t>测试不通过
+2022-07-11 19:55:31</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': '丹德农城', 'companyFinal': 4.0, 'homeTeamName': '欧克莱卡诺', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'matchId': 'sr:match:32013415', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'awayTeamName': '乐天巨人', 'companyFinal': -62.14, 'homeTeamName': 'LG双子', 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'matchId': 'sr:match:32690525', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': 'Stirling Macedonia FC', 'companyFinal': 3.99, 'homeTeamName': '珀斯光荣(青年)', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'matchId': 'sr:match:32055879', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'KPV科科拉', 'companyFinal': -3.6, 'homeTeamName': '尼斯坦', 'level0Backwater': 0.0, 'level0Final': -3.6, 'level0WinLose': -3.6, 'level1Backwater': 0.0, 'level1Final': -3.6, 'level1WinLose': -3.6, 'level2Backwater': 0.0, 'level2Final': -3.6, 'level2WinLose': -3.6, 'level3Backwater': 0.0, 'level3Final': -3.6, 'level3WinLose': -3.6, 'matchId': 'sr:match:32044567', 'memberBackwater': 0.0, 'memberFinal': 18.0, 'memberWinLose': 18.0, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'MP米克力', 'companyFinal': -2.79, 'homeTeamName': 'KTP', 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'matchId': 'sr:match:32044571', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '维京古', 'companyFinal': -8.3, 'homeTeamName': '雷克雅未克足球俱乐部', 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'matchId': 'sr:match:31421209', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'tournamentId': 'sr:tournament:188', 'tournamentName': '冰岛足球超级联赛'}, {'allAmount': 150.0, 'allBackwater': -0.03, 'allEfficient': 150.0, 'awayTeamName': '基尔梅斯阿根廷', 'companyFinal': 9.77, 'homeTeamName': '阿卡苏索', 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'matchId': 'sr:match:34029371', 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 830.0, 'allBackwater': 0.0, 'allEfficient': 700.11, 'awayTeamName': '串关', 'companyFinal': -93.05, 'homeTeamName': '串关', 'level0Backwater': 0.0, 'level0Final': -92.97, 'level0WinLose': -92.97, 'level1Backwater': 0.0, 'level1Final': -92.97, 'level1WinLose': -92.97, 'level2Backwater': 0.0, 'level2Final': -92.97, 'level2WinLose': -92.97, 'level3Backwater': 0.0, 'level3Final': -92.97, 'level3WinLose': -92.97, 'matchId': '串关', 'memberBackwater': 0.0, 'memberFinal': 464.93, 'memberWinLose': 464.93, 'tournamentId': '串关', 'tournamentName': '串关'}, {'allAmount': 50.0, 'allBackwater': -0.0079, 'allEfficient': 39.5, 'awayTeamName': 'Juan Misael Saracho de Oruro', 'companyFinal': -7.92, 'homeTeamName': '波托西卡莱罗', 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'matchId': 'sr:match:33928965', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '德文波特市', 'companyFinal': 2.0, 'homeTeamName': '南霍巴特', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32411181', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1626', 'tournamentName': '澳大利亚全国超级联赛,塔斯马尼亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '克拉伦斯斑马足球俱乐部', 'companyFinal': 2.0, 'homeTeamName': '河岸奥林匹克', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32411183', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1626', 'tournamentName': '澳大利亚全国超级联赛,塔斯马尼亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '地铁之星', 'companyFinal': 1.99, 'homeTeamName': '阿德莱科梅兹', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31801933', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '坎贝尔市体育馆', 'companyFinal': 2.0, 'homeTeamName': '斯图特狮子', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:31801925', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '南墨尔本', 'companyFinal': -2.3, 'homeTeamName': '东方狮子', 'level0Backwater': 0.0, 'level0Final': -2.3, 'level0WinLose': -2.3, 'level1Backwater': 0.0, 'level1Final': -2.3, 'level1WinLose': -2.3, 'level2Backwater': 0.0, 'level2Final': -2.3, 'level2WinLose': -2.3, 'level3Backwater': 0.0, 'level3Final': -2.3, 'level3WinLose': -2.3, 'matchId': 'sr:match:32013417', 'memberBackwater': 0.0, 'memberFinal': 11.5, 'memberWinLose': 11.5, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '湾水市', 'companyFinal': -2.4, 'homeTeamName': '戈维拉普克罗地亚', 'level0Backwater': 0.0, 'level0Final': -2.4, 'level0WinLose': -2.4, 'level1Backwater': 0.0, 'level1Final': -2.4, 'level1WinLose': -2.4, 'level2Backwater': 0.0, 'level2Final': -2.4, 'level2WinLose': -2.4, 'level3Backwater': 0.0, 'level3Final': -2.4, 'level3WinLose': -2.4, 'matchId': 'sr:match:32055881', 'memberBackwater': 0.0, 'memberFinal': 12.0, 'memberWinLose': 12.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.4, 'awayTeamName': '因勒乌德联', 'companyFinal': -1.28, 'homeTeamName': '科克本市', 'level0Backwater': 0.0, 'level0Final': -1.28, 'level0WinLose': -1.28, 'level1Backwater': 0.0, 'level1Final': -1.28, 'level1WinLose': -1.28, 'level2Backwater': 0.0, 'level2Final': -1.28, 'level2WinLose': -1.28, 'level3Backwater': 0.0, 'level3Final': -1.28, 'level3WinLose': -1.28, 'matchId': 'sr:match:32055883', 'memberBackwater': 0.0, 'memberFinal': 6.4, 'memberWinLose': 6.4, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': '珀斯SC', 'companyFinal': -1.31, 'homeTeamName': '索伦托海鸥', 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'matchId': 'sr:match:32055889', 'memberBackwater': 0.01, 'memberFinal': 6.51, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '弗罗瑞特', 'companyFinal': 1.99, 'homeTeamName': 'ECU乔达路普', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:32055885', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': '马里汉姆', 'companyFinal': -3.32, 'homeTeamName': '洪卡', 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'matchId': 'sr:match:31933911', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 16.5, 'awayTeamName': 'FK Haugesund', 'companyFinal': 0.69, 'homeTeamName': 'FK Jerv', 'level0Backwater': 0.0, 'level0Final': 0.7, 'level0WinLose': 0.7, 'level1Backwater': 0.0, 'level1Final': 0.7, 'level1WinLose': 0.7, 'level2Backwater': 0.0, 'level2Final': 0.7, 'level2WinLose': 0.7, 'level3Backwater': 0.01, 'level3Final': 0.71, 'level3WinLose': 0.7, 'matchId': 'sr:match:31602085', 'memberBackwater': 0.0, 'memberFinal': -3.5, 'memberWinLose': -3.5, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'KuPS', 'companyFinal': 1.99, 'homeTeamName': '赫尔辛基', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31933917', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Utsiktens BK', 'companyFinal': 1.99, 'homeTeamName': 'Ostersunds FK', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31605901', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Skovde AIK', 'companyFinal': 2.0, 'homeTeamName': 'Osters IF', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:31605899', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': 'Bodoe/Glimt', 'companyFinal': -7.1, 'homeTeamName': 'Odds BK', 'level0Backwater': 0.0, 'level0Final': -7.1, 'level0WinLose': -7.1, 'level1Backwater': 0.0, 'level1Final': -7.1, 'level1WinLose': -7.1, 'level2Backwater': 0.0, 'level2Final': -7.1, 'level2WinLose': -7.1, 'level3Backwater': 0.0, 'level3Final': -7.1, 'level3WinLose': -7.1, 'matchId': 'sr:match:31602087', 'memberBackwater': 0.0, 'memberFinal': 35.5, 'memberWinLose': 35.5, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'awayTeamName': '尤尼昂', 'companyFinal': -1.34, 'homeTeamName': '智利大学', 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'matchId': 'sr:match:31802539', 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': 'FC Juarez', 'companyFinal': 3.99, 'homeTeamName': 'Guadalajara Chivas', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'matchId': 'sr:match:33947047', 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'awayTeamName': '市立圣西蒙大学', 'companyFinal': 9.97, 'homeTeamName': 'Universitario de Sucre', 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'matchId': 'sr:match:33928923', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 9.0, 'awayTeamName': '奥康纳骑士', 'companyFinal': -1.81, 'homeTeamName': '甘加林联青年队', 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'matchId': 'sr:match:32014013', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.9, 'awayTeamName': '黑镇市', 'companyFinal': -0.78, 'homeTeamName': '悉尼青年', 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.0, 'level3Final': -0.78, 'level3WinLose': -0.78, 'matchId': 'sr:match:32011279', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'tournamentId': 'sr:tournament:1274', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}], [{'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': '地铁之星', 'companyFinal': 1.99, 'homeTeamName': '阿德莱科梅兹', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31801933', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'awayTeamName': '珀斯SC', 'companyFinal': -1.31, 'homeTeamName': '索伦托海鸥', 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'matchId': 'sr:match:32055889', 'memberBackwater': 0.01, 'memberFinal': 6.51, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 16.5, 'awayTeamName': 'FK Haugesund', 'companyFinal': 0.69, 'homeTeamName': 'FK Jerv', 'level0Backwater': 0.0, 'level0Final': 0.7, 'level0WinLose': 0.7, 'level1Backwater': 0.0, 'level1Final': 0.7, 'level1WinLose': 0.7, 'level2Backwater': 0.0, 'level2Final': 0.7, 'level2WinLose': 0.7, 'level3Backwater': 0.01, 'level3Final': 0.71, 'level3WinLose': 0.7, 'matchId': 'sr:match:31602085', 'memberBackwater': 0.0, 'memberFinal': -3.5, 'memberWinLose': -3.5, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': 'KuPS', 'companyFinal': 1.99, 'homeTeamName': '赫尔辛基', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31933917', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'awayTeamName': '马里汉姆', 'companyFinal': -3.32, 'homeTeamName': '洪卡', 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'matchId': 'sr:match:31933911', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': 'MP米克力', 'companyFinal': -2.79, 'homeTeamName': 'KTP', 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'matchId': 'sr:match:32044571', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'awayTeamName': 'Stirling Macedonia FC', 'companyFinal': 3.99, 'homeTeamName': '珀斯光荣(青年)', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'matchId': 'sr:match:32055879', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 9.0, 'awayTeamName': '奥康纳骑士', 'companyFinal': -1.81, 'homeTeamName': '甘加林联青年队', 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'matchId': 'sr:match:32014013', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': '弗罗瑞特', 'companyFinal': 1.99, 'homeTeamName': 'ECU乔达路普', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:32055885', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': 'Utsiktens BK', 'companyFinal': 1.99, 'homeTeamName': 'Ostersunds FK', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31605901', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'awayTeamName': 'FC Juarez', 'companyFinal': 3.99, 'homeTeamName': 'Guadalajara Chivas', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'matchId': 'sr:match:33947047', 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 150.0, 'allBackwater': 0.1, 'allEfficient': 150.0, 'awayTeamName': '基尔梅斯阿根廷', 'companyFinal': 9.77, 'homeTeamName': '阿卡苏索', 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'matchId': 'sr:match:34029371', 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'awayTeamName': '乐天巨人', 'companyFinal': -62.14, 'homeTeamName': 'LG双子', 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'matchId': 'sr:match:32690525', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 50.0, 'allBackwater': 0.08, 'allEfficient': 39.5, 'awayTeamName': 'Juan Misael Saracho de Oruro', 'companyFinal': -7.92, 'homeTeamName': '波托西卡莱罗', 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'matchId': 'sr:match:33928965', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'awayTeamName': '市立圣西蒙大学', 'companyFinal': 9.97, 'homeTeamName': 'Universitario de Sucre', 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'matchId': 'sr:match:33928923', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}]]</t>
+  </si>
+  <si>
+    <t>['sr:tournament:2541-sr:match:32690525/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.403/0.65', 'sr:tournament:1270-sr:match:32055879/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:55-sr:match:32044571/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:1347-sr:match:34029371/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.03/0.1', 'sr:tournament:29170-sr:match:33928965/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.0079/0.08', 'sr:tournament:1258-sr:match:31801933/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:1270-sr:match:32055889/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:1270-sr:match:32055885/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:41-sr:match:31933911/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.04', 'sr:tournament:20-sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:41-sr:match:31933917/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:46-sr:match:31605901/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:27464-sr:match:33947047/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:29170-sr:match:33928923/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1', 'sr:tournament:1260-sr:match:32014013/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-赛事盈亏-主查询  /winOrLost/match，数据错误，需要比对,29,14\x1b[0m']</t>
   </si>
   <si>
     <t>赛事盈亏-单独赛事盘口数据对比</t>
@@ -406,7 +292,17 @@
     <t>sportName,marketName</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-赛事盈亏-子查询（根据其赛事查询其盘口）  ["/winOrLost/match","/winOrLost/market"]，接口数据比对全部正确\x1b[0m']</t>
+    <t>测试不通过
+2022-07-11 19:56:10</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '15', 'marketName': '净胜球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '净胜球数', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '45', 'marketName': '波胆', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '波胆', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -3.6, 'level0Backwater': 0.0, 'level0Final': -3.6, 'level0WinLose': -3.6, 'level1Backwater': 0.0, 'level1Final': -3.6, 'level1WinLose': -3.6, 'level2Backwater': 0.0, 'level2Final': -3.6, 'level2WinLose': -3.6, 'level3Backwater': 0.0, 'level3Final': -3.6, 'level3WinLose': -3.6, 'marketId': '23', 'marketName': '尼斯坦 进球数', 'memberBackwater': 0.0, 'memberFinal': 18.0, 'memberWinLose': 18.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -2.79, 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'marketId': '34', 'marketName': '维京古 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 100.0, 'allBackwater': 0.0, 'allEfficient': 100.0, 'companyFinal': 20.0, 'level0Backwater': 0.0, 'level0Final': 20.0, 'level0WinLose': 20.0, 'level1Backwater': 0.0, 'level1Final': 20.0, 'level1WinLose': 20.0, 'level2Backwater': 0.0, 'level2Final': 20.0, 'level2WinLose': 20.0, 'level3Backwater': 0.0, 'level3Final': 20.0, 'level3WinLose': 20.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -100.0, 'memberWinLose': -100.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'companyFinal': -10.23, 'level0Backwater': -0.02, 'level0Final': -10.22, 'level0WinLose': -10.2, 'level1Backwater': -0.02, 'level1Final': -10.22, 'level1WinLose': -10.2, 'level2Backwater': -0.01, 'level2Final': -10.21, 'level2WinLose': -10.2, 'level3Backwater': 0.06, 'level3Final': -10.14, 'level3WinLose': -10.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 51.02, 'memberWinLose': 51.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': -0.0079, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '24', 'marketName': '德文波特市 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '30', 'marketName': '哪队进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '哪队进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '23', 'marketName': '斯图特狮子 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -2.3, 'level0Backwater': 0.0, 'level0Final': -2.3, 'level0WinLose': -2.3, 'level1Backwater': 0.0, 'level1Final': -2.3, 'level1WinLose': -2.3, 'level2Backwater': 0.0, 'level2Final': -2.3, 'level2WinLose': -2.3, 'level3Backwater': 0.0, 'level3Final': -2.3, 'level3WinLose': -2.3, 'marketId': '34', 'marketName': '南墨尔本 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 11.5, 'memberWinLose': 11.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -2.4, 'level0Backwater': 0.0, 'level0Final': -2.4, 'level0WinLose': -2.4, 'level1Backwater': 0.0, 'level1Final': -2.4, 'level1WinLose': -2.4, 'level2Backwater': 0.0, 'level2Final': -2.4, 'level2WinLose': -2.4, 'level3Backwater': 0.0, 'level3Final': -2.4, 'level3WinLose': -2.4, 'marketId': '24', 'marketName': '湾水市 进球数', 'memberBackwater': 0.0, 'memberFinal': 12.0, 'memberWinLose': 12.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.4, 'companyFinal': -1.28, 'level0Backwater': 0.0, 'level0Final': -1.28, 'level0WinLose': -1.28, 'level1Backwater': 0.0, 'level1Final': -1.28, 'level1WinLose': -1.28, 'level2Backwater': 0.0, 'level2Final': -1.28, 'level2WinLose': -1.28, 'level3Backwater': 0.0, 'level3Final': -1.28, 'level3WinLose': -1.28, 'marketId': '11', 'marketName': '平局退款', 'memberBackwater': 0.0, 'memberFinal': 6.4, 'memberWinLose': 6.4, 'sportId': 'sr:sport:1', 'sportMarketName': '平局退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -3.3, 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.0, 'level3Final': -3.3, 'level3WinLose': -3.3, 'marketId': '24', 'marketName': '珀斯SC 进球数', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -5.31, 'level0Backwater': 0.0, 'level0Final': -5.3, 'level0WinLose': -5.3, 'level1Backwater': 0.0, 'level1Final': -5.3, 'level1WinLose': -5.3, 'level2Backwater': 0.0, 'level2Final': -5.3, 'level2WinLose': -5.3, 'level3Backwater': 0.01, 'level3Final': -5.29, 'level3WinLose': -5.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 26.5, 'memberWinLose': 26.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.5, 'companyFinal': -1.3, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'marketId': '77', 'marketName': '上半场 - FK Haugesund 不失球', 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 客队 不失球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '51', 'marketName': 'Skovde AIK 赢任何半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 赢任何半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '71', 'marketName': '上半场 - 总入球 ', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -9.1, 'level0Backwater': 0.0, 'level0Final': -9.1, 'level0WinLose': -9.1, 'level1Backwater': 0.0, 'level1Final': -9.1, 'level1WinLose': -9.1, 'level2Backwater': 0.0, 'level2Final': -9.1, 'level2WinLose': -9.1, 'level3Backwater': 0.0, 'level3Final': -9.1, 'level3WinLose': -9.1, 'marketId': '15', 'marketName': '净胜球数', 'memberBackwater': 0.0, 'memberFinal': 45.5, 'memberWinLose': 45.5, 'sportId': 'sr:sport:1', 'sportMarketName': '净胜球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'companyFinal': -1.34, 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'marketId': '542', 'marketName': '上半场 - 双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.9, 'companyFinal': -0.78, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.0, 'level3Final': -0.78, 'level3WinLose': -0.78, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}], [{'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': -5.31, 'level0Backwater': 0.0, 'level0Final': -5.3, 'level0WinLose': -5.3, 'level1Backwater': 0.0, 'level1Final': -5.3, 'level1WinLose': -5.3, 'level2Backwater': 0.0, 'level2Final': -5.3, 'level2WinLose': -5.3, 'level3Backwater': 0.01, 'level3Final': -5.29, 'level3WinLose': -5.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 26.5, 'memberWinLose': 26.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': -2.79, 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': -10.23, 'level0Backwater': -0.02, 'level0Final': -10.22, 'level0WinLose': -10.2, 'level1Backwater': -0.02, 'level1Final': -10.22, 'level1WinLose': -10.2, 'level2Backwater': -0.01, 'level2Final': -10.21, 'level2WinLose': -10.2, 'level3Backwater': 0.06, 'level3Final': -10.14, 'level3WinLose': -10.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 51.02, 'memberWinLose': 51.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 50.0, 'allBackwater': 0.08, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}]]</t>
+  </si>
+  <si>
+    <t>['棒球-让球 (包括加时赛)/sr:match:32055879/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.403/0.65', '足球-双重机会&amp;大/小/sr:match:32044571/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:34029371/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:34029371/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.79/1.99', '足球-上半场 - 大/小/sr:match:34029371/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.77/2.01', '足球-上半场 - 大/小/sr:match:34029371/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：13.9/-10.0', '足球-上半场 - 大/小/sr:match:34029371/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：13.9/-10.0', '足球-上半场 - 大/小/sr:match:34029371/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-让球/sr:match:32411183/allAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：50.0/10.0', '足球-让球/sr:match:32411183/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.02', '足球-让球/sr:match:32411183/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：50.0/10.0', '足球-让球/sr:match:32411183/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.23/1.99', '足球-让球/sr:match:32411183/level0Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.02/0.0', '足球-让球/sr:match:32411183/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.22/2.0', '足球-让球/sr:match:32411183/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/level1Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.02/0.0', '足球-让球/sr:match:32411183/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.22/2.0', '足球-让球/sr:match:32411183/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/level2Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.0', '足球-让球/sr:match:32411183/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.21/2.0', '足球-让球/sr:match:32411183/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.06/0.01', '足球-让球/sr:match:32411183/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.14/2.01', '足球-让球/sr:match:32411183/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.02/0.0', '足球-让球/sr:match:32411183/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.02/-10.0', '足球-让球/sr:match:32411183/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.0/-10.0', '足球-让球/sr:match:32411183/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1', '篮球-让球/sr:match:31801933/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.0079/0.08', '足球-单/双/sr:match:32055881/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:32055881/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:32055881/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/sr:match:32055881/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/2.0', '足球-单/双/sr:match:32055881/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:32055881/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/-9.99', '足球-单/双/sr:match:32055881/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:32055881/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/9.0', '足球-单/双/sr:match:32055881/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-1.81', '足球-单/双/sr:match:32055881/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-1.79', '足球-单/双/sr:match:32055881/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/9.0', '足球-单/双/sr:match:32055881/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/9.0', '足球-单/双/sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:31602085/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:31602085/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/2.01', '足球-单/双/sr:match:31602085/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/sr:match:31602085/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/-10.0', '足球-单/双/sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:31602085/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/9.0', '足球-单/双/sr:match:31602085/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-1.81', '足球-单/双/sr:match:31602085/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:31602085/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.79', '足球-单/双/sr:match:31602085/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/sr:match:31602085/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/9.0', '足球-单/双/sr:match:31602085/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/9.0', '足球-让球/sr:match:31605901/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-让球/sr:match:31605901/allAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/50.0', '足球-让球/sr:match:31605901/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.1', '足球-让球/sr:match:31605901/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/50.0', '足球-让球/sr:match:31605901/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-10.23', '足球-让球/sr:match:31605901/level0Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.02', '足球-让球/sr:match:31605901/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.22', '足球-让球/sr:match:31605901/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/level1Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.02', '足球-让球/sr:match:31605901/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.22', '足球-让球/sr:match:31605901/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/level2Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.01', '足球-让球/sr:match:31605901/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.21', '足球-让球/sr:match:31605901/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.06', '足球-让球/sr:match:31605901/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-10.14', '足球-让球/sr:match:31605901/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-让球/sr:match:31605901/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/51.02', '足球-让球/sr:match:31605901/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/51.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.31/1.99', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.29/2.01', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：26.5/-10.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：26.5/-10.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-两个半场 小1.5/sr:match:31602087/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:31802539/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:31802539/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:31802539/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-2.79', '足球-上半场 - 大/小/sr:match:31802539/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-2.77', '足球-上半场 - 大/小/sr:match:31802539/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/13.9', '足球-上半场 - 大/小/sr:match:31802539/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/13.9', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-5.31', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-5.29', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/26.5', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/26.5', '足球-上半场 - 单/双/sr:match:32014013/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-净胜球数/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：45.5/-10.0', '足球-净胜球数/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：45.5/-10.0', '足球-FC Juarez 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '篮球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/10.0', '足球-单/双/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.81/1.99', '足球-单/双/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.79/2.01', '足球-单/双/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-10.0', '足球-单/双/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-10.0', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/10.0', '足球-单/双/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.81/1.99', '足球-单/双/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.79/2.0', '足球-单/双/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-9.99', '足球-单/双/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-10.0', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-两队都进球/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3.9/10.0', '足球-两队都进球/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3.9/-10.0', '足球-两队都进球/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3.9/-10.0']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-赛事盈亏-子查询（根据其赛事查询其盘口）  ["/winOrLost/match","/winOrLost/market"]，数据错误，需要比对,36,20\x1b[0m']</t>
   </si>
   <si>
     <t>混合串关-全部串关查询数据对比</t>
@@ -424,13 +320,165 @@
     <t>[{"matchId":"","sportId":"","queryDateType":3,"begin":begin,"end":end,"searchAccount":"","page":1,"limit":50}]</t>
   </si>
   <si>
-    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (c.login_account) AS '登入账号',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',c.user_name AS '账号' FROM o_account_order AS c WHERE c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.STATUS=2 AND c.bet_type&gt; 1 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name"</t>
+    <t>@f"SELECT SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额','公司总计'as '公司总计',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',any_value (c.login_account) AS '登入账号',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',c.user_name AS '账号' FROM o_account_order AS c WHERE c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.STATUS=2 AND c.bet_type&gt; 1 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name,c.award_time ORDER BY c.award_time ASC"</t>
   </si>
   <si>
     <t>userName,loginAccount</t>
   </si>
   <si>
-    <t>['\x1b[32m代理d0的报表-混合串关-主查询  /winOrLost/multiterm，接口数据比对全部正确\x1b[0m']</t>
+    <t>测试通过
+2022-07-11 19:56:24</t>
+  </si>
+  <si>
+    <t>未完成交易-登0代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>未完成交易-登0-主查询</t>
+  </si>
+  <si>
+    <t>/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442"}]</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
+@f"SELECT id,role_id FROM m_account WHERE id='{all}'"
+@f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID',SUM(c.company_actual_percentage*c.bet_amount) '公司占成',b.currency '货币',SUM(c.level0_actual_percentage*c.bet_amount) '总代理占成',SUM(c.level1_actual_percentage*c.bet_amount) '一级代理占成',SUM(c.level2_actual_percentage*c.bet_amount) '二级代理占成',SUM(c.level3_actual_percentage*c.bet_amount) '三级代理占成',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS IN (1,2) AND c.proxy{num}_id='{all}' AND c.award_time IS NULL GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency"</t>
+  </si>
+  <si>
+    <t>account,parentId</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-11 19:56:26</t>
+  </si>
+  <si>
+    <t>未完成交易-登0,登3跳转会员代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>未完成交易-登0-登3-会员-子查询</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074"}]</t>
+  </si>
+  <si>
+    <t>@SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID',SUM(c.company_actual_percentage*c.bet_amount) '公司占成',c.currency '货币',SUM(c.level0_actual_percentage*c.bet_amount) '总代理占成',SUM(c.level1_actual_percentage*c.bet_amount) '一级代理占成',SUM(c.level2_actual_percentage*c.bet_amount) '二级代理占成',SUM(c.level3_actual_percentage*c.bet_amount) '三级代理占成',a.role_id '代理角色ID','会员' AS '代理级别',b.name '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount) '总投注额' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id 
+WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency,c.proxy3_id</t>
+  </si>
+  <si>
+    <t>未完成交易-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>未完成交易-登0-登3-会员-查看订单详情-子查询</t>
+  </si>
+  <si>
+    <t>"/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList","/agentBackground/UndoneTransaction/queryMemberUndoneOrderList"</t>
+  </si>
+  <si>
+    <t>companyCommissionRatio,companyPercentage,betMix</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074"},{"page":1,"limit":50,"account":"","parentId":"jnj"}]</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>@SELECT CONCAT(user_name,'/',login_account),SUM(bet_amount) FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL GROUP BY c.user_id) AND STATUS IN (1,2)  AND award_time IS NULL 
+GROUP BY user_name,login_account
+@SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.STATUS) WHEN '0' THEN '待确认' WHEN '1' THEN '未结算' WHEN '2' THEN '已结算' WHEN '3' THEN '已取消' END) AS '注单状态',any_value (c.bet_type) '注单状态',any_value (c.create_time),any_value (c.company_retreat_proportion) '总代理佣金比例',any_value (c.level0_actual_percentage) '总代理占成',any_value (c.level0_retreat_proportion) '一级代理佣金',any_value (c.level1_actual_percentage) '一级代理占成',any_value (c.level1_retreat_proportion) '二级代理佣金',any_value (c.level2_actual_percentage) '二级代理占成',any_value (c.level2_retreat_proportion) '三级代理佣金',SUM(c.level3_actual_percentage) '三级代理占成',any_value (c.level3_retreat_proportion) '会员佣金',any_value (b.NAME) '名称',c.mix_num,'odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',order_no,CASE sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS IN (1,2) AND order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id LEFT JOIN o_account_order_match AS d ON d.order_no=c.order_no WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL)) AND c.award_time IS NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.mix_num
+@SELECT b.away_team_name,b.bet_score,b.home_team_name,b.market_name,b.match_time,CASE b.is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',b.credit_odds,b.odds_type AS '赔率类型',b.order_no,b.outcome_name,b.specifier,b.tournament_name FROM o_account_order_match as b WHERE b.order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL))</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-11 19:58:12</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0-主查询</t>
+  </si>
+  <si>
+    <t>/agentBackground/profitAndLoss/queryProxyProfitAndLossList</t>
+  </si>
+  <si>
+    <t>companyCommission,companyWinOrLose,id,payout,settlementDate,updateTime</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442","startTime":begin,"endTime":end}]</t>
+  </si>
+  <si>
+    <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
+@f"SELECT id,role_id FROM m_account WHERE id='{all}'"
+@f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID','公司总计' AS '公司总计',b.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS=2 AND c.proxy{num}_id='{all}' \
+AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-11 19:58:16</t>
+  </si>
+  <si>
+    <t>[[{'account': 'd0d1/d10', 'accountId': '1531517033355976705', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 1, 'levelName': '登1', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登1', 'numberOfBets': 51, 'parentId': '1531516017847869442', 'totalBet': 1890.0, 'totalCommission': -2.930009, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2/d2', 'accountId': '1531517351158390786', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 2, 'levelName': '登2', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登2', 'numberOfBets': 51, 'parentId': '1531517033355976705', 'totalBet': 1890.0, 'totalCommission': -2.930009, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2d3/d3', 'accountId': '1531517760300163074', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 3, 'levelName': '登3', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登3', 'numberOfBets': 51, 'parentId': '1531517351158390786', 'totalBet': 1890.0, 'totalCommission': -2.930009, 'totalEfficientAmount': 1542.11}], [{'account': 'd0d1/d10', 'accountId': '1531517033355976705', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 1, 'levelName': '登1', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登1', 'numberOfBets': 51, 'parentId': '1531516017847869442', 'totalBet': 1890.0, 'totalCommission': 1.19, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2/d2', 'accountId': '1531517351158390786', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 2, 'levelName': '登2', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登2', 'numberOfBets': 51, 'parentId': '1531517033355976705', 'totalBet': 1890.0, 'totalCommission': 1.19, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2d3/d3', 'accountId': '1531517760300163074', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 3, 'levelName': '登3', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登3', 'numberOfBets': 51, 'parentId': '1531517351158390786', 'totalBet': 1890.0, 'totalCommission': 1.19, 'totalEfficientAmount': 1542.11}]]</t>
+  </si>
+  <si>
+    <t>['d0d1/d10-1531516017847869442/1531516017847869442/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.930009/1.19', 'd0d1d2/d2-1531517033355976705/1531517033355976705/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.930009/1.19', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.930009/1.19']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的盈亏详情-登0-主查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,3,0\x1b[0m']</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0,登3跳转会员代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0-登3-会员-子查询</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end}]</t>
+  </si>
+  <si>
+    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-11 19:58:42</t>
+  </si>
+  <si>
+    <t>[[{'account': 'd0d1d2d33a/fceshi070', 'accountId': '1531519743081881601', 'companyTotal': -55.96, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -55.92, 'level0WinOrLose': -55.92, 'level1Commission': 0.0, 'level1Total': -55.92, 'level1WinOrLose': -55.92, 'level2Commission': 0.0, 'level2Total': -55.92, 'level2WinOrLose': -55.92, 'level3Commission': 0.0, 'level3Total': -55.92, 'level3WinOrLose': -55.92, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 279.64, 'memberWinOrLose': 279.64, 'name': '杜鑫test账号da', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 40.0}, {'account': 'd0d1d2d3bm/fceshi0290', 'accountId': '1531520793293660162', 'companyTotal': -8.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -8.3, 'level0WinOrLose': -8.3, 'level1Commission': 0.0, 'level1Total': -8.3, 'level1WinOrLose': -8.3, 'level2Commission': 0.0, 'level2Total': -8.3, 'level2WinOrLose': -8.3, 'level3Commission': 0.0, 'level3Total': -8.3, 'level3WinOrLose': -8.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 41.5, 'memberWinOrLose': 41.5, 'name': '杜鑫test账号bm', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3dg/fceshi0336', 'accountId': '1531520984797192194', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dg', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jh/fceshi0493', 'accountId': '1531521651876077570', 'companyTotal': -3.6, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -3.6, 'level0WinOrLose': -3.6, 'level1Commission': 0.0, 'level1Total': -3.6, 'level1WinOrLose': -3.6, 'level2Commission': 0.0, 'level2Total': -3.6, 'level2WinOrLose': -3.6, 'level3Commission': 0.0, 'level3Total': -3.6, 'level3WinOrLose': -3.6, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 18.0, 'memberWinOrLose': 18.0, 'name': '杜鑫test账号jh', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jo/fceshi0500', 'accountId': '1531521680581894146', 'companyTotal': -48.32, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -48.29, 'level0WinOrLose': -48.1, 'level1Commission': -0.18, 'level1Total': -48.28, 'level1WinOrLose': -48.1, 'level2Commission': -0.15, 'level2Total': -48.25, 'level2WinOrLose': -48.1, 'level3Commission': 0.54, 'level3Total': -47.56, 'level3WinOrLose': -48.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.2, 'memberTotal': 240.7, 'memberWinOrLose': 240.5, 'name': '杜鑫test账号jo', 'numberOfBets': 6, 'parentId': '1531517760300163074', 'totalBet': 760.0, 'totalCommission': -1.06305, 'totalEfficientAmount': 559.5}, {'account': 'd0d1d2d3pe/fceshi0646', 'accountId': '1531522297580789762', 'companyTotal': -2.79, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.78, 'level0WinOrLose': -2.78, 'level1Commission': 0.0, 'level1Total': -2.78, 'level1WinOrLose': -2.78, 'level2Commission': 0.0, 'level2Total': -2.78, 'level2WinOrLose': -2.78, 'level3Commission': 0.01, 'level3Total': -2.77, 'level3WinOrLose': -2.78, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 13.9, 'memberWinOrLose': 13.9, 'name': '杜鑫test账号pe', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3pu/fceshi0662', 'accountId': '1531522363683020801', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pu', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3sw/fceshi0742', 'accountId': '1531522711202078722', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号sw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30b/fceshi01', 'accountId': '1531519190650101761', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ab', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30m/fceshi012', 'accountId': '1531519243502526466', 'companyTotal': 1.58, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 1.56, 'level0WinOrLose': 1.56, 'level1Commission': 0.0, 'level1Total': 1.56, 'level1WinOrLose': 1.56, 'level2Commission': 0.0, 'level2Total': 1.56, 'level2WinOrLose': 1.56, 'level3Commission': 0.0, 'level3Total': 1.56, 'level3WinOrLose': 1.56, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -7.82, 'memberWinOrLose': -7.82, 'name': '杜鑫test账号am', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 7.82}, {'account': 'd0d1d2d30q/fceshi016', 'accountId': '1531519261340901378', 'companyTotal': -4.05, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.01, 'level0WinOrLose': -4.01, 'level1Commission': 0.0, 'level1Total': -4.01, 'level1WinOrLose': -4.01, 'level2Commission': 0.0, 'level2Total': -4.01, 'level2WinOrLose': -4.01, 'level3Commission': 0.0, 'level3Total': -4.01, 'level3WinOrLose': -4.01, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 20.09, 'memberWinOrLose': 20.09, 'name': '杜鑫test账号aq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 20.09}, {'account': 'd0d1d2d31e/fceshi030', 'accountId': '1531519318890946562', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号be', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31o/fceshi040', 'accountId': '1531519360410361857', 'companyTotal': -55.85, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -55.82, 'level0WinOrLose': -55.82, 'level1Commission': 0.0, 'level1Total': -55.82, 'level1WinOrLose': -55.82, 'level2Commission': 0.0, 'level2Total': -55.82, 'level2WinOrLose': -55.82, 'level3Commission': 0.0, 'level3Total': -55.82, 'level3WinOrLose': -55.82, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 279.13, 'memberWinOrLose': 279.13, 'name': '杜鑫test账号bo', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 260.0, 'totalCommission': 0.0, 'totalEfficientAmount': 260.0}, {'account': 'd0d1d2d32d/fceshi047', 'accountId': '1531519648210919426', 'companyTotal': -12.15, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -12.15, 'level0WinOrLose': -12.15, 'level1Commission': 0.0, 'level1Total': -12.15, 'level1WinOrLose': -12.15, 'level2Commission': 0.0, 'level2Total': -12.15, 'level2WinOrLose': -12.15, 'level3Commission': 0.0, 'level3Total': -12.15, 'level3WinOrLose': -12.15, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 60.75, 'memberWinOrLose': 60.75, 'name': '杜鑫test账号cd', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 40.0}, {'account': 'd0d1d2d32e/fceshi048', 'accountId': '1531519652338114562', 'companyTotal': 0.46, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 0.44, 'level0WinOrLose': 0.44, 'level1Commission': 0.0, 'level1Total': 0.44, 'level1WinOrLose': 0.44, 'level2Commission': 0.0, 'level2Total': 0.44, 'level2WinOrLose': 0.44, 'level3Commission': 0.0, 'level3Total': 0.44, 'level3WinOrLose': 0.44, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -2.22, 'memberWinOrLose': -2.22, 'name': '杜鑫test账号ce', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 2.22}, {'account': 'd0d1d2d32l/fceshi055', 'accountId': '1531519681106845698', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32p/fceshi059', 'accountId': '1531519697598849026', 'companyTotal': 22.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 22.0, 'level0WinOrLose': 22.0, 'level1Commission': 0.0, 'level1Total': 22.0, 'level1WinOrLose': 22.0, 'level2Commission': 0.0, 'level2Total': 22.0, 'level2WinOrLose': 22.0, 'level3Commission': 0.0, 'level3Total': 22.0, 'level3WinOrLose': 22.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -110.0, 'memberWinOrLose': -110.0, 'name': '杜鑫test账号cp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 110.0}, {'account': 'd0d1d2d32t/fceshi063', 'accountId': '1531519714225070082', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ct', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32y/fceshi068', 'accountId': '1531519734840074241', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cy', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d33p/fceshi085', 'accountId': '1531519808219422721', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d33q/fceshi086', 'accountId': '1531519812338229249', 'companyTotal': -1.28, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.28, 'level0WinOrLose': -1.28, 'level1Commission': 0.0, 'level1Total': -1.28, 'level1WinOrLose': -1.28, 'level2Commission': 0.0, 'level2Total': -1.28, 'level2WinOrLose': -1.28, 'level3Commission': 0.0, 'level3Total': -1.28, 'level3WinOrLose': -1.28, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.4, 'memberWinOrLose': 6.4, 'name': '杜鑫test账号dq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.4}, {'account': 'd0d1d2d34c/fceshi098', 'accountId': '1531519865471672322', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ec', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d34i/fceshi0104', 'accountId': '1531519890058682370', 'companyTotal': -2.4, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.4, 'level0WinOrLose': -2.4, 'level1Commission': 0.0, 'level1Total': -2.4, 'level1WinOrLose': -2.4, 'level2Commission': 0.0, 'level2Total': -2.4, 'level2WinOrLose': -2.4, 'level3Commission': 0.0, 'level3Total': -2.4, 'level3WinOrLose': -2.4, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 12.0, 'memberWinOrLose': 12.0, 'name': '杜鑫test账号ei', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d35s/fceshi0140', 'accountId': '1531520059173019649', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号fs', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d38g/fceshi0206', 'accountId': '1531520338475917314', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ig', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d39k/fceshi0236', 'accountId': '1531520470793625602', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号jk', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3aw/fceshi0274', 'accountId': '1531520727564722177', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号aw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3dk/fceshi0340', 'accountId': '1531521003319238657', 'companyTotal': -1.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.3, 'level0WinOrLose': -1.3, 'level1Commission': 0.0, 'level1Total': -1.3, 'level1WinOrLose': -1.3, 'level2Commission': 0.0, 'level2Total': -1.3, 'level2WinOrLose': -1.3, 'level3Commission': 0.0, 'level3Total': -1.3, 'level3WinOrLose': -1.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.5, 'memberWinOrLose': 6.5, 'name': '杜鑫test账号dk', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.5}, {'account': 'd0d1d2d3ex/fceshi0379', 'accountId': '1531521169552089090', 'companyTotal': -9.1, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -9.1, 'level0WinOrLose': -9.1, 'level1Commission': 0.0, 'level1Total': -9.1, 'level1WinOrLose': -9.1, 'level2Commission': 0.0, 'level2Total': -9.1, 'level2WinOrLose': -9.1, 'level3Commission': 0.0, 'level3Total': -9.1, 'level3WinOrLose': -9.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 45.5, 'memberWinOrLose': 45.5, 'name': '杜鑫test账号ex', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3gc/fceshi0410', 'accountId': '1531521297901985794', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号gc', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3il/fceshi0471', 'accountId': '1531521561669181442', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号il', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3im/fceshi0472', 'accountId': '1531521565716684801', 'companyTotal': -1.34, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.34, 'level0WinOrLose': -1.34, 'level1Commission': 0.0, 'level1Total': -1.34, 'level1WinOrLose': -1.34, 'level2Commission': 0.0, 'level2Total': -1.34, 'level2WinOrLose': -1.34, 'level3Commission': 0.0, 'level3Total': -1.34, 'level3WinOrLose': -1.34, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.7, 'memberWinOrLose': 6.7, 'name': '杜鑫test账号im', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.7}, {'account': 'd0d1d2d3it/fceshi0479', 'accountId': '1531521594141483009', 'companyTotal': -2.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.3, 'level0WinOrLose': -2.3, 'level1Commission': 0.0, 'level1Total': -2.3, 'level1WinOrLose': -2.3, 'level2Commission': 0.0, 'level2Total': -2.3, 'level2WinOrLose': -2.3, 'level3Commission': 0.0, 'level3Total': -2.3, 'level3WinOrLose': -2.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 11.5, 'memberWinOrLose': 11.5, 'name': '杜鑫test账号it', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jl/fceshi0497', 'accountId': '1531521668368080897', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号jl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3pn/fceshi0655', 'accountId': '1531522334364835842', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pn', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3rn/fceshi0707', 'accountId': '1531522550153388034', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号rn', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3rv/fceshi0715', 'accountId': '1531522585666560002', 'companyTotal': -5.31, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -5.3, 'level0WinOrLose': -5.3, 'level1Commission': 0.0, 'level1Total': -5.3, 'level1WinOrLose': -5.3, 'level2Commission': 0.0, 'level2Total': -5.3, 'level2WinOrLose': -5.3, 'level3Commission': 0.01, 'level3Total': -5.29, 'level3WinOrLose': -5.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 26.5, 'memberWinOrLose': 26.5, 'name': '杜鑫test账号rv', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3sb/fceshi0721', 'accountId': '1531522614112329730', 'companyTotal': -3.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -3.3, 'level0WinOrLose': -3.3, 'level1Commission': 0.0, 'level1Total': -3.3, 'level1WinOrLose': -3.3, 'level2Commission': 0.0, 'level2Total': -3.3, 'level2WinOrLose': -3.3, 'level3Commission': 0.0, 'level3Total': -3.3, 'level3WinOrLose': -3.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 16.5, 'memberWinOrLose': 16.5, 'name': '杜鑫test账号sb', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3sk/fceshi0730', 'accountId': '1531522658584535041', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号sk', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3uh/fceshi0779', 'accountId': '1531522866433269761', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号uh', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30v/fceshi021', 'accountId': '1531519281897185282', 'companyTotal': -1.81, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.8, 'level0WinOrLose': -1.8, 'level1Commission': 0.0, 'level1Total': -1.8, 'level1WinOrLose': -1.8, 'level2Commission': 0.0, 'level2Total': -1.8, 'level2WinOrLose': -1.8, 'level3Commission': 0.01, 'level3Total': -1.79, 'level3WinOrLose': -1.8, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 9.0, 'memberWinOrLose': 9.0, 'name': '杜鑫test账号av', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 9.0}, {'account': 'd0d1d2d31a/fceshi026', 'accountId': '1531519302432497666', 'companyTotal': 6.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 6.0, 'level0WinOrLose': 6.0, 'level1Commission': 0.0, 'level1Total': 6.0, 'level1WinOrLose': 6.0, 'level2Commission': 0.0, 'level2Total': 6.0, 'level2WinOrLose': 6.0, 'level3Commission': 0.0, 'level3Total': 6.0, 'level3WinOrLose': 6.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -30.0, 'memberWinOrLose': -30.0, 'name': '杜鑫test账号ba', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 30.0}, {'account': 'd0d1d2d31l/fceshi037', 'accountId': '1531519348049747969', 'companyTotal': -21.1, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -21.06, 'level0WinOrLose': -21.06, 'level1Commission': 0.0, 'level1Total': -21.06, 'level1WinOrLose': -21.06, 'level2Commission': 0.0, 'level2Total': -21.06, 'level2WinOrLose': -21.06, 'level3Commission': 0.0, 'level3Total': -21.06, 'level3WinOrLose': -21.06, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 105.34, 'memberWinOrLose': 105.34, 'name': '杜鑫test账号bl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 60.0, 'totalCommission': 0.0, 'totalEfficientAmount': 60.0}, {'account': 'd0d1d2d32z/fceshi069', 'accountId': '1531519738950492161', 'companyTotal': 15.7, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 15.69, 'level0WinOrLose': 15.69, 'level1Commission': 0.0, 'level1Total': 15.69, 'level1WinOrLose': 15.69, 'level2Commission': 0.0, 'level2Total': 15.69, 'level2WinOrLose': 15.69, 'level3Commission': 0.0, 'level3Total': 15.69, 'level3WinOrLose': 15.69, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -78.46, 'memberWinOrLose': -78.46, 'name': '杜鑫test账号cz', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 78.46}, {'account': 'd0d1d2d33b/fceshi071', 'accountId': '1531519747196493826', 'companyTotal': 2.32, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.3, 'level0WinOrLose': 2.3, 'level1Commission': 0.0, 'level1Total': 2.3, 'level1WinOrLose': 2.3, 'level2Commission': 0.0, 'level2Total': 2.3, 'level2WinOrLose': 2.3, 'level3Commission': 0.0, 'level3Total': 2.3, 'level3WinOrLose': 2.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -11.52, 'memberWinOrLose': -11.52, 'name': '杜鑫test账号db', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 11.52}, {'account': 'd0d1d2d3mt/fceshi0583', 'accountId': '1531522035277406210', 'companyTotal': -0.78, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.78, 'level0WinOrLose': -0.78, 'level1Commission': 0.0, 'level1Total': -0.78, 'level1WinOrLose': -0.78, 'level2Commission': 0.0, 'level2Total': -0.78, 'level2WinOrLose': -0.78, 'level3Commission': 0.0, 'level3Total': -0.78, 'level3WinOrLose': -0.78, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 3.9, 'memberWinOrLose': 3.9, 'name': '杜鑫test账号mt', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 3.9}], [{'account': 'd0d1d2d3aw/fceshi0274', 'accountId': '1531520727564722177', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号aw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3il/fceshi0471', 'accountId': '1531521561669181442', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号il', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jo/fceshi0500', 'accountId': '1531521680581894146', 'companyTotal': -48.32, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -48.29, 'level0WinOrLose': -48.1, 'level1Commission': -0.18, 'level1Total': -48.28, 'level1WinOrLose': -48.1, 'level2Commission': -0.15, 'level2Total': -48.25, 'level2WinOrLose': -48.1, 'level3Commission': 0.54, 'level3Total': -47.56, 'level3WinOrLose': -48.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.2, 'memberTotal': 240.7, 'memberWinOrLose': 240.5, 'name': '杜鑫test账号jo', 'numberOfBets': 6, 'parentId': '1531517760300163074', 'totalBet': 760.0, 'totalCommission': 0.22, 'totalEfficientAmount': 559.5}]]</t>
+  </si>
+  <si>
+    <t>['d0d1d2d3jo/fceshi0500-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.06305/0.22', 'd0d1d2d3aw/fceshi0274-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', 'd0d1d2d3il/fceshi0471-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的盈亏详情-登0-登3-会员-子查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,46,43\x1b[0m']</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0-登3-会员-查看订单详情-子查询</t>
+  </si>
+  <si>
+    <t>"/agentBackground/profitAndLoss/queryProxyProfitAndLossList","/agentBackground/profitAndLoss/queryMemberProfitAndLossOrderList"</t>
+  </si>
+  <si>
+    <t>betTime,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,settlementTime,betMix</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end},{"page":1,"limit":50,"account":"","parentId":"1531519668859478017"}]</t>
+  </si>
+  <si>
+    <t>@f"SELECT CONCAT(user_name,'/',login_account) AS '账号/登入账号',SUM(level0_backwater_amount),SUM(level0_win_or_lose),SUM(level0_win_or_lose-level0_backwater_amount),SUM(level1_backwater_amount),SUM(level1_win_or_lose),SUM(level1_win_or_lose-level1_backwater_amount),SUM(level2_backwater_amount),SUM(level2_win_or_lose),SUM(level2_win_or_lose-level2_backwater_amount),SUM(level3_backwater_amount),SUM(level3_win_or_lose),SUM(level3_win_or_lose-level3_backwater_amount),SUM(backwater_amount) '会员佣金',SUM(handicap_win_or_lose+backwater_amount) '会员总计',SUM(handicap_win_or_lose) '会员输/赢',SUM(efficient_amount),SUM(handicap_win_or_lose) '会员输/赢' FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id) AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id) AND STATUS=2 AND award_time IS NOT NULL GROUP BY user_name,login_account"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),any_value (c.bet_type) '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value(c.mix_num),any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id, CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS=2 AND order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id)  AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) AND STATUS=2  AND award_time IS NOT NULL GROUP BY order_no,award_time ORDER BY award_time ASC) AND c.award_time IS NOT NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id)  AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) AND STATUS=2  AND award_time IS NOT NULL GROUP BY order_no,award_time ORDER BY award_time ASC)"</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-12 13:58:46</t>
   </si>
   <si>
     <t>备注1</t>
@@ -445,23 +493,17 @@
     <t>/betManagement/agent/mixBetOrder</t>
   </si>
   <si>
+    <t>companyActualPercentage,companyRetreatProportion,level0RetreatProportion,level1RetreatProportion,level2RetreatProportion,level3RetreatProportion</t>
+  </si>
+  <si>
     <t>[{"account":""}]</t>
   </si>
   <si>
-    <t>@SELECT any_value (c.user_name) '账号',any_value (c.bet_amount) AS '投注金额',any_value (c.bet_ip) AS 'IP地址',any_value (c.create_time) AS '投注时间',any_value (c.currency) '币种',any_value (c.ip_address) AS 'IP位置',any_value (c.level0_actual_percentage*100) AS '总代占成',any_value (c.level1_actual_percentage*100) AS '一级代理占成',any_value (c.level2_actual_percentage*100) AS '二级代理占成',any_value (c.level3_actual_percentage*100) AS '三级代理占成',any_value (c.login_account) '登入账号',CASE any_value (c.mix_num) WHEN '2_1_0' THEN '2串1' WHEN '3_1_0' THEN '3串1' WHEN '4_1_0' THEN '4串1' WHEN '5_1_0' THEN '5串1' WHEN '6_1_0' THEN '6串1' WHEN '7_1_0' THEN '7串1' WHEN '8_1_0' THEN '8串1' WHEN '9_1_0' THEN '9串1' WHEN '10_1_0' THEN '10串1' WHEN '2_3_0' THEN '2串1' WHEN '3_4_1' THEN '3串4' WHEN '3_4_0' THEN '3串1' WHEN '2_6_0' THEN '2串1' WHEN '4_11_1' THEN '4串11' WHEN '4_5_0' THEN '4串1' WHEN '3_10_0' THEN '3串1' WHEN '2_10_0' THEN '2串1' WHEN '5_26_1' THEN '5串26' WHEN '5_6_0' THEN '5串1' WHEN '4_15_0' THEN '4串1' WHEN '3_20_0' THEN '3串1' WHEN '2_15_0' THEN '2串1' WHEN '6_57_1' THEN '6串57' END AS '注单类型',CASE any_value (c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END AS '类型',any_value (a.NAME) '名称',"欧赔" AS '赔率','odds' AS 'odds',c.order_no '注单号',(CASE any_value (c.STATUS) WHEN '0' THEN '待确认' WHEN '1' THEN '未结算' WHEN '2' THEN '已结算' WHEN '3' THEN '已取消' END) AS '注单状态',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN u_user AS a ON a.id=c.user_id LEFT JOIN o_account_order_match AS b ON b.order_no=c.order_no WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type !=1 GROUP BY c.order_no</t>
-  </si>
-  <si>
-    <t>测试不通过
-2022-06-29 13:46:29</t>
-  </si>
-  <si>
-    <t>[[{'account': 'd0d1d2d31b', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:25', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi027', 'mix': '6串1', 'mixType': '串关', 'name': '杜鑫test账号bb', 'oddType': '欧赔', 'odds': 160.97, 'orderNo': 'XHwyNSceRwK2', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30z', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:29', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi025', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号az', 'oddType': '欧赔', 'odds': 2190.46, 'orderNo': 'XHwyQ3rDrA6S', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31i', 'betAmount': 200.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:33', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi034', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号bi', 'oddType': '欧赔', 'odds': 100.83, 'orderNo': 'XHwyRqGF99ab', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32o', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:37', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi058', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号co', 'oddType': '欧赔', 'odds': 409.03, 'orderNo': 'XHwySEiELFJY', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32b', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:41', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi045', 'mix': '5串1', 'mixType': '复式串关', 'name': '杜鑫test账号cb', 'oddType': '欧赔', 'odds': 84.37, 'orderNo': 'XHwyTPAAShR8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30w', 'betAmount': 570.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:45', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi022', 'mix': '6串57', 'mixType': '复式串关', 'name': '杜鑫test账号aw', 'oddType': '欧赔', 'odds': 27350.98, 'orderNo': 'XHwyUYuABcWv', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32u', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi064', 'mix': '7串1', 'mixType': '串关', 'name': '杜鑫test账号cu', 'oddType': '欧赔', 'odds': 1050.75, 'orderNo': 'XHwyWaC2x3bB', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31i', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:00:56', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi034', 'mix': '9串1', 'mixType': '串关', 'name': '杜鑫test账号bi', 'oddType': '欧赔', 'odds': 22972.16, 'orderNo': 'XHwyYCeJNuDx', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32u', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:01:32', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi064', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号cu', 'oddType': '港赔', 'odds': 8.11, 'orderNo': 'XHwzccz6vhfD', 'orderStatus': '未结算', 'sportName': '篮球'}, {'account': 'd0d1d2d32t', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:33', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi063', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号ct', 'oddType': '欧赔', 'odds': 5.72, 'orderNo': 'XHwAyNsmxcGZ', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30w', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:38', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi022', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号aw', 'oddType': '欧赔', 'odds': 66.09, 'orderNo': 'XHwAAwyz67du', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30y', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:42', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi024', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ay', 'oddType': '欧赔', 'odds': 865.41, 'orderNo': 'XHwABRVbDQjf', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32d', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi047', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号cd', 'oddType': '欧赔', 'odds': 10.07, 'orderNo': 'XHwADC9QdsJg', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32j', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:51', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi053', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号cj', 'oddType': '欧赔', 'odds': 38.79, 'orderNo': 'XHwAEL8PKvQT', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31l', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:05:56', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi037', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bl', 'oddType': '欧赔', 'odds': 210.5, 'orderNo': 'XHwAGh2wtnNv', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31f', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:00', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi031', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号bf', 'oddType': '欧赔', 'odds': 14.55, 'orderNo': 'XHwAHxWxiyA8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30d', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:04', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi03', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号ad', 'oddType': '欧赔', 'odds': 224.84, 'orderNo': 'XHwAJFRitPU9', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30y', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:07', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi024', 'mix': '5串1', 'mixType': '串关', 'name': '杜鑫test账号ay', 'oddType': '欧赔', 'odds': 60.45, 'orderNo': 'XHwAKUSppxEs', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31i', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:11', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi034', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bi', 'oddType': '欧赔', 'odds': 33.44, 'orderNo': 'XHwAM46dA3Ep', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32r', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:15', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi061', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号cr', 'oddType': '欧赔', 'odds': 88.93, 'orderNo': 'XHwANk6HLGcS', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30q', 'betAmount': 50.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:19', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi016', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号aq', 'oddType': '欧赔', 'odds': 6637.46, 'orderNo': 'XHwAPu97BGnn', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32y', 'betAmount': 260.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:06:22', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi068', 'mix': '5串26', 'mixType': '复式串关', 'name': '杜鑫test账号cy', 'oddType': '欧赔', 'odds': 18760.21, 'orderNo': 'XHwAQCrYtzZP', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32w', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:02', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi066', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号cw', 'oddType': '欧赔', 'odds': 22.54, 'orderNo': 'XHwD8cmU7M6b', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32a', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:06', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi044', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号ca', 'oddType': '欧赔', 'odds': 13.43, 'orderNo': 'XHwD9kXZktsi', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31a', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:09', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi026', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ba', 'oddType': '欧赔', 'odds': 655.21, 'orderNo': 'XHwDauHjq6k8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d33a', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:13', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi070', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号da', 'oddType': '欧赔', 'odds': 31.96, 'orderNo': 'XHwDbBUAm5g5', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31e', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:17', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi030', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号be', 'oddType': '欧赔', 'odds': 1707.66, 'orderNo': 'XHwDcKui9mdV', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31q', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:20', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi042', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bq', 'oddType': '欧赔', 'odds': 22.83, 'orderNo': 'XHwDdSUnjHWZ', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32o', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:24', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi058', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号co', 'oddType': '欧赔', 'odds': 220.98, 'orderNo': 'XHwDf4uUUKkS', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32z', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:13:28', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi069', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号cz', 'oddType': '欧赔', 'odds': 66.69, 'orderNo': 'XHwDgstkKsdV', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32y', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:12', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi068', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号cy', 'oddType': '欧赔', 'odds': 15.62, 'orderNo': 'XHwDwj7wEcpp', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30h', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:16', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi07', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号ah', 'oddType': '欧赔', 'odds': 96.19, 'orderNo': 'XHwDxNJWmMuj', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32e', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:20', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi048', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ce', 'oddType': '欧赔', 'odds': 8.08, 'orderNo': 'XHwDyWhjVVS8', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31g', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:24', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi032', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号bg', 'oddType': '欧赔', 'odds': 29.51, 'orderNo': 'XHwDA8sVdqZB', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32z', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:28', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi069', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号cz', 'oddType': '欧赔', 'odds': 15.13, 'orderNo': 'XHwDBnEdvMCE', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31d', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:31', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi029', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bd', 'oddType': '欧赔', 'odds': 1795.9, 'orderNo': 'XHwDCvEC26by', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32w', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:35', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi066', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号cw', 'oddType': '欧赔', 'odds': 57.4, 'orderNo': 'XHwDDCZxhZNL', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32p', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:39', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi059', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号cp', 'oddType': '欧赔', 'odds': 11151.03, 'orderNo': 'XHwDEVL4V6Nk', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31j', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:43', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi035', 'mix': '5串1', 'mixType': '串关', 'name': '杜鑫test账号bj', 'oddType': '欧赔', 'odds': 1500.34, 'orderNo': 'XHwDGhje6efE', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31d', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:47', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi029', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号bd', 'oddType': '欧赔', 'odds': 164.49, 'orderNo': 'XHwDHCQRJmKz', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30g', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:53', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi06', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号ag', 'oddType': '欧赔', 'odds': 444.52, 'orderNo': 'XHwDKrbDDx6u', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30j', 'betAmount': 50.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:14:59', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi09', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号aj', 'oddType': '欧赔', 'odds': 394.05, 'orderNo': 'XHwDMkrmPJKV', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31p', 'betAmount': 260.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:02', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi041', 'mix': '5串26', 'mixType': '复式串关', 'name': '杜鑫test账号bp', 'oddType': '欧赔', 'odds': 11677.87, 'orderNo': 'XHwDNuunycJE', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32n', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:06', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi057', 'mix': '6串1', 'mixType': '串关', 'name': '杜鑫test账号cn', 'oddType': '欧赔', 'odds': 285.31, 'orderNo': 'XHwDPCwPRKf3', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30c', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:10', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi02', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ac', 'oddType': '欧赔', 'odds': 234.37, 'orderNo': 'XHwDQTqFNQT7', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30p', 'betAmount': 200.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:13', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi015', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号ap', 'oddType': '欧赔', 'odds': 290.59, 'orderNo': 'XHwDS3waAStC', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31c', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:17', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi028', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号bc', 'oddType': '欧赔', 'odds': 535.29, 'orderNo': 'XHwDTbqX9R2E', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32z', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:21', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi069', 'mix': '5串1', 'mixType': '复式串关', 'name': '杜鑫test账号cz', 'oddType': '欧赔', 'odds': 400.23, 'orderNo': 'XHwDUjNPyE2e', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31m', 'betAmount': 570.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:25', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi038', 'mix': '6串57', 'mixType': '复式串关', 'name': '杜鑫test账号bm', 'oddType': '欧赔', 'odds': 398.89, 'orderNo': 'XHwDVJrkf2Ae', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30k', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:15:29', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi010', 'mix': '7串1', 'mixType': '串关', 'name': '杜鑫test账号ak', 'oddType': '欧赔', 'odds': 4275.55, 'orderNo': 'XHwDWTNm2xZJ', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30b', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:45', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi01', 'mix': '2串1', 'mixType': '串关', 'name': '杜鑫test账号ab', 'oddType': '港赔', 'odds': 9.67, 'orderNo': 'XHwPgDthFZgy', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32r', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi061', 'mix': '3串1', 'mixType': '串关', 'name': '杜鑫test账号cr', 'oddType': '港赔', 'odds': 28.75, 'orderNo': 'XHwPhM9c2UYt', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d33b', 'betAmount': 30.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:52', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi071', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号db', 'oddType': '港赔', 'odds': 24.22, 'orderNo': 'XHwPiVhGS2tw', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30m', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:42:58', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi012', 'mix': '3串4', 'mixType': '复式串关', 'name': '杜鑫test账号am', 'oddType': '港赔', 'odds': 51.39, 'orderNo': 'XHwPkMPNQmdb', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30t', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:02', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi019', 'mix': '4串1', 'mixType': '串关', 'name': '杜鑫test账号at', 'oddType': '港赔', 'odds': 67.04, 'orderNo': 'XHwPmXb5uhdM', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32h', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:05', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi051', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ch', 'oddType': '港赔', 'odds': 63.83, 'orderNo': 'XHwPp7Cdw3cU', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30q', 'betAmount': 40.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:09', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi016', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号aq', 'oddType': '港赔', 'odds': 86.46, 'orderNo': 'XHwPqfvctxFR', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32w', 'betAmount': 110.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:13', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi066', 'mix': '4串11', 'mixType': '复式串关', 'name': '杜鑫test账号cw', 'oddType': '港赔', 'odds': 164.93, 'orderNo': 'XHwPrsp223qL', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30x', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:19', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi023', 'mix': '5串1', 'mixType': '串关', 'name': '杜鑫test账号ax', 'oddType': '港赔', 'odds': 268.49, 'orderNo': 'XHwPttJm3L5Y', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30x', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:22', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi023', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号ax', 'oddType': '港赔', 'odds': 106.86, 'orderNo': 'XHwPuBqMakDY', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30m', 'betAmount': 100.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:26', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi012', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号am', 'oddType': '港赔', 'odds': 257.06, 'orderNo': 'XHwPvMmteY95', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32s', 'betAmount': 50.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:30', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi062', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号cs', 'oddType': '港赔', 'odds': 407.5, 'orderNo': 'XHwPwYsD8Rhe', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31o', 'betAmount': 260.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:34', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi040', 'mix': '5串26', 'mixType': '复式串关', 'name': '杜鑫test账号bo', 'oddType': '港赔', 'odds': 928.41, 'orderNo': 'XHwPy9acVy2R', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31e', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:37', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi030', 'mix': '6串1', 'mixType': '串关', 'name': '杜鑫test账号be', 'oddType': '港赔', 'odds': 532.4, 'orderNo': 'XHwPzhHHjZM7', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30j', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:41', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi09', 'mix': '2串1', 'mixType': '复式串关', 'name': '杜鑫test账号aj', 'oddType': '港赔', 'odds': 156.41, 'orderNo': 'XHwPAxhj928p', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32f', 'betAmount': 200.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:45', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi049', 'mix': '3串1', 'mixType': '复式串关', 'name': '杜鑫test账号cf', 'oddType': '港赔', 'odds': 473.61, 'orderNo': 'XHwPBGBfb8sf', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32d', 'betAmount': 150.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:43:48', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi047', 'mix': '4串1', 'mixType': '复式串关', 'name': '杜鑫test账号cd', 'oddType': '港赔', 'odds': 1498.37, 'orderNo': 'XHwPCSGq3Vwt', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31e', 'betAmount': 60.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:01', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi030', 'mix': '5串1', 'mixType': '复式串关', 'name': '杜鑫test账号be', 'oddType': '港赔', 'odds': 1277.45, 'orderNo': 'XHwPH4nC9sYz', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d31r', 'betAmount': 570.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:07', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi043', 'mix': '6串57', 'mixType': '复式串关', 'name': '杜鑫test账号br', 'oddType': '港赔', 'odds': 5874.15, 'orderNo': 'XHwPJRgjRjYK', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32c', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:11', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi046', 'mix': '7串1', 'mixType': '串关', 'name': '杜鑫test账号cc', 'oddType': '港赔', 'odds': 3177.18, 'orderNo': 'XHwPLazSv2uk', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d32i', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:15', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'level2ActualPercentage': 20.0, 'level3ActualPercentage': 20.0, 'loginAccount': 'fceshi052', 'mix': '8串1', 'mixType': '串关', 'name': '杜鑫test账号ci', 'oddType': '港赔', 'odds': 5296.14, 'orderNo': 'XHwPMkawJQm4', 'orderStatus': '未结算', 'sportName': '足球'}, {'account': 'd0d1d2d30c', 'betAmount': 10.0, 'betIp': '192.168.10.120', 'betTime': '2022-06-27 08:44:19', 'currency': 'CNY', 'ipAddress': '局域网', 'level0ActualPercentage': 20.0, 'level1ActualPercentage': 20.0, 'l</t>
-  </si>
-  <si>
-    <t>['d0d1d2d31b-XHwyNSceRwK2/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30z-XHwyQ3rDrA6S/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31i-XHwyRqGF99ab/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32o-XHwySEiELFJY/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32b-XHwyTPAAShR8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30w-XHwyUYuABcWv/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32u-XHwyWaC2x3bB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31i-XHwyYCeJNuDx/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32u-XHwzccz6vhfD/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：8.11/3.41', 'd0d1d2d32t-XHwAyNsmxcGZ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30w-XHwAAwyz67du/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30y-XHwABRVbDQjf/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32d-XHwADC9QdsJg/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32j-XHwAEL8PKvQT/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31l-XHwAGh2wtnNv/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31f-XHwAHxWxiyA8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30d-XHwAJFRitPU9/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30y-XHwAKUSppxEs/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31i-XHwAM46dA3Ep/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32r-XHwANk6HLGcS/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30q-XHwAPu97BGnn/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32y-XHwAQCrYtzZP/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32w-XHwD8cmU7M6b/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32a-XHwD9kXZktsi/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31a-XHwDauHjq6k8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d33a-XHwDbBUAm5g5/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31e-XHwDcKui9mdV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31q-XHwDdSUnjHWZ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32o-XHwDf4uUUKkS/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32z-XHwDgstkKsdV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32y-XHwDwj7wEcpp/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30h-XHwDxNJWmMuj/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32e-XHwDyWhjVVS8/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31g-XHwDA8sVdqZB/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32z-XHwDBnEdvMCE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31d-XHwDCvEC26by/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32w-XHwDDCZxhZNL/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32p-XHwDEVL4V6Nk/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31j-XHwDGhje6efE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31d-XHwDHCQRJmKz/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30g-XHwDKrbDDx6u/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30j-XHwDMkrmPJKV/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31p-XHwDNuunycJE/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32n-XHwDPCwPRKf3/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30c-XHwDQTqFNQT7/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30p-XHwDS3waAStC/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31c-XHwDTbqX9R2E/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d32z-XHwDUjNPyE2e/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d31m-XHwDVJrkf2Ae/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30k-XHwDWTNm2xZJ/oddType的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：欧赔/港赔', 'd0d1d2d30b-XHwPgDthFZgy/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.67/4.45', 'd0d1d2d32r-XHwPhM9c2UYt/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：28.75/8.7', 'd0d1d2d33b-XHwPiVhGS2tw/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：24.22/10.04', 'd0d1d2d30m-XHwPkMPNQmdb/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.39/18.46', 'd0d1d2d30t-XHwPmXb5uhdM/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：67.04/11.85', 'd0d1d2d32h-XHwPp7Cdw3cU/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：63.83/30.65', 'd0d1d2d30q-XHwPqfvctxFR/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：86.46/22.68', 'd0d1d2d32w-XHwPrsp223qL/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：164.93/41.15', 'd0d1d2d30x-XHwPttJm3L5Y/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：268.49/36.5', 'd0d1d2d30x-XHwPuBqMakDY/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：106.86/51.46', 'd0d1d2d30m-XHwPvMmteY95/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：257.06/73.56', 'd0d1d2d32s-XHwPwYsD8Rhe/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：407.5/77.73', 'd0d1d2d31o-XHwPy9acVy2R/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：928.41/204.56', 'd0d1d2d31e-XHwPzhHHjZM7/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：532.4/38.31', 'd0d1d2d30j-XHwPAxhj928p/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：156.41/74.51', 'd0d1d2d32f-XHwPBGBfb8sf/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：473.61/130.55', 'd0d1d2d32d-XHwPCSGq3Vwt/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1498.37/316.61', 'd0d1d2d31e-XHwPH4nC9sYz/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1277.45/155.54', 'd0d1d2d31r-XHwPJRgjRjYK/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：5874.15/1147.43', 'd0d1d2d32c-XHwPLazSv2uk/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3177.18/214.18', 'd0d1d2d32i-XHwPMkawJQm4/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：5296.14/178.66', 'd0d1d2d30c-XHwPNuS9cRJz/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：21781.26/564.84', 'd0d1d2d30d-XHwPPCTHvKfX/odds的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：35313.7/443.1']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的总投注-混合串关-主查询  /betManagement/agent/mixBetOrder，数据错误，需要比对,73,0\x1b[0m']</t>
+    <t>@SELECT any_value (c.user_name) '账号',any_value (c.bet_amount) AS '投注金额',any_value (c.bet_ip) AS 'IP地址',any_value (c.create_time) AS '投注时间',any_value (c.currency) '币种',any_value (c.ip_address) AS 'IP位置',any_value (c.level0_actual_percentage*100) AS '总代占成',any_value (c.level1_actual_percentage*100) AS '一级代理占成',any_value (c.level2_actual_percentage*100) AS '二级代理占成',any_value (c.level3_actual_percentage*100) AS '三级代理占成',any_value (c.login_account) '登入账号',CASE any_value (c.mix_num) WHEN '2_1_0' THEN '2串1' WHEN '3_1_0' THEN '3串1' WHEN '4_1_0' THEN '4串1' WHEN '5_1_0' THEN '5串1' WHEN '6_1_0' THEN '6串1' WHEN '7_1_0' THEN '7串1' WHEN '8_1_0' THEN '8串1' WHEN '9_1_0' THEN '9串1' WHEN '10_1_0' THEN '10串1' WHEN '2_3_0' THEN '2串1' WHEN '3_4_1' THEN '3串4' WHEN '3_4_0' THEN '3串1' WHEN '2_6_0' THEN '2串1' WHEN '4_11_1' THEN '4串11' WHEN '4_5_0' THEN '4串1' WHEN '3_10_0' THEN '3串1' WHEN '2_10_0' THEN '2串1' WHEN '5_26_1' THEN '5串26' WHEN '5_6_0' THEN '5串1' WHEN '4_15_0' THEN '4串1' WHEN '3_20_0' THEN '3串1' WHEN '2_15_0' THEN '2串1' WHEN '6_57_1' THEN '6串57' END AS '注单类型',CASE any_value (c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END AS '类型',any_value (a.NAME) '名称',"欧赔" AS '赔率','odds' AS 'odds',c.order_no '注单号',(CASE any_value (c.STATUS) WHEN '0' THEN '待确认' WHEN '1' THEN '未结算' WHEN '2' THEN '已结算' WHEN '3' THEN '已取消' END) AS '注单状态',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN u_user AS a ON a.id=c.user_id LEFT JOIN o_account_order_match AS b ON b.order_no=c.order_no WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type !=1 GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-12 10:44:42</t>
   </si>
   <si>
     <t>混合串关-注单号查询数据对比</t>
@@ -480,15 +522,14 @@
     <t>orderNo</t>
   </si>
   <si>
-    <t>@SELECT c.order_no '注单号' FROM o_account_order as c  WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type!=1
-@f"SELECT away_team_id,away_team_name,bet_score,home_team_id,home_team_name,market_name,match_time,CASE odds_type WHEN '1' THEN '欧赔' WHEN '2' THEN '港赔' WHEN '3' THEN '马来赔' WHEN '4' THEN '印尼赔' WHEN '5' THEN '美' END AS '赔率',credit_odds,outcome_name,is_live,CASE sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',tournament_id,tournament_name FROM o_account_order_match WHERE order_no='{all}'"</t>
+    <t>@SELECT order_no,away_team_id,away_team_name,bet_score,home_team_id,home_team_name,market_name,match_time,CASE odds_type WHEN '1' THEN '欧赔' WHEN '2' THEN '港赔' WHEN '3' THEN '马来赔' WHEN '4' THEN '印尼赔' WHEN '5' THEN '美' END AS '赔率',credit_odds,outcome_name,is_live,specifier,CASE sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',tournament_id,tournament_name FROM o_account_order_match WHERE order_no IN(SELECT c.order_no '注单号' FROM o_account_order as c  WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type!=1 GROUP BY c.order_no) ORDER BY create_time DESC</t>
   </si>
   <si>
     <t>tournamentId,sportName</t>
   </si>
   <si>
     <t>测试通过
-2022-06-29 13:47:29</t>
+2022-07-12 12:18:30</t>
   </si>
   <si>
     <t>让球/大小/独赢/滚球全部球类查询数据对比</t>
@@ -552,13 +593,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="6" tint="-0.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFCDCDCD"/>
       <name val="Consolas"/>
@@ -566,6 +600,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1260,8 +1301,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1270,11 +1309,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1286,6 +1325,12 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1298,10 +1343,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1317,10 +1358,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1674,21 +1715,21 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="2" max="2" width="45" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="21" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="20" customWidth="1"/>
     <col min="8" max="9" width="9" style="3" customWidth="1"/>
     <col min="10" max="10" width="35" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
@@ -1703,22 +1744,22 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1730,7 +1771,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1750,19 +1791,19 @@
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1771,7 +1812,7 @@
       <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -1784,10 +1825,10 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
@@ -1796,7 +1837,7 @@
     <row r="6" ht="13.5" customHeight="1"/>
     <row r="7" ht="13.5" customHeight="1"/>
     <row r="9" spans="7:7">
-      <c r="G9" s="21"/>
+      <c r="G9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1808,28 +1849,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="24" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="25" customWidth="1"/>
     <col min="11" max="11" width="26.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.25" style="17" customWidth="1"/>
+    <col min="12" max="12" width="27.25" style="24" customWidth="1"/>
     <col min="13" max="13" width="15.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" style="1" customWidth="1"/>
   </cols>
@@ -1845,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -1862,7 +1903,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1881,581 +1922,302 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="118" customHeight="1" spans="1:16">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="108" customHeight="1" spans="1:15">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="L2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="P2"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="100" customHeight="1" spans="1:16">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" ht="135" customHeight="1" spans="1:15">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="C3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="135" customHeight="1" spans="1:15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="29" t="s">
+      <c r="G4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="135" customHeight="1" spans="1:15">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" customHeight="1" spans="1:15">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="134" customHeight="1" spans="1:16">
-      <c r="A4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="29" t="s">
+      <c r="G6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="J6" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" ht="135" customHeight="1" spans="1:15">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="G7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
-      <c r="A7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>70</v>
+      <c r="J7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7"/>
-    </row>
-    <row r="8" ht="108" customHeight="1" spans="1:15">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" ht="135" customHeight="1" spans="1:15">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" ht="135" customHeight="1" spans="1:15">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" ht="135" customHeight="1" spans="1:15">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" customHeight="1" spans="1:15">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" ht="135" customHeight="1" spans="1:15">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="8"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="8"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="8"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="8"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="8"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,24 +2229,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="14.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:15">
@@ -2497,8 +2260,8 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
+      <c r="D1" t="s">
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2506,7 +2269,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -2515,117 +2278,304 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="118" customHeight="1" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="100" customHeight="1" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="134" customHeight="1" spans="1:16">
+      <c r="A4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" ht="143" customHeight="1" spans="1:15">
-      <c r="A2" t="s">
+      <c r="O5" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
+      <c r="P5"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
+      <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E2">
+      <c r="C6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J6" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
+      <c r="A7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" ht="142" customHeight="1" spans="1:15">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1"/>
-    <row r="5" ht="13.5" customHeight="1"/>
-    <row r="6" ht="13.5" customHeight="1"/>
-    <row r="7" ht="13.5" customHeight="1" spans="7:7">
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1"/>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2636,15 +2586,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:14">
+    <row r="1" ht="27" customHeight="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2654,8 +2617,8 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2663,7 +2626,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -2672,34 +2635,120 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:7">
+      <c r="O1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" ht="143" customHeight="1" spans="1:15">
       <c r="A2" t="s">
         <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="12"/>
-    </row>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="142" customHeight="1" spans="1:15">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1" spans="7:7">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2710,13 +2759,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:14">
       <c r="A1" t="s">
@@ -2729,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2746,7 +2795,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -2761,6 +2810,18 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2787,21 +2848,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>24</v>
@@ -2809,18 +2870,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
@@ -2828,23 +2889,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>

--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -2591,7 +2591,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>

--- a/YgLibrary/d0_comparison_report.xlsx
+++ b/YgLibrary/d0_comparison_report.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="调式" sheetId="1" r:id="rId1"/>
     <sheet name="报表" sheetId="2" r:id="rId2"/>
-    <sheet name="未完成、盈亏详情" sheetId="3" r:id="rId3"/>
-    <sheet name="总投注" sheetId="4" r:id="rId4"/>
+    <sheet name="盈亏详情" sheetId="3" r:id="rId3"/>
+    <sheet name="总投注、未完成交易" sheetId="4" r:id="rId4"/>
     <sheet name="首页" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
   <si>
     <t>功能名称</t>
   </si>
@@ -69,16 +69,16 @@
     <t>备注</t>
   </si>
   <si>
-    <t>球类报表-盘口下会员订单数据对比</t>
-  </si>
-  <si>
-    <t>报表-球类报表-订单查询（根据其盘口查询订单）</t>
-  </si>
-  <si>
-    <t>"/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"</t>
-  </si>
-  <si>
-    <t>betMix,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,mixNum</t>
+    <t>已取消注单-全部会员查询数据对比</t>
+  </si>
+  <si>
+    <t>报表-已取消注单-主查询</t>
+  </si>
+  <si>
+    <t>/winOrLost/cancel/order/details</t>
+  </si>
+  <si>
+    <t>betMix,betResult,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,level0Commission,level0CommissionRatio,level0Percentage,level0Total,level0WinOrLose,level1Commission,level1CommissionRatio,level1Percentage,level1Total,level1WinOrLose,level2Commission,level2CommissionRatio,level2Percentage,level2Total,level2WinOrLose,level3Commission,level3CommissionRatio,level3Percentage,level3Total,level3WinOrLose,memberCommission,memberCommissionRatio,memberTotal,memberWinOrLose</t>
   </si>
   <si>
     <t>{
@@ -88,27 +88,100 @@
     }</t>
   </si>
   <si>
-    <t>[{"matchId":"", "sportId":"","queryDateType":3, "begin":begin,"end":end,"searchAccount":"", "page":1,"limit":50},{"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end},{"begin":begin,"end":end,"dateType":3,"page":1,"limit":500,"sportId":"sr:sport:1","marketId":"1","account":"","queryDateType":3,"tournamentId":""}]</t>
+    <t>[{"account":"","begin":begin,"end":end,"page":1,"limit":500}]</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.mix_num),any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类'FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=3 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0')   GROUP BY c.user_name,c.login_account,c.order_no,c.award_time,c.sport_id"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in ((SELECT c.order_no FROM o_account_order as c WHERE c.STATUS=3 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.order_no)) GROUP BY order_no,away_team_name,bet_score,home_team_name,market_name,match_time,is_live,credit_odds,odds_type,outcome_name,specifier,tournament_name,create_time"</t>
+  </si>
+  <si>
+    <t>account,orderNo</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-19 15:12:07</t>
+  </si>
+  <si>
+    <t>[[], (('d0d1d2d37l/fceshi0185', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 40, 33), '单注', '1_1_0', '杜鑫test账号hl', 'odds', 'odds_type', 'options', 'XH4szvDPchRw', datetime.datetime(2022, 7, 11, 3, 41, 22), 'sr:sport:1', '足球'), ('d0d1d2d39z/fceshi0251', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 41, 25), '单注', '1_1_0', '杜鑫test账号jz', 'odds', 'odds_type', 'options', 'XH4sRX4nWRv7', datetime.datetime(2022, 7, 11, 3, 41, 23), 'sr:sport:1', '足球'), ('d0d1d2d3tj/fceshi0755', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 41, 28), '单注', '1_1_0', '杜鑫test账号tj', 'odds', 'odds_type', 'options', 'XH4sT5ZUZcUK', datetime.datetime(2022, 7, 11, 3, 41, 25), 'sr:sport:1', '足球'), ('d0d1d2d32e/fceshi048', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 43, 27), '单注', '1_1_0', '杜鑫test账号ce', 'odds', 'odds_type', 'options', 'XH4tz3ZNnfr2', datetime.datetime(2022, 7, 11, 3, 41, 30), 'sr:sport:1', '足球'), ('d0d1d2d3iz/fceshi0485', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 45, 2), '单注', '1_1_0', '杜鑫test账号iz', 'odds', 'odds_type', 'options', 'XH4u7eQ4hLdx', datetime.datetime(2022, 7, 11, 3, 41, 38), 'sr:sport:1', '足球'), ('d0d1d2d3qb/fceshi0669', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 45, 10), '单注', '1_1_0', '杜鑫test账号qb', 'odds', 'odds_type', 'options', 'XH4u9KASzfCj', datetime.datetime(2022, 7, 11, 3, 41, 40), 'sr:sport:1', '足球'), ('d0d1d2d3ew/fceshi0378', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 45, 20), '单注', '1_1_0', '杜鑫test账号ew', 'odds', 'odds_type', 'options', 'XH4ud9A4trNj', datetime.datetime(2022, 7, 11, 3, 41, 44), 'sr:sport:1', '足球'), ('d0d1d2d3rj/fceshi0703', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 46, 18), '单注', '1_1_0', '杜鑫test账号rj', 'odds', 'odds_type', 'options', 'XH4uxCKBTCUc', datetime.datetime(2022, 7, 11, 3, 41, 50), 'sr:sport:1', '足球'), ('d0d1d2d32b/fceshi045', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 46, 28), '单注', '1_1_0', '杜鑫test账号cb', 'odds', 'odds_type', 'options', 'XH4uAFx7fyVh', datetime.datetime(2022, 7, 11, 3, 41, 52), 'sr:sport:1', '足球'), ('d0d1d2d3jb/fceshi0487', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 48, 28), '单注', '1_1_0', '杜鑫test账号jb', 'odds', 'odds_type', 'options', 'XH4vgYD2q8Mz', datetime.datetime(2022, 7, 11, 3, 42, 3), 'sr:sport:1', '足球'), ('d0d1d2d37e/fceshi0178', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 8), '单注', '1_1_0', '杜鑫test账号he', 'odds', 'odds_type', 'options', 'XH4vvTeKax37', datetime.datetime(2022, 7, 11, 3, 42, 10), 'sr:sport:1', '足球'), ('d0d1d2d39w/fceshi0248', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 19), '单注', '1_1_0', '杜鑫test账号jw', 'odds', 'odds_type', 'options', 'XH4vzppmmNjD', datetime.datetime(2022, 7, 11, 3, 42, 14), 'sr:sport:1', '足球'), ('d0d1d2d34z/fceshi0121', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 23), '单注', '1_1_0', '杜鑫test账号ez', 'odds', 'odds_type', 'options', 'XH4vAw5GSDUk', datetime.datetime(2022, 7, 11, 3, 42, 17), 'sr:sport:1', '足球'), ('d0d1d2d3np/fceshi0605', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 45), '单注', '1_1_0', '杜鑫test账号np', 'odds', 'odds_type', 'options', 'XH4vHAkBA4gK', datetime.datetime(2022, 7, 11, 3, 42, 24), 'sr:sport:1', '足球'), ('d0d1d2d37f/fceshi0179', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 51, 57), '单注', '1_1_0', '杜鑫test账号hf', 'odds', 'odds_type', 'options', 'XH4wtyzUZmHx', datetime.datetime(2022, 7, 11, 3, 42, 40), 'sr:sport:1', '足球'), ('d0d1d2d34u/fceshi0116', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 52, 52), '单注', '1_1_0', '杜鑫test账号eu', 'odds', 'odds_type', 'options', 'XH4wM3HLmw8i', datetime.datetime(2022, 7, 11, 3, 42, 44), 'sr:sport:1', '足球'))]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["代理查询[]-SQL查询(('d0d1d2d37l/fceshi0185', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 40, 33), '单注', '1_1_0', '杜鑫test账号hl', 'odds', 'odds_type', 'options', 'XH4szvDPchRw', datetime.datetime(2022, 7, 11, 3, 41, 22), 'sr:sport:1', '足球'), ('d0d1d2d39z/fceshi0251', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 41, 25), '单注', '1_1_0', '杜鑫test账号jz', 'odds', 'odds_type', 'options', 'XH4sRX4nWRv7', datetime.datetime(2022, 7, 11, 3, 41, 23), 'sr:sport:1', '足球'), ('d0d1d2d3tj/fceshi0755', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 41, 28), '单注', '1_1_0', '杜鑫test账号tj', 'odds', 'odds_type', 'options', 'XH4sT5ZUZcUK', datetime.datetime(2022, 7, 11, 3, 41, 25), 'sr:sport:1', '足球'), ('d0d1d2d32e/fceshi048', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 43, 27), '单注', '1_1_0', '杜鑫test账号ce', 'odds', 'odds_type', 'options', 'XH4tz3ZNnfr2', datetime.datetime(2022, 7, 11, 3, 41, 30), 'sr:sport:1', '足球'), ('d0d1d2d3iz/fceshi0485', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 45, 2), '单注', '1_1_0', '杜鑫test账号iz', 'odds', 'odds_type', 'options', 'XH4u7eQ4hLdx', datetime.datetime(2022, 7, 11, 3, 41, 38), 'sr:sport:1', '足球'), ('d0d1d2d3qb/fceshi0669', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 45, 10), '单注', '1_1_0', '杜鑫test账号qb', 'odds', 'odds_type', 'options', 'XH4u9KASzfCj', datetime.datetime(2022, 7, 11, 3, 41, 40), 'sr:sport:1', '足球'), ('d0d1d2d3ew/fceshi0378', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 45, 20), '单注', '1_1_0', '杜鑫test账号ew', 'odds', 'odds_type', 'options', 'XH4ud9A4trNj', datetime.datetime(2022, 7, 11, 3, 41, 44), 'sr:sport:1', '足球'), ('d0d1d2d3rj/fceshi0703', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 46, 18), '单注', '1_1_0', '杜鑫test账号rj', 'odds', 'odds_type', 'options', 'XH4uxCKBTCUc', datetime.datetime(2022, 7, 11, 3, 41, 50), 'sr:sport:1', '足球'), ('d0d1d2d32b/fceshi045', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 46, 28), '单注', '1_1_0', '杜鑫test账号cb', 'odds', 'odds_type', 'options', 'XH4uAFx7fyVh', datetime.datetime(2022, 7, 11, 3, 41, 52), 'sr:sport:1', '足球'), ('d0d1d2d3jb/fceshi0487', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 48, 28), '单注', '1_1_0', '杜鑫test账号jb', 'odds', 'odds_type', 'options', 'XH4vgYD2q8Mz', datetime.datetime(2022, 7, 11, 3, 42, 3), 'sr:sport:1', '足球'), ('d0d1d2d37e/fceshi0178', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 8), '单注', '1_1_0', '杜鑫test账号he', 'odds', 'odds_type', 'options', 'XH4vvTeKax37', datetime.datetime(2022, 7, 11, 3, 42, 10), 'sr:sport:1', '足球'), ('d0d1d2d39w/fceshi0248', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 19), '单注', '1_1_0', '杜鑫test账号jw', 'odds', 'odds_type', 'options', 'XH4vzppmmNjD', datetime.datetime(2022, 7, 11, 3, 42, 14), 'sr:sport:1', '足球'), ('d0d1d2d34z/fceshi0121', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 23), '单注', '1_1_0', '杜鑫test账号ez', 'odds', 'odds_type', 'options', 'XH4vAw5GSDUk', datetime.datetime(2022, 7, 11, 3, 42, 17), 'sr:sport:1', '足球'), ('d0d1d2d3np/fceshi0605', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 49, 45), '单注', '1_1_0', '杜鑫test账号np', 'odds', 'odds_type', 'options', 'XH4vHAkBA4gK', datetime.datetime(2022, 7, 11, 3, 42, 24), 'sr:sport:1', '足球'), ('d0d1d2d37f/fceshi0179', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 51, 57), '单注', '1_1_0', '杜鑫test账号hf', 'odds', 'odds_type', 'options', 'XH4wtyzUZmHx', datetime.datetime(2022, 7, 11, 3, 42, 40), 'sr:sport:1', '足球'), ('d0d1d2d34u/fceshi0116', Decimal('10.00'), '192.168.10.120', '局域网', datetime.datetime(2022, 6, 24, 8, 52, 52), '单注', '1_1_0', '杜鑫test账号eu', 'odds', 'odds_type', 'options', 'XH4wM3HLmw8i', datetime.datetime(2022, 7, 11, 3, 42, 44), 'sr:sport:1', '足球'))，比对SQL数据错误，需要比对"]</t>
+  </si>
+  <si>
+    <t>下级结账-查询下级数据对比</t>
+  </si>
+  <si>
+    <t>用户管理-下级结账-主查询</t>
+  </si>
+  <si>
+    <t>/account/unCheck/list</t>
+  </si>
+  <si>
+    <t>accountStatusCode,accountType,createTime,creator,currency,levelCode,name,parentId,topParentId</t>
+  </si>
+  <si>
+    <t>[{"page":"1","accountStatus":"0","searchAccountName":"","page":1,"limit":500}]</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>@SELECT role_id FROM m_account WHERE login_account='d0'
+@f"SELECT a.id,CONCAT(any_value(a.account),'/',any_value(a.login_account))as '账号/登入账号',CASE any_value(a.account_status)WHEN 0 THEN '启用'WHEN 1 THEN '只能看账'WHEN 2 THEN '禁止登入'WHEN 3 THEN '停用'END as '状态',SUM(IF(any_value(c.STATUS=2) AND any_value(b.payment_status_for_sub)=0 AND c.award_time is NOT null,(c.company_win_or_lose+c.level0_win_or_lose+c.level1_win_or_lose),0))'现金余额',-SUM(IF(any_value(c.STATUS=2) AND any_value(b.payment_status)=0 AND c.award_time is NOT null,(c.company_win_or_lose+c.level0_win_or_lose),0))as'余额',SUM(IF(any_value(c.STATUS=2) AND any_value(b.payment_status_for_sub)=0 AND c.award_time is NOT null AND DATE_FORMAT(c.award_time,'%Y-%m-%d')&lt;DATE_FORMAT(CONVERT_TZ(now(),'+00:00','-04:00'),'%Y-%m-%d'),(c.company_win_or_lose+c.level0_win_or_lose+c.level1_win_or_lose),0))'昨日现金余额',-SUM(IF(any_value(c.STATUS=2) AND any_value(b.payment_status)=0 AND c.award_time is NOT null AND DATE_FORMAT(c.award_time,'%Y-%m-%d')&lt;DATE_FORMAT(CONVERT_TZ(now(),'+00:00','-04:00'),'%Y-%m-%d'),(c.company_win_or_lose+c.level0_win_or_lose),0))'昨日余额',d.credits as'额度',CASE any_value(a.role_id) WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN'子账号角色' END AS '等级',SUM(IF(any_value(c.STATUS) IN(1,2) AND c.award_time is null,c.bet_amount,0))'未完成交易',(d.credits-d.available_quota) as'已用额度' FROM o_account_order as c LEFT JOIN m_account as a  ON c.proxy{num}_id=a.id LEFT JOIN m_account_unsettlement_amount_record as b ON  (b.account_id=a.id AND b.order_no=c.order_no) LEFT JOIN m_account_credits as d ON d.account_id=a.id WHERE a.id IN(SELECT id FROM m_account WHERE parent_id=(SELECT id FROM m_account WHERE login_account='d0') AND role_id=(SELECT role_id FROM m_account WHERE login_account='d0')+1) GROUP BY a.id"</t>
+  </si>
+  <si>
+    <t>accountId,accountStatusDesc</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-19 13:47:06</t>
+  </si>
+  <si>
+    <t>[[{'accountId': '1531517033355976705', 'accountJointLoginAccount': 'd0d1/d10', 'accountStatusDesc': '启用', 'checkAmountAsOfTodaySub': -2575.77, 'checkAmountAsOfTodaySup': -11.58, 'checkAmountAsOfYesterdaySub': -2575.77, 'checkAmountAsOfYesterdaySup': -11.58, 'creditsAmount': 40000000, 'levelDesc': '登1', 'unSettlementAmount': 4640, 'usedCreditsAmount': 37096197}], [{'accountId': '1531517033355976705', 'accountJointLoginAccount': 'd0d1/d10', 'accountStatusDesc': '启用', 'checkAmountAsOfTodaySub': -2581.76, 'checkAmountAsOfTodaySup': -11.58, 'checkAmountAsOfYesterdaySub': -2581.76, 'checkAmountAsOfYesterdaySup': -11.58, 'creditsAmount': 40000000.0, 'levelDesc': '登1', 'unSettlementAmount': 4640.0, 'usedCreditsAmount': 37096197.0}]]</t>
+  </si>
+  <si>
+    <t>['1531517033355976705-启用/参数已用完/checkAmountAsOfTodaySub的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2575.77/-2581.76', '1531517033355976705-启用/参数已用完/checkAmountAsOfYesterdaySub的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2575.77/-2581.76']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的用户管理-下级结账-主查询  /account/unCheck/list，数据错误，需要比对,1,0\x1b[0m']</t>
+  </si>
+  <si>
+    <t>联赛报表-联赛下会员订单数据对比</t>
+  </si>
+  <si>
+    <t>报表-联赛报表-订单查询（根据其盘口查询订单）</t>
+  </si>
+  <si>
+    <t>"/winOrLost/sport","/winOrLost/tournament","/winOrLost/order/details"</t>
+  </si>
+  <si>
+    <t>betMix,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,mixNum</t>
+  </si>
+  <si>
+    <t>[{"matchId":"", "sportId":"","queryDateType":3, "begin":begin,"end":end,"searchAccount":"", "page":1,"limit":50},{"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end},{"begin":begin,"end":end,"dateType":3,"page":1,"limit":500,"sportId":"sr:sport:1","marketId":"","account":"","queryDateType":3,"tournamentId":"sr:tournament:36571"}]</t>
   </si>
   <si>
     <t>sportId</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id IN(SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id) GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.create_time ORDER BY c.create_time ASC"
 @f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.sport_id IN(SELECT c.sport_id FROM o_account_order AS c LEFT JOIN m_account AS e ON e.id=c.proxy0_id WHERE c.STATUS=2 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') GROUP BY c.sport_id) GROUP BY c.order_no) GROUP BY order_no,away_team_name,bet_score,home_team_name,market_name,match_time,is_live,credit_odds,odds_type,outcome_name,specifier,tournament_name,create_time ORDER BY create_time ASC"</t>
   </si>
   <si>
-    <t>account,orderNo</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-07-12 18:08:21</t>
-  </si>
-  <si>
-    <t/>
+    <t>测试不通过
+2022-07-19 13:47:24</t>
+  </si>
+  <si>
+    <t>[[], (('d0d1d2d3rl/fceshi0705', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 16, 6, 51, 9), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0007'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号rl', 'odds', 'odds_type', 'options', 'XFMvkaAa2EyQ', datetime.datetime(2022, 7, 11, 3, 41, 16), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3ea/fceshi0356', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 40, 10), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0002'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ea', 'odds', 'odds_type', 'options', 'XH4ss4C8CJrA', datetime.datetime(2022, 7, 11, 3, 41, 18), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3df/fceshi0335', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 40, 22), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.29'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0002'), Decimal('51.50'), Decimal('51.50'), '杜鑫test账号df', 'odds', 'odds_type', 'options', 'XH4svST7h8L2', datetime.datetime(2022, 7, 11, 3, 41, 20), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('51.50')), ('d0d1d2d38y/fceshi0224', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 43), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.10'), Decimal('0.10'), '杜鑫test账号iy', 'odds', 'odds_type', 'options', 'XH4tqsrmgi4u', datetime.datetime(2022, 7, 11, 3, 41, 27), 'sr:sport:1', '足球', Decimal('0.10'), Decimal('0.10')), ('d0d1d2d35u/fceshi0142', Decimal('10.00'), '192.168.10.120', '局域网', '平局走水', datetime.datetime(2022, 6, 24, 8, 44, 19), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0011'), Decimal('0.00'), Decimal('0.00'), '杜鑫test账号fu', 'odds', 'odds_type', 'options', 'XH4tRJjpTbw4', datetime.datetime(2022, 7, 11, 3, 41, 31), 'sr:sport:1', '足球', Decimal('0.00'), Decimal('0.00')), ('d0d1d2d35s/fceshi0140', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 44, 23), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0007'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号fs', 'odds', 'odds_type', 'options', 'XH4tSR96m5dQ', datetime.datetime(2022, 7, 11, 3, 41, 33), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d31l/fceshi037', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 44, 31), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('15.00'), Decimal('15.00'), '杜鑫test账号bl', 'odds', 'odds_type', 'options', 'XH4tVrSP4AfW', datetime.datetime(2022, 7, 11, 3, 41, 35), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('15.00')), ('d0d1d2d3ui/fceshi0780', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 44, 53), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ui', 'odds', 'odds_type', 'options', 'XH4u4xZyAimC', datetime.datetime(2022, 7, 11, 3, 41, 37), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d32p/fceshi059', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 45, 13), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0011'), Decimal('-9.99'), Decimal('-10.00'), '杜鑫test账号cp', 'odds', 'odds_type', 'options', 'XH4uaSmddnM3', datetime.datetime(2022, 7, 11, 3, 41, 41), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3if/fceshi0465', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 45, 35), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0011'), Decimal('-5.00'), Decimal('-5.00'), '杜鑫test账号if', 'odds', 'odds_type', 'options', 'XH4uhKSs4EG5', datetime.datetime(2022, 7, 11, 3, 41, 45), 'sr:sport:1', '足球', Decimal('5.00'), Decimal('-5.00')), ('d0d1d2d37u/fceshi0194', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 45, 50), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.36'), Decimal('-1.36'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.36'), Decimal('-1.36'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.36'), Decimal('-1.36'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.35'), Decimal('-1.36'), Decimal('0.00'), Decimal('0.0002'), Decimal('6.80'), Decimal('6.80'), '杜鑫test账号hu', 'odds', 'odds_type', 'options', 'XH4unwkeUDy4', datetime.datetime(2022, 7, 11, 3, 41, 47), 'sr:sport:1', '足球', Decimal('6.80'), Decimal('6.80')), ('d0d1d2d3db/fceshi0331', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 46, 37), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('34.50'), Decimal('34.50'), '杜鑫test账号db', 'odds', 'odds_type', 'options', 'XH4uDywxHmRv', datetime.datetime(2022, 7, 11, 3, 41, 53), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('34.50')), ('d0d1d2d35y/fceshi0146', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 47, 39), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0003'), Decimal('5.30'), Decimal('5.30'), '杜鑫test账号fy', 'odds', 'odds_type', 'options', 'XH4uZjmuZh7p', datetime.datetime(2022, 7, 11, 3, 41, 55), 'sr:sport:1', '足球', Decimal('5.30'), Decimal('5.30')), ('d0d1d2d3ud/fceshi0775', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 47, 44), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0005'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ud', 'odds', 'odds_type', 'options', 'XH4v2VDFg9eb', datetime.datetime(2022, 7, 11, 3, 41, 57), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3ps/fceshi0660', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 48, 2), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0002'), Decimal('-5.00'), Decimal('-5.00'), '杜鑫test账号ps', 'odds', 'odds_type', 'options', 'XH4v8HX6evZx', datetime.datetime(2022, 7, 11, 3, 41, 58), 'sr:sport:1', '足球', Decimal('5.00'), Decimal('-5.00')), ('d0d1d2d3hy/fceshi0458', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 48, 16), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号hy', 'odds', 'odds_type', 'options', 'XH4vdh7MXkgA', datetime.datetime(2022, 7, 11, 3, 42), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d39q/fceshi0242', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 21), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('23.50'), Decimal('23.50'), '杜鑫test账号jq', 'odds', 'odds_type', 'options', 'XH4veP3HQaBY', datetime.datetime(2022, 7, 11, 3, 42, 1), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('23.50')), ('d0d1d2d3ih/fceshi0467', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 36), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.01'), Decimal('0.0011'), Decimal('22.01'), Decimal('22.00'), '杜鑫test账号ih', 'odds', 'odds_type', 'options', 'XH4vjsHg5K4S', datetime.datetime(2022, 7, 11, 3, 42, 4), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('22.00')), ('d0d1d2d3je/fceshi0490', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 43), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('23.00'), Decimal('23.00'), '杜鑫test账号je', 'odds', 'odds_type', 'options', 'XH4vmG2AR4vB', datetime.datetime(2022, 7, 11, 3, 42, 6), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('23.00')), ('d0d1d2d3nb/fceshi0591', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 50), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('3.20'), Decimal('3.20'), '杜鑫test账号nb', 'odds', 'odds_type', 'options', 'XH4vq98PBVgg', datetime.datetime(2022, 7, 11, 3, 42, 8), 'sr:sport:1', '足球', Decimal('3.20'), Decimal('3.20')), ('d0d1d2d39f/fceshi0231', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 49, 16), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.56'), Decimal('-1.56'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.56'), Decimal('-1.56'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.56'), Decimal('-1.56'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.55'), Decimal('-1.56'), Decimal('0.00'), Decimal('0.0005'), Decimal('7.80'), Decimal('7.80'), '杜鑫test账号jf', 'odds', 'odds_type', 'options', 'XH4vygGCgd6b', datetime.datetime(2022, 7, 11, 3, 42, 12), 'sr:sport:1', '足球', Decimal('7.80'), Decimal('7.80')), ('d0d1d2d38y/fceshi0224', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 49, 31), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('36.50'), Decimal('36.50'), '杜鑫test账号iy', 'odds', 'odds_type', 'options', 'XH4vCZGr2NT9', datetime.datetime(2022, 7, 11, 3, 42, 19), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('36.50')), ('d0d1d2d3jv/fceshi0507', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 49, 42), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.26'), Decimal('-1.26'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.26'), Decimal('-1.26'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.26'), Decimal('-1.26'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.25'), Decimal('-1.26'), Decimal('0.00'), Decimal('0.0002'), Decimal('6.30'), Decimal('6.30'), '杜鑫test账号jv', 'odds', 'odds_type', 'options', 'XH4vGtjuxzu8', datetime.datetime(2022, 7, 11, 3, 42, 22), 'sr:sport:1', '足球', Decimal('6.30'), Decimal('6.30')), ('d0d1d2d34n/fceshi0109', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 50, 3), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('41.50'), Decimal('41.50'), '杜鑫test账号en', 'odds', 'odds_type', 'options', 'XH4vPj6YQNFy', datetime.datetime(2022, 7, 11, 3, 42, 26), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('41.50')), ('d0d1d2d3ku/fceshi0532', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 50, 12), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0005'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ku', 'odds', 'odds_type', 'options', 'XH4vS8mLWXVS', datetime.datetime(2022, 7, 11, 3, 42, 28), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3tj/fceshi0755', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 50, 36), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('28.50'), Decimal('28.50'), '杜鑫test账号tj', 'odds', 'odds_type', 'options', 'XH4vZWTcx3gC', datetime.datetime(2022, 7, 11, 3, 42, 30), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('28.50')), ('d0d1d2d3eg/fceshi0362', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 50, 43), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('51.50'), Decimal('51.50'), '杜鑫test账号eg', 'odds', 'odds_type', 'options', 'XH4w4aWhGz36', datetime.datetime(2022, 7, 11, 3, 42, 32), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('51.50')), ('d0d1d2d3cj/fceshi0313', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 50, 54), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0002'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号cj', 'odds', 'odds_type', 'options', 'XH4w7yzHTR6k', datetime.datetime(2022, 7, 10, 0, 6, 32), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d38g/fceshi0206', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 51, 17), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('5.90'), Decimal('5.90'), '杜鑫test账号ig', 'odds', 'odds_type', 'options', 'XH4wf2et6e54', datetime.datetime(2022, 7, 11, 3, 42, 35), 'sr:sport:1', '足球', Decimal('5.90'), Decimal('5.90')), ('d0d1d2d38l/fceshi0211', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 51, 53), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号il', 'odds', 'odds_type', 'options', 'XH4wssFn5Zxa', datetime.datetime(2022, 7, 11, 3, 42, 37), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3es/fceshi0374', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 52, 37), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.68'), Decimal('-1.68'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.68'), Decimal('-1.68'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.68'), Decimal('-1.68'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.67'), Decimal('-1.68'), Decimal('0.00'), Decimal('0.0003'), Decimal('8.40'), Decimal('8.40'), '杜鑫test账号es', 'odds', 'odds_type', 'options', 'XH4wGvtBj9en', datetime.datetime(2022, 7, 11, 3, 42, 42), 'sr:sport:1', '足球', Decimal('8.40'), Decimal('8.40')), ('d0d1d2d30i/fceshi08', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 53, 39), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ai', 'odds', 'odds_type', 'options', 'XH4x4i3WUHkD', datetime.datetime(2022, 7, 10, 0, 6, 34), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3lv/fceshi0559', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 54, 27), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('1.10'), Decimal('1.10'), '杜鑫test账号lv', 'odds', 'odds_type', 'options', 'XH4xjrPUGTdd', datetime.datetime(2022, 7, 16, 9, 1, 19), 'sr:sport:1', '足球', Decimal('1.10'), Decimal('1.10')), ('d0d1d2d3qi/fceshi0676', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 57, 37), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0007'), Decimal('4.00'), Decimal('4.00'), '杜鑫test账号qi', 'odds', 'odds_type', 'options', 'XH4yq6pfzktK', datetime.datetime(2022, 7, 15, 14, 59, 13), 'sr:sport:1', '足球', Decimal('4.00'), Decimal('4.00')), ('d0d1d2d3fa/fceshi0382', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 58, 57), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0011'), Decimal('-9.99'), Decimal('-10.00'), '杜鑫test账号fa', 'odds', 'odds_type', 'options', 'XH4yRw3sagjW', datetime.datetime(2022, 7, 16, 8, 58, 11), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d35t/fceshi0141', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 9, 0, 28), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ft', 'odds', 'odds_type', 'options', 'XH4znu3DRUwH', datetime.datetime(2022, 7, 16, 16, 26, 35), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3ag/fceshi0258', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 9, 1, 10), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ag', 'odds', 'odds_type', 'options', 'XH4zBXuYMXPm', datetime.datetime(2022, 7, 16, 9, 2, 39), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d32d/fceshi047', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 9, 1, 36), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0005'), Decimal('4.30'), Decimal('4.30'), '杜鑫test账号cd', 'odds', 'odds_type', 'options', 'XH4zL9B2Jpve', datetime.datetime(2022, 7, 10, 0, 6, 34), 'sr:sport:1', '足球', Decimal('4.30'), Decimal('4.30')), ('d0d1d2d30y/fceshi024', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 6, 7), '串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ay', 'odds', 'odds_type', 'options', 'XHwAKUSppxEs', datetime.datetime(2022, 7, 16, 8, 50, 38), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d32o/fceshi058', Decimal('40.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 13, 24), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-40.00'), Decimal('-40.00'), '杜鑫test账号co', 'odds', 'odds_type', 'options', 'XHwDf4uUUKkS', datetime.datetime(2022, 7, 10, 13, 53, 16), 'sr:sport:1', '足球', Decimal('40.00'), Decimal('-40.00')), ('d0d1d2d30j/fceshi09', Decimal('50.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 14, 59), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-50.00'), Decimal('-50.00'), '杜鑫test账号aj', 'odds', 'odds_type', 'options', 'XHwDMkrmPJKV', datetime.datetime(2022, 7, 10, 6, 41, 51), 'sr:sport:1', '足球', Decimal('50.00'), Decimal('-50.00')), ('d0d1d2d30c/fceshi02', Decimal('150.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 15, 10), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-150.00'), Decimal('-150.00'), '杜鑫test账号ac', 'odds', 'odds_type', 'options', 'XHwDQTqFNQT7', datetime.datetime(2022, 7, 10, 13, 55, 46), 'sr:sport:1', '足球', Decimal('150.00'), Decimal('-150.00')), ('d0d1d2d31r/fceshi043', Decimal('570.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 44, 7), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('-85.40'), Decimal('-85.40'), '杜鑫test账号br', 'odds', 'odds_type', 'options', 'XHwPJRgjRjYK', datetime.datetime(2022, 7, 16, 15, 5, 13), 'sr:sport:1', '足球', Decimal('85.40'), Decimal('-85.40')), ('d0d1d2d3ix/fceshi0483', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 7, 5, 4, 6, 12), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ix', 'odds', 'odds_type', 'options', 'XJKqDzWKMCy9', datetime.datetime(2022, 7, 16, 5, 16, 52), 'sr:sport:4', '冰球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3zy/fceshi0926', Decimal('10.00'), '202.150.3.88', '柬埔寨', '输', datetime.datetime(2022, 7, 10, 3, 20, 47), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号zy', 'odds', 'odds_type', 'options', 'XKx53JKGFCWs', datetime.datetime(2022, 7, 10, 5, 27, 5), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3zy/fceshi0926', Decimal('10.00'), '202.150.3.88', '柬埔寨', '输', datetime.datetime(2022, 7, 10, 3, 20, 51), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0007'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号zy', 'odds', 'odds_type', 'options', 'XKx554sLpNk3', datetime.datetime(2022, 7, 10, 5, 27, 6), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3zy/fceshi0926', Decimal('10.00'), '202.150.3.88', '柬埔寨', '输', datetime.datetime(2022, 7, 10, 3, 23, 42), '单注', Decimal('0.00</t>
+  </si>
+  <si>
+    <t>["代理查询[]-SQL查询(('d0d1d2d3rl/fceshi0705', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 16, 6, 51, 9), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0007'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号rl', 'odds', 'odds_type', 'options', 'XFMvkaAa2EyQ', datetime.datetime(2022, 7, 11, 3, 41, 16), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3ea/fceshi0356', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 40, 10), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0002'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ea', 'odds', 'odds_type', 'options', 'XH4ss4C8CJrA', datetime.datetime(2022, 7, 11, 3, 41, 18), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3df/fceshi0335', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 40, 22), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-10.29'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0002'), Decimal('51.50'), Decimal('51.50'), '杜鑫test账号df', 'odds', 'odds_type', 'options', 'XH4svST7h8L2', datetime.datetime(2022, 7, 11, 3, 41, 20), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('51.50')), ('d0d1d2d38y/fceshi0224', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 43), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.02'), Decimal('-0.02'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.10'), Decimal('0.10'), '杜鑫test账号iy', 'odds', 'odds_type', 'options', 'XH4tqsrmgi4u', datetime.datetime(2022, 7, 11, 3, 41, 27), 'sr:sport:1', '足球', Decimal('0.10'), Decimal('0.10')), ('d0d1d2d35u/fceshi0142', Decimal('10.00'), '192.168.10.120', '局域网', '平局走水', datetime.datetime(2022, 6, 24, 8, 44, 19), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.0011'), Decimal('0.00'), Decimal('0.00'), '杜鑫test账号fu', 'odds', 'odds_type', 'options', 'XH4tRJjpTbw4', datetime.datetime(2022, 7, 11, 3, 41, 31), 'sr:sport:1', '足球', Decimal('0.00'), Decimal('0.00')), ('d0d1d2d35s/fceshi0140', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 44, 23), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0007'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号fs', 'odds', 'odds_type', 'options', 'XH4tSR96m5dQ', datetime.datetime(2022, 7, 11, 3, 41, 33), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d31l/fceshi037', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 44, 31), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-3.00'), Decimal('-3.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('15.00'), Decimal('15.00'), '杜鑫test账号bl', 'odds', 'odds_type', 'options', 'XH4tVrSP4AfW', datetime.datetime(2022, 7, 11, 3, 41, 35), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('15.00')), ('d0d1d2d3ui/fceshi0780', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 44, 53), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ui', 'odds', 'odds_type', 'options', 'XH4u4xZyAimC', datetime.datetime(2022, 7, 11, 3, 41, 37), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d32p/fceshi059', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 45, 13), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0011'), Decimal('-9.99'), Decimal('-10.00'), '杜鑫test账号cp', 'odds', 'odds_type', 'options', 'XH4uaSmddnM3', datetime.datetime(2022, 7, 11, 3, 41, 41), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3if/fceshi0465', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 45, 35), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0011'), Decimal('-5.00'), Decimal('-5.00'), '杜鑫test账号if', 'odds', 'odds_type', 'options', 'XH4uhKSs4EG5', datetime.datetime(2022, 7, 11, 3, 41, 45), 'sr:sport:1', '足球', Decimal('5.00'), Decimal('-5.00')), ('d0d1d2d37u/fceshi0194', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 45, 50), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.36'), Decimal('-1.36'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.36'), Decimal('-1.36'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.36'), Decimal('-1.36'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.35'), Decimal('-1.36'), Decimal('0.00'), Decimal('0.0002'), Decimal('6.80'), Decimal('6.80'), '杜鑫test账号hu', 'odds', 'odds_type', 'options', 'XH4unwkeUDy4', datetime.datetime(2022, 7, 11, 3, 41, 47), 'sr:sport:1', '足球', Decimal('6.80'), Decimal('6.80')), ('d0d1d2d3db/fceshi0331', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 46, 37), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-6.90'), Decimal('-6.90'), Decimal('0.00'), Decimal('0.0000'), Decimal('34.50'), Decimal('34.50'), '杜鑫test账号db', 'odds', 'odds_type', 'options', 'XH4uDywxHmRv', datetime.datetime(2022, 7, 11, 3, 41, 53), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('34.50')), ('d0d1d2d35y/fceshi0146', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 47, 39), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.06'), Decimal('-1.06'), Decimal('0.00'), Decimal('0.0003'), Decimal('5.30'), Decimal('5.30'), '杜鑫test账号fy', 'odds', 'odds_type', 'options', 'XH4uZjmuZh7p', datetime.datetime(2022, 7, 11, 3, 41, 55), 'sr:sport:1', '足球', Decimal('5.30'), Decimal('5.30')), ('d0d1d2d3ud/fceshi0775', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 47, 44), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0005'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ud', 'odds', 'odds_type', 'options', 'XH4v2VDFg9eb', datetime.datetime(2022, 7, 11, 3, 41, 57), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3ps/fceshi0660', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 48, 2), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('1.00'), Decimal('1.00'), Decimal('0.00'), Decimal('0.0002'), Decimal('-5.00'), Decimal('-5.00'), '杜鑫test账号ps', 'odds', 'odds_type', 'options', 'XH4v8HX6evZx', datetime.datetime(2022, 7, 11, 3, 41, 58), 'sr:sport:1', '足球', Decimal('5.00'), Decimal('-5.00')), ('d0d1d2d3hy/fceshi0458', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 48, 16), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号hy', 'odds', 'odds_type', 'options', 'XH4vdh7MXkgA', datetime.datetime(2022, 7, 11, 3, 42), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d39q/fceshi0242', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 21), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.70'), Decimal('-4.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('23.50'), Decimal('23.50'), '杜鑫test账号jq', 'odds', 'odds_type', 'options', 'XH4veP3HQaBY', datetime.datetime(2022, 7, 11, 3, 42, 1), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('23.50')), ('d0d1d2d3ih/fceshi0467', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 36), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-4.40'), Decimal('-4.40'), Decimal('0.01'), Decimal('0.0011'), Decimal('22.01'), Decimal('22.00'), '杜鑫test账号ih', 'odds', 'odds_type', 'options', 'XH4vjsHg5K4S', datetime.datetime(2022, 7, 11, 3, 42, 4), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('22.00')), ('d0d1d2d3je/fceshi0490', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 43), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-4.60'), Decimal('-4.60'), Decimal('0.00'), Decimal('0.0000'), Decimal('23.00'), Decimal('23.00'), '杜鑫test账号je', 'odds', 'odds_type', 'options', 'XH4vmG2AR4vB', datetime.datetime(2022, 7, 11, 3, 42, 6), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('23.00')), ('d0d1d2d3nb/fceshi0591', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 48, 50), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.64'), Decimal('-0.64'), Decimal('0.00'), Decimal('0.0000'), Decimal('3.20'), Decimal('3.20'), '杜鑫test账号nb', 'odds', 'odds_type', 'options', 'XH4vq98PBVgg', datetime.datetime(2022, 7, 11, 3, 42, 8), 'sr:sport:1', '足球', Decimal('3.20'), Decimal('3.20')), ('d0d1d2d39f/fceshi0231', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 49, 16), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.56'), Decimal('-1.56'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.56'), Decimal('-1.56'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.56'), Decimal('-1.56'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.55'), Decimal('-1.56'), Decimal('0.00'), Decimal('0.0005'), Decimal('7.80'), Decimal('7.80'), '杜鑫test账号jf', 'odds', 'odds_type', 'options', 'XH4vygGCgd6b', datetime.datetime(2022, 7, 11, 3, 42, 12), 'sr:sport:1', '足球', Decimal('7.80'), Decimal('7.80')), ('d0d1d2d38y/fceshi0224', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 49, 31), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-7.30'), Decimal('-7.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('36.50'), Decimal('36.50'), '杜鑫test账号iy', 'odds', 'odds_type', 'options', 'XH4vCZGr2NT9', datetime.datetime(2022, 7, 11, 3, 42, 19), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('36.50')), ('d0d1d2d3jv/fceshi0507', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 49, 42), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.26'), Decimal('-1.26'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.26'), Decimal('-1.26'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.26'), Decimal('-1.26'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.25'), Decimal('-1.26'), Decimal('0.00'), Decimal('0.0002'), Decimal('6.30'), Decimal('6.30'), '杜鑫test账号jv', 'odds', 'odds_type', 'options', 'XH4vGtjuxzu8', datetime.datetime(2022, 7, 11, 3, 42, 22), 'sr:sport:1', '足球', Decimal('6.30'), Decimal('6.30')), ('d0d1d2d34n/fceshi0109', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 50, 3), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-8.30'), Decimal('-8.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('41.50'), Decimal('41.50'), '杜鑫test账号en', 'odds', 'odds_type', 'options', 'XH4vPj6YQNFy', datetime.datetime(2022, 7, 11, 3, 42, 26), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('41.50')), ('d0d1d2d3ku/fceshi0532', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 50, 12), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0005'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ku', 'odds', 'odds_type', 'options', 'XH4vS8mLWXVS', datetime.datetime(2022, 7, 11, 3, 42, 28), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3tj/fceshi0755', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 50, 36), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-5.70'), Decimal('-5.70'), Decimal('0.00'), Decimal('0.0000'), Decimal('28.50'), Decimal('28.50'), '杜鑫test账号tj', 'odds', 'odds_type', 'options', 'XH4vZWTcx3gC', datetime.datetime(2022, 7, 11, 3, 42, 30), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('28.50')), ('d0d1d2d3eg/fceshi0362', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 50, 43), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-10.30'), Decimal('-10.30'), Decimal('0.00'), Decimal('0.0000'), Decimal('51.50'), Decimal('51.50'), '杜鑫test账号eg', 'odds', 'odds_type', 'options', 'XH4w4aWhGz36', datetime.datetime(2022, 7, 11, 3, 42, 32), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('51.50')), ('d0d1d2d3cj/fceshi0313', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 50, 54), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0002'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号cj', 'odds', 'odds_type', 'options', 'XH4w7yzHTR6k', datetime.datetime(2022, 7, 10, 0, 6, 32), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d38g/fceshi0206', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 51, 17), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-1.18'), Decimal('-1.18'), Decimal('0.00'), Decimal('0.0000'), Decimal('5.90'), Decimal('5.90'), '杜鑫test账号ig', 'odds', 'odds_type', 'options', 'XH4wf2et6e54', datetime.datetime(2022, 7, 11, 3, 42, 35), 'sr:sport:1', '足球', Decimal('5.90'), Decimal('5.90')), ('d0d1d2d38l/fceshi0211', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 51, 53), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号il', 'odds', 'odds_type', 'options', 'XH4wssFn5Zxa', datetime.datetime(2022, 7, 11, 3, 42, 37), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3es/fceshi0374', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 52, 37), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.68'), Decimal('-1.68'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.68'), Decimal('-1.68'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.68'), Decimal('-1.68'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('-1.67'), Decimal('-1.68'), Decimal('0.00'), Decimal('0.0003'), Decimal('8.40'), Decimal('8.40'), '杜鑫test账号es', 'odds', 'odds_type', 'options', 'XH4wGvtBj9en', datetime.datetime(2022, 7, 11, 3, 42, 42), 'sr:sport:1', '足球', Decimal('8.40'), Decimal('8.40')), ('d0d1d2d30i/fceshi08', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 53, 39), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ai', 'odds', 'odds_type', 'options', 'XH4x4i3WUHkD', datetime.datetime(2022, 7, 10, 0, 6, 34), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3lv/fceshi0559', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 54, 27), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('-0.22'), Decimal('-0.22'), Decimal('0.00'), Decimal('0.0000'), Decimal('1.10'), Decimal('1.10'), '杜鑫test账号lv', 'odds', 'odds_type', 'options', 'XH4xjrPUGTdd', datetime.datetime(2022, 7, 16, 9, 1, 19), 'sr:sport:1', '足球', Decimal('1.10'), Decimal('1.10')), ('d0d1d2d3qi/fceshi0676', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 8, 57, 37), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.80'), Decimal('-0.80'), Decimal('0.00'), Decimal('0.0007'), Decimal('4.00'), Decimal('4.00'), '杜鑫test账号qi', 'odds', 'odds_type', 'options', 'XH4yq6pfzktK', datetime.datetime(2022, 7, 15, 14, 59, 13), 'sr:sport:1', '足球', Decimal('4.00'), Decimal('4.00')), ('d0d1d2d3fa/fceshi0382', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 8, 58, 57), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0011'), Decimal('-9.99'), Decimal('-10.00'), '杜鑫test账号fa', 'odds', 'odds_type', 'options', 'XH4yRw3sagjW', datetime.datetime(2022, 7, 16, 8, 58, 11), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d35t/fceshi0141', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 9, 0, 28), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ft', 'odds', 'odds_type', 'options', 'XH4znu3DRUwH', datetime.datetime(2022, 7, 16, 16, 26, 35), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3ag/fceshi0258', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 24, 9, 1, 10), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ag', 'odds', 'odds_type', 'options', 'XH4zBXuYMXPm', datetime.datetime(2022, 7, 16, 9, 2, 39), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d32d/fceshi047', Decimal('10.00'), '192.168.10.120', '局域网', '赢', datetime.datetime(2022, 6, 24, 9, 1, 36), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('-0.86'), Decimal('-0.86'), Decimal('0.00'), Decimal('0.0005'), Decimal('4.30'), Decimal('4.30'), '杜鑫test账号cd', 'odds', 'odds_type', 'options', 'XH4zL9B2Jpve', datetime.datetime(2022, 7, 10, 0, 6, 34), 'sr:sport:1', '足球', Decimal('4.30'), Decimal('4.30')), ('d0d1d2d30y/fceshi024', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 6, 7), '串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ay', 'odds', 'odds_type', 'options', 'XHwAKUSppxEs', datetime.datetime(2022, 7, 16, 8, 50, 38), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d32o/fceshi058', Decimal('40.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 13, 24), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('8.00'), Decimal('8.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-40.00'), Decimal('-40.00'), '杜鑫test账号co', 'odds', 'odds_type', 'options', 'XHwDf4uUUKkS', datetime.datetime(2022, 7, 10, 13, 53, 16), 'sr:sport:1', '足球', Decimal('40.00'), Decimal('-40.00')), ('d0d1d2d30j/fceshi09', Decimal('50.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 14, 59), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('10.00'), Decimal('10.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-50.00'), Decimal('-50.00'), '杜鑫test账号aj', 'odds', 'odds_type', 'options', 'XHwDMkrmPJKV', datetime.datetime(2022, 7, 10, 6, 41, 51), 'sr:sport:1', '足球', Decimal('50.00'), Decimal('-50.00')), ('d0d1d2d30c/fceshi02', Decimal('150.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 15, 10), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('30.00'), Decimal('30.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-150.00'), Decimal('-150.00'), '杜鑫test账号ac', 'odds', 'odds_type', 'options', 'XHwDQTqFNQT7', datetime.datetime(2022, 7, 10, 13, 55, 46), 'sr:sport:1', '足球', Decimal('150.00'), Decimal('-150.00')), ('d0d1d2d31r/fceshi043', Decimal('570.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 6, 27, 8, 44, 7), '复式串关', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('17.08'), Decimal('17.08'), Decimal('0.00'), Decimal('0.0000'), Decimal('-85.40'), Decimal('-85.40'), '杜鑫test账号br', 'odds', 'odds_type', 'options', 'XHwPJRgjRjYK', datetime.datetime(2022, 7, 16, 15, 5, 13), 'sr:sport:1', '足球', Decimal('85.40'), Decimal('-85.40')), ('d0d1d2d3ix/fceshi0483', Decimal('10.00'), '192.168.10.120', '局域网', '输', datetime.datetime(2022, 7, 5, 4, 6, 12), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号ix', 'odds', 'odds_type', 'options', 'XJKqDzWKMCy9', datetime.datetime(2022, 7, 16, 5, 16, 52), 'sr:sport:4', '冰球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3zy/fceshi0926', Decimal('10.00'), '202.150.3.88', '柬埔寨', '输', datetime.datetime(2022, 7, 10, 3, 20, 47), '单注', Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0000'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号zy', 'odds', 'odds_type', 'options', 'XKx53JKGFCWs', datetime.datetime(2022, 7, 10, 5, 27, 5), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3zy/fceshi0926', Decimal('10.00'), '202.150.3.88', '柬埔寨', '输', datetime.datetime(2022, 7, 10, 3, 20, 51), '单注', Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.00'), Decimal('2.00'), Decimal('0.01'), Decimal('0.0021'), Decimal('0.20'), Decimal('2.01'), Decimal('2.00'), Decimal('0.00'), Decimal('0.0007'), Decimal('-10.00'), Decimal('-10.00'), '杜鑫test账号zy', 'odds', 'odds_type', 'options', 'XKx554sLpNk3', datetime.datetime(2022, 7, 10, 5, 27, 6), 'sr:sport:1', '足球', Decimal('10.00'), Decimal('-10.00')), ('d0d1d2d3zy/fceshi0926', Decimal('10.00'), '202.150.3.88', '柬埔寨', '输', datetime.datetime(2022, 7, 10, 3, 23, 42), '单注', Deci</t>
   </si>
   <si>
     <t>接口返回不需要的字段处理传参</t>
@@ -141,17 +214,14 @@
     <t>sportName</t>
   </si>
   <si>
-    <t>测试不通过
-2022-07-11 19:54:43</t>
-  </si>
-  <si>
-    <t>[[{'allAmount': 1290.0, 'allBackwater': -0.228522, 'allEfficient': 1142.61, 'companyFinal': -90.98, 'level0Backwater': -0.02, 'level0Final': -90.77, 'level0WinLose': -90.75, 'level1Backwater': -0.02, 'level1Final': -90.77, 'level1WinLose': -90.75, 'level2Backwater': -0.01, 'level2Final': -90.76, 'level2WinLose': -90.75, 'level3Backwater': 0.16, 'level3Final': -90.59, 'level3WinLose': -90.75, 'memberBackwater': 0.04, 'memberFinal': 453.87, 'memberWinLose': 453.83, 'sportId': 'sr:sport:1', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportName': '棒球'}, {'allAmount': 100.0, 'allBackwater': -0.0358, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'sportId': 'sr:sport:2', 'sportName': '篮球'}], [{'allAmount': 1290.0, 'allBackwater': 0.35, 'allEfficient': 1142.61, 'companyFinal': -90.98, 'level0Backwater': -0.02, 'level0Final': -90.77, 'level0WinLose': -90.75, 'level1Backwater': -0.02, 'level1Final': -90.77, 'level1WinLose': -90.75, 'level2Backwater': -0.01, 'level2Final': -90.76, 'level2WinLose': -90.75, 'level3Backwater': 0.16, 'level3Final': -90.59, 'level3WinLose': -90.75, 'memberBackwater': 0.04, 'memberFinal': 453.87, 'memberWinLose': 453.83, 'sportId': 'sr:sport:1', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportName': '棒球'}, {'allAmount': 100.0, 'allBackwater': 0.18, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'sportId': 'sr:sport:2', 'sportName': '篮球'}]]</t>
-  </si>
-  <si>
-    <t>["足球/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'足球'}/{'足球'}", "棒球/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'棒球'}/{'棒球'}", "篮球/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'篮球'}/{'篮球'}"]</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的报表-球类报表-主查询  /winOrLost/sport，数据错误，需要比对,3,0\x1b[0m']</t>
+    <t>测试通过
+2022-07-19 13:47:26</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的报表-球类报表-主查询  /winOrLost/sport，接口数据比对全部正确\n\n\x1b[0m']</t>
   </si>
   <si>
     <t>球类报表-单独球类数据对比</t>
@@ -185,16 +255,35 @@
   </si>
   <si>
     <t>测试不通过
-2022-07-11 19:55:03</t>
-  </si>
-  <si>
-    <t>[[{'allAmount': 100.0, 'allBackwater': 0.0, 'allEfficient': 100.0, 'companyFinal': 20.0, 'level0Backwater': 0.0, 'level0Final': 20.0, 'level0WinLose': 20.0, 'level1Backwater': 0.0, 'level1Final': 20.0, 'level1WinLose': 20.0, 'level2Backwater': 0.0, 'level2Final': 20.0, 'level2WinLose': 20.0, 'level3Backwater': 0.0, 'level3Final': 20.0, 'level3WinLose': 20.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -100.0, 'memberWinLose': -100.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 60.0, 'allBackwater': -0.012, 'allEfficient': 60.0, 'companyFinal': -8.24, 'level0Backwater': -0.02, 'level0Final': -8.22, 'level0WinLose': -8.2, 'level1Backwater': -0.02, 'level1Final': -8.22, 'level1WinLose': -8.2, 'level2Backwater': -0.01, 'level2Final': -8.21, 'level2WinLose': -8.2, 'level3Backwater': 0.07, 'level3Final': -8.13, 'level3WinLose': -8.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 41.02, 'memberWinLose': 41.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -0.8, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.02, 'level3Final': -0.76, 'level3WinLose': -0.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '45', 'marketName': '波胆', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '波胆', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '71', 'marketName': '上半场 - 总入球 ', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '30', 'marketName': '哪队进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '哪队进球', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 23.9, 'companyFinal': 3.22, 'level0Backwater': 0.0, 'level0Final': 3.22, 'level0WinLose': 3.22, 'level1Backwater': 0.0, 'level1Final': 3.22, 'level1WinLose': 3.22, 'level2Backwater': 0.0, 'level2Final': 3.22, 'level2WinLose': 3.22, 'level3Backwater': 0.0, 'level3Final': 3.22, 'level3WinLose': 3.22, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': -16.1, 'memberWinLose': -16.1, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 29.0, 'companyFinal': 2.17, 'level0Backwater': 0.0, 'level0Final': 2.2, 'level0WinLose': 2.2, 'level1Backwater': 0.0, 'level1Final': 2.2, 'level1WinLose': 2.2, 'level2Backwater': 0.0, 'level2Final': 2.2, 'level2WinLose': 2.2, 'level3Backwater': 0.02, 'level3Final': 2.22, 'level3WinLose': 2.2, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -10.99, 'memberWinLose': -11.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -7.1, 'level0Backwater': 0.0, 'level0Final': -7.1, 'level0WinLose': -7.1, 'level1Backwater': 0.0, 'level1Final': -7.1, 'level1WinLose': -7.1, 'level2Backwater': 0.0, 'level2Final': -7.1, 'level2WinLose': -7.1, 'level3Backwater': 0.0, 'level3Final': -7.1, 'level3WinLose': -7.1, 'marketId': '15', 'marketName': '净胜球数', 'memberBackwater': 0.0, 'memberFinal': 35.5, 'memberWinLose': 35.5, 'sportId': 'sr:sport:1', 'sportMarketName': '净胜球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.4, 'companyFinal': -1.28, 'level0Backwater': 0.0, 'level0Final': -1.28, 'level0WinLose': -1.28, 'level1Backwater': 0.0, 'level1Final': -1.28, 'level1WinLose': -1.28, 'level2Backwater': 0.0, 'level2Final': -1.28, 'level2WinLose': -1.28, 'level3Backwater': 0.0, 'level3Final': -1.28, 'level3WinLose': -1.28, 'marketId': '11', 'marketName': '平局退款', 'memberBackwater': 0.0, 'memberFinal': 6.4, 'memberWinLose': 6.4, 'sportId': 'sr:sport:1', 'sportMarketName': '平局退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.5, 'companyFinal': -1.3, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'marketId': '77', 'marketName': '上半场 - FK Haugesund 不失球', 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 客队 不失球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -10.6, 'level0Backwater': 0.0, 'level0Final': -10.6, 'level0WinLose': -10.6, 'level1Backwater': 0.0, 'level1Final': -10.6, 'level1WinLose': -10.6, 'level2Backwater': 0.0, 'level2Final': -10.6, 'level2WinLose': -10.6, 'level3Backwater': 0.0, 'level3Final': -10.6, 'level3WinLose': -10.6, 'marketId': '34', 'marketName': '维京古 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 53.0, 'memberWinLose': 53.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -3.32, 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -1.6, 'level0Backwater': 0.0, 'level0Final': -1.6, 'level0WinLose': -1.6, 'level1Backwater': 0.0, 'level1Final': -1.6, 'level1WinLose': -1.6, 'level2Backwater': 0.0, 'level2Final': -1.6, 'level2WinLose': -1.6, 'level3Backwater': 0.0, 'level3Final': -1.6, 'level3WinLose': -1.6, 'marketId': '23', 'marketName': '尼斯坦 进球数', 'memberBackwater': 0.0, 'memberFinal': 8.0, 'memberWinLose': 8.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': -3.7, 'level0Backwater': 0.0, 'level0Final': -3.7, 'level0WinLose': -3.7, 'level1Backwater': 0.0, 'level1Final': -3.7, 'level1WinLose': -3.7, 'level2Backwater': 0.0, 'level2Final': -3.7, 'level2WinLose': -3.7, 'level3Backwater': 0.0, 'level3Final': -3.7, 'level3WinLose': -3.7, 'marketId': '24', 'marketName': '德文波特市 进球数', 'memberBackwater': 0.0, 'memberFinal': 18.5, 'memberWinLose': 18.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'companyFinal': -1.34, 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'marketId': '542', 'marketName': '上半场 - 双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '51', 'marketName': 'Skovde AIK 赢任何半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 赢任何半场', 'sportName': '足球'}, {'allAmount': 830.0, 'allBackwater': 0.0, 'allEfficient': 700.11, 'companyFinal': -93.05, 'level0Backwater': 0.0, 'level0Final': -92.97, 'level0WinLose': -92.97, 'level1Backwater': 0.0, 'level1Final': -92.97, 'level1WinLose': -92.97, 'level2Backwater': 0.0, 'level2Final': -92.97, 'level2WinLose': -92.97, 'level3Backwater': 0.0, 'level3Final': -92.97, 'level3WinLose': -92.97, 'marketId': '串关', 'marketName': '串关', 'memberBackwater': 0.0, 'memberFinal': 464.93, 'memberWinLose': 464.93, 'sportId': 'sr:sport:1', 'sportMarketName': '串关', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 50.0, 'allBackwater': -0.0079, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}], [{'allAmount': 60.0, 'allBackwater': 0.12, 'allEfficient': 60.0, 'companyFinal': -8.24, 'level0Backwater': -0.02, 'level0Final': -8.22, 'level0WinLose': -8.2, 'level1Backwater': -0.02, 'level1Final': -8.22, 'level1WinLose': -8.2, 'level2Backwater': -0.01, 'level2Final': -8.21, 'level2WinLose': -8.2, 'level3Backwater': 0.07, 'level3Final': -8.13, 'level3WinLose': -8.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 41.02, 'memberWinLose': 41.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'companyFinal': -0.8, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.02, 'level3Final': -0.76, 'level3WinLose': -0.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.06, 'allEfficient': 29.0, 'companyFinal': 2.17, 'level0Backwater': 0.0, 'level0Final': 2.2, 'level0WinLose': 2.2, 'level1Backwater': 0.0, 'level1Final': 2.2, 'level1WinLose': 2.2, 'level2Backwater': 0.0, 'level2Final': 2.2, 'level2WinLose': 2.2, 'level3Backwater': 0.02, 'level3Final': 2.22, 'level3WinLose': 2.2, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -10.99, 'memberWinLose': -11.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'companyFinal': -3.32, 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0, 'allEfficient': 20.0, 'companyFinal': -1.6, 'level0Backwater': 0.0, 'level0Final': -1.6, 'level0WinLose': -1.6, 'level1Backwater': 0.0, 'level1Final': -1.6, 'level1WinLose': -1.6, 'level2Backwater': 0.0, 'level2Final': -1.6, 'level2WinLose': -1.6, 'level3Backwater': 0.0, 'level3Final': -1.6, 'level3WinLose': -1.6, 'marketId': '23', 'marketName': '斯图特狮子 进球数', 'memberBackwater': 0.0, 'memberFinal': 8.0, 'memberWinLose': 8.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0, 'allEfficient': 30.0, 'companyFinal': -3.7, 'level0Backwater': 0.0, 'level0Final': -3.7, 'level0WinLose': -3.7, 'level1Backwater': 0.0, 'level1Final': -3.7, 'level1WinLose': -3.7, 'level2Backwater': 0.0, 'level2Final': -3.7, 'level2WinLose': -3.7, 'level3Backwater': 0.0, 'level3Final': -3.7, 'level3WinLose': -3.7, 'marketId': '24', 'marketName': '湾水市 进球数', 'memberBackwater': 0.0, 'memberFinal': 18.5, 'memberWinLose': 18.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 50.0, 'allBackwater': 0.08, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}]]</t>
-  </si>
-  <si>
-    <t>['足球-让球/sr:sport:3/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.012/0.12', '足球-上半场 - 大/小/sr:sport:2/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.04', '足球-客队 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.06', '足球-上半场 - 单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.04', '足球-两个半场 小1.5/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-主队 进球数/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：尼斯坦 进球数/斯图特狮子 进球数', '足球-客队 进球数/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：德文波特市 进球数/湾水市 进球数', '足球-双重机会&amp;大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '棒球-让球 (包括加时赛)/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.403/0.65', '篮球-让球/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.0079/0.08', '篮球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的报表-球类报表-子查询（根据其球类查询盘口）  ["/winOrLost/sport","/winOrLost/market"]，数据错误，需要比对,25,12\x1b[0m']</t>
+2022-07-19 13:47:47</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': 6.0, 'level0Backwater': 0.0, 'level0Final': 6.0, 'level0WinLose': 6.0, 'level1Backwater': 0.0, 'level1Final': 6.0, 'level1WinLose': 6.0, 'level2Backwater': 0.0, 'level2Final': 6.0, 'level2WinLose': 6.0, 'level3Backwater': 0.0, 'level3Final': 6.0, 'level3WinLose': 6.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -30.0, 'memberWinLose': -30.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -4.6, 'level0Backwater': 0.0, 'level0Final': -4.6, 'level0WinLose': -4.6, 'level1Backwater': 0.0, 'level1Final': -4.6, 'level1WinLose': -4.6, 'level2Backwater': 0.0, 'level2Final': -4.6, 'level2WinLose': -4.6, 'level3Backwater': 0.0, 'level3Final': -4.6, 'level3WinLose': -4.6, 'marketId': '60', 'marketName': '上半场 - 独赢', 'memberBackwater': 0.0, 'memberFinal': 23.0, 'memberWinLose': 23.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢', 'sportName': '足球'}, {'allAmount': 80.0, 'allBackwater': 0.66, 'allEfficient': 75.0, 'companyFinal': 14.95, 'level0Backwater': -0.02, 'level0Final': 14.98, 'level0WinLose': 15.0, 'level1Backwater': -0.02, 'level1Final': 14.98, 'level1WinLose': 15.0, 'level2Backwater': -0.01, 'level2Final': 14.99, 'level2WinLose': 15.0, 'level3Backwater': 0.09, 'level3Final': 15.09, 'level3WinLose': 15.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': -74.99, 'memberWinLose': -75.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 8.4, 'companyFinal': -1.69, 'level0Backwater': 0.0, 'level0Final': -1.68, 'level0WinLose': -1.68, 'level1Backwater': 0.0, 'level1Final': -1.68, 'level1WinLose': -1.68, 'level2Backwater': 0.0, 'level2Final': -1.68, 'level2WinLose': -1.68, 'level3Backwater': 0.01, 'level3Final': -1.67, 'level3WinLose': -1.68, 'marketId': '66', 'marketName': '上半场 - 让球', 'memberBackwater': 0.0, 'memberFinal': 8.4, 'memberWinLose': 8.4, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 让球', 'sportName': '足球'}, {'allAmount': 220.0, 'allBackwater': 1.82, 'allEfficient': 210.0, 'companyFinal': 41.89, 'level0Backwater': -0.08, 'level0Final': 41.92, 'level0WinLose': 42.0, 'level1Backwater': -0.08, 'level1Final': 41.92, 'level1WinLose': 42.0, 'level2Backwater': -0.06, 'level2Final': 41.94, 'level2WinLose': 42.0, 'level3Backwater': 0.28, 'level3Final': 42.28, 'level3WinLose': 42.0, 'marketId': '18', 'marketName': '大/小', 'memberBackwater': 0.05, 'memberFinal': -209.95, 'memberWinLose': -210.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.18, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '81', 'marketName': '上半场 - 波胆', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 波胆', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '25', 'marketName': '总入球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '71', 'marketName': '上半场 - 总入球 ', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -7.3, 'level0Backwater': 0.0, 'level0Final': -7.3, 'level0WinLose': -7.3, 'level1Backwater': 0.0, 'level1Final': -7.3, 'level1WinLose': -7.3, 'level2Backwater': 0.0, 'level2Final': -7.3, 'level2WinLose': -7.3, 'level3Backwater': 0.0, 'level3Final': -7.3, 'level3WinLose': -7.3, 'marketId': '75', 'marketName': '上半场 - 两队都进球', 'memberBackwater': 0.0, 'memberFinal': 36.5, 'memberWinLose': 36.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 两队都进球', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.13, 'allEfficient': 14.4, 'companyFinal': 1.11, 'level0Backwater': 0.0, 'level0Final': 1.12, 'level0WinLose': 1.12, 'level1Backwater': 0.0, 'level1Final': 1.12, 'level1WinLose': 1.12, 'level2Backwater': 0.0, 'level2Final': 1.12, 'level2WinLose': 1.12, 'level3Backwater': 0.01, 'level3Final': 1.13, 'level3WinLose': 1.12, 'marketId': '19', 'marketName': 'Cruz Azul 大/小', 'memberBackwater': 0.0, 'memberFinal': -5.6, 'memberWinLose': -5.6, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 大/小', 'sportName': '足球'}, {'allAmount': 40.0, 'allBackwater': 0.17, 'allEfficient': 18.6, 'companyFinal': -3.72, 'level0Backwater': 0.0, 'level0Final': -3.72, 'level0WinLose': -3.72, 'level1Backwater': 0.0, 'level1Final': -3.72, 'level1WinLose': -3.72, 'level2Backwater': 0.0, 'level2Final': -3.72, 'level2WinLose': -3.72, 'level3Backwater': 0.0, 'level3Final': -3.72, 'level3WinLose': -3.72, 'marketId': '20', 'marketName': 'CF Pachuca 大/小', 'memberBackwater': 0.0, 'memberFinal': 18.6, 'memberWinLose': 18.6, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.18, 'allEfficient': 20.0, 'companyFinal': 3.98, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.02, 'level3Final': 4.02, 'level3WinLose': 4.0, 'marketId': '69', 'marketName': '上半场 - 克罗地亚 大/小', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 主队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 7.8, 'companyFinal': -1.57, 'level0Backwater': 0.0, 'level0Final': -1.56, 'level0WinLose': -1.56, 'level1Backwater': 0.0, 'level1Final': -1.56, 'level1WinLose': -1.56, 'level2Backwater': 0.0, 'level2Final': -1.56, 'level2WinLose': -1.56, 'level3Backwater': 0.01, 'level3Final': -1.55, 'level3WinLose': -1.56, 'marketId': '27', 'marketName': 'SC Paderborn 07 单/双', 'memberBackwater': 0.0, 'memberFinal': 7.8, 'memberWinLose': 7.8, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 单双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.11, 'allEfficient': 13.1, 'companyFinal': -2.64, 'level0Backwater': 0.0, 'level0Final': -2.62, 'level0WinLose': -2.62, 'level1Backwater': 0.0, 'level1Final': -2.62, 'level1WinLose': -2.62, 'level2Backwater': 0.0, 'level2Final': -2.62, 'level2WinLose': -2.62, 'level3Backwater': 0.02, 'level3Final': -2.6, 'level3WinLose': -2.62, 'marketId': '28', 'marketName': '南特 单/双', 'memberBackwater': 0.0, 'memberFinal': 13.1, 'memberWinLose': 13.1, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '47', 'marketName': '半场/全场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '半场/全场', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 5.7, 'companyFinal': -1.14, 'level0Backwater': 0.0, 'level0Final': -1.14, 'level0WinLose': -1.14, 'level1Backwater': 0.0, 'level1Final': -1.14, 'level1WinLose': -1.14, 'level2Backwater': 0.0, 'level2Final': -1.14, 'level2WinLose': -1.14, 'level3Backwater': 0.0, 'level3Final': -1.14, 'level3WinLose': -1.14, 'marketId': '63', 'marketName': '上半场 - 双重机会', 'memberBackwater': 0.0, 'memberFinal': 5.7, 'memberWinLose': 5.7, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 双重机会', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'companyFinal': 0.0, 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'marketId': '64', 'marketName': '上半场 - 平局退款', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 平局退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 2.7, 'companyFinal': -0.54, 'level0Backwater': 0.0, 'level0Final': -0.54, 'level0WinLose': -0.54, 'level1Backwater': 0.0, 'level1Final': -0.54, 'level1WinLose': -0.54, 'level2Backwater': 0.0, 'level2Final': -0.54, 'level2WinLose': -0.54, 'level3Backwater': 0.0, 'level3Final': -0.54, 'level3WinLose': -0.54, 'marketId': '12', 'marketName': 'Froeya IL 胜利退款', 'memberBackwater': 0.0, 'memberFinal': 2.7, 'memberWinLose': 2.7, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 胜利退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'companyFinal': 0.0, 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'marketId': '13', 'marketName': '史塔麦列克 胜利退款', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 胜利退款', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 15.9, 'companyFinal': -8.08, 'level0Backwater': 0.0, 'level0Final': -8.08, 'level0WinLose': -8.08, 'level1Backwater': 0.0, 'level1Final': -8.08, 'level1WinLose': -8.08, 'level2Backwater': 0.0, 'level2Final': -8.08, 'level2WinLose': -8.08, 'level3Backwater': 0.0, 'level3Final': -8.08, 'level3WinLose': -8.08, 'marketId': '31', 'marketName': '伊斯特恩沙伯 不失球', 'memberBackwater': 0.0, 'memberFinal': 40.4, 'memberWinLose': 40.4, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 不失球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -3.0, 'level0Backwater': 0.0, 'level0Final': -3.0, 'level0WinLose': -3.0, 'level1Backwater': 0.0, 'level1Final': -3.0, 'level1WinLose': -3.0, 'level2Backwater': 0.0, 'level2Final': -3.0, 'level2WinLose': -3.0, 'level3Backwater': 0.0, 'level3Final': -3.0, 'level3WinLose': -3.0, 'marketId': '77', 'marketName': '上半场 - Chelsea FC 不失球', 'memberBackwater': 0.0, 'memberFinal': 15.0, 'memberWinLose': 15.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 客队 不失球', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 11.2, 'companyFinal': 1.76, 'level0Backwater': 0.0, 'level0Final': 1.76, 'level0WinLose': 1.76, 'level1Backwater': 0.0, 'level1Final': 1.76, 'level1WinLose': 1.76, 'level2Backwater': 0.0, 'level2Final': 1.76, 'level2WinLose': 1.76, 'level3Backwater': 0.0, 'level3Final': 1.76, 'level3WinLose': 1.76, 'marketId': '34', 'marketName': '澳大利亚 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': -8.8, 'memberWinLose': -8.8, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.29, 'allEfficient': 30.0, 'companyFinal': -0.43, 'level0Backwater': 0.0, 'level0Final': -0.4, 'level0WinLose': -0.4, 'level1Backwater': 0.0, 'level1Final': -0.4, 'level1WinLose': -0.4, 'level2Backwater': 0.0, 'level2Final': -0.4, 'level2WinLose': -0.4, 'level3Backwater': 0.01, 'level3Final': -0.39, 'level3WinLose': -0.4, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.02, 'memberFinal': 2.02, 'memberWinLose': 2.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '35', 'marketName': '独赢 &amp; 两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢 &amp; 两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '36', 'marketName': '大/小 &amp; 两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小 &amp; 两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -4.7, 'level0Backwater': 0.0, 'level0Final': -4.7, 'level0WinLose': -4.7, 'level1Backwater': 0.0, 'level1Final': -4.7, 'level1WinLose': -4.7, 'level2Backwater': 0.0, 'level2Final': -4.7, 'level2WinLose': -4.7, 'level3Backwater': 0.0, 'level3Final': -4.7, 'level3WinLose': -4.7, 'marketId': '53', 'marketName': 'Aston Villa 最高进球数半场', 'memberBackwater': 0.0, 'memberFinal': 23.5, 'memberWinLose': 23.5, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 最高进球数半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '54', 'marketName': '加拿大 最高进球数半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 最高进球数半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': -10.31, 'level0Backwater': 0.0, 'level0Final': -10.3, 'level0WinLose': -10.3, 'level1Backwater': 0.0, 'level1Final': -10.3, 'level1WinLose': -10.3, 'level2Backwater': 0.0, 'level2Final': -10.3, 'level2WinLose': -10.3, 'level3Backwater': 0.01, 'level3Final': -10.29, 'level3WinLose': -10.3, 'marketId': '58', 'marketName': '两个半场 大1.5', 'memberBackwater': 0.0, 'memberFinal': 51.5, 'memberWinLose': 51.5, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 大1.5', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.16, 'allEfficient': 17.7, 'companyFinal': 0.45, 'level0Backwater': 0.0, 'level0Final': 0.46, 'level0WinLose': 0.46, 'level1Backwater': 0.0, 'level1Final': 0.46, 'level1WinLose': 0.46, 'level2Backwater': 0.0, 'level2Final': 0.46, 'level2WinLose': 0.46, 'level3Backwater': 0.01, 'level3Final': 0.47, 'level3WinLose': 0.46, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -2.3, 'memberWinLose': -2.3, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': 6.0, 'level0Backwater': 0.0, 'level0Final': 6.0, 'level0WinLose': 6.0, 'level1Backwater': 0.0, 'level1Final': 6.0, 'level1WinLose': 6.0, 'level2Backwater': 0.0, 'level2Final': 6.0, 'level2WinLose': 6.0, 'level3Backwater': 0.0, 'level3Final': 6.0, 'level3WinLose': 6.0, 'marketId': '23', 'marketName': '墨西哥 进球数', 'memberBackwater': 0.0, 'memberFinal': -30.0, 'memberWinLose': -30.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'marketId': '24', 'marketName': '喀麦隆 进球数', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -6.3, 'level0Backwater': 0.0, 'level0Final': -6.3, 'level0WinLose': -6.3, 'level1Backwater': 0.0, 'level1Final': -6.3, 'level1WinLose': -6.3, 'level2Backwater': 0.0, 'level2Final': -6.3, 'level2WinLose': -6.3, 'level3Backwater': 0.0, 'level3Final': -6.3, 'level3WinLose': -6.3, 'marketId': '546', 'marketName': '双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': 31.5, 'memberWinLose': 31.5, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '48', 'marketName': '路宾 赢两个半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 赢两个半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -5.7, 'level0Backwater': 0.0, 'level0Final': -5.7, 'level0WinLose': -5.7, 'level1Backwater': 0.0, 'level1Final': -5.7, 'level1WinLose': -5.7, 'level2Backwater': 0.0, 'level2Final': -5.7, 'level2WinLose': -5.7, 'level3Backwater': 0.0, 'level3Final': -5.7, 'level3WinLose': -5.7, 'marketId': '50', 'marketName': '英格兰 赢任何半场', 'memberBackwater': 0.0, 'memberFinal': 28.5, 'memberWinLose': 28.5, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 赢任何半场', 'sportName': '足球'}, {'allAmount': 820.0, 'allBackwater': 0.0, 'allEfficient': 335.4, 'companyFinal': 67.08, 'level0Backwater': 0.0, 'level0Final': 67.08, 'level0WinLose': 67.08, 'level1Backwater': 0.0, 'level1Final': 67.08, 'level1WinLose': 67.08, 'level2Backwater': 0.0, 'level2Final': 67.08, 'level2WinLose': 67.08, 'level3Backwater': 0.0, 'level3Final': 67.08, 'level3WinLose': 67.08, 'marketId': '串关', 'marketName': '串关', 'memberBackwater': 0.0, 'memberFinal': -335.4, 'memberWinLose': -335.4, 'sportId': 'sr:sport:1', 'sportMarketName': '串关', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:4', 'sportMarketName': '独赢', 'sportName': '冰球'}], [{'allAmount': 80.0, 'allBackwater': 0.15, 'allEfficient': 75.0, 'companyFinal': 14.95, 'level0Backwater': -0.02, 'level0Final': 14.98, 'level0WinLose': 15.0, 'level1Backwater': -0.02, 'level1Final': 14.98, 'level1WinLose': 15.0, 'level2Backwater': -0.01, 'level2Final': 14.99, 'level2WinLose': 15.0, 'level3Backwater': 0.09, 'level3Final': 15.09, 'level3WinLose': 15.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': -74.99, 'memberWinLose': -75.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 8.4, 'companyFinal': -1.69, 'level0Backwater': 0.0, 'level0Final': -1.68, 'level0WinLose': -1.68, 'level1Backwater': 0.0, 'level1Final': -1.68, 'level1WinLose': -1.68, 'level2Backwater': 0.0, 'level2Final': -1.68, 'level2WinLose': -1.68, 'level3Backwater': 0.01, 'level3Final': -1.67, 'level3WinLose': -1.68, 'marketId': '66', 'marketName': '上半场 - 让球', 'memberBackwater': 0.0, 'memberFinal': 8.4, 'memberWinLose': 8.4, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 让球', 'sportName': '足球'}, {'allAmount': 220.0, 'allBackwater': 0.44, 'allEfficient': 210.0, 'companyFinal': 41.89, 'level0Backwater': -0.08, 'level0Final': 41.92, 'level0WinLose': 42.0, 'level1Backwater': -0.08, 'level1Final': 41.92, 'level1WinLose': 42.0, 'level2Backwater': -0.06, 'level2Final': 41.94, 'level2WinLose': 42.0, 'level3Backwater': 0.28, 'level3Final': 42.28, 'level3WinLose': 42.0, 'marketId': '18', 'marketName': '大/小', 'memberBackwater': 0.05, 'memberFinal': -209.95, 'memberWinLose': -210.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.03, 'allEfficient': 14.4, 'companyFinal': 1.11, 'level0Backwater': 0.0, 'level0Final': 1.12, 'level0WinLose': 1.12, 'level1Backwater': 0.0, 'level1Final': 1.12, 'level1WinLose': 1.12, 'level2Backwater': 0.0, 'level2Final': 1.12, 'level2WinLose': 1.12, 'level3Backwater': 0.01, 'level3Final': 1.13, 'level3WinLose': 1.12, 'marketId': '19', 'marketName': '名古屋鲸鱼 大/小', 'memberBackwater': 0.0, 'memberFinal': -5.6, 'memberWinLose': -5.6, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 大/小', 'sportName': '足球'}, {'allAmount': 40.0, 'allBackwater': 0.03, 'allEfficient': 18.6, 'companyFinal': -3.72, 'level0Backwater': 0.0, 'level0Final': -3.72, 'level0WinLose': -3.72, 'level1Backwater': 0.0, 'level1Final': -3.72, 'level1WinLose': -3.72, 'level2Backwater': 0.0, 'level2Final': -3.72, 'level2WinLose': -3.72, 'level3Backwater': 0.0, 'level3Final': -3.72, 'level3WinLose': -3.72, 'marketId': '20', 'marketName': '瓜拉塞奧 大/小', 'memberBackwater': 0.0, 'memberFinal': 18.6, 'memberWinLose': 18.6, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'companyFinal': 3.98, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.02, 'level3Final': 4.02, 'level3WinLose': 4.0, 'marketId': '69', 'marketName': '上半场 - Philadelphia Union 大/小', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 主队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 7.8, 'companyFinal': -1.57, 'level0Backwater': 0.0, 'level0Final': -1.56, 'level0WinLose': -1.56, 'level1Backwater': 0.0, 'level1Final': -1.56, 'level1WinLose': -1.56, 'level2Backwater': 0.0, 'level2Final': -1.56, 'level2WinLose': -1.56, 'level3Backwater': 0.01, 'level3Final': -1.55, 'level3WinLose': -1.56, 'marketId': '27', 'marketName': 'SC Paderborn 07 单/双', 'memberBackwater': 0.0, 'memberFinal': 7.8, 'memberWinLose': 7.8, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 单双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 13.1, 'companyFinal': -2.64, 'level0Backwater': 0.0, 'level0Final': -2.62, 'level0WinLose': -2.62, 'level1Backwater': 0.0, 'level1Final': -2.62, 'level1WinLose': -2.62, 'level2Backwater': 0.0, 'level2Final': -2.62, 'level2WinLose': -2.62, 'level3Backwater': 0.02, 'level3Final': -2.6, 'level3WinLose': -2.62, 'marketId': '28', 'marketName': '乌拉圭 单/双', 'memberBackwater': 0.0, 'memberFinal': 13.1, 'memberWinLose': 13.1, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 单/双', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0, 'allEfficient': 15.9, 'companyFinal': -8.08, 'level0Backwater': 0.0, 'level0Final': -8.08, 'level0WinLose': -8.08, 'level1Backwater': 0.0, 'level1Final': -8.08, 'level1WinLose': -8.08, 'level2Backwater': 0.0, 'level2Final': -8.08, 'level2WinLose': -8.08, 'level3Backwater': 0.0, 'level3Final': -8.08, 'level3WinLose': -8.08, 'marketId': '31', 'marketName': 'CD Universidad Catolica 不失球', 'memberBackwater': 0.0, 'memberFinal': 40.4, 'memberWinLose': 40.4, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 不失球', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0, 'allEfficient': 11.2, 'companyFinal': 1.76, 'level0Backwater': 0.0, 'level0Final': 1.76, 'level0WinLose': 1.76, 'level1Backwater': 0.0, 'level1Final': 1.76, 'level1WinLose': 1.76, 'level2Backwater': 0.0, 'level2Final': 1.76, 'level2WinLose': 1.76, 'level3Backwater': 0.0, 'level3Final': 1.76, 'level3WinLose': 1.76, 'marketId': '34', 'marketName': 'Arminia Bielefeld 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': -8.8, 'memberWinLose': -8.8, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.06, 'allEfficient': 30.0, 'companyFinal': -0.43, 'level0Backwater': 0.0, 'level0Final': -0.4, 'level0WinLose': -0.4, 'level1Backwater': 0.0, 'level1Final': -0.4, 'level1WinLose': -0.4, 'level2Backwater': 0.0, 'level2Final': -0.4, 'level2WinLose': -0.4, 'level3Backwater': 0.01, 'level3Final': -0.39, 'level3WinLose': -0.4, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.02, 'memberFinal': 2.02, 'memberWinLose': 2.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '36', 'marketName': '大/小 &amp; 两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小 &amp; 两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': -10.31, 'level0Backwater': 0.0, 'level0Final': -10.3, 'level0WinLose': -10.3, 'level1Backwater': 0.0, 'level1Final': -10.3, 'level1WinLose': -10.3, 'level2Backwater': 0.0, 'level2Final': -10.3, 'level2WinLose': -10.3, 'level3Backwater': 0.01, 'level3Final': -10.29, 'level3WinLose': -10.3, 'marketId': '58', 'marketName': '两个半场 大1.5', 'memberBackwater': 0.0, 'memberFinal': 51.5, 'memberWinLose': 51.5, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 大1.5', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0.03, 'allEfficient': 17.7, 'companyFinal': 0.45, 'level0Backwater': 0.0, 'level0Final': 0.46, 'level0WinLose': 0.46, 'level1Backwater': 0.0, 'level1Final': 0.46, 'level1WinLose': 0.46, 'level2Backwater': 0.0, 'level2Final': 0.46, 'level2WinLose': 0.46, 'level3Backwater': 0.01, 'level3Final': 0.47, 'level3WinLose': 0.46, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -2.3, 'memberWinLose': -2.3, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 30.0, 'allBackwater': 0, 'allEfficient': 30.0, 'companyFinal': 6.0, 'level0Backwater': 0.0, 'level0Final': 6.0, 'level0WinLose': 6.0, 'level1Backwater': 0.0, 'level1Final': 6.0, 'level1WinLose': 6.0, 'level2Backwater': 0.0, 'level2Final': 6.0, 'level2WinLose': 6.0, 'level3Backwater': 0.0, 'level3Final': 6.0, 'level3WinLose': 6.0, 'marketId': '23', 'marketName': 'Colorado Rapids 进球数', 'memberBackwater': 0.0, 'memberFinal': -30.0, 'memberWinLose': -30.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0, 'allEfficient': 20.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'marketId': '24', 'marketName': 'Fortuna Dusseldorf 进球数', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0, 'allEfficient': 10.0, 'companyFinal': 8.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:4', 'sportMarketName': '独赢', 'sportName': '冰球'}]]</t>
+  </si>
+  <si>
+    <t>['足球-让球/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.66/0.15', '足球-上半场 - 让球/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.07/0.01', '足球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.82/0.44', '足球-上半场 - 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.18/0.04', '足球-主队 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.13/0.03', '足球-主队 大/小/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：Cruz Azul 大/小/名古屋鲸鱼 大/小', '足球-客队 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.17/0.03', '足球-客队 大/小/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：CF Pachuca 大/小/瓜拉塞奧 大/小', '足球-上半场 - 主队 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.18/0.04', '足球-上半场 - 主队 大/小/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：上半场 - 克罗地亚 大/小/上半场 - Philadelphia Union 大/小', '足球-主队 单双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.07/0.01', '足球-客队 单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.11/0.02', '足球-客队 单/双/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：南特 单/双/乌拉圭 单/双', '足球-主队 不失球/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：伊斯特恩沙伯 不失球/CD Universidad Catolica 不失球', '足球-客队 不失球获胜/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：澳大利亚 不失球获胜/Arminia Bielefeld 不失球获胜', '足球-上半场 - 独赢 &amp; 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.29/0.06', '足球-大/小 &amp; 两队都进球/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', '足球-两个半场 大1.5/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', '足球-两个半场 小1.5/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.16/0.03', '足球-主队 进球数/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：墨西哥 进球数/Colorado Rapids 进球数', '足球-客队 进球数/参数已用完/marketName的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：喀麦隆 进球数/Fortuna Dusseldorf 进球数', '冰球-独赢/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/8.0']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-球类报表-子查询（根据其球类查询盘口）  ["/winOrLost/sport","/winOrLost/market"]，数据错误，需要比对,37,19\x1b[0m']</t>
+  </si>
+  <si>
+    <t>球类报表-盘口下会员订单数据对比</t>
+  </si>
+  <si>
+    <t>报表-球类报表-订单查询（根据其盘口查询订单）</t>
+  </si>
+  <si>
+    <t>"/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"</t>
+  </si>
+  <si>
+    <t>[{"matchId":"", "sportId":"","queryDateType":3, "begin":begin,"end":end,"searchAccount":"", "page":1,"limit":50},{"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end},{"begin":begin,"end":end,"dateType":3,"page":1,"limit":500,"sportId":"sr:sport:1","marketId":"1","account":"","queryDateType":3,"tournamentId":""}]</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-19 13:48:37</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的报表-球类报表-订单查询（根据其盘口查询订单）  "/winOrLost/sport","/winOrLost/market","/winOrLost/order/details"，接口数据比对全部正确\n\n\x1b[0m']</t>
   </si>
   <si>
     <t>联赛报表-全部联赛查询数据对比</t>
@@ -221,16 +310,20 @@
   </si>
   <si>
     <t>测试不通过
-2022-07-11 19:55:13</t>
-  </si>
-  <si>
-    <t>[[{'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': 1.7, 'level0Backwater': 0.0, 'level0Final': 1.7, 'level0WinLose': 1.7, 'level1Backwater': 0.0, 'level1Final': 1.7, 'level1WinLose': 1.7, 'level2Backwater': 0.0, 'level2Final': 1.7, 'level2WinLose': 1.7, 'level3Backwater': 0.0, 'level3Final': 1.7, 'level3WinLose': 1.7, 'memberBackwater': 0.0, 'memberFinal': -8.5, 'memberWinLose': -8.5, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 70.0, 'allBackwater': 0.0, 'allEfficient': 66.4, 'companyFinal': 0.99, 'level0Backwater': 0.0, 'level0Final': 1.02, 'level0WinLose': 1.02, 'level1Backwater': 0.0, 'level1Final': 1.02, 'level1WinLose': 1.02, 'level2Backwater': 0.0, 'level2Final': 1.02, 'level2WinLose': 1.02, 'level3Backwater': 0.02, 'level3Final': 1.04, 'level3WinLose': 1.02, 'memberBackwater': 0.01, 'memberFinal': -5.09, 'memberWinLose': -5.1, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -6.39, 'level0Backwater': 0.0, 'level0Final': -6.38, 'level0WinLose': -6.38, 'level1Backwater': 0.0, 'level1Final': -6.38, 'level1WinLose': -6.38, 'level2Backwater': 0.0, 'level2Final': -6.38, 'level2WinLose': -6.38, 'level3Backwater': 0.01, 'level3Final': -6.37, 'level3WinLose': -6.38, 'memberBackwater': 0.0, 'memberFinal': 31.9, 'memberWinLose': 31.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'tournamentId': 'sr:tournament:188', 'tournamentName': '冰岛足球超级联赛'}, {'allAmount': 150.0, 'allBackwater': -0.03, 'allEfficient': 150.0, 'companyFinal': 9.77, 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 830.0, 'allBackwater': 0.0, 'allEfficient': 700.11, 'companyFinal': -93.05, 'level0Backwater': 0.0, 'level0Final': -92.97, 'level0WinLose': -92.97, 'level1Backwater': 0.0, 'level1Final': -92.97, 'level1WinLose': -92.97, 'level2Backwater': 0.0, 'level2Final': -92.97, 'level2WinLose': -92.97, 'level3Backwater': 0.0, 'level3Final': -92.97, 'level3WinLose': -92.97, 'memberBackwater': 0.0, 'memberFinal': 464.93, 'memberWinLose': 464.93, 'tournamentId': '串关', 'tournamentName': '串关'}, {'allAmount': 100.0, 'allBackwater': -0.0358, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 4.0, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1626', 'tournamentName': '澳大利亚全国超级联赛,塔斯马尼亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 30.0, 'allBackwater': 0.0, 'allEfficient': 30.0, 'companyFinal': -1.33, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.03, 'level3Final': -1.27, 'level3WinLose': -1.3, 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 40.0, 'allBackwater': 0.0, 'allEfficient': 36.5, 'companyFinal': -6.41, 'level0Backwater': 0.0, 'level0Final': -6.4, 'level0WinLose': -6.4, 'level1Backwater': 0.0, 'level1Final': -6.4, 'level1WinLose': -6.4, 'level2Backwater': 0.0, 'level2Final': -6.4, 'level2WinLose': -6.4, 'level3Backwater': 0.01, 'level3Final': -6.39, 'level3WinLose': -6.4, 'memberBackwater': 0.0, 'memberFinal': 32.0, 'memberWinLose': 32.0, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'companyFinal': -1.34, 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.9, 'companyFinal': -0.78, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.0, 'level3Final': -0.78, 'level3WinLose': -0.78, 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'tournamentId': 'sr:tournament:1274', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}], [{'allAmount': 70.0, 'allBackwater': 0.06, 'allEfficient': 66.4, 'companyFinal': 0.99, 'level0Backwater': 0.0, 'level0Final': 1.02, 'level0WinLose': 1.02, 'level1Backwater': 0.0, 'level1Final': 1.02, 'level1WinLose': 1.02, 'level2Backwater': 0.0, 'level2Final': 1.02, 'level2WinLose': 1.02, 'level3Backwater': 0.02, 'level3Final': 1.04, 'level3WinLose': 1.02, 'memberBackwater': 0.01, 'memberFinal': -5.09, 'memberWinLose': -5.1, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 40.0, 'allBackwater': 0.02, 'allEfficient': 36.5, 'companyFinal': -6.41, 'level0Backwater': 0.0, 'level0Final': -6.4, 'level0WinLose': -6.4, 'level1Backwater': 0.0, 'level1Final': -6.4, 'level1WinLose': -6.4, 'level2Backwater': 0.0, 'level2Final': -6.4, 'level2WinLose': -6.4, 'level3Backwater': 0.01, 'level3Final': -6.39, 'level3WinLose': -6.4, 'memberBackwater': 0.0, 'memberFinal': 32.0, 'memberWinLose': 32.0, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': -6.39, 'level0Backwater': 0.0, 'level0Final': -6.38, 'level0WinLose': -6.38, 'level1Backwater': 0.0, 'level1Final': -6.38, 'level1WinLose': -6.38, 'level2Backwater': 0.0, 'level2Final': -6.38, 'level2WinLose': -6.38, 'level3Backwater': 0.01, 'level3Final': -6.37, 'level3WinLose': -6.38, 'memberBackwater': 0.0, 'memberFinal': 31.9, 'memberWinLose': 31.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 30.0, 'allBackwater': 0.06, 'allEfficient': 30.0, 'companyFinal': -1.33, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.03, 'level3Final': -1.27, 'level3WinLose': -1.3, 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 150.0, 'allBackwater': 0.1, 'allEfficient': 150.0, 'companyFinal': 9.77, 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 100.0, 'allBackwater': 0.18, 'allEfficient': 89.5, 'companyFinal': 2.05, 'level0Backwater': -0.04, 'level0Final': 2.06, 'level0WinLose': 2.1, 'level1Backwater': -0.03, 'level1Final': 2.07, 'level1WinLose': 2.1, 'level2Backwater': -0.02, 'level2Final': 2.08, 'level2WinLose': 2.1, 'level3Backwater': 0.11, 'level3Final': 2.21, 'level3WinLose': 2.1, 'memberBackwater': 0.03, 'memberFinal': -10.47, 'memberWinLose': -10.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}]]</t>
-  </si>
-  <si>
-    <t>["sr:tournament:2541/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:2541'}/{'sr:tournament:2541'}", "sr:tournament:1270/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1270'}/{'sr:tournament:1270'}", "sr:tournament:55/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:55'}/{'sr:tournament:55'}", "sr:tournament:1347/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1347'}/{'sr:tournament:1347'}", "sr:tournament:29170/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:29170'}/{'sr:tournament:29170'}", "sr:tournament:1258/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1258'}/{'sr:tournament:1258'}", "sr:tournament:41/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:41'}/{'sr:tournament:41'}", "sr:tournament:20/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:20'}/{'sr:tournament:20'}", "sr:tournament:46/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:46'}/{'sr:tournament:46'}", "sr:tournament:27464/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:27464'}/{'sr:tournament:27464'}", "sr:tournament:1260/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：{'sr:tournament:1260'}/{'sr:tournament:1260'}"]</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的报表-联赛报表-主查询  /winOrLost/tournament，数据错误，需要比对,17,6\x1b[0m']</t>
+2022-07-19 13:48:56</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 30.0, 'allBackwater': 0.13, 'allEfficient': 24.3, 'companyFinal': 3.13, 'level0Backwater': 0.0, 'level0Final': 3.14, 'level0WinLose': 3.14, 'level1Backwater': 0.0, 'level1Final': 3.14, 'level1WinLose': 3.14, 'level2Backwater': 0.0, 'level2Final': 3.14, 'level2WinLose': 3.14, 'level3Backwater': 0.01, 'level3Final': 3.15, 'level3WinLose': 3.14, 'memberBackwater': 0.0, 'memberFinal': -15.7, 'memberWinLose': -15.7, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 40.0, 'allBackwater': 0.09, 'allEfficient': 40.0, 'companyFinal': -0.91, 'level0Backwater': 0.0, 'level0Final': -0.9, 'level0WinLose': -0.9, 'level1Backwater': 0.0, 'level1Final': -0.9, 'level1WinLose': -0.9, 'level2Backwater': 0.0, 'level2Final': -0.9, 'level2WinLose': -0.9, 'level3Backwater': 0.01, 'level3Final': -0.89, 'level3WinLose': -0.9, 'memberBackwater': 0.0, 'memberFinal': 4.5, 'memberWinLose': 4.5, 'tournamentId': 'sr:tournament:1268', 'tournamentName': '澳大利亚全国超级联赛，昆士兰州'}, {'allAmount': 820.0, 'allBackwater': 0.0, 'allEfficient': 335.4, 'companyFinal': 67.08, 'level0Backwater': 0.0, 'level0Final': 67.08, 'level0WinLose': 67.08, 'level1Backwater': 0.0, 'level1Final': 67.08, 'level1WinLose': 67.08, 'level2Backwater': 0.0, 'level2Final': 67.08, 'level2WinLose': 67.08, 'level3Backwater': 0.0, 'level3Final': 67.08, 'level3WinLose': 67.08, 'memberBackwater': 0.0, 'memberFinal': -335.4, 'memberWinLose': -335.4, 'tournamentId': '串关', 'tournamentName': '串关'}, {'allAmount': 50.0, 'allBackwater': 0.14, 'allEfficient': 35.0, 'companyFinal': 0.39, 'level0Backwater': 0.0, 'level0Final': 0.4, 'level0WinLose': 0.4, 'level1Backwater': 0.0, 'level1Final': 0.4, 'level1WinLose': 0.4, 'level2Backwater': 0.0, 'level2Final': 0.4, 'level2WinLose': 0.4, 'level3Backwater': 0.01, 'level3Final': 0.41, 'level3WinLose': 0.4, 'memberBackwater': 0.0, 'memberFinal': -2.0, 'memberWinLose': -2.0, 'tournamentId': 'sr:tournament:202', 'tournamentName': '波兰甲级联赛'}, {'allAmount': 140.0, 'allBackwater': 0.52, 'allEfficient': 116.4, 'companyFinal': -37.64, 'level0Backwater': 0.0, 'level0Final': -37.58, 'level0WinLose': -37.58, 'level1Backwater': 0.0, 'level1Final': -37.58, 'level1WinLose': -37.58, 'level2Backwater': 0.0, 'level2Final': -37.58, 'level2WinLose': -37.58, 'level3Backwater': 0.04, 'level3Final': -37.54, 'level3WinLose': -37.58, 'memberBackwater': 0.02, 'memberFinal': 187.92, 'memberWinLose': 187.9, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 20.0, 'allBackwater': 0.03, 'allEfficient': 6.9, 'companyFinal': -1.38, 'level0Backwater': 0.0, 'level0Final': -1.38, 'level0WinLose': -1.38, 'level1Backwater': 0.0, 'level1Final': -1.38, 'level1WinLose': -1.38, 'level2Backwater': 0.0, 'level2Final': -1.38, 'level2WinLose': -1.38, 'level3Backwater': 0.0, 'level3Final': -1.38, 'level3WinLose': -1.38, 'memberBackwater': 0.0, 'memberFinal': 6.9, 'memberWinLose': 6.9, 'tournamentId': 'sr:tournament:477', 'tournamentName': '国际欧洲锦标赛，女子'}, {'allAmount': 30.0, 'allBackwater': 0.05, 'allEfficient': 21.2, 'companyFinal': -0.24, 'level0Backwater': 0.0, 'level0Final': -0.24, 'level0WinLose': -0.24, 'level1Backwater': 0.0, 'level1Final': -0.24, 'level1WinLose': -0.24, 'level2Backwater': 0.0, 'level2Final': -0.24, 'level2WinLose': -0.24, 'level3Backwater': 0.0, 'level3Final': -0.24, 'level3WinLose': -0.24, 'memberBackwater': 0.0, 'memberFinal': 1.2, 'memberWinLose': 1.2, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 60.0, 'allBackwater': 0.26, 'allEfficient': 48.9, 'companyFinal': 6.19, 'level0Backwater': 0.0, 'level0Final': 6.22, 'level0WinLose': 6.22, 'level1Backwater': 0.0, 'level1Final': 6.22, 'level1WinLose': 6.22, 'level2Backwater': 0.0, 'level2Final': 6.22, 'level2WinLose': 6.22, 'level3Backwater': 0.02, 'level3Final': 6.24, 'level3WinLose': 6.22, 'memberBackwater': 0.01, 'memberFinal': -31.09, 'memberWinLose': -31.1, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 5.0, 'companyFinal': 1.0, 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'tournamentId': 'sr:tournament:47', 'tournamentName': '丹麦甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:853', 'tournamentName': '国际俱乐部俱乐部友谊赛'}, {'allAmount': 10.0, 'allBackwater': 0.06, 'allEfficient': 6.8, 'companyFinal': -1.37, 'level0Backwater': 0.0, 'level0Final': -1.36, 'level0WinLose': -1.36, 'level1Backwater': 0.0, 'level1Final': -1.36, 'level1WinLose': -1.36, 'level2Backwater': 0.0, 'level2Final': -1.36, 'level2WinLose': -1.36, 'level3Backwater': 0.01, 'level3Final': -1.35, 'level3WinLose': -1.36, 'memberBackwater': 0.0, 'memberFinal': 6.8, 'memberWinLose': 6.8, 'tournamentId': 'sr:tournament:34', 'tournamentName': '法国甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 8.4, 'companyFinal': -1.69, 'level0Backwater': 0.0, 'level0Final': -1.68, 'level0WinLose': -1.68, 'level1Backwater': 0.0, 'level1Final': -1.68, 'level1WinLose': -1.68, 'level2Backwater': 0.0, 'level2Final': -1.68, 'level2WinLose': -1.68, 'level3Backwater': 0.01, 'level3Final': -1.67, 'level3WinLose': -1.68, 'memberBackwater': 0.0, 'memberFinal': 8.4, 'memberWinLose': 8.4, 'tournamentId': 'sr:tournament:40', 'tournamentName': '瑞典超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': -7.7, 'level0Backwater': 0.0, 'level0Final': -7.7, 'level0WinLose': -7.7, 'level1Backwater': 0.0, 'level1Final': -7.7, 'level1WinLose': -7.7, 'level2Backwater': 0.0, 'level2Final': -7.7, 'level2WinLose': -7.7, 'level3Backwater': 0.0, 'level3Final': -7.7, 'level3WinLose': -7.7, 'memberBackwater': 0.0, 'memberFinal': 38.5, 'memberWinLose': 38.5, 'tournamentId': 'sr:tournament:17', 'tournamentName': '英格兰英超'}, {'allAmount': 20.0, 'allBackwater': 0.13, 'allEfficient': 14.0, 'companyFinal': 1.19, 'level0Backwater': 0.0, 'level0Final': 1.2, 'level0WinLose': 1.2, 'level1Backwater': 0.0, 'level1Final': 1.2, 'level1WinLose': 1.2, 'level2Backwater': 0.0, 'level2Final': 1.2, 'level2WinLose': 1.2, 'level3Backwater': 0.01, 'level3Final': 1.21, 'level3WinLose': 1.2, 'memberBackwater': 0.0, 'memberFinal': -6.0, 'memberWinLose': -6.0, 'tournamentId': 'sr:tournament:39', 'tournamentName': '丹麦超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 2.7, 'companyFinal': -0.54, 'level0Backwater': 0.0, 'level0Final': -0.54, 'level0WinLose': -0.54, 'level1Backwater': 0.0, 'level1Final': -0.54, 'level1WinLose': -0.54, 'level2Backwater': 0.0, 'level2Final': -0.54, 'level2WinLose': -0.54, 'level3Backwater': 0.0, 'level3Final': -0.54, 'level3WinLose': -0.54, 'memberBackwater': 0.0, 'memberFinal': 2.7, 'memberWinLose': 2.7, 'tournamentId': 'sr:tournament:24642', 'tournamentName': '挪威丙级联赛第1组'}, {'allAmount': 20.0, 'allBackwater': 0.14, 'allEfficient': 15.0, 'companyFinal': 2.99, 'level0Backwater': 0.0, 'level0Final': 3.0, 'level0WinLose': 3.0, 'level1Backwater': 0.0, 'level1Final': 3.0, 'level1WinLose': 3.0, 'level2Backwater': 0.0, 'level2Final': 3.0, 'level2WinLose': 3.0, 'level3Backwater': 0.01, 'level3Final': 3.01, 'level3WinLose': 3.0, 'memberBackwater': 0.0, 'memberFinal': -15.0, 'memberWinLose': -15.0, 'tournamentId': 'sr:tournament:332', 'tournamentName': '苏格兰联赛杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:373', 'tournamentName': '巴西杯'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.4, 'companyFinal': -0.88, 'level0Backwater': 0.0, 'level0Final': -0.88, 'level0WinLose': -0.88, 'level1Backwater': 0.0, 'level1Final': -0.88, 'level1WinLose': -0.88, 'level2Backwater': 0.0, 'level2Final': -0.88, 'level2WinLose': -0.88, 'level3Backwater': 0.0, 'level3Final': -0.88, 'level3WinLose': -0.88, 'memberBackwater': 0.0, 'memberFinal': 4.4, 'memberWinLose': 4.4, 'tournamentId': 'sr:tournament:323', 'tournamentName': '日本天皇杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'companyFinal': 0.0, 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'tournamentId': 'sr:tournament:808', 'tournamentName': '埃及足球甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.09, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:242', 'tournamentName': '美国职业足球大联盟'}, {'allAmount': 100.0, 'allBackwater': 0.86, 'allEfficient': 100.0, 'companyFinal': 19.95, 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'tournamentId': 'sr:tournament:27526', 'tournamentName': '国际OFC Nations Cup, Women'}, {'allAmount': 100.0, 'allBackwater': 0.86, 'allEfficient': 100.0, 'companyFinal': 19.95, 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'tournamentId': 'sr:tournament:19248', 'tournamentName': '缅甸全国联赛'}, {'allAmount': 50.0, 'allBackwater': 0.43, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.07, 'level3Final': 10.07, 'level3WinLose': 10.0, 'memberBackwater': 0.01, 'memberFinal': -49.99, 'memberWinLose': -50.0, 'tournamentId': 'sr:simple_tournament:63804', 'tournamentName': '阿根廷Primera B, Reserve'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.3, 'companyFinal': -0.86, 'level0Backwater': 0.0, 'level0Final': -0.86, 'level0WinLose': -0.86, 'level1Backwater': 0.0, 'level1Final': -0.86, 'level1WinLose': -0.86, 'level2Backwater': 0.0, 'level2Final': -0.86, 'level2WinLose': -0.86, 'level3Backwater': 0.0, 'level3Final': -0.86, 'level3WinLose': -0.86, 'memberBackwater': 0.0, 'memberFinal': 4.3, 'memberWinLose': 4.3, 'tournamentId': 'sr:tournament:240', 'tournamentName': '厄瓜多尔甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:24866', 'tournamentName': '新西兰冰球联盟'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.7, 'companyFinal': -0.94, 'level0Backwater': 0.0, 'level0Final': -0.94, 'level0WinLose': -0.94, 'level1Backwater': 0.0, 'level1Final': -0.94, 'level1WinLose': -0.94, 'level2Backwater': 0.0, 'level2Final': -0.94, 'level2WinLose': -0.94, 'level3Backwater': 0.0, 'level3Final': -0.94, 'level3WinLose': -0.94, 'memberBackwater': 0.0, 'memberFinal': 4.7, 'memberWinLose': 4.7, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 2.5, 'companyFinal': -0.5, 'level0Backwater': 0.0, 'level0Final': -0.5, 'level0WinLose': -0.5, 'level1Backwater': 0.0, 'level1Final': -0.5, 'level1WinLose': -0.5, 'level2Backwater': 0.0, 'level2Final': -0.5, 'level2WinLose': -0.5, 'level3Backwater': 0.0, 'level3Final': -0.5, 'level3WinLose': -0.5, 'memberBackwater': 0.0, 'memberFinal': 2.5, 'memberWinLose': 2.5, 'tournamentId': 'sr:tournament:155', 'tournamentName': '阿根廷足球甲级联赛'}], [{'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 14.0, 'companyFinal': 1.19, 'level0Backwater': 0.0, 'level0Final': 1.2, 'level0WinLose': 1.2, 'level1Backwater': 0.0, 'level1Final': 1.2, 'level1WinLose': 1.2, 'level2Backwater': 0.0, 'level2Final': 1.2, 'level2WinLose': 1.2, 'level3Backwater': 0.01, 'level3Final': 1.21, 'level3WinLose': 1.2, 'memberBackwater': 0.0, 'memberFinal': -6.0, 'memberWinLose': -6.0, 'tournamentId': 'sr:tournament:39', 'tournamentName': '丹麦超级联赛'}, {'allAmount': 140.0, 'allBackwater': 0.11, 'allEfficient': 116.4, 'companyFinal': -37.64, 'level0Backwater': 0.0, 'level0Final': -37.58, 'level0WinLose': -37.58, 'level1Backwater': 0.0, 'level1Final': -37.58, 'level1WinLose': -37.58, 'level2Backwater': 0.0, 'level2Final': -37.58, 'level2WinLose': -37.58, 'level3Backwater': 0.04, 'level3Final': -37.54, 'level3WinLose': -37.58, 'memberBackwater': 0.02, 'memberFinal': 187.92, 'memberWinLose': 187.9, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 60.0, 'allBackwater': 0.05, 'allEfficient': 48.9, 'companyFinal': 6.19, 'level0Backwater': 0.0, 'level0Final': 6.22, 'level0WinLose': 6.22, 'level1Backwater': 0.0, 'level1Final': 6.22, 'level1WinLose': 6.22, 'level2Backwater': 0.0, 'level2Final': 6.22, 'level2WinLose': 6.22, 'level3Backwater': 0.02, 'level3Final': 6.24, 'level3WinLose': 6.22, 'memberBackwater': 0.01, 'memberFinal': -31.09, 'memberWinLose': -31.1, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 50.0, 'allBackwater': 0.03, 'allEfficient': 35.0, 'companyFinal': 0.39, 'level0Backwater': 0.0, 'level0Final': 0.4, 'level0WinLose': 0.4, 'level1Backwater': 0.0, 'level1Final': 0.4, 'level1WinLose': 0.4, 'level2Backwater': 0.0, 'level2Final': 0.4, 'level2WinLose': 0.4, 'level3Backwater': 0.01, 'level3Final': 0.41, 'level3WinLose': 0.4, 'memberBackwater': 0.0, 'memberFinal': -2.0, 'memberWinLose': -2.0, 'tournamentId': 'sr:tournament:202', 'tournamentName': '波兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 6.8, 'companyFinal': -1.37, 'level0Backwater': 0.0, 'level0Final': -1.36, 'level0WinLose': -1.36, 'level1Backwater': 0.0, 'level1Final': -1.36, 'level1WinLose': -1.36, 'level2Backwater': 0.0, 'level2Final': -1.36, 'level2WinLose': -1.36, 'level3Backwater': 0.01, 'level3Final': -1.35, 'level3WinLose': -1.36, 'memberBackwater': 0.0, 'memberFinal': 6.8, 'memberWinLose': 6.8, 'tournamentId': 'sr:tournament:34', 'tournamentName': '法国甲级联赛'}, {'allAmount': 40.0, 'allBackwater': 0.02, 'allEfficient': 40.0, 'companyFinal': -0.91, 'level0Backwater': 0.0, 'level0Final': -0.9, 'level0WinLose': -0.9, 'level1Backwater': 0.0, 'level1Final': -0.9, 'level1WinLose': -0.9, 'level2Backwater': 0.0, 'level2Final': -0.9, 'level2WinLose': -0.9, 'level3Backwater': 0.01, 'level3Final': -0.89, 'level3WinLose': -0.9, 'memberBackwater': 0.0, 'memberFinal': 4.5, 'memberWinLose': 4.5, 'tournamentId': 'sr:tournament:1268', 'tournamentName': '澳大利亚全国超级联赛，昆士兰州'}, {'allAmount': 30.0, 'allBackwater': 0.01, 'allEfficient': 21.2, 'companyFinal': -0.24, 'level0Backwater': 0.0, 'level0Final': -0.24, 'level0WinLose': -0.24, 'level1Backwater': 0.0, 'level1Final': -0.24, 'level1WinLose': -0.24, 'level2Backwater': 0.0, 'level2Final': -0.24, 'level2WinLose': -0.24, 'level3Backwater': 0.0, 'level3Final': -0.24, 'level3WinLose': -0.24, 'memberBackwater': 0.0, 'memberFinal': 1.2, 'memberWinLose': 1.2, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 5.0, 'companyFinal': 1.0, 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'tournamentId': 'sr:tournament:47', 'tournamentName': '丹麦甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0, 'allEfficient': 6.9, 'companyFinal': -1.38, 'level0Backwater': 0.0, 'level0Final': -1.38, 'level0WinLose': -1.38, 'level1Backwater': 0.0, 'level1Final': -1.38, 'level1WinLose': -1.38, 'level2Backwater': 0.0, 'level2Final': -1.38, 'level2WinLose': -1.38, 'level3Backwater': 0.0, 'level3Final': -1.38, 'level3WinLose': -1.38, 'memberBackwater': 0.0, 'memberFinal': 6.9, 'memberWinLose': 6.9, 'tournamentId': 'sr:tournament:477', 'tournamentName': '国际欧洲锦标赛，女子'}, {'allAmount': 30.0, 'allBackwater': 0.03, 'allEfficient': 24.3, 'companyFinal': 3.13, 'level0Backwater': 0.0, 'level0Final': 3.14, 'level0WinLose': 3.14, 'level1Backwater': 0.0, 'level1Final': 3.14, 'level1WinLose': 3.14, 'level2Backwater': 0.0, 'level2Final': 3.14, 'level2WinLose': 3.14, 'level3Backwater': 0.01, 'level3Final': 3.15, 'level3WinLose': 3.14, 'memberBackwater': 0.0, 'memberFinal': -15.7, 'memberWinLose': -15.7, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 8.4, 'companyFinal': -1.69, 'level0Backwater': 0.0, 'level0Final': -1.68, 'level0WinLose': -1.68, 'level1Backwater': 0.0, 'level1Final': -1.68, 'level1WinLose': -1.68, 'level2Backwater': 0.0, 'level2Final': -1.68, 'level2WinLose': -1.68, 'level3Backwater': 0.01, 'level3Final': -1.67, 'level3WinLose': -1.68, 'memberBackwater': 0.0, 'memberFinal': 8.4, 'memberWinLose': 8.4, 'tournamentId': 'sr:tournament:40', 'tournamentName': '瑞典超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0, 'allEfficient': 4.7, 'companyFinal': -0.94, 'level0Backwater': 0.0, 'level0Final': -0.94, 'level0WinLose': -0.94, 'level1Backwater': 0.0, 'level1Final': -0.94, 'level1WinLose': -0.94, 'level2Backwater': 0.0, 'level2Final': -0.94, 'level2WinLose': -0.94, 'level3Backwater': 0.0, 'level3Final': -0.94, 'level3WinLose': -0.94, 'memberBackwater': 0.0, 'memberFinal': 4.7, 'memberWinLose': 4.7, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0, 'allEfficient': 4.4, 'companyFinal': -0.88, 'level0Backwater': 0.0, 'level0Final': -0.88, 'level0WinLose': -0.88, 'level1Backwater': 0.0, 'level1Final': -0.88, 'level1WinLose': -0.88, 'level2Backwater': 0.0, 'level2Final': -0.88, 'level2WinLose': -0.88, 'level3Backwater': 0.0, 'level3Final': -0.88, 'level3WinLose': -0.88, 'memberBackwater': 0.0, 'memberFinal': 4.4, 'memberWinLose': 4.4, 'tournamentId': 'sr:tournament:323', 'tournamentName': '日本天皇杯'}, {'allAmount': 10.0, 'allBackwater': 0, 'allEfficient': 4.3, 'companyFinal': -0.86, 'level0Backwater': 0.0, 'level0Final': -0.86, 'level0WinLose': -0.86, 'level1Backwater': 0.0, 'level1Final': -0.86, 'level1WinLose': -0.86, 'level2Backwater': 0.0, 'level2Final': -0.86, 'level2WinLose': -0.86, 'level3Backwater': 0.0, 'level3Final': -0.86, 'level3WinLose': -0.86, 'memberBackwater': 0.0, 'memberFinal': 4.3, 'memberWinLose': 4.3, 'tournamentId': 'sr:tournament:240', 'tournamentName': '厄瓜多尔甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'companyFinal': 3.99, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:242', 'tournamentName': '美国职业足球大联盟'}, {'allAmount': 20.0, 'allBackwater': 0.03, 'allEfficient': 15.0, 'companyFinal': 2.99, 'level0Backwater': 0.0, 'level0Final': 3.0, 'level0WinLose': 3.0, 'level1Backwater': 0.0, 'level1Final': 3.0, 'level1WinLose': 3.0, 'level2Backwater': 0.0, 'level2Final': 3.0, 'level2WinLose': 3.0, 'level3Backwater': 0.01, 'level3Final': 3.01, 'level3WinLose': 3.0, 'memberBackwater': 0.0, 'memberFinal': -15.0, 'memberWinLose': -15.0, 'tournamentId': 'sr:tournament:332', 'tournamentName': '苏格兰联赛杯'}, {'allAmount': 100.0, 'allBackwater': 0.21, 'allEfficient': 100.0, 'companyFinal': 19.95, 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'tournamentId': 'sr:tournament:27526', 'tournamentName': '国际OFC Nations Cup, Women'}, {'allAmount': 100.0, 'allBackwater': 0.21, 'allEfficient': 100.0, 'companyFinal': 19.95, 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'tournamentId': 'sr:tournament:19248', 'tournamentName': '缅甸全国联赛'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.07, 'level3Final': 10.07, 'level3WinLose': 10.0, 'memberBackwater': 0.01, 'memberFinal': -49.99, 'memberWinLose': -50.0, 'tournamentId': 'sr:simple_tournament:63804', 'tournamentName': '阿根廷Primera B, Reserve'}]]</t>
+  </si>
+  <si>
+    <t>['sr:tournament:27464/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.13/0.03', 'sr:tournament:1268/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:202/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.14/0.03', 'sr:tournament:16/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.52/0.11', 'sr:tournament:477/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.03/0', 'sr:tournament:27665/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.05/0.01', 'sr:tournament:44/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.26/0.05', 'sr:tournament:47/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0.01', 'sr:tournament:34/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.06/0.01', 'sr:tournament:40/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.07/0.01', 'sr:tournament:39/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.13/0.02', 'sr:tournament:332/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.14/0.03', 'sr:tournament:323/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', 'sr:tournament:242/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:27526/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.86/0.21', 'sr:tournament:19248/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.86/0.21', 'sr:simple_tournament:63804/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.43/0.1', 'sr:tournament:240/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', 'sr:tournament:55/参数已用完allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-联赛报表-主查询  /winOrLost/tournament，数据错误，需要比对,31,12\x1b[0m']</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-19 13:49:16</t>
   </si>
   <si>
     <t>赛事盈亏-全部赛事查询数据对比</t>
@@ -257,16 +350,16 @@
   </si>
   <si>
     <t>测试不通过
-2022-07-11 19:55:31</t>
-  </si>
-  <si>
-    <t>[[{'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': '丹德农城', 'companyFinal': 4.0, 'homeTeamName': '欧克莱卡诺', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'matchId': 'sr:match:32013415', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'awayTeamName': '乐天巨人', 'companyFinal': -62.14, 'homeTeamName': 'LG双子', 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'matchId': 'sr:match:32690525', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': 'Stirling Macedonia FC', 'companyFinal': 3.99, 'homeTeamName': '珀斯光荣(青年)', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'matchId': 'sr:match:32055879', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'KPV科科拉', 'companyFinal': -3.6, 'homeTeamName': '尼斯坦', 'level0Backwater': 0.0, 'level0Final': -3.6, 'level0WinLose': -3.6, 'level1Backwater': 0.0, 'level1Final': -3.6, 'level1WinLose': -3.6, 'level2Backwater': 0.0, 'level2Final': -3.6, 'level2WinLose': -3.6, 'level3Backwater': 0.0, 'level3Final': -3.6, 'level3WinLose': -3.6, 'matchId': 'sr:match:32044567', 'memberBackwater': 0.0, 'memberFinal': 18.0, 'memberWinLose': 18.0, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'MP米克力', 'companyFinal': -2.79, 'homeTeamName': 'KTP', 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'matchId': 'sr:match:32044571', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '维京古', 'companyFinal': -8.3, 'homeTeamName': '雷克雅未克足球俱乐部', 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'matchId': 'sr:match:31421209', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'tournamentId': 'sr:tournament:188', 'tournamentName': '冰岛足球超级联赛'}, {'allAmount': 150.0, 'allBackwater': -0.03, 'allEfficient': 150.0, 'awayTeamName': '基尔梅斯阿根廷', 'companyFinal': 9.77, 'homeTeamName': '阿卡苏索', 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'matchId': 'sr:match:34029371', 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 830.0, 'allBackwater': 0.0, 'allEfficient': 700.11, 'awayTeamName': '串关', 'companyFinal': -93.05, 'homeTeamName': '串关', 'level0Backwater': 0.0, 'level0Final': -92.97, 'level0WinLose': -92.97, 'level1Backwater': 0.0, 'level1Final': -92.97, 'level1WinLose': -92.97, 'level2Backwater': 0.0, 'level2Final': -92.97, 'level2WinLose': -92.97, 'level3Backwater': 0.0, 'level3Final': -92.97, 'level3WinLose': -92.97, 'matchId': '串关', 'memberBackwater': 0.0, 'memberFinal': 464.93, 'memberWinLose': 464.93, 'tournamentId': '串关', 'tournamentName': '串关'}, {'allAmount': 50.0, 'allBackwater': -0.0079, 'allEfficient': 39.5, 'awayTeamName': 'Juan Misael Saracho de Oruro', 'companyFinal': -7.92, 'homeTeamName': '波托西卡莱罗', 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'matchId': 'sr:match:33928965', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '德文波特市', 'companyFinal': 2.0, 'homeTeamName': '南霍巴特', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32411181', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1626', 'tournamentName': '澳大利亚全国超级联赛,塔斯马尼亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '克拉伦斯斑马足球俱乐部', 'companyFinal': 2.0, 'homeTeamName': '河岸奥林匹克', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32411183', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1626', 'tournamentName': '澳大利亚全国超级联赛,塔斯马尼亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '地铁之星', 'companyFinal': 1.99, 'homeTeamName': '阿德莱科梅兹', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31801933', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '坎贝尔市体育馆', 'companyFinal': 2.0, 'homeTeamName': '斯图特狮子', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:31801925', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '南墨尔本', 'companyFinal': -2.3, 'homeTeamName': '东方狮子', 'level0Backwater': 0.0, 'level0Final': -2.3, 'level0WinLose': -2.3, 'level1Backwater': 0.0, 'level1Final': -2.3, 'level1WinLose': -2.3, 'level2Backwater': 0.0, 'level2Final': -2.3, 'level2WinLose': -2.3, 'level3Backwater': 0.0, 'level3Final': -2.3, 'level3WinLose': -2.3, 'matchId': 'sr:match:32013417', 'memberBackwater': 0.0, 'memberFinal': 11.5, 'memberWinLose': 11.5, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '湾水市', 'companyFinal': -2.4, 'homeTeamName': '戈维拉普克罗地亚', 'level0Backwater': 0.0, 'level0Final': -2.4, 'level0WinLose': -2.4, 'level1Backwater': 0.0, 'level1Final': -2.4, 'level1WinLose': -2.4, 'level2Backwater': 0.0, 'level2Final': -2.4, 'level2WinLose': -2.4, 'level3Backwater': 0.0, 'level3Final': -2.4, 'level3WinLose': -2.4, 'matchId': 'sr:match:32055881', 'memberBackwater': 0.0, 'memberFinal': 12.0, 'memberWinLose': 12.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.4, 'awayTeamName': '因勒乌德联', 'companyFinal': -1.28, 'homeTeamName': '科克本市', 'level0Backwater': 0.0, 'level0Final': -1.28, 'level0WinLose': -1.28, 'level1Backwater': 0.0, 'level1Final': -1.28, 'level1WinLose': -1.28, 'level2Backwater': 0.0, 'level2Final': -1.28, 'level2WinLose': -1.28, 'level3Backwater': 0.0, 'level3Final': -1.28, 'level3WinLose': -1.28, 'matchId': 'sr:match:32055883', 'memberBackwater': 0.0, 'memberFinal': 6.4, 'memberWinLose': 6.4, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': '珀斯SC', 'companyFinal': -1.31, 'homeTeamName': '索伦托海鸥', 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'matchId': 'sr:match:32055889', 'memberBackwater': 0.01, 'memberFinal': 6.51, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '弗罗瑞特', 'companyFinal': 1.99, 'homeTeamName': 'ECU乔达路普', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:32055885', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': '马里汉姆', 'companyFinal': -3.32, 'homeTeamName': '洪卡', 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'matchId': 'sr:match:31933911', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 16.5, 'awayTeamName': 'FK Haugesund', 'companyFinal': 0.69, 'homeTeamName': 'FK Jerv', 'level0Backwater': 0.0, 'level0Final': 0.7, 'level0WinLose': 0.7, 'level1Backwater': 0.0, 'level1Final': 0.7, 'level1WinLose': 0.7, 'level2Backwater': 0.0, 'level2Final': 0.7, 'level2WinLose': 0.7, 'level3Backwater': 0.01, 'level3Final': 0.71, 'level3WinLose': 0.7, 'matchId': 'sr:match:31602085', 'memberBackwater': 0.0, 'memberFinal': -3.5, 'memberWinLose': -3.5, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'KuPS', 'companyFinal': 1.99, 'homeTeamName': '赫尔辛基', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31933917', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Utsiktens BK', 'companyFinal': 1.99, 'homeTeamName': 'Ostersunds FK', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31605901', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Skovde AIK', 'companyFinal': 2.0, 'homeTeamName': 'Osters IF', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:31605899', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': 'Bodoe/Glimt', 'companyFinal': -7.1, 'homeTeamName': 'Odds BK', 'level0Backwater': 0.0, 'level0Final': -7.1, 'level0WinLose': -7.1, 'level1Backwater': 0.0, 'level1Final': -7.1, 'level1WinLose': -7.1, 'level2Backwater': 0.0, 'level2Final': -7.1, 'level2WinLose': -7.1, 'level3Backwater': 0.0, 'level3Final': -7.1, 'level3WinLose': -7.1, 'matchId': 'sr:match:31602087', 'memberBackwater': 0.0, 'memberFinal': 35.5, 'memberWinLose': 35.5, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'awayTeamName': '尤尼昂', 'companyFinal': -1.34, 'homeTeamName': '智利大学', 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'matchId': 'sr:match:31802539', 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'awayTeamName': 'FC Juarez', 'companyFinal': 3.99, 'homeTeamName': 'Guadalajara Chivas', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'matchId': 'sr:match:33947047', 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'awayTeamName': '市立圣西蒙大学', 'companyFinal': 9.97, 'homeTeamName': 'Universitario de Sucre', 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'matchId': 'sr:match:33928923', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 9.0, 'awayTeamName': '奥康纳骑士', 'companyFinal': -1.81, 'homeTeamName': '甘加林联青年队', 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'matchId': 'sr:match:32014013', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.9, 'awayTeamName': '黑镇市', 'companyFinal': -0.78, 'homeTeamName': '悉尼青年', 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.0, 'level3Final': -0.78, 'level3WinLose': -0.78, 'matchId': 'sr:match:32011279', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'tournamentId': 'sr:tournament:1274', 'tournamentName': '澳大利亚全国超级联赛,新南威尔士'}], [{'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': '地铁之星', 'companyFinal': 1.99, 'homeTeamName': '阿德莱科梅兹', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31801933', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1258', 'tournamentName': '澳大利亚全国超级联赛,南澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'awayTeamName': '珀斯SC', 'companyFinal': -1.31, 'homeTeamName': '索伦托海鸥', 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'matchId': 'sr:match:32055889', 'memberBackwater': 0.01, 'memberFinal': 6.51, 'memberWinLose': 6.5, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 16.5, 'awayTeamName': 'FK Haugesund', 'companyFinal': 0.69, 'homeTeamName': 'FK Jerv', 'level0Backwater': 0.0, 'level0Final': 0.7, 'level0WinLose': 0.7, 'level1Backwater': 0.0, 'level1Final': 0.7, 'level1WinLose': 0.7, 'level2Backwater': 0.0, 'level2Final': 0.7, 'level2WinLose': 0.7, 'level3Backwater': 0.01, 'level3Final': 0.71, 'level3WinLose': 0.7, 'matchId': 'sr:match:31602085', 'memberBackwater': 0.0, 'memberFinal': -3.5, 'memberWinLose': -3.5, 'tournamentId': 'sr:tournament:20', 'tournamentName': '挪威超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': 'KuPS', 'companyFinal': 1.99, 'homeTeamName': '赫尔辛基', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31933917', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.04, 'allEfficient': 20.0, 'awayTeamName': '马里汉姆', 'companyFinal': -3.32, 'homeTeamName': '洪卡', 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.02, 'level3Final': -3.28, 'level3WinLose': -3.3, 'matchId': 'sr:match:31933911', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'tournamentId': 'sr:tournament:41', 'tournamentName': '芬兰超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': 'MP米克力', 'companyFinal': -2.79, 'homeTeamName': 'KTP', 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'matchId': 'sr:match:32044571', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'awayTeamName': 'Stirling Macedonia FC', 'companyFinal': 3.99, 'homeTeamName': '珀斯光荣(青年)', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'matchId': 'sr:match:32055879', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 9.0, 'awayTeamName': '奥康纳骑士', 'companyFinal': -1.81, 'homeTeamName': '甘加林联青年队', 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'matchId': 'sr:match:32014013', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': '弗罗瑞特', 'companyFinal': 1.99, 'homeTeamName': 'ECU乔达路普', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:32055885', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': 'Utsiktens BK', 'companyFinal': 1.99, 'homeTeamName': 'Ostersunds FK', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31605901', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:46', 'tournamentName': '瑞典超甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 20.0, 'awayTeamName': 'FC Juarez', 'companyFinal': 3.99, 'homeTeamName': 'Guadalajara Chivas', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'matchId': 'sr:match:33947047', 'memberBackwater': 0.01, 'memberFinal': -19.99, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 150.0, 'allBackwater': 0.1, 'allEfficient': 150.0, 'awayTeamName': '基尔梅斯阿根廷', 'companyFinal': 9.77, 'homeTeamName': '阿卡苏索', 'level0Backwater': -0.02, 'level0Final': 9.78, 'level0WinLose': 9.8, 'level1Backwater': -0.02, 'level1Final': 9.78, 'level1WinLose': 9.8, 'level2Backwater': -0.01, 'level2Final': 9.79, 'level2WinLose': 9.8, 'level3Backwater': 0.06, 'level3Final': 9.86, 'level3WinLose': 9.8, 'matchId': 'sr:match:34029371', 'memberBackwater': 0.02, 'memberFinal': -48.98, 'memberWinLose': -49.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'awayTeamName': '乐天巨人', 'companyFinal': -62.14, 'homeTeamName': 'LG双子', 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'matchId': 'sr:match:32690525', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'tournamentId': 'sr:tournament:2541', 'tournamentName': '韩国职业棒球联盟'}, {'allAmount': 50.0, 'allBackwater': 0.08, 'allEfficient': 39.5, 'awayTeamName': 'Juan Misael Saracho de Oruro', 'companyFinal': -7.92, 'homeTeamName': '波托西卡莱罗', 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'matchId': 'sr:match:33928965', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'awayTeamName': '市立圣西蒙大学', 'companyFinal': 9.97, 'homeTeamName': 'Universitario de Sucre', 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'matchId': 'sr:match:33928923', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'tournamentId': 'sr:tournament:29170', 'tournamentName': '玻利维亚Libobasquet'}]]</t>
-  </si>
-  <si>
-    <t>['sr:tournament:2541-sr:match:32690525/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.403/0.65', 'sr:tournament:1270-sr:match:32055879/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:55-sr:match:32044571/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:1347-sr:match:34029371/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.03/0.1', 'sr:tournament:29170-sr:match:33928965/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.0079/0.08', 'sr:tournament:1258-sr:match:31801933/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:1270-sr:match:32055889/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:1270-sr:match:32055885/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:41-sr:match:31933911/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.04', 'sr:tournament:20-sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:41-sr:match:31933917/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:46-sr:match:31605901/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:27464-sr:match:33947047/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', 'sr:tournament:29170-sr:match:33928923/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1', 'sr:tournament:1260-sr:match:32014013/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的报表-赛事盈亏-主查询  /winOrLost/match，数据错误，需要比对,29,14\x1b[0m']</t>
+2022-07-19 13:49:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[{'allAmount': 30.0, 'allBackwater': 0.13, 'allEfficient': 24.3, 'awayTeamName': 'CF Pachuca', 'companyFinal': 3.13, 'homeTeamName': 'Cruz Azul', 'level0Backwater': 0.0, 'level0Final': 3.14, 'level0WinLose': 3.14, 'level1Backwater': 0.0, 'level1Final': 3.14, 'level1WinLose': 3.14, 'level2Backwater': 0.0, 'level2Final': 3.14, 'level2WinLose': 3.14, 'level3Backwater': 0.01, 'level3Final': 3.15, 'level3WinLose': 3.14, 'matchId': 'sr:match:33947069', 'memberBackwater': 0.0, 'memberFinal': -15.7, 'memberWinLose': -15.7, 'tournamentId': 'sr:tournament:27464', 'tournamentName': '墨西哥甲级联赛，春季赛'}, {'allAmount': 30.0, 'allBackwater': 0.09, 'allEfficient': 30.0, 'awayTeamName': '摩顿湾联', 'companyFinal': 5.99, 'homeTeamName': '布里斯班市FC', 'level0Backwater': 0.0, 'level0Final': 6.0, 'level0WinLose': 6.0, 'level1Backwater': 0.0, 'level1Final': 6.0, 'level1WinLose': 6.0, 'level2Backwater': 0.0, 'level2Final': 6.0, 'level2WinLose': 6.0, 'level3Backwater': 0.01, 'level3Final': 6.01, 'level3WinLose': 6.0, 'matchId': 'sr:match:32013765', 'memberBackwater': 0.0, 'memberFinal': -30.0, 'memberWinLose': -30.0, 'tournamentId': 'sr:tournament:1268', 'tournamentName': '澳大利亚全国超级联赛，昆士兰州'}, {'allAmount': 820.0, 'allBackwater': 0.0, 'allEfficient': 335.4, 'awayTeamName': '串关', 'companyFinal': 67.08, 'homeTeamName': '串关', 'level0Backwater': 0.0, 'level0Final': 67.08, 'level0WinLose': 67.08, 'level1Backwater': 0.0, 'level1Final': 67.08, 'level1WinLose': 67.08, 'level2Backwater': 0.0, 'level2Final': 67.08, 'level2WinLose': 67.08, 'level3Backwater': 0.0, 'level3Final': 67.08, 'level3WinLose': 67.08, 'matchId': '串关', 'memberBackwater': 0.0, 'memberFinal': -335.4, 'memberWinLose': -335.4, 'tournamentId': '串关', 'tournamentName': '串关'}, {'allAmount': 20.0, 'allBackwater': 0.09, 'allEfficient': 20.0, 'awayTeamName': '格但斯克 莱吉亚', 'companyFinal': -2.61, 'homeTeamName': 'Wisla Plock', 'level0Backwater': 0.0, 'level0Final': -2.6, 'level0WinLose': -2.6, 'level1Backwater': 0.0, 'level1Final': -2.6, 'level1WinLose': -2.6, 'level2Backwater': 0.0, 'level2Final': -2.6, 'level2WinLose': -2.6, 'level3Backwater': 0.01, 'level3Final': -2.59, 'level3WinLose': -2.6, 'matchId': 'sr:match:33912889', 'memberBackwater': 0.0, 'memberFinal': 13.0, 'memberWinLose': 13.0, 'tournamentId': 'sr:tournament:202', 'tournamentName': '波兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 5.0, 'awayTeamName': '波兹南瓦尔塔', 'companyFinal': 1.0, 'homeTeamName': '琴斯托霍瓦', 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'matchId': 'sr:match:33912887', 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'tournamentId': 'sr:tournament:202', 'tournamentName': '波兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'awayTeamName': '美国', 'companyFinal': 0.0, 'homeTeamName': '英格兰', 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'matchId': 'sr:match:32986735', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.2, 'awayTeamName': '北爱尔兰', 'companyFinal': -0.64, 'homeTeamName': '挪威', 'level0Backwater': 0.0, 'level0Final': -0.64, 'level0WinLose': -0.64, 'level1Backwater': 0.0, 'level1Final': -0.64, 'level1WinLose': -0.64, 'level2Backwater': 0.0, 'level2Final': -0.64, 'level2WinLose': -0.64, 'level3Backwater': 0.0, 'level3Final': -0.64, 'level3WinLose': -0.64, 'matchId': 'sr:match:30123595', 'memberBackwater': 0.0, 'memberFinal': 3.2, 'memberWinLose': 3.2, 'tournamentId': 'sr:tournament:477', 'tournamentName': '国际欧洲锦标赛，女子'}, {'allAmount': 30.0, 'allBackwater': 0.09, 'allEfficient': 30.0, 'awayTeamName': 'Poland', 'companyFinal': -15.61, 'homeTeamName': '墨西哥', 'level0Backwater': 0.0, 'level0Final': -15.6, 'level0WinLose': -15.6, 'level1Backwater': 0.0, 'level1Final': -15.6, 'level1WinLose': -15.6, 'level2Backwater': 0.0, 'level2Final': -15.6, 'level2WinLose': -15.6, 'level3Backwater': 0.01, 'level3Final': -15.59, 'level3WinLose': -15.6, 'matchId': 'sr:match:32986745', 'memberBackwater': 0.0, 'memberFinal': 78.0, 'memberWinLose': 78.0, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 5.3, 'awayTeamName': '安图法加斯塔', 'companyFinal': -1.06, 'homeTeamName': 'Cobresal', 'level0Backwater': 0.0, 'level0Final': -1.06, 'level0WinLose': -1.06, 'level1Backwater': 0.0, 'level1Final': -1.06, 'level1WinLose': -1.06, 'level2Backwater': 0.0, 'level2Final': -1.06, 'level2WinLose': -1.06, 'level3Backwater': 0.0, 'level3Final': -1.06, 'level3WinLose': -1.06, 'matchId': 'sr:match:31802525', 'memberBackwater': 0.0, 'memberFinal': 5.3, 'memberWinLose': 5.3, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 20.0, 'allBackwater': 0.09, 'allEfficient': 20.0, 'awayTeamName': '加拿大', 'companyFinal': 3.99, 'homeTeamName': '克罗地亚', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'matchId': 'sr:match:32986785', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 20.0, 'allBackwater': 0.1, 'allEfficient': 20.0, 'awayTeamName': '荷兰', 'companyFinal': -6.31, 'homeTeamName': '塞内加尔', 'level0Backwater': 0.0, 'level0Final': -6.3, 'level0WinLose': -6.3, 'level1Backwater': 0.0, 'level1Final': -6.3, 'level1WinLose': -6.3, 'level2Backwater': 0.0, 'level2Final': -6.3, 'level2WinLose': -6.3, 'level3Backwater': 0.0, 'level3Final': -6.3, 'level3WinLose': -6.3, 'matchId': 'sr:match:32986721', 'memberBackwater': 0.01, 'memberFinal': 31.51, 'memberWinLose': 31.5, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 20.0, 'allBackwater': 0.1, 'allEfficient': 10.1, 'awayTeamName': '澳大利亚', 'companyFinal': -4.43, 'homeTeamName': '法国', 'level0Backwater': 0.0, 'level0Final': -4.42, 'level0WinLose': -4.42, 'level1Backwater': 0.0, 'level1Final': -4.42, 'level1WinLose': -4.42, 'level2Backwater': 0.0, 'level2Final': -4.42, 'level2WinLose': -4.42, 'level3Backwater': 0.0, 'level3Final': -4.42, 'level3WinLose': -4.42, 'matchId': 'sr:match:32986755', 'memberBackwater': 0.01, 'memberFinal': 22.11, 'memberWinLose': 22.1, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 7.8, 'awayTeamName': 'Karlsruher SC', 'companyFinal': -1.57, 'homeTeamName': 'SC Paderborn 07', 'level0Backwater': 0.0, 'level0Final': -1.56, 'level0WinLose': -1.56, 'level1Backwater': 0.0, 'level1Final': -1.56, 'level1WinLose': -1.56, 'level2Backwater': 0.0, 'level2Final': -1.56, 'level2WinLose': -1.56, 'level3Backwater': 0.01, 'level3Final': -1.55, 'level3WinLose': -1.56, 'matchId': 'sr:match:34169587', 'memberBackwater': 0.0, 'memberFinal': 7.8, 'memberWinLose': 7.8, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 5.0, 'awayTeamName': '弗雷德里西亚', 'companyFinal': 1.0, 'homeTeamName': 'Nykoebing FC', 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'matchId': 'sr:match:34024947', 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'tournamentId': 'sr:tournament:47', 'tournamentName': '丹麦甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '摩顿湾联', 'companyFinal': -6.9, 'homeTeamName': '伊斯特恩沙伯', 'level0Backwater': 0.0, 'level0Final': -6.9, 'level0WinLose': -6.9, 'level1Backwater': 0.0, 'level1Final': -6.9, 'level1WinLose': -6.9, 'level2Backwater': 0.0, 'level2Final': -6.9, 'level2WinLose': -6.9, 'level3Backwater': 0.0, 'level3Final': -6.9, 'level3WinLose': -6.9, 'matchId': 'sr:match:33642893', 'memberBackwater': 0.0, 'memberFinal': 34.5, 'memberWinLose': 34.5, 'tournamentId': 'sr:tournament:1268', 'tournamentName': '澳大利亚全国超级联赛，昆士兰州'}, {'allAmount': 20.0, 'allBackwater': 0.09, 'allEfficient': 20.0, 'awayTeamName': 'Fortuna Dusseldorf', 'companyFinal': 3.99, 'homeTeamName': '1. FC Magdeburg', 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.01, 'level3Final': 4.01, 'level3WinLose': 4.0, 'matchId': 'sr:match:34169595', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Liverpool FC', 'companyFinal': 2.0, 'homeTeamName': 'Manchester United', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:33745005', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:853', 'tournamentName': '国际俱乐部俱乐部友谊赛'}, {'allAmount': 10.0, 'allBackwater': 0.06, 'allEfficient': 6.8, 'awayTeamName': '南特', 'companyFinal': -1.37, 'homeTeamName': 'Angers SCO', 'level0Backwater': 0.0, 'level0Final': -1.36, 'level0WinLose': -1.36, 'level1Backwater': 0.0, 'level1Final': -1.36, 'level1WinLose': -1.36, 'level2Backwater': 0.0, 'level2Final': -1.36, 'level2WinLose': -1.36, 'level3Backwater': 0.01, 'level3Final': -1.35, 'level3WinLose': -1.36, 'matchId': 'sr:match:34171991', 'memberBackwater': 0.0, 'memberFinal': 6.8, 'memberWinLose': 6.8, 'tournamentId': 'sr:tournament:34', 'tournamentName': '法国甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 8.4, 'awayTeamName': 'IFK Varnamo', 'companyFinal': -1.69, 'homeTeamName': '华保斯', 'level0Backwater': 0.0, 'level0Final': -1.68, 'level0WinLose': -1.68, 'level1Backwater': 0.0, 'level1Final': -1.68, 'level1WinLose': -1.68, 'level2Backwater': 0.0, 'level2Final': -1.68, 'level2WinLose': -1.68, 'level3Backwater': 0.01, 'level3Final': -1.67, 'level3WinLose': -1.68, 'matchId': 'sr:match:31603033', 'memberBackwater': 0.0, 'memberFinal': 8.4, 'memberWinLose': 8.4, 'tournamentId': 'sr:tournament:40', 'tournamentName': '瑞典超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Everton FC', 'companyFinal': -4.7, 'homeTeamName': 'Aston Villa', 'level0Backwater': 0.0, 'level0Final': -4.7, 'level0WinLose': -4.7, 'level1Backwater': 0.0, 'level1Final': -4.7, 'level1WinLose': -4.7, 'level2Backwater': 0.0, 'level2Final': -4.7, 'level2WinLose': -4.7, 'level3Backwater': 0.0, 'level3Final': -4.7, 'level3WinLose': -4.7, 'matchId': 'sr:match:34151707', 'memberBackwater': 0.0, 'memberFinal': 23.5, 'memberWinLose': 23.5, 'tournamentId': 'sr:tournament:17', 'tournamentName': '英格兰英超'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '喀麦隆', 'companyFinal': -10.3, 'homeTeamName': '瑞士', 'level0Backwater': 0.0, 'level0Final': -10.3, 'level0WinLose': -10.3, 'level1Backwater': 0.0, 'level1Final': -10.3, 'level1WinLose': -10.3, 'level2Backwater': 0.0, 'level2Final': -10.3, 'level2WinLose': -10.3, 'level3Backwater': 0.0, 'level3Final': -10.3, 'level3WinLose': -10.3, 'matchId': 'sr:match:32986793', 'memberBackwater': 0.0, 'memberFinal': 51.5, 'memberWinLose': 51.5, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 6.3, 'awayTeamName': '乌拉圭', 'companyFinal': -1.27, 'homeTeamName': 'Portugal', 'level0Backwater': 0.0, 'level0Final': -1.26, 'level0WinLose': -1.26, 'level1Backwater': 0.0, 'level1Final': -1.26, 'level1WinLose': -1.26, 'level2Backwater': 0.0, 'level2Final': -1.26, 'level2WinLose': -1.26, 'level3Backwater': 0.01, 'level3Final': -1.25, 'level3WinLose': -1.26, 'matchId': 'sr:match:32986807', 'memberBackwater': 0.0, 'memberFinal': 6.3, 'memberWinLose': 6.3, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '伊朗', 'companyFinal': -5.7, 'homeTeamName': '英格兰', 'level0Backwater': 0.0, 'level0Final': -5.7, 'level0WinLose': -5.7, 'level1Backwater': 0.0, 'level1Final': -5.7, 'level1WinLose': -5.7, 'level2Backwater': 0.0, 'level2Final': -5.7, 'level2WinLose': -5.7, 'level3Backwater': 0.0, 'level3Final': -5.7, 'level3WinLose': -5.7, 'matchId': 'sr:match:32986731', 'memberBackwater': 0.0, 'memberFinal': 28.5, 'memberWinLose': 28.5, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 5.9, 'awayTeamName': '科金博', 'companyFinal': -1.18, 'homeTeamName': 'CD Universidad Catolica', 'level0Backwater': 0.0, 'level0Final': -1.18, 'level0WinLose': -1.18, 'level1Backwater': 0.0, 'level1Final': -1.18, 'level1WinLose': -1.18, 'level2Backwater': 0.0, 'level2Final': -1.18, 'level2WinLose': -1.18, 'level3Backwater': 0.0, 'level3Final': -1.18, 'level3WinLose': -1.18, 'matchId': 'sr:match:31802537', 'memberBackwater': 0.0, 'memberFinal': 5.9, 'memberWinLose': 5.9, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Chelsea FC', 'companyFinal': -3.0, 'homeTeamName': 'Everton FC', 'level0Backwater': 0.0, 'level0Final': -3.0, 'level0WinLose': -3.0, 'level1Backwater': 0.0, 'level1Final': -3.0, 'level1WinLose': -3.0, 'level2Backwater': 0.0, 'level2Final': -3.0, 'level2WinLose': -3.0, 'level3Backwater': 0.0, 'level3Final': -3.0, 'level3WinLose': -3.0, 'matchId': 'sr:match:34151699', 'memberBackwater': 0.0, 'memberFinal': 15.0, 'memberWinLose': 15.0, 'tournamentId': 'sr:tournament:17', 'tournamentName': '英格兰英超'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'awayTeamName': '奥胡斯', 'companyFinal': 1.99, 'homeTeamName': '布隆德比', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:33907651', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:39', 'tournamentName': '丹麦超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'awayTeamName': '加纳', 'companyFinal': 1.99, 'homeTeamName': '韩国', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:32986809', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '维拉圣卡罗斯', 'companyFinal': 2.0, 'homeTeamName': '菲力斯', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:34029383', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1347', 'tournamentName': '阿根廷乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 2.7, 'awayTeamName': '史克德二队', 'companyFinal': -0.54, 'homeTeamName': 'Froeya IL', 'level0Backwater': 0.0, 'level0Final': -0.54, 'level0WinLose': -0.54, 'level1Backwater': 0.0, 'level1Final': -0.54, 'level1WinLose': -0.54, 'level2Backwater': 0.0, 'level2Final': -0.54, 'level2WinLose': -0.54, 'level3Backwater': 0.0, 'level3Final': -0.54, 'level3WinLose': -0.54, 'matchId': 'sr:match:31885407', 'memberBackwater': 0.0, 'memberFinal': 2.7, 'memberWinLose': 2.7, 'tournamentId': 'sr:tournament:24642', 'tournamentName': '挪威丙级联赛第1组'}, {'allAmount': 20.0, 'allBackwater': 0.14, 'allEfficient': 15.0, 'awayTeamName': '巴基', 'companyFinal': 2.99, 'homeTeamName': 'Dunfermline Athletic FC', 'level0Backwater': 0.0, 'level0Final': 3.0, 'level0WinLose': 3.0, 'level1Backwater': 0.0, 'level1Final': 3.0, 'level1WinLose': 3.0, 'level2Backwater': 0.0, 'level2Final': 3.0, 'level2WinLose': 3.0, 'level3Backwater': 0.01, 'level3Final': 3.01, 'level3WinLose': 3.0, 'matchId': 'sr:match:33928909', 'memberBackwater': 0.0, 'memberFinal': -15.0, 'memberWinLose': -15.0, 'tournamentId': 'sr:tournament:332', 'tournamentName': '苏格兰联赛杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Fluminense FC RJ', 'companyFinal': 2.0, 'homeTeamName': 'MG克鲁塞罗', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:34022829', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:373', 'tournamentName': '巴西杯'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.4, 'awayTeamName': 'Cerezo Osaka', 'companyFinal': -0.88, 'homeTeamName': '名古屋鲸鱼', 'level0Backwater': 0.0, 'level0Final': -0.88, 'level0WinLose': -0.88, 'level1Backwater': 0.0, 'level1Final': -0.88, 'level1WinLose': -0.88, 'level2Backwater': 0.0, 'level2Final': -0.88, 'level2WinLose': -0.88, 'level3Backwater': 0.0, 'level3Final': -0.88, 'level3WinLose': -0.88, 'matchId': 'sr:match:34264141', 'memberBackwater': 0.0, 'memberFinal': 4.4, 'memberWinLose': 4.4, 'tournamentId': 'sr:tournament:323', 'tournamentName': '日本天皇杯'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'awayTeamName': 'Pharco FC', 'companyFinal': 0.0, 'homeTeamName': '马斯里足球俱乐部', 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'matchId': 'sr:match:33682235', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'tournamentId': 'sr:tournament:808', 'tournamentName': '埃及足球甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.03, 'allEfficient': 3.7, 'awayTeamName': '葡萄牙', 'companyFinal': -0.74, 'homeTeamName': '荷兰', 'level0Backwater': 0.0, 'level0Final': -0.74, 'level0WinLose': -0.74, 'level1Backwater': 0.0, 'level1Final': -0.74, 'level1WinLose': -0.74, 'level2Backwater': 0.0, 'level2Final': -0.74, 'level2WinLose': -0.74, 'level3Backwater': 0.0, 'level3Final': -0.74, 'level3WinLose': -0.74, 'matchId': 'sr:match:33482621', 'memberBackwater': 0.0, 'memberFinal': 3.7, 'memberWinLose': 3.7, 'tournamentId': 'sr:tournament:477', 'tournamentName': '国际欧洲锦标赛，女子'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Orlando City SC', 'companyFinal': 2.0, 'homeTeamName': 'Colorado Rapids', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:31099931', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:242', 'tournamentName': '美国职业足球大联盟'}, {'allAmount': 100.0, 'allBackwater': 0.86, 'allEfficient': 100.0, 'awayTeamName': '斐济', 'companyFinal': 19.95, 'homeTeamName': '所罗门群岛', 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'matchId': 'sr:match:34596479', 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'tournamentId': 'sr:tournament:27526', 'tournamentName': '国际OFC Nations Cup, Women'}, {'allAmount': 100.0, 'allBackwater': 0.86, 'allEfficient': 100.0, 'awayTeamName': '仰光联足球俱乐部', 'companyFinal': 19.95, 'homeTeamName': '雷克宁联队', 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'matchId': 'sr:match:34221727', 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'tournamentId': 'sr:tournament:19248', 'tournamentName': '缅甸全国联赛'}, {'allAmount': 50.0, 'allBackwater': 0.43, 'allEfficient': 50.0, 'awayTeamName': 'CA Argentino de Quilmes Reserve', 'companyFinal': 9.97, 'homeTeamName': 'CA San Miguel II', 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.07, 'level3Final': 10.07, 'level3WinLose': 10.0, 'matchId': 'sr:match:34611595', 'memberBackwater': 0.01, 'memberFinal': -49.99, 'memberWinLose': -50.0, 'tournamentId': 'sr:simple_tournament:63804', 'tournamentName': '阿根廷Primera B, Reserve'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.0, 'awayTeamName': 'Randers FC', 'companyFinal': -0.8, 'homeTeamName': 'FC Midtjylland', 'level0Backwater': 0.0, 'level0Final': -0.8, 'level0WinLose': -0.8, 'level1Backwater': 0.0, 'level1Final': -0.8, 'level1WinLose': -0.8, 'level2Backwater': 0.0, 'level2Final': -0.8, 'level2WinLose': -0.8, 'level3Backwater': 0.0, 'level3Final': -0.8, 'level3WinLose': -0.8, 'matchId': 'sr:match:33907529', 'memberBackwater': 0.0, 'memberFinal': 4.0, 'memberWinLose': 4.0, 'tournamentId': 'sr:tournament:39', 'tournamentName': '丹麦超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '斯拉斯克', 'companyFinal': 2.0, 'homeTeamName': '路宾', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:33912875', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:202', 'tournamentName': '波兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.3, 'awayTeamName': '瓜拉塞奧', 'companyFinal': -0.86, 'homeTeamName': '昆巴亚足球俱乐部', 'level0Backwater': 0.0, 'level0Final': -0.86, 'level0WinLose': -0.86, 'level1Backwater': 0.0, 'level1Final': -0.86, 'level1WinLose': -0.86, 'level2Backwater': 0.0, 'level2Final': -0.86, 'level2WinLose': -0.86, 'level3Backwater': 0.0, 'level3Final': -0.86, 'level3WinLose': -0.86, 'matchId': 'sr:match:34440281', 'memberBackwater': 0.0, 'memberFinal': 4.3, 'memberWinLose': 4.3, 'tournamentId': 'sr:tournament:240', 'tournamentName': '厄瓜多尔甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '堪培拉克罗地亚', 'companyFinal': 2.0, 'homeTeamName': '奥康纳骑士', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32014019', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1260', 'tournamentName': '澳大利亚全国超级联赛, 首都足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '弗罗瑞特', 'companyFinal': 2.0, 'homeTeamName': '戈维拉普克罗地亚', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32055903', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1270', 'tournamentName': '澳大利亚全国超级联赛,西澳大利亚'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '伯塔尼蜂群', 'companyFinal': 2.0, 'homeTeamName': '西奥克兰海军上将', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:33207205', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:24866', 'tournamentName': '新西兰冰球联盟'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '丹德农城', 'companyFinal': 2.0, 'homeTeamName': '墨尔本港鲨鱼', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:32013447', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:1275', 'tournamentName': '澳大利亚全国超级联赛,维多利亚'}, {'allAmount': 10.0, 'allBackwater': 0.1, 'allEfficient': 10.0, 'awayTeamName': 'SV Darmstadt 98', 'companyFinal': 1.99, 'homeTeamName': 'Jahn Regensburg', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:34169593', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 1.1, 'awayTeamName': '纽伦堡', 'companyFinal': -0.22, 'homeTeamName': '圣保利', 'level0Backwater': 0.0, 'level0Final': -0.22, 'level0WinLose': -0.22, 'level1Backwater': 0.0, 'level1Final': -0.22, 'level1WinLose': -0.22, 'level2Backwater': 0.0, 'level2Final': -0.22, 'level2WinLose': -0.22, 'level3Backwater': 0.0, 'level3Final': -0.22, 'level3WinLose': -0.22, 'matchId': 'sr:match:34169585', 'memberBackwater': 0.0, 'memberFinal': 1.1, 'memberWinLose': 1.1, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': 'Arminia Bielefeld', 'companyFinal': 2.0, 'homeTeamName': 'SV Sandhausen', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:34169591', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:44', 'tournamentName': '德国乙级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'awayTeamName': '史塔麦列克', 'companyFinal': 0.0, 'homeTeamName': '波兹南莱希', 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'matchId': 'sr:match:33912879', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'tournamentId': 'sr:tournament:202', 'tournamentName': '波兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.7, 'awayTeamName': '帕尔加斯', 'companyFinal': -0.94, 'homeTeamName': 'KPV科科拉', 'level0Backwater': 0.0, 'level0Final': -0.94, 'level0WinLose': -0.94, 'level1Backwater': 0.0, 'level1Final': -0.94, 'level1WinLose': -0.94, 'level2Backwater': 0.0, 'level2Final': -0.94, 'level2WinLose': -0.94, 'level3Backwater': 0.0, 'level3Final': -0.94, 'level3WinLose': -0.94, 'matchId': 'sr:match:32044609', 'memberBackwater': 0.0, 'memberFinal': 4.7, 'memberWinLose': 4.7, 'tournamentId': 'sr:tournament:55', 'tournamentName': '芬兰甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 2.5, 'awayTeamName': '小阿根廷人', 'companyFinal': -0.5, 'homeTeamName': '巴拉卡斯中央', 'level0Backwater': 0.0, 'level0Final': -0.5, 'level0WinLose': -0.5, 'level1Backwater': 0.0, 'level1Final': -0.5, 'level1WinLose': -0.5, 'level2Backwater': 0.0, 'level2Final': -0.5, 'level2WinLose': -0.5, 'level3Backwater': 0.0, 'level3Final': -0.5, 'level3WinLose': -0.5, 'matchId': 'sr:match:33839363', 'memberBackwater': 0.0, 'memberFinal': 2.5, 'memberWinLose': 2.5, 'tournamentId': 'sr:tournament:155', 'tournamentName': '阿根廷足球甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'awayTeamName': '科洛科洛', 'companyFinal': 2.0, 'homeTeamName': '奥达斯', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'matchId': 'sr:match:31802557', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:27665', 'tournamentName': '智利甲级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'awayTeamName': 'New England Revolution', 'companyFinal': 1.99, 'homeTeamName': 'Philadelphia Union', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:31099939', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:242', 'tournamentName': '美国职业足球大联盟'}], [{'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': '奥胡斯', 'companyFinal': 1.99, 'homeTeamName': '布隆德比', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:33907651', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:39', 'tournamentName': '丹麦超级联赛'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'awayTeamName': '加纳', 'companyFinal': 1.99, 'homeTeamName': '韩国', 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'matchId': 'sr:match:32986809', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 30.0, 'allBackwater': 0.02, 'allEfficient': 30.0, 'awayTeamName': 'Poland', 'companyFinal': -15.61, 'homeTeamName': '墨西哥', 'level0Backwater': 0.0, 'level0Final': -15.6, 'level0WinLose': -15.6, 'level1Backwater': 0.0, 'level1Final': -15.6, 'level1WinLose': -15.6, 'level2Backwater': 0.0, 'level2Final': -15.6, 'level2WinLose': -15.6, 'level3Backwater': 0.01, 'level3Final': -15.59, 'level3WinLose': -15.6, 'matchId': 'sr:match:32986745', 'memberBackwater': 0.0, 'memberFinal': 78.0, 'memberWinLose': 78.0, 'tournamentId': 'sr:tournament:16', 'tournamentName': '国际世界杯'}, {'allAmount': 20.0, 'allBackwater': 0.02, 'allEfficient': 10.1, 'awayTeamName': '澳大利亚', 'companyFinal': -4.43, 'homeTeamName': '法国', 'level0Backwater': 0.0, 'level0Final': -4.42, 'level0WinLose': -4.42, 'level1Backwater': 0.0, 'level1Final': -4.42, 'level1WinLose': -4.42, 'level2Backwater': 0.0, </t>
+  </si>
+  <si>
+    <t>['sr:tournament:27464-sr:match:33947069/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.13/0.03', 'sr:tournament:1268-sr:match:32013765/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:202-sr:match:33912889/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:202-sr:match:33912887/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.05/0.01', 'sr:tournament:16-sr:match:32986745/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:27665-sr:match:31802525/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.05/0.01', 'sr:tournament:16-sr:match:32986785/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:16-sr:match:32986721/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0.02', 'sr:tournament:16-sr:match:32986755/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0.02', 'sr:tournament:44-sr:match:34169587/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.07/0.01', 'sr:tournament:47-sr:match:34024947/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0.01', 'sr:tournament:44-sr:match:34169595/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:34-sr:match:34171991/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.06/0.01', 'sr:tournament:40-sr:match:31603033/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.07/0.01', 'sr:tournament:16-sr:match:32986807/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.05/0.01', 'sr:tournament:39-sr:match:33907651/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:16-sr:match:32986809/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02', 'sr:tournament:332-sr:match:33928909/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.14/0.03', 'sr:tournament:323-sr:match:34264141/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', 'sr:tournament:477-sr:match:33482621/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.03/0', 'sr:tournament:27526-sr:match:34596479/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.86/0.21', 'sr:tournament:19248-sr:match:34221727/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.86/0.21', 'sr:simple_tournament:63804-sr:match:34611595/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.43/0.1', 'sr:tournament:39-sr:match:33907529/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', 'sr:tournament:240-sr:match:34440281/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', 'sr:tournament:44-sr:match:34169593/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0.02', 'sr:tournament:55-sr:match:32044609/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', 'sr:tournament:242-sr:match:31099939/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-赛事盈亏-主查询  /winOrLost/match，数据错误，需要比对,53,25\x1b[0m']</t>
   </si>
   <si>
     <t>赛事盈亏-单独赛事盘口数据对比</t>
@@ -293,16 +386,35 @@
   </si>
   <si>
     <t>测试不通过
-2022-07-11 19:56:10</t>
-  </si>
-  <si>
-    <t>[[{'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '15', 'marketName': '净胜球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '净胜球数', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': -0.403, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '45', 'marketName': '波胆', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '波胆', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -3.6, 'level0Backwater': 0.0, 'level0Final': -3.6, 'level0WinLose': -3.6, 'level1Backwater': 0.0, 'level1Final': -3.6, 'level1WinLose': -3.6, 'level2Backwater': 0.0, 'level2Final': -3.6, 'level2WinLose': -3.6, 'level3Backwater': 0.0, 'level3Final': -3.6, 'level3WinLose': -3.6, 'marketId': '23', 'marketName': '尼斯坦 进球数', 'memberBackwater': 0.0, 'memberFinal': 18.0, 'memberWinLose': 18.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -2.79, 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'marketId': '34', 'marketName': '维京古 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 100.0, 'allBackwater': 0.0, 'allEfficient': 100.0, 'companyFinal': 20.0, 'level0Backwater': 0.0, 'level0Final': 20.0, 'level0WinLose': 20.0, 'level1Backwater': 0.0, 'level1Final': 20.0, 'level1WinLose': 20.0, 'level2Backwater': 0.0, 'level2Final': 20.0, 'level2WinLose': 20.0, 'level3Backwater': 0.0, 'level3Final': 20.0, 'level3WinLose': 20.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -100.0, 'memberWinLose': -100.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'companyFinal': -10.23, 'level0Backwater': -0.02, 'level0Final': -10.22, 'level0WinLose': -10.2, 'level1Backwater': -0.02, 'level1Final': -10.22, 'level1WinLose': -10.2, 'level2Backwater': -0.01, 'level2Final': -10.21, 'level2WinLose': -10.2, 'level3Backwater': 0.06, 'level3Final': -10.14, 'level3WinLose': -10.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 51.02, 'memberWinLose': 51.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': -0.0079, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '24', 'marketName': '德文波特市 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '30', 'marketName': '哪队进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '哪队进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '23', 'marketName': '斯图特狮子 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -2.3, 'level0Backwater': 0.0, 'level0Final': -2.3, 'level0WinLose': -2.3, 'level1Backwater': 0.0, 'level1Final': -2.3, 'level1WinLose': -2.3, 'level2Backwater': 0.0, 'level2Final': -2.3, 'level2WinLose': -2.3, 'level3Backwater': 0.0, 'level3Final': -2.3, 'level3WinLose': -2.3, 'marketId': '34', 'marketName': '南墨尔本 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 11.5, 'memberWinLose': 11.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -2.4, 'level0Backwater': 0.0, 'level0Final': -2.4, 'level0WinLose': -2.4, 'level1Backwater': 0.0, 'level1Final': -2.4, 'level1WinLose': -2.4, 'level2Backwater': 0.0, 'level2Final': -2.4, 'level2WinLose': -2.4, 'level3Backwater': 0.0, 'level3Final': -2.4, 'level3WinLose': -2.4, 'marketId': '24', 'marketName': '湾水市 进球数', 'memberBackwater': 0.0, 'memberFinal': 12.0, 'memberWinLose': 12.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.4, 'companyFinal': -1.28, 'level0Backwater': 0.0, 'level0Final': -1.28, 'level0WinLose': -1.28, 'level1Backwater': 0.0, 'level1Final': -1.28, 'level1WinLose': -1.28, 'level2Backwater': 0.0, 'level2Final': -1.28, 'level2WinLose': -1.28, 'level3Backwater': 0.0, 'level3Final': -1.28, 'level3WinLose': -1.28, 'marketId': '11', 'marketName': '平局退款', 'memberBackwater': 0.0, 'memberFinal': 6.4, 'memberWinLose': 6.4, 'sportId': 'sr:sport:1', 'sportMarketName': '平局退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -3.3, 'level0Backwater': 0.0, 'level0Final': -3.3, 'level0WinLose': -3.3, 'level1Backwater': 0.0, 'level1Final': -3.3, 'level1WinLose': -3.3, 'level2Backwater': 0.0, 'level2Final': -3.3, 'level2WinLose': -3.3, 'level3Backwater': 0.0, 'level3Final': -3.3, 'level3WinLose': -3.3, 'marketId': '24', 'marketName': '珀斯SC 进球数', 'memberBackwater': 0.0, 'memberFinal': 16.5, 'memberWinLose': 16.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -5.31, 'level0Backwater': 0.0, 'level0Final': -5.3, 'level0WinLose': -5.3, 'level1Backwater': 0.0, 'level1Final': -5.3, 'level1WinLose': -5.3, 'level2Backwater': 0.0, 'level2Final': -5.3, 'level2WinLose': -5.3, 'level3Backwater': 0.01, 'level3Final': -5.29, 'level3WinLose': -5.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 26.5, 'memberWinLose': 26.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.5, 'companyFinal': -1.3, 'level0Backwater': 0.0, 'level0Final': -1.3, 'level0WinLose': -1.3, 'level1Backwater': 0.0, 'level1Final': -1.3, 'level1WinLose': -1.3, 'level2Backwater': 0.0, 'level2Final': -1.3, 'level2WinLose': -1.3, 'level3Backwater': 0.0, 'level3Final': -1.3, 'level3WinLose': -1.3, 'marketId': '77', 'marketName': '上半场 - FK Haugesund 不失球', 'memberBackwater': 0.0, 'memberFinal': 6.5, 'memberWinLose': 6.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 客队 不失球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '51', 'marketName': 'Skovde AIK 赢任何半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 赢任何半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '71', 'marketName': '上半场 - 总入球 ', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -9.1, 'level0Backwater': 0.0, 'level0Final': -9.1, 'level0WinLose': -9.1, 'level1Backwater': 0.0, 'level1Final': -9.1, 'level1WinLose': -9.1, 'level2Backwater': 0.0, 'level2Final': -9.1, 'level2WinLose': -9.1, 'level3Backwater': 0.0, 'level3Final': -9.1, 'level3WinLose': -9.1, 'marketId': '15', 'marketName': '净胜球数', 'memberBackwater': 0.0, 'memberFinal': 45.5, 'memberWinLose': 45.5, 'sportId': 'sr:sport:1', 'sportMarketName': '净胜球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 6.7, 'companyFinal': -1.34, 'level0Backwater': 0.0, 'level0Final': -1.34, 'level0WinLose': -1.34, 'level1Backwater': 0.0, 'level1Final': -1.34, 'level1WinLose': -1.34, 'level2Backwater': 0.0, 'level2Final': -1.34, 'level2WinLose': -1.34, 'level3Backwater': 0.0, 'level3Final': -1.34, 'level3WinLose': -1.34, 'marketId': '542', 'marketName': '上半场 - 双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': 6.7, 'memberWinLose': 6.7, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': -0.01, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.9, 'companyFinal': -0.78, 'level0Backwater': 0.0, 'level0Final': -0.78, 'level0WinLose': -0.78, 'level1Backwater': 0.0, 'level1Final': -0.78, 'level1WinLose': -0.78, 'level2Backwater': 0.0, 'level2Final': -0.78, 'level2WinLose': -0.78, 'level3Backwater': 0.0, 'level3Final': -0.78, 'level3WinLose': -0.78, 'marketId': '29', 'marketName': '两队都进球', 'memberBackwater': 0.0, 'memberFinal': 3.9, 'memberWinLose': 3.9, 'sportId': 'sr:sport:1', 'sportMarketName': '两队都进球', 'sportName': '足球'}], [{'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': -5.31, 'level0Backwater': 0.0, 'level0Final': -5.3, 'level0WinLose': -5.3, 'level1Backwater': 0.0, 'level1Final': -5.3, 'level1WinLose': -5.3, 'level2Backwater': 0.0, 'level2Final': -5.3, 'level2WinLose': -5.3, 'level3Backwater': 0.01, 'level3Final': -5.29, 'level3WinLose': -5.3, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': 26.5, 'memberWinLose': 26.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': -2.79, 'level0Backwater': 0.0, 'level0Final': -2.78, 'level0WinLose': -2.78, 'level1Backwater': 0.0, 'level1Final': -2.78, 'level1WinLose': -2.78, 'level2Backwater': 0.0, 'level2Final': -2.78, 'level2WinLose': -2.78, 'level3Backwater': 0.01, 'level3Final': -2.77, 'level3WinLose': -2.78, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': 13.9, 'memberWinLose': 13.9, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '547', 'marketName': '双重机会&amp;大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.01, 'allEfficient': 9.0, 'companyFinal': -1.81, 'level0Backwater': 0.0, 'level0Final': -1.8, 'level0WinLose': -1.8, 'level1Backwater': 0.0, 'level1Final': -1.8, 'level1WinLose': -1.8, 'level2Backwater': 0.0, 'level2Final': -1.8, 'level2WinLose': -1.8, 'level3Backwater': 0.01, 'level3Final': -1.79, 'level3WinLose': -1.8, 'marketId': '26', 'marketName': '单/双', 'memberBackwater': 0.0, 'memberFinal': 9.0, 'memberWinLose': 9.0, 'sportId': 'sr:sport:1', 'sportMarketName': '单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '74', 'marketName': '上半场 - 单/双', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.02, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '20', 'marketName': 'FC Juarez 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': -10.23, 'level0Backwater': -0.02, 'level0Final': -10.22, 'level0WinLose': -10.2, 'level1Backwater': -0.02, 'level1Final': -10.22, 'level1WinLose': -10.2, 'level2Backwater': -0.01, 'level2Final': -10.21, 'level2WinLose': -10.2, 'level3Backwater': 0.06, 'level3Final': -10.14, 'level3WinLose': -10.2, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.02, 'memberFinal': 51.02, 'memberWinLose': 51.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 500.0, 'allBackwater': 0.65, 'allEfficient': 310.0, 'companyFinal': -62.14, 'level0Backwater': -0.13, 'level0Final': -62.13, 'level0WinLose': -62.0, 'level1Backwater': -0.13, 'level1Final': -62.13, 'level1WinLose': -62.0, 'level2Backwater': -0.12, 'level2Final': -62.12, 'level2WinLose': -62.0, 'level3Backwater': 0.37, 'level3Final': -61.63, 'level3WinLose': -62.0, 'marketId': '256', 'marketName': '让球 (包括加时赛)', 'memberBackwater': 0.15, 'memberFinal': 310.15, 'memberWinLose': 310.0, 'sportId': 'sr:sport:3', 'sportMarketName': '让球 (包括加时赛)', 'sportName': '棒球'}, {'allAmount': 50.0, 'allBackwater': 0.08, 'allEfficient': 39.5, 'companyFinal': -7.92, 'level0Backwater': -0.02, 'level0Final': -7.92, 'level0WinLose': -7.9, 'level1Backwater': -0.01, 'level1Final': -7.91, 'level1WinLose': -7.9, 'level2Backwater': -0.01, 'level2Final': -7.91, 'level2WinLose': -7.9, 'level3Backwater': 0.05, 'level3Final': -7.85, 'level3WinLose': -7.9, 'marketId': '223', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': 39.51, 'memberWinLose': 39.5, 'sportId': 'sr:sport:2', 'sportMarketName': '让球', 'sportName': '篮球'}, {'allAmount': 50.0, 'allBackwater': 0.1, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.06, 'level3Final': 10.06, 'level3WinLose': 10.0, 'marketId': '225', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -49.98, 'memberWinLose': -50.0, 'sportId': 'sr:sport:2', 'sportMarketName': '大/小', 'sportName': '篮球'}]]</t>
-  </si>
-  <si>
-    <t>['棒球-让球 (包括加时赛)/sr:match:32055879/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.403/0.65', '足球-双重机会&amp;大/小/sr:match:32044571/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:34029371/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:34029371/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.79/1.99', '足球-上半场 - 大/小/sr:match:34029371/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.77/2.01', '足球-上半场 - 大/小/sr:match:34029371/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.78/2.0', '足球-上半场 - 大/小/sr:match:34029371/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：13.9/-10.0', '足球-上半场 - 大/小/sr:match:34029371/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：13.9/-10.0', '足球-上半场 - 大/小/sr:match:34029371/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-让球/sr:match:32411183/allAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：50.0/10.0', '足球-让球/sr:match:32411183/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.02', '足球-让球/sr:match:32411183/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：50.0/10.0', '足球-让球/sr:match:32411183/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.23/1.99', '足球-让球/sr:match:32411183/level0Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.02/0.0', '足球-让球/sr:match:32411183/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.22/2.0', '足球-让球/sr:match:32411183/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/level1Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.02/0.0', '足球-让球/sr:match:32411183/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.22/2.0', '足球-让球/sr:match:32411183/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/level2Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.0', '足球-让球/sr:match:32411183/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.21/2.0', '足球-让球/sr:match:32411183/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.06/0.01', '足球-让球/sr:match:32411183/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.14/2.01', '足球-让球/sr:match:32411183/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.2/2.0', '足球-让球/sr:match:32411183/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.02/0.0', '足球-让球/sr:match:32411183/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.02/-10.0', '足球-让球/sr:match:32411183/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：51.0/-10.0', '足球-让球/sr:match:32411183/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1', '篮球-让球/sr:match:31801933/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.0079/0.08', '足球-单/双/sr:match:32055881/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:32055881/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:32055881/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/sr:match:32055881/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/2.0', '足球-单/双/sr:match:32055881/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:32055881/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/-9.99', '足球-单/双/sr:match:32055881/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:32055881/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/9.0', '足球-单/双/sr:match:32055881/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-1.81', '足球-单/双/sr:match:32055881/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-1.79', '足球-单/双/sr:match:32055881/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:32055881/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/9.0', '足球-单/双/sr:match:32055881/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/9.0', '足球-单/双/sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:31602085/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:31602085/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/2.01', '足球-单/双/sr:match:31602085/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/sr:match:31602085/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/-10.0', '足球-单/双/sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/sr:match:31602085/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:31602085/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/9.0', '足球-单/双/sr:match:31602085/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-1.81', '足球-单/双/sr:match:31602085/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/sr:match:31602085/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.79', '足球-单/双/sr:match:31602085/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-1.8', '足球-单/双/sr:match:31602085/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/sr:match:31602085/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/9.0', '足球-单/双/sr:match:31602085/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/9.0', '足球-让球/sr:match:31605901/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-让球/sr:match:31605901/allAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/50.0', '足球-让球/sr:match:31605901/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.1', '足球-让球/sr:match:31605901/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/50.0', '足球-让球/sr:match:31605901/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-10.23', '足球-让球/sr:match:31605901/level0Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.02', '足球-让球/sr:match:31605901/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.22', '足球-让球/sr:match:31605901/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/level1Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.02', '足球-让球/sr:match:31605901/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.22', '足球-让球/sr:match:31605901/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/level2Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.01', '足球-让球/sr:match:31605901/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.21', '足球-让球/sr:match:31605901/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.06', '足球-让球/sr:match:31605901/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-10.14', '足球-让球/sr:match:31605901/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-10.2', '足球-让球/sr:match:31605901/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-让球/sr:match:31605901/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/51.02', '足球-让球/sr:match:31605901/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/51.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.31/1.99', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.29/2.01', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-5.3/2.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：26.5/-10.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：26.5/-10.0', '足球-上半场 - 独赢 &amp; 大/小/sr:match:31605899/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-两个半场 小1.5/sr:match:31602087/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:31802539/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:31802539/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 大/小/sr:match:31802539/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-2.79', '足球-上半场 - 大/小/sr:match:31802539/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-2.77', '足球-上半场 - 大/小/sr:match:31802539/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-2.78', '足球-上半场 - 大/小/sr:match:31802539/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/13.9', '足球-上半场 - 大/小/sr:match:31802539/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/13.9', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/-5.31', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.01/-5.29', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-5.3', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/26.5', '足球-上半场 - 独赢 &amp; 大/小/sr:match:33928923/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/26.5', '足球-上半场 - 单/双/sr:match:32014013/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-净胜球数/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.1/2.0', '足球-净胜球数/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：45.5/-10.0', '足球-净胜球数/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：45.5/-10.0', '足球-FC Juarez 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '篮球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.01/0.1', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/10.0', '足球-单/双/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.81/1.99', '足球-单/双/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.79/2.01', '足球-单/双/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-10.0', '足球-单/双/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-10.0', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.02', '足球-单/双/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/10.0', '足球-单/双/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.81/1.99', '足球-单/双/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-单/双/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.79/2.0', '足球-单/双/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.8/2.0', '足球-单/双/参数已用完/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-单/双/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-9.99', '足球-单/双/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：9.0/-10.0', '足球-单/双/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', '足球-两队都进球/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3.9/10.0', '足球-两队都进球/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.78/2.0', '足球-两队都进球/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3.9/-10.0', '足球-两队都进球/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：3.9/-10.0']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的报表-赛事盈亏-子查询（根据其赛事查询其盘口）  ["/winOrLost/match","/winOrLost/market"]，数据错误，需要比对,36,20\x1b[0m']</t>
+2022-07-19 13:51:03</t>
+  </si>
+  <si>
+    <t>[[{'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '81', 'marketName': '上半场 - 波胆', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 波胆', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '19', 'marketName': 'Cruz Azul 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.3, 'companyFinal': -0.86, 'level0Backwater': 0.0, 'level0Final': -0.86, 'level0WinLose': -0.86, 'level1Backwater': 0.0, 'level1Final': -0.86, 'level1WinLose': -0.86, 'level2Backwater': 0.0, 'level2Final': -0.86, 'level2WinLose': -0.86, 'level3Backwater': 0.0, 'level3Final': -0.86, 'level3WinLose': -0.86, 'marketId': '20', 'marketName': 'CF Pachuca 大/小', 'memberBackwater': 0.0, 'memberFinal': 4.3, 'memberWinLose': 4.3, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 20.0, 'allBackwater': 0.0, 'allEfficient': 20.0, 'companyFinal': 4.0, 'level0Backwater': 0.0, 'level0Final': 4.0, 'level0WinLose': 4.0, 'level1Backwater': 0.0, 'level1Final': 4.0, 'level1WinLose': 4.0, 'level2Backwater': 0.0, 'level2Final': 4.0, 'level2WinLose': 4.0, 'level3Backwater': 0.0, 'level3Final': 4.0, 'level3WinLose': 4.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -20.0, 'memberWinLose': -20.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -4.6, 'level0Backwater': 0.0, 'level0Final': -4.6, 'level0WinLose': -4.6, 'level1Backwater': 0.0, 'level1Final': -4.6, 'level1WinLose': -4.6, 'level2Backwater': 0.0, 'level2Final': -4.6, 'level2WinLose': -4.6, 'level3Backwater': 0.0, 'level3Final': -4.6, 'level3WinLose': -4.6, 'marketId': '60', 'marketName': '上半场 - 独赢', 'memberBackwater': 0.0, 'memberFinal': 23.0, 'memberWinLose': 23.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 5.0, 'companyFinal': 1.0, 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'companyFinal': 0.0, 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'marketId': '18', 'marketName': '大/小', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 3.2, 'companyFinal': -0.64, 'level0Backwater': 0.0, 'level0Final': -0.64, 'level0WinLose': -0.64, 'level1Backwater': 0.0, 'level1Final': -0.64, 'level1WinLose': -0.64, 'level2Backwater': 0.0, 'level2Final': -0.64, 'level2WinLose': -0.64, 'level3Backwater': 0.0, 'level3Final': -0.64, 'level3WinLose': -0.64, 'marketId': '63', 'marketName': '上半场 - 双重机会', 'memberBackwater': 0.0, 'memberFinal': 3.2, 'memberWinLose': 3.2, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 双重机会', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -7.3, 'level0Backwater': 0.0, 'level0Final': -7.3, 'level0WinLose': -7.3, 'level1Backwater': 0.0, 'level1Final': -7.3, 'level1WinLose': -7.3, 'level2Backwater': 0.0, 'level2Final': -7.3, 'level2WinLose': -7.3, 'level3Backwater': 0.0, 'level3Final': -7.3, 'level3WinLose': -7.3, 'marketId': '75', 'marketName': '上半场 - 两队都进球', 'memberBackwater': 0.0, 'memberFinal': 36.5, 'memberWinLose': 36.5, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': -10.31, 'level0Backwater': 0.0, 'level0Final': -10.3, 'level0WinLose': -10.3, 'level1Backwater': 0.0, 'level1Final': -10.3, 'level1WinLose': -10.3, 'level2Backwater': 0.0, 'level2Final': -10.3, 'level2WinLose': -10.3, 'level3Backwater': 0.01, 'level3Final': -10.29, 'level3WinLose': -10.3, 'marketId': '58', 'marketName': '两个半场 大1.5', 'memberBackwater': 0.0, 'memberFinal': 51.5, 'memberWinLose': 51.5, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 大1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '23', 'marketName': '墨西哥 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 5.3, 'companyFinal': -1.06, 'level0Backwater': 0.0, 'level0Final': -1.06, 'level0WinLose': -1.06, 'level1Backwater': 0.0, 'level1Final': -1.06, 'level1WinLose': -1.06, 'level2Backwater': 0.0, 'level2Final': -1.06, 'level2WinLose': -1.06, 'level3Backwater': 0.0, 'level3Final': -1.06, 'level3WinLose': -1.06, 'marketId': '20', 'marketName': '安图法加斯塔 大/小', 'memberBackwater': 0.0, 'memberFinal': 5.3, 'memberWinLose': 5.3, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '69', 'marketName': '上半场 - 克罗地亚 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 主队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '54', 'marketName': '加拿大 最高进球数半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 最高进球数半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.1, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -8.3, 'level0Backwater': 0.0, 'level0Final': -8.3, 'level0WinLose': -8.3, 'level1Backwater': 0.0, 'level1Final': -8.3, 'level1WinLose': -8.3, 'level2Backwater': 0.0, 'level2Final': -8.3, 'level2WinLose': -8.3, 'level3Backwater': 0.0, 'level3Final': -8.3, 'level3WinLose': -8.3, 'marketId': '546', 'marketName': '双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': 41.5, 'memberWinLose': 41.5, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.1, 'companyFinal': -0.02, 'level0Backwater': 0.0, 'level0Final': -0.02, 'level0WinLose': -0.02, 'level1Backwater': 0.0, 'level1Final': -0.02, 'level1WinLose': -0.02, 'level2Backwater': 0.0, 'level2Final': -0.02, 'level2WinLose': -0.02, 'level3Backwater': 0.0, 'level3Final': -0.02, 'level3WinLose': -0.02, 'marketId': '34', 'marketName': '澳大利亚 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 0.1, 'memberWinLose': 0.1, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.1, 'allEfficient': 10.0, 'companyFinal': -4.41, 'level0Backwater': 0.0, 'level0Final': -4.4, 'level0WinLose': -4.4, 'level1Backwater': 0.0, 'level1Final': -4.4, 'level1WinLose': -4.4, 'level2Backwater': 0.0, 'level2Final': -4.4, 'level2WinLose': -4.4, 'level3Backwater': 0.0, 'level3Final': -4.4, 'level3WinLose': -4.4, 'marketId': '79', 'marketName': '上半场 - 独赢 &amp; 大/小', 'memberBackwater': 0.01, 'memberFinal': 22.01, 'memberWinLose': 22.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 独赢 &amp; 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 7.8, 'companyFinal': -1.57, 'level0Backwater': 0.0, 'level0Final': -1.56, 'level0WinLose': -1.56, 'level1Backwater': 0.0, 'level1Final': -1.56, 'level1WinLose': -1.56, 'level2Backwater': 0.0, 'level2Final': -1.56, 'level2WinLose': -1.56, 'level3Backwater': 0.01, 'level3Final': -1.55, 'level3WinLose': -1.56, 'marketId': '27', 'marketName': 'SC Paderborn 07 单/双', 'memberBackwater': 0.0, 'memberFinal': 7.8, 'memberWinLose': 7.8, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 单双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 5.0, 'companyFinal': 1.0, 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -6.9, 'level0Backwater': 0.0, 'level0Final': -6.9, 'level0WinLose': -6.9, 'level1Backwater': 0.0, 'level1Final': -6.9, 'level1WinLose': -6.9, 'level2Backwater': 0.0, 'level2Final': -6.9, 'level2WinLose': -6.9, 'level3Backwater': 0.0, 'level3Final': -6.9, 'level3WinLose': -6.9, 'marketId': '31', 'marketName': '伊斯特恩沙伯 不失球', 'memberBackwater': 0.0, 'memberFinal': 34.5, 'memberWinLose': 34.5, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 不失球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '36', 'marketName': '大/小 &amp; 两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小 &amp; 两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '24', 'marketName': 'Fortuna Dusseldorf 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '71', 'marketName': '上半场 - 总入球 ', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 总入球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.06, 'allEfficient': 6.8, 'companyFinal': -1.37, 'level0Backwater': 0.0, 'level0Final': -1.36, 'level0WinLose': -1.36, 'level1Backwater': 0.0, 'level1Final': -1.36, 'level1WinLose': -1.36, 'level2Backwater': 0.0, 'level2Final': -1.36, 'level2WinLose': -1.36, 'level3Backwater': 0.01, 'level3Final': -1.35, 'level3WinLose': -1.36, 'marketId': '28', 'marketName': '南特 单/双', 'memberBackwater': 0.0, 'memberFinal': 6.8, 'memberWinLose': 6.8, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.07, 'allEfficient': 8.4, 'companyFinal': -1.69, 'level0Backwater': 0.0, 'level0Final': -1.68, 'level0WinLose': -1.68, 'level1Backwater': 0.0, 'level1Final': -1.68, 'level1WinLose': -1.68, 'level2Backwater': 0.0, 'level2Final': -1.68, 'level2WinLose': -1.68, 'level3Backwater': 0.01, 'level3Final': -1.67, 'level3WinLose': -1.68, 'marketId': '66', 'marketName': '上半场 - 让球', 'memberBackwater': 0.0, 'memberFinal': 8.4, 'memberWinLose': 8.4, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -4.7, 'level0Backwater': 0.0, 'level0Final': -4.7, 'level0WinLose': -4.7, 'level1Backwater': 0.0, 'level1Final': -4.7, 'level1WinLose': -4.7, 'level2Backwater': 0.0, 'level2Final': -4.7, 'level2WinLose': -4.7, 'level3Backwater': 0.0, 'level3Final': -4.7, 'level3WinLose': -4.7, 'marketId': '53', 'marketName': 'Aston Villa 最高进球数半场', 'memberBackwater': 0.0, 'memberFinal': 23.5, 'memberWinLose': 23.5, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 最高进球数半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -10.3, 'level0Backwater': 0.0, 'level0Final': -10.3, 'level0WinLose': -10.3, 'level1Backwater': 0.0, 'level1Final': -10.3, 'level1WinLose': -10.3, 'level2Backwater': 0.0, 'level2Final': -10.3, 'level2WinLose': -10.3, 'level3Backwater': 0.0, 'level3Final': -10.3, 'level3WinLose': -10.3, 'marketId': '24', 'marketName': '喀麦隆 进球数', 'memberBackwater': 0.0, 'memberFinal': 51.5, 'memberWinLose': 51.5, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 6.3, 'companyFinal': -1.27, 'level0Backwater': 0.0, 'level0Final': -1.26, 'level0WinLose': -1.26, 'level1Backwater': 0.0, 'level1Final': -1.26, 'level1WinLose': -1.26, 'level2Backwater': 0.0, 'level2Final': -1.26, 'level2WinLose': -1.26, 'level3Backwater': 0.01, 'level3Final': -1.25, 'level3WinLose': -1.26, 'marketId': '28', 'marketName': '乌拉圭 单/双', 'memberBackwater': 0.0, 'memberFinal': 6.3, 'memberWinLose': 6.3, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 单/双', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -5.7, 'level0Backwater': 0.0, 'level0Final': -5.7, 'level0WinLose': -5.7, 'level1Backwater': 0.0, 'level1Final': -5.7, 'level1WinLose': -5.7, 'level2Backwater': 0.0, 'level2Final': -5.7, 'level2WinLose': -5.7, 'level3Backwater': 0.0, 'level3Final': -5.7, 'level3WinLose': -5.7, 'marketId': '50', 'marketName': '英格兰 赢任何半场', 'memberBackwater': 0.0, 'memberFinal': 28.5, 'memberWinLose': 28.5, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 赢任何半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 5.9, 'companyFinal': -1.18, 'level0Backwater': 0.0, 'level0Final': -1.18, 'level0WinLose': -1.18, 'level1Backwater': 0.0, 'level1Final': -1.18, 'level1WinLose': -1.18, 'level2Backwater': 0.0, 'level2Final': -1.18, 'level2WinLose': -1.18, 'level3Backwater': 0.0, 'level3Final': -1.18, 'level3WinLose': -1.18, 'marketId': '31', 'marketName': 'CD Universidad Catolica 不失球', 'memberBackwater': 0.0, 'memberFinal': 5.9, 'memberWinLose': 5.9, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 不失球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': -3.0, 'level0Backwater': 0.0, 'level0Final': -3.0, 'level0WinLose': -3.0, 'level1Backwater': 0.0, 'level1Final': -3.0, 'level1WinLose': -3.0, 'level2Backwater': 0.0, 'level2Final': -3.0, 'level2WinLose': -3.0, 'level3Backwater': 0.0, 'level3Final': -3.0, 'level3WinLose': -3.0, 'marketId': '77', 'marketName': '上半场 - Chelsea FC 不失球', 'memberBackwater': 0.0, 'memberFinal': 15.0, 'memberWinLose': 15.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 客队 不失球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 2.7, 'companyFinal': -0.54, 'level0Backwater': 0.0, 'level0Final': -0.54, 'level0WinLose': -0.54, 'level1Backwater': 0.0, 'level1Final': -0.54, 'level1WinLose': -0.54, 'level2Backwater': 0.0, 'level2Final': -0.54, 'level2WinLose': -0.54, 'level3Backwater': 0.0, 'level3Final': -0.54, 'level3WinLose': -0.54, 'marketId': '12', 'marketName': 'Froeya IL 胜利退款', 'memberBackwater': 0.0, 'memberFinal': 2.7, 'memberWinLose': 2.7, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 胜利退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.05, 'allEfficient': 5.0, 'companyFinal': 1.0, 'level0Backwater': 0.0, 'level0Final': 1.0, 'level0WinLose': 1.0, 'level1Backwater': 0.0, 'level1Final': 1.0, 'level1WinLose': 1.0, 'level2Backwater': 0.0, 'level2Final': 1.0, 'level2WinLose': 1.0, 'level3Backwater': 0.0, 'level3Final': 1.0, 'level3WinLose': 1.0, 'marketId': '68', 'marketName': '上半场 - 大/小', 'memberBackwater': 0.0, 'memberFinal': -5.0, 'memberWinLose': -5.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.09, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.01, 'level3Final': 2.01, 'level3WinLose': 2.0, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '47', 'marketName': '半场/全场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '半场/全场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.4, 'companyFinal': -0.88, 'level0Backwater': 0.0, 'level0Final': -0.88, 'level0WinLose': -0.88, 'level1Backwater': 0.0, 'level1Final': -0.88, 'level1WinLose': -0.88, 'level2Backwater': 0.0, 'level2Final': -0.88, 'level2WinLose': -0.88, 'level3Backwater': 0.0, 'level3Final': -0.88, 'level3WinLose': -0.88, 'marketId': '19', 'marketName': '名古屋鲸鱼 大/小', 'memberBackwater': 0.0, 'memberFinal': 4.4, 'memberWinLose': 4.4, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'companyFinal': 0.0, 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'marketId': '64', 'marketName': '上半场 - 平局退款', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'sportId': 'sr:sport:1', 'sportMarketName': '上半场 - 平局退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.03, 'allEfficient': 3.7, 'companyFinal': -0.74, 'level0Backwater': 0.0, 'level0Final': -0.74, 'level0WinLose': -0.74, 'level1Backwater': 0.0, 'level1Final': -0.74, 'level1WinLose': -0.74, 'level2Backwater': 0.0, 'level2Final': -0.74, 'level2WinLose': -0.74, 'level3Backwater': 0.0, 'level3Final': -0.74, 'level3WinLose': -0.74, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': 3.7, 'memberWinLose': 3.7, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '23', 'marketName': 'Colorado Rapids 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 100.0, 'allBackwater': 0.86, 'allEfficient': 100.0, 'companyFinal': 19.95, 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'marketId': '18', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小', 'sportName': '足球'}, {'allAmount': 100.0, 'allBackwater': 0.86, 'allEfficient': 100.0, 'companyFinal': 19.95, 'level0Backwater': -0.04, 'level0Final': 19.96, 'level0WinLose': 20.0, 'level1Backwater': -0.04, 'level1Final': 19.96, 'level1WinLose': 20.0, 'level2Backwater': -0.03, 'level2Final': 19.97, 'level2WinLose': 20.0, 'level3Backwater': 0.14, 'level3Final': 20.14, 'level3WinLose': 20.0, 'marketId': '18', 'marketName': '大/小', 'memberBackwater': 0.02, 'memberFinal': -99.98, 'memberWinLose': -100.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小', 'sportName': '足球'}, {'allAmount': 50.0, 'allBackwater': 0.43, 'allEfficient': 50.0, 'companyFinal': 9.97, 'level0Backwater': -0.02, 'level0Final': 9.98, 'level0WinLose': 10.0, 'level1Backwater': -0.02, 'level1Final': 9.98, 'level1WinLose': 10.0, 'level2Backwater': -0.01, 'level2Final': 9.99, 'level2WinLose': 10.0, 'level3Backwater': 0.07, 'level3Final': 10.07, 'level3WinLose': 10.0, 'marketId': '16', 'marketName': '让球', 'memberBackwater': 0.01, 'memberFinal': -49.99, 'memberWinLose': -50.0, 'sportId': 'sr:sport:1', 'sportMarketName': '让球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.0, 'companyFinal': -0.8, 'level0Backwater': 0.0, 'level0Final': -0.8, 'level0WinLose': -0.8, 'level1Backwater': 0.0, 'level1Final': -0.8, 'level1WinLose': -0.8, 'level2Backwater': 0.0, 'level2Final': -0.8, 'level2WinLose': -0.8, 'level3Backwater': 0.0, 'level3Final': -0.8, 'level3WinLose': -0.8, 'marketId': '59', 'marketName': '两个半场 小1.5', 'memberBackwater': 0.0, 'memberFinal': 4.0, 'memberWinLose': 4.0, 'sportId': 'sr:sport:1', 'sportMarketName': '两个半场 小1.5', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '48', 'marketName': '路宾 赢两个半场', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 赢两个半场', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.3, 'companyFinal': -0.86, 'level0Backwater': 0.0, 'level0Final': -0.86, 'level0WinLose': -0.86, 'level1Backwater': 0.0, 'level1Final': -0.86, 'level1WinLose': -0.86, 'level2Backwater': 0.0, 'level2Final': -0.86, 'level2WinLose': -0.86, 'level3Backwater': 0.0, 'level3Final': -0.86, 'level3WinLose': -0.86, 'marketId': '20', 'marketName': '瓜拉塞奧 大/小', 'memberBackwater': 0.0, 'memberFinal': 4.3, 'memberWinLose': 4.3, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '23', 'marketName': '奥康纳骑士 进球数', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '主队 进球数', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '35', 'marketName': '独赢 &amp; 两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '独赢 &amp; 两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '1', 'marketName': '独赢', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:4', 'sportMarketName': '独赢', 'sportName': '冰球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '546', 'marketName': '双重机会&amp;两队都进球', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '双重机会&amp;两队都进球', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.1, 'allEfficient': 10.0, 'companyFinal': 1.99, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '18', 'marketName': '大/小', 'memberBackwater': 0.01, 'memberFinal': -9.99, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 1.1, 'companyFinal': -0.22, 'level0Backwater': 0.0, 'level0Final': -0.22, 'level0WinLose': -0.22, 'level1Backwater': 0.0, 'level1Final': -0.22, 'level1WinLose': -0.22, 'level2Backwater': 0.0, 'level2Final': -0.22, 'level2WinLose': -0.22, 'level3Backwater': 0.0, 'level3Final': -0.22, 'level3WinLose': -0.22, 'marketId': '34', 'marketName': '纽伦堡 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': 1.1, 'memberWinLose': 1.1, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 10.0, 'companyFinal': 2.0, 'level0Backwater': 0.0, 'level0Final': 2.0, 'level0WinLose': 2.0, 'level1Backwater': 0.0, 'level1Final': 2.0, 'level1WinLose': 2.0, 'level2Backwater': 0.0, 'level2Final': 2.0, 'level2WinLose': 2.0, 'level3Backwater': 0.0, 'level3Final': 2.0, 'level3WinLose': 2.0, 'marketId': '34', 'marketName': 'Arminia Bielefeld 不失球获胜', 'memberBackwater': 0.0, 'memberFinal': -10.0, 'memberWinLose': -10.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 不失球获胜', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.0, 'allEfficient': 0.0, 'companyFinal': 0.0, 'level0Backwater': 0.0, 'level0Final': 0.0, 'level0WinLose': 0.0, 'level1Backwater': 0.0, 'level1Final': 0.0, 'level1WinLose': 0.0, 'level2Backwater': 0.0, 'level2Final': 0.0, 'level2WinLose': 0.0, 'level3Backwater': 0.0, 'level3Final': 0.0, 'level3WinLose': 0.0, 'marketId': '13', 'marketName': '史塔麦列克 胜利退款', 'memberBackwater': 0.0, 'memberFinal': 0.0, 'memberWinLose': 0.0, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 胜利退款', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwater': 0.04, 'allEfficient': 4.7, 'companyFinal': -0.94, 'level0Backwater': 0.0, 'level0Final': -0.94, 'level0WinLose': -0.94, 'level1Backwater': 0.0, 'level1Final': -0.94, 'level1WinLose': -0.94, 'level2Backwater': 0.0, 'level2Final': -0.94, 'level2WinLose': -0.94, 'level3Backwater': 0.0, 'level3Final': -0.94, 'level3WinLose': -0.94, 'marketId': '20', 'marketName': '帕尔加斯 大/小', 'memberBackwater': 0.0, 'memberFinal': 4.7, 'memberWinLose': 4.7, 'sportId': 'sr:sport:1', 'sportMarketName': '客队 大/小', 'sportName': '足球'}, {'allAmount': 10.0, 'allBackwa</t>
+  </si>
+  <si>
+    <t>['足球-双重机会&amp;两队都进球/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/-8.3', '足球-双重机会&amp;两队都进球/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/41.5', '足球-双重机会&amp;两队都进球/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/41.5', '足球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0', '足球-大/小/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/0.0', '足球-大/小/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/0.0', '足球-大/小/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/0.0', '足球-大/小/参数已用完/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.0', '足球-大/小/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/0.0', '足球-大/小/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/0.0', '足球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0.02', '足球-大/小/参数已用完/allAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/100.0', '足球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0.21', '足球-大/小/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/100.0', '足球-大/小/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/19.95', '足球-大/小/参数已用完/level0Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.04', '足球-大/小/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/19.96', '足球-大/小/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/level1Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.04', '足球-大/小/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/19.96', '足球-大/小/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/level2Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.03', '足球-大/小/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/19.97', '足球-大/小/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.14', '足球-大/小/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.14', '足球-大/小/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.02', '足球-大/小/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/-99.98', '足球-大/小/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/-100.0', '足球-大/小/参数已用完/allAmount的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/100.0', '足球-大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.1/0.21', '足球-大/小/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：10.0/100.0', '足球-大/小/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：1.99/19.95', '足球-大/小/参数已用完/level0Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.04', '足球-大/小/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/19.96', '足球-大/小/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/level1Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.04', '足球-大/小/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/19.96', '足球-大/小/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/level2Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/-0.03', '足球-大/小/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/19.97', '足球-大/小/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/level3Backwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.14', '足球-大/小/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.14', '足球-大/小/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.0/20.0', '足球-大/小/参数已用完/memberBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0.02', '足球-大/小/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-9.99/-99.98', '足球-大/小/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-10.0/-100.0', '足球-帕尔加斯 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.04/0', '足球-上半场 - 双重机会/参数已用完/allEfficient的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.5/3.2', '足球-上半场 - 双重机会/参数已用完/companyFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level0Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level0WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level1Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level1WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level2Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level2WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level3Final的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/level3WinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-0.5/-0.64', '足球-上半场 - 双重机会/参数已用完/memberFinal的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.5/3.2', '足球-上半场 - 双重机会/参数已用完/memberWinLose的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：2.5/3.2', '足球-上半场 - Philadelphia Union 大/小/参数已用完/allBackwater的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.09/0.02']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的报表-赛事盈亏-子查询（根据其赛事查询其盘口）  ["/winOrLost/match","/winOrLost/market"]，数据错误，需要比对,63,97\x1b[0m']</t>
+  </si>
+  <si>
+    <t>赛事盈亏-赛事-盘口下会员订单数据对比</t>
+  </si>
+  <si>
+    <t>报表-赛事盈亏-订单查询（根据其盘口查询订单）</t>
+  </si>
+  <si>
+    <t>"/winOrLost/sport","/winOrLost/match","/winOrLost/market","/winOrLost/order/details"</t>
+  </si>
+  <si>
+    <t>[{"matchId":"", "sportId":"","queryDateType":3, "begin":begin,"end":end,"searchAccount":"", "page":1,"limit":50},{"sportId":"sr:sport:1","queryDateType":3,"begin":begin,"end":end},{"matchId":"sr:match:33208605","queryDateType":3},{"begin":begin,"end":end,"dateType":3,"page":1,"limit":500,"sportId":"sr:sport:1","marketId":"1","account":"","queryDateType":3,"tournamentId":""}]</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-19 13:52:28</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的报表-赛事盈亏-订单查询（根据其盘口查询订单）  "/winOrLost/sport","/winOrLost/match","/winOrLost/market","/winOrLost/order/details"，接口数据比对全部正确\n\n\x1b[0m']</t>
   </si>
   <si>
     <t>混合串关-全部串关查询数据对比</t>
@@ -327,7 +439,191 @@
   </si>
   <si>
     <t>测试通过
-2022-07-11 19:56:24</t>
+2022-07-19 13:52:33</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的报表-混合串关-主查询  /winOrLost/multiterm，接口数据比对全部正确\n\n\x1b[0m']</t>
+  </si>
+  <si>
+    <t>混合串关-会员订单数据对比</t>
+  </si>
+  <si>
+    <t>报表-混合串关-订单查询（根据其会员查询订单）</t>
+  </si>
+  <si>
+    <t>"/winOrLost/multiterm","/winOrLost/order/details"</t>
+  </si>
+  <si>
+    <t>companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose</t>
+  </si>
+  <si>
+    <t>[{"matchId":"","sportId":"","queryDateType":3,"begin":begin,"end":end,"searchAccount":"","page":1,"limit":500},{"begin":begin,"end":end,"dateType":3,"page":1,"limit":500,"sportId":"","marketId":"串关","account":"fceshi070","queryDateType":3,"tournamentId":""}]</t>
+  </si>
+  <si>
+    <t>loginAccount</t>
+  </si>
+  <si>
+    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),CASE any_value (c.mix_num) WHEN '2_1_0' THEN '2串1' WHEN '3_1_0' THEN '3串1' WHEN '4_1_0' THEN '4串1' WHEN '5_1_0' THEN '5串1' WHEN '6_1_0' THEN '6串1' WHEN '7_1_0' THEN '7串1' WHEN '8_1_0' THEN '8串1' WHEN '9_1_0' THEN '9串1' WHEN '10_1_0' THEN '10串1' WHEN '2_3_0' THEN '2串1*3' WHEN '3_4_1' THEN '3串4' WHEN '3_4_0' THEN '3串1*4' WHEN '2_6_0' THEN '2串1*6' WHEN '4_11_1' THEN '4串11' WHEN '4_5_0' THEN '4串1*5' WHEN '3_10_0' THEN '3串1*10' WHEN '2_10_0' THEN '2串1*10' WHEN '5_26_1' THEN '5串26' WHEN '5_6_0' THEN '5串1*6' WHEN '4_15_0' THEN '4串1*15' WHEN '3_20_0' THEN '3串1*20' WHEN '2_15_0' THEN '2串1*15' WHEN '6_57_1' THEN '6串57' END AS '注单类型',(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),CASE any_value(c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value (c.mix_num),any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id,CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.user_id IN(SELECT c.user_id AS '账号' FROM o_account_order AS c WHERE c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.STATUS=2 AND c.bet_type&gt;1 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount,c.user_id,c.create_time ORDER BY c.create_time ASC"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no in (SELECT c.order_no FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN o_account_order_match AS a ON a.order_no=c.order_no WHERE c.STATUS=2 AND c.award_time IS NOT NULL  AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.user_id IN(SELECT c.user_id AS '账号' FROM o_account_order AS c WHERE c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.STATUS=2 AND c.bet_type&gt;1 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) GROUP BY c.order_no) GROUP BY order_no,away_team_name,bet_score,home_team_name,market_name,match_time,is_live,credit_odds,odds_type,outcome_name,specifier,tournament_name,create_time ORDER BY create_time ASC"</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-19 13:52:39</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的报表-混合串关-订单查询（根据其会员查询订单）  "/winOrLost/multiterm","/winOrLost/order/details"，接口数据比对全部正确\n\n\x1b[0m']</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0-主查询</t>
+  </si>
+  <si>
+    <t>/agentBackground/profitAndLoss/queryProxyProfitAndLossList</t>
+  </si>
+  <si>
+    <t>companyCommission,companyWinOrLose,id,payout,settlementDate,updateTime</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442","startTime":begin,"endTime":end}]</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
+@f"SELECT id,role_id FROM m_account WHERE id='{all}'"
+@f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID','公司总计' AS '公司总计',b.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS=2 AND c.proxy{num}_id='{all}' \
+AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
+  </si>
+  <si>
+    <t>account,parentId</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-19 13:52:46</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的盈亏详情-登0-主查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，接口数据比对全部正确\n\n\x1b[0m']</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0,登3跳转会员代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0-登3-会员-子查询</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end}]</t>
+  </si>
+  <si>
+    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-19 13:53:25</t>
+  </si>
+  <si>
+    <t>[[{'account': 'd0d1d2d30c/fceshi02', 'accountId': '1531519197046415362', 'companyTotal': 30.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 30.0, 'level0WinOrLose': 30.0, 'level1Commission': 0.0, 'level1Total': 30.0, 'level1WinOrLose': 30.0, 'level2Commission': 0.0, 'level2Total': 30.0, 'level2WinOrLose': 30.0, 'level3Commission': 0.0, 'level3Total': 30.0, 'level3WinOrLose': 30.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -150.0, 'memberWinOrLose': -150.0, 'name': '杜鑫test账号ac', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 150.0, 'totalCommission': 0.0, 'totalEfficientAmount': 150.0}, {'account': 'd0d1d2d30i/fceshi08', 'accountId': '1531519226964385794', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ai', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30j/fceshi09', 'accountId': '1531519231083192321', 'companyTotal': 10.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 10.0, 'level0WinOrLose': 10.0, 'level1Commission': 0.0, 'level1Total': 10.0, 'level1WinOrLose': 10.0, 'level2Commission': 0.0, 'level2Total': 10.0, 'level2WinOrLose': 10.0, 'level3Commission': 0.0, 'level3Total': 10.0, 'level3WinOrLose': 10.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -50.0, 'memberWinOrLose': -50.0, 'name': '杜鑫test账号aj', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 50.0, 'totalCommission': 0.0, 'totalEfficientAmount': 50.0}, {'account': 'd0d1d2d32d/fceshi047', 'accountId': '1531519648210919426', 'companyTotal': -0.86, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.86, 'level0WinOrLose': -0.86, 'level1Commission': 0.0, 'level1Total': -0.86, 'level1WinOrLose': -0.86, 'level2Commission': 0.0, 'level2Total': -0.86, 'level2WinOrLose': -0.86, 'level3Commission': 0.0, 'level3Total': -0.86, 'level3WinOrLose': -0.86, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 4.3, 'memberWinOrLose': 4.3, 'name': '杜鑫test账号cd', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 4.3}, {'account': 'd0d1d2d32o/fceshi058', 'accountId': '1531519693475848194', 'companyTotal': 8.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 8.0, 'level0WinOrLose': 8.0, 'level1Commission': 0.0, 'level1Total': 8.0, 'level1WinOrLose': 8.0, 'level2Commission': 0.0, 'level2Total': 8.0, 'level2WinOrLose': 8.0, 'level3Commission': 0.0, 'level3Total': 8.0, 'level3WinOrLose': 8.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -40.0, 'memberWinOrLose': -40.0, 'name': '杜鑫test账号co', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 40.0}, {'account': 'd0d1d2d3cj/fceshi0313', 'accountId': '1531520888126873601', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cj', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3zy/fceshi0926', 'accountId': '1531523548225773569', 'companyTotal': 5.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 6.0, 'level0WinOrLose': 6.0, 'level1Commission': 0.0, 'level1Total': 6.0, 'level1WinOrLose': 6.0, 'level2Commission': 0.0, 'level2Total': 6.0, 'level2WinOrLose': 6.0, 'level3Commission': 0.01, 'level3Total': 6.01, 'level3WinOrLose': 6.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -30.0, 'memberWinOrLose': -30.0, 'name': '杜鑫test账号zy', 'numberOfBets': 3, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.01, 'totalEfficientAmount': 30.0}, {'account': 'd0d1d2d31l/fceshi037', 'accountId': '1531519348049747969', 'companyTotal': -3.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -3.0, 'level0WinOrLose': -3.0, 'level1Commission': 0.0, 'level1Total': -3.0, 'level1WinOrLose': -3.0, 'level2Commission': 0.0, 'level2Total': -3.0, 'level2WinOrLose': -3.0, 'level3Commission': 0.0, 'level3Total': -3.0, 'level3WinOrLose': -3.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 15.0, 'memberWinOrLose': 15.0, 'name': '杜鑫test账号bl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32p/fceshi059', 'accountId': '1531519697598849026', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d34n/fceshi0109', 'accountId': '1531519911642570754', 'companyTotal': -8.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -8.3, 'level0WinOrLose': -8.3, 'level1Commission': 0.0, 'level1Total': -8.3, 'level1WinOrLose': -8.3, 'level2Commission': 0.0, 'level2Total': -8.3, 'level2WinOrLose': -8.3, 'level3Commission': 0.0, 'level3Total': -8.3, 'level3WinOrLose': -8.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 41.5, 'memberWinOrLose': 41.5, 'name': '杜鑫test账号en', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d35s/fceshi0140', 'accountId': '1531520059173019649', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号fs', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d35u/fceshi0142', 'accountId': '1531520067389661186', 'companyTotal': 0.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 0.0, 'level0WinOrLose': 0.0, 'level1Commission': 0.0, 'level1Total': 0.0, 'level1WinOrLose': 0.0, 'level2Commission': 0.0, 'level2Total': 0.0, 'level2WinOrLose': 0.0, 'level3Commission': 0.0, 'level3Total': 0.0, 'level3WinOrLose': 0.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 0.0, 'memberWinOrLose': 0.0, 'name': '杜鑫test账号fu', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 0.0}, {'account': 'd0d1d2d35y/fceshi0146', 'accountId': '1531520083852304386', 'companyTotal': -1.06, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.06, 'level0WinOrLose': -1.06, 'level1Commission': 0.0, 'level1Total': -1.06, 'level1WinOrLose': -1.06, 'level2Commission': 0.0, 'level2Total': -1.06, 'level2WinOrLose': -1.06, 'level3Commission': 0.0, 'level3Total': -1.06, 'level3WinOrLose': -1.06, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 5.3, 'memberWinOrLose': 5.3, 'name': '杜鑫test账号fy', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 5.3}, {'account': 'd0d1d2d37u/fceshi0194', 'accountId': '1531520288072966145', 'companyTotal': -1.37, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.36, 'level0WinOrLose': -1.36, 'level1Commission': 0.0, 'level1Total': -1.36, 'level1WinOrLose': -1.36, 'level2Commission': 0.0, 'level2Total': -1.36, 'level2WinOrLose': -1.36, 'level3Commission': 0.01, 'level3Total': -1.35, 'level3WinOrLose': -1.36, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.8, 'memberWinOrLose': 6.8, 'name': '杜鑫test账号hu', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.8}, {'account': 'd0d1d2d38g/fceshi0206', 'accountId': '1531520338475917314', 'companyTotal': -1.18, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.18, 'level0WinOrLose': -1.18, 'level1Commission': 0.0, 'level1Total': -1.18, 'level1WinOrLose': -1.18, 'level2Commission': 0.0, 'level2Total': -1.18, 'level2WinOrLose': -1.18, 'level3Commission': 0.0, 'level3Total': -1.18, 'level3WinOrLose': -1.18, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 5.9, 'memberWinOrLose': 5.9, 'name': '杜鑫test账号ig', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 5.9}, {'account': 'd0d1d2d38l/fceshi0211', 'accountId': '1531520358826680322', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号il', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d38y/fceshi0224', 'accountId': '1531520415168765953', 'companyTotal': -7.32, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -7.32, 'level0WinOrLose': -7.32, 'level1Commission': 0.0, 'level1Total': -7.32, 'level1WinOrLose': -7.32, 'level2Commission': 0.0, 'level2Total': -7.32, 'level2WinOrLose': -7.32, 'level3Commission': 0.0, 'level3Total': -7.32, 'level3WinOrLose': -7.32, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 36.6, 'memberWinOrLose': 36.6, 'name': '杜鑫test账号iy', 'numberOfBets': 2, 'parentId': '1531517760300163074', 'totalBet': 20.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.1}, {'account': 'd0d1d2d39f/fceshi0231', 'accountId': '1531520450283479041', 'companyTotal': -1.57, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.56, 'level0WinOrLose': -1.56, 'level1Commission': 0.0, 'level1Total': -1.56, 'level1WinOrLose': -1.56, 'level2Commission': 0.0, 'level2Total': -1.56, 'level2WinOrLose': -1.56, 'level3Commission': 0.01, 'level3Total': -1.55, 'level3WinOrLose': -1.56, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 7.8, 'memberWinOrLose': 7.8, 'name': '杜鑫test账号jf', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 7.8}, {'account': 'd0d1d2d39q/fceshi0242', 'accountId': '1531520495288360962', 'companyTotal': -4.7, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.7, 'level0WinOrLose': -4.7, 'level1Commission': 0.0, 'level1Total': -4.7, 'level1WinOrLose': -4.7, 'level2Commission': 0.0, 'level2Total': -4.7, 'level2WinOrLose': -4.7, 'level3Commission': 0.0, 'level3Total': -4.7, 'level3WinOrLose': -4.7, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 23.5, 'memberWinOrLose': 23.5, 'name': '杜鑫test账号jq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3db/fceshi0331', 'accountId': '1531520964324794370', 'companyTotal': -6.9, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -6.9, 'level0WinOrLose': -6.9, 'level1Commission': 0.0, 'level1Total': -6.9, 'level1WinOrLose': -6.9, 'level2Commission': 0.0, 'level2Total': -6.9, 'level2WinOrLose': -6.9, 'level3Commission': 0.0, 'level3Total': -6.9, 'level3WinOrLose': -6.9, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 34.5, 'memberWinOrLose': 34.5, 'name': '杜鑫test账号db', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3df/fceshi0335', 'accountId': '1531520980669997057', 'companyTotal': -10.31, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -10.3, 'level0WinOrLose': -10.3, 'level1Commission': 0.0, 'level1Total': -10.3, 'level1WinOrLose': -10.3, 'level2Commission': 0.0, 'level2Total': -10.3, 'level2WinOrLose': -10.3, 'level3Commission': 0.01, 'level3Total': -10.29, 'level3WinOrLose': -10.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 51.5, 'memberWinOrLose': 51.5, 'name': '杜鑫test账号df', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3ea/fceshi0356', 'accountId': '1531521074702098433', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ea', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3eg/fceshi0362', 'accountId': '1531521099213611010', 'companyTotal': -10.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -10.3, 'level0WinOrLose': -10.3, 'level1Commission': 0.0, 'level1Total': -10.3, 'level1WinOrLose': -10.3, 'level2Commission': 0.0, 'level2Total': -10.3, 'level2WinOrLose': -10.3, 'level3Commission': 0.0, 'level3Total': -10.3, 'level3WinOrLose': -10.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 51.5, 'memberWinOrLose': 51.5, 'name': '杜鑫test账号eg', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3es/fceshi0374', 'accountId': '1531521149029359617', 'companyTotal': -1.69, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.68, 'level0WinOrLose': -1.68, 'level1Commission': 0.0, 'level1Total': -1.68, 'level1WinOrLose': -1.68, 'level2Commission': 0.0, 'level2Total': -1.68, 'level2WinOrLose': -1.68, 'level3Commission': 0.01, 'level3Total': -1.67, 'level3WinOrLose': -1.68, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 8.4, 'memberWinOrLose': 8.4, 'name': '杜鑫test账号es', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 8.4}, {'account': 'd0d1d2d3hy/fceshi0458', 'accountId': '1531521506283397122', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号hy', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3if/fceshi0465', 'accountId': '1531521534867578881', 'companyTotal': 1.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 1.0, 'level0WinOrLose': 1.0, 'level1Commission': 0.0, 'level1Total': 1.0, 'level1WinOrLose': 1.0, 'level2Commission': 0.0, 'level2Total': 1.0, 'level2WinOrLose': 1.0, 'level3Commission': 0.0, 'level3Total': 1.0, 'level3WinOrLose': 1.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -5.0, 'memberWinOrLose': -5.0, 'name': '杜鑫test账号if', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 5.0}, {'account': 'd0d1d2d3ih/fceshi0467', 'accountId': '1531521543088414721', 'companyTotal': -4.41, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.4, 'level0WinOrLose': -4.4, 'level1Commission': 0.0, 'level1Total': -4.4, 'level1WinOrLose': -4.4, 'level2Commission': 0.0, 'level2Total': -4.4, 'level2WinOrLose': -4.4, 'level3Commission': 0.0, 'level3Total': -4.4, 'level3WinOrLose': -4.4, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': 22.01, 'memberWinOrLose': 22.0, 'name': '杜鑫test账号ih', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3je/fceshi0490', 'accountId': '1531521639385440258', 'companyTotal': -4.6, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.6, 'level0WinOrLose': -4.6, 'level1Commission': 0.0, 'level1Total': -4.6, 'level1WinOrLose': -4.6, 'level2Commission': 0.0, 'level2Total': -4.6, 'level2WinOrLose': -4.6, 'level3Commission': 0.0, 'level3Total': -4.6, 'level3WinOrLose': -4.6, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 23.0, 'memberWinOrLose': 23.0, 'name': '杜鑫test账号je', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jv/fceshi0507', 'accountId': '1531521709191241729', 'companyTotal': -1.27, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.26, 'level0WinOrLose': -1.26, 'level1Commission': 0.0, 'level1Total': -1.26, 'level1WinOrLose': -1.26, 'level2Commission': 0.0, 'level2Total': -1.26, 'level2WinOrLose': -1.26, 'level3Commission': 0.01, 'level3Total': -1.25, 'level3WinOrLose': -1.26, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.3, 'memberWinOrLose': 6.3, 'name': '杜鑫test账号jv', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.3}, {'account': 'd0d1d2d3ku/fceshi0532', 'accountId': '1531521815361658882', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ku', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3nb/fceshi0591', 'accountId': '1531522067972005890', 'companyTotal': -0.64, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.64, 'level0WinOrLose': -0.64, 'level1Commission': 0.0, 'level1Total': -0.64, 'level1WinOrLose': -0.64, 'level2Commission': 0.0, 'level2Total': -0.64, 'level2WinOrLose': -0.64, 'level3Commission': 0.0, 'level3Total': -0.64, 'level3WinOrLose': -0.64, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 3.2, 'memberWinOrLose': 3.2, 'name': '杜鑫test账号nb', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 3.2}, {'account': 'd0d1d2d3ps/fceshi0660', 'accountId': '1531522354732376065', 'companyTotal': 1.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 1.0, 'level0WinOrLose': 1.0, 'level1Commission': 0.0, 'level1Total': 1.0, 'level1WinOrLose': 1.0, 'level2Commission': 0.0, 'level2Total': 1.0, 'level2WinOrLose': 1.0, 'level3Commission': 0.0, 'level3Total': 1.0, 'level3WinOrLose': 1.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -5.0, 'memberWinOrLose': -5.0, 'name': '杜鑫test账号ps', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 5.0}, {'account': 'd0d1d2d3rl/fceshi0705', 'accountId': '1531522541945135105', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号rl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3tj/fceshi0755', 'accountId': '1531522768311721985', 'companyTotal': -5.7, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -5.7, 'level0WinOrLose': -5.7, 'level1Commission': 0.0, 'level1Total': -5.7, 'level1WinOrLose': -5.7, 'level2Commission': 0.0, 'level2Total': -5.7, 'level2WinOrLose': -5.7, 'level3Commission': 0.0, 'level3Total': -5.7, 'level3WinOrLose': -5.7, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 28.5, 'memberWinOrLose': 28.5, 'name': '杜鑫test账号tj', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3ud/fceshi0775', 'accountId': '1531522849987403778', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ud', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3ui/fceshi0780', 'accountId': '1531522870463995905', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ui', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3zw/fceshi0924', 'accountId': '1531523538776006658', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号zw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d34u/fceshi0116', 'accountId': '1531519940528742402', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号eu', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3be/fceshi0282', 'accountId': '1531520760448065537', 'companyTotal': -0.54, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.54, 'level0WinOrLose': -0.54, 'level1Commission': 0.0, 'level1Total': -0.54, 'level1WinOrLose': -0.54, 'level2Commission': 0.0, 'level2Total': -0.54, 'level2WinOrLose': -0.54, 'level3Commission': 0.0, 'level3Total': -0.54, 'level3WinOrLose': -0.54, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 2.7, 'memberWinOrLose': 2.7, 'name': '杜鑫test账号be', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 2.7}, {'account': 'd0d1d2d3nm/fceshi0602', 'accountId': '1531522112842670082', 'companyTotal': 1.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 1.0, 'level0WinOrLose': 1.0, 'level1Commission': 0.0, 'level1Total': 1.0, 'level1WinOrLose': 1.0, 'level2Commission': 0.0, 'level2Total': 1.0, 'level2WinOrLose': 1.0, 'level3Commission': 0.0, 'level3Total': 1.0, 'level3WinOrLose': 1.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -5.0, 'memberWinOrLose': -5.0, 'name': '杜鑫test账号nm', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 5.0}, {'account': 'd0d1d2d3of/fceshi0621', 'accountId': '1531522192484114434', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号of', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30d/fceshi03', 'accountId': '1531519206143860738', 'companyTotal': -0.88, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.88, 'level0WinOrLose': -0.88, 'level1Commission': 0.0, 'level1Total': -0.88, 'level1WinOrLose': -0.88, 'level2Commission': 0.0, 'level2Total': -0.88, 'level2WinOrLose': -0.88, 'level3Commission': 0.0, 'level3Total': -0.88, 'level3WinOrLose': -0.88, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 4.4, 'memberWinOrLose': 4.4, 'name': '杜鑫test账号ad', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 4.4}, {'account': 'd0d1d2d33e/fceshi074', 'accountId': '1531519759607439362', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号de', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3ck/fceshi0314', 'accountId': '1531520892224708610', 'companyTotal': -0.74, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.74, 'level0WinOrLose': -0.74, 'level1Commission': 0.0, 'level1Total': -0.74, 'level1WinOrLose': -0.74, 'level2Commission': 0.0, 'level2Total': -0.74, 'level2WinOrLose': -0.74, 'level3Commission': 0.0, 'level3Total': -0.74, 'level3WinOrLose': -0.74, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 3.7, 'memberWinOrLose': 3.7, 'name': '杜鑫test账号ck', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 3.7}, {'account': 'd0d1d2d3ni/fceshi0598', 'accountId': '1531522096547799042', 'companyTotal': 0.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 0.0, 'level0WinOrLose': 0.0, 'level1Commission': 0.0, 'level1Total': 0.0, 'level1WinOrLose': 0.0, 'level2Commission': 0.0, 'level2Total': 0.0, 'level2WinOrLose': 0.0, 'level3Commission': 0.0, 'level3Total': 0.0, 'level3WinOrLose': 0.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 0.0, 'memberWinOrLose': 0.0, 'name': '杜鑫test账号ni', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 0.0}, {'account': 'd0d1d2d3zs/fceshi0920', 'accountId': '1531523522523078658', 'companyTotal': 49.87, 'currency': 'CNY', 'level0Commission': -0.1, 'level0Total': 49.9, 'level0WinOrLose': 50.0, 'level1Commission': -0.1, 'level1Total': 49.9, 'level1WinOrLose': 50.0, 'level2Commission': -0.07, 'level2Total': 49.93, 'level2WinOrLose': 50.0, 'level3Commission': 0.35, 'level3Total': 50.35, 'level3WinOrLose': 50.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.05, 'memberTotal': -249.95, 'memberWinOrLose': -250.0, 'name': '杜鑫test账号zs', 'numberOfBets': 3, 'parentId': '1531517760300163074', 'totalBet': 250.0, 'totalCommission': 0.05, 'totalEfficientAmount': 250.0}, {'account': 'd0d1d2d3dl/fceshi0341', 'accountId': '1531521007396102145', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3qi/fceshi0676', 'accountId': '1531522421308563458', 'companyTotal': -0.8, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.8, 'level0WinOrLose': -0.8, 'level1Commission': 0.0, 'level1Total': -0.8, 'level1WinOrLose': -0.8, 'level2Commission': 0.0, 'level2Total': -0.8, 'level2WinOrLose': -0.8, 'level3Commission': 0.0, 'level3Total': -0.8, 'level3WinOrLose': -0.8, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 4.0, 'memberWinOrLose': 4.0, 'name': '杜鑫test账号qi', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 4.0}, {'account': 'd0d1d2d3tt/fceshi0765', 'accountId': '1531522809348792321', 'companyTotal': -0.86, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.86, 'level0WinOrLose': -0.86, 'level1Commission': 0.0, 'level1Total': -0.86, 'level1WinOrLose': -0.86, 'level2Commission': 0.0, 'level2Total': -0.86, 'level2WinOrLose': -0.86, 'level3Commission': 0.0, 'level3Total': -0.86, 'level3WinOrLose': -0.86, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 4.3, 'memberWinOrLose': 4.3, 'name': '杜鑫test账号tt', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 4.3}, {'account': 'd0d1d2d30y/fceshi024', 'accountId': '1531519294245216257', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ay', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31r/fceshi043', 'accountId': '1531519378554920961', 'companyTotal': 17.08, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 17.08, 'level0WinOrLose': 17.08, 'level1Commission': 0.0, 'level1Total': 17.08, 'level1WinOrLose'</t>
+  </si>
+  <si>
+    <t>['d0d1d2d3zy/fceshi0926-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0', 'd0d1d2d35s/fceshi0140-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0', 'd0d1d2d3if/fceshi0465-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0', 'd0d1d2d3ku/fceshi0532-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0', 'd0d1d2d3rl/fceshi0705-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0', 'd0d1d2d3ud/fceshi0775-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0', 'd0d1d2d3lz/fceshi0563-1531517760300163074/参数已用完/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.01/0']</t>
+  </si>
+  <si>
+    <t>['\x1b[31m代理d0的盈亏详情-登0-登3-会员-子查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,64,57\x1b[0m']</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
+  </si>
+  <si>
+    <t>盈亏详情-登0-登3-会员-查看订单详情-子查询</t>
+  </si>
+  <si>
+    <t>"/agentBackground/profitAndLoss/queryProxyProfitAndLossList","/agentBackground/profitAndLoss/queryMemberProfitAndLossOrderList"</t>
+  </si>
+  <si>
+    <t>betTime,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,settlementTime,betMix</t>
+  </si>
+  <si>
+    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end},{"page":1,"limit":50,"account":"","parentId":"1531519668859478017"}]</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>@f"SELECT CONCAT(user_name,'/',login_account) AS '账号/登入账号',SUM(level0_backwater_amount),SUM(level0_win_or_lose),SUM(level0_win_or_lose-level0_backwater_amount),SUM(level1_backwater_amount),SUM(level1_win_or_lose),SUM(level1_win_or_lose-level1_backwater_amount),SUM(level2_backwater_amount),SUM(level2_win_or_lose),SUM(level2_win_or_lose-level2_backwater_amount),SUM(level3_backwater_amount),SUM(level3_win_or_lose),SUM(level3_win_or_lose-level3_backwater_amount),SUM(backwater_amount) '会员佣金',SUM(handicap_win_or_lose+backwater_amount) '会员总计',SUM(handicap_win_or_lose) '会员输/赢',SUM(efficient_amount),SUM(handicap_win_or_lose) '会员输/赢' FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id) AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id) AND STATUS=2 AND award_time IS NOT NULL GROUP BY user_name,login_account"
+@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),any_value (c.bet_type) '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value(c.mix_num),any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id, CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS=2 AND order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id)  AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) AND STATUS=2  AND award_time IS NOT NULL GROUP BY order_no,award_time ORDER BY award_time ASC) AND c.award_time IS NOT NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount"
+@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id)  AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) AND STATUS=2  AND award_time IS NOT NULL GROUP BY order_no,award_time ORDER BY award_time ASC)"</t>
+  </si>
+  <si>
+    <t>测试通过
+2022-07-19 13:54:42</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的盈亏详情-登0-登3-会员-查看订单详情-子查询  "/agentBackground/profitAndLoss/queryProxyProfitAndLossList","/agentBackground/profitAndLoss/queryMemberProfitAndLossOrderList"，接口数据比对全部正确\n\n\x1b[0m']</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>混合串关-全部账号查询数据对比</t>
+  </si>
+  <si>
+    <t>总投注-混合串关-主查询</t>
+  </si>
+  <si>
+    <t>/betManagement/agent/mixBetOrder</t>
+  </si>
+  <si>
+    <t>companyActualPercentage,companyRetreatProportion,level0RetreatProportion,level1RetreatProportion,level2RetreatProportion,level3RetreatProportion</t>
+  </si>
+  <si>
+    <t>[{"account":""}]</t>
+  </si>
+  <si>
+    <t>@SELECT any_value (c.user_name) '账号',any_value (c.bet_amount) AS '投注金额',any_value (c.bet_ip) AS 'IP地址',any_value (c.create_time) AS '投注时间',any_value (c.currency) '币种',any_value (c.ip_address) AS 'IP位置',any_value (c.level0_actual_percentage*100) AS '总代占成',any_value (c.level1_actual_percentage*100) AS '一级代理占成',any_value (c.level2_actual_percentage*100) AS '二级代理占成',any_value (c.level3_actual_percentage*100) AS '三级代理占成',any_value (c.login_account) '登入账号',CASE any_value (c.mix_num) WHEN '2_1_0' THEN '2串1' WHEN '3_1_0' THEN '3串1' WHEN '4_1_0' THEN '4串1' WHEN '5_1_0' THEN '5串1' WHEN '6_1_0' THEN '6串1' WHEN '7_1_0' THEN '7串1' WHEN '8_1_0' THEN '8串1' WHEN '9_1_0' THEN '9串1' WHEN '10_1_0' THEN '10串1' WHEN '2_3_0' THEN '2串1' WHEN '3_4_1' THEN '3串4' WHEN '3_4_0' THEN '3串1' WHEN '2_6_0' THEN '2串1' WHEN '4_11_1' THEN '4串11' WHEN '4_5_0' THEN '4串1' WHEN '3_10_0' THEN '3串1' WHEN '2_10_0' THEN '2串1' WHEN '5_26_1' THEN '5串26' WHEN '5_6_0' THEN '5串1' WHEN '4_15_0' THEN '4串1' WHEN '3_20_0' THEN '3串1' WHEN '2_15_0' THEN '2串1' WHEN '6_57_1' THEN '6串57' END AS '注单类型',CASE any_value (c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END AS '类型',any_value (a.NAME) '名称',"odds_type" AS '赔率','odds' AS 'odds',c.order_no '注单号',(CASE any_value (c.STATUS) WHEN '0' THEN '待确认' WHEN '1' THEN '未结算' WHEN '2' THEN '已结算' WHEN '3' THEN '已取消' END) AS '注单状态',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN u_user AS a ON a.id=c.user_id LEFT JOIN o_account_order_match AS b ON b.order_no=c.order_no WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type !=1 GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-19 14:25:13</t>
+  </si>
+  <si>
+    <t>[[], (('d0d1d2d30c', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 19), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi02', '9串1', '串关', '杜鑫test账号ac', 'odds_type', 'odds', 'XHwPNuS9cRJz', '未结算', '足球'), ('d0d1d2d32i', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 15), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi052', '8串1', '串关', '杜鑫test账号ci', 'odds_type', 'odds', 'XHwPMkawJQm4', '未结算', '足球'), ('d0d1d2d32c', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 11), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi046', '7串1', '串关', '杜鑫test账号cc', 'odds_type', 'odds', 'XHwPLazSv2uk', '未结算', '足球'), ('d0d1d2d31e', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 1), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi030', '5串1', '复式串关', '杜鑫test账号be', 'odds_type', 'odds', 'XHwPH4nC9sYz', '未结算', '足球'), ('d0d1d2d32d', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 48), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi047', '4串1', '复式串关', '杜鑫test账号cd', 'odds_type', 'odds', 'XHwPCSGq3Vwt', '未结算', '足球'), ('d0d1d2d32f', Decimal('200.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 45), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi049', '3串1', '复式串关', '杜鑫test账号cf', 'odds_type', 'odds', 'XHwPBGBfb8sf', '未结算', '足球'), ('d0d1d2d30j', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 41), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi09', '2串1', '复式串关', '杜鑫test账号aj', 'odds_type', 'odds', 'XHwPAxhj928p', '未结算', '足球'), ('d0d1d2d32s', Decimal('50.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 30), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi062', '4串1', '复式串关', '杜鑫test账号cs', 'odds_type', 'odds', 'XHwPwYsD8Rhe', '未结算', '足球'), ('d0d1d2d30m', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 26), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi012', '3串1', '复式串关', '杜鑫test账号am', 'odds_type', 'odds', 'XHwPvMmteY95', '未结算', '足球'), ('d0d1d2d30x', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 22), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi023', '2串1', '复式串关', '杜鑫test账号ax', 'odds_type', 'odds', 'XHwPuBqMakDY', '未结算', '足球'), ('d0d1d2d30x', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 19), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi023', '5串1', '串关', '杜鑫test账号ax', 'odds_type', 'odds', 'XHwPttJm3L5Y', '未结算', '足球'), ('d0d1d2d32w', Decimal('110.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 13), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi066', '4串11', '复式串关', '杜鑫test账号cw', 'odds_type', 'odds', 'XHwPrsp223qL', '未结算', '足球'), ('d0d1d2d32h', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 5), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi051', '2串1', '复式串关', '杜鑫test账号ch', 'odds_type', 'odds', 'XHwPp7Cdw3cU', '未结算', '足球'), ('d0d1d2d30k', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 29), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi010', '7串1', '串关', '杜鑫test账号ak', 'odds_type', 'odds', 'XHwDWTNm2xZJ', '未结算', '足球'), ('d0d1d2d31m', Decimal('570.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 25), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi038', '6串57', '复式串关', '杜鑫test账号bm', 'odds_type', 'odds', 'XHwDVJrkf2Ae', '未结算', '足球'), ('d0d1d2d31c', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 17), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi028', '4串1', '复式串关', '杜鑫test账号bc', 'odds_type', 'odds', 'XHwDTbqX9R2E', '未结算', '足球'), ('d0d1d2d32n', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 6), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi057', '6串1', '串关', '杜鑫test账号cn', 'odds_type', 'odds', 'XHwDPCwPRKf3', '未结算', '足球'), ('d0d1d2d31j', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 43), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi035', '5串1', '串关', '杜鑫test账号bj', 'odds_type', 'odds', 'XHwDGhje6efE', '未结算', '足球'), ('d0d1d2d32w', Decimal('40.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 35), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi066', '3串1', '复式串关', '杜鑫test账号cw', 'odds_type', 'odds', 'XHwDDCZxhZNL', '未结算', '足球'), ('d0d1d2d31d', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 31), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi029', '2串1', '复式串关', '杜鑫test账号bd', 'odds_type', 'odds', 'XHwDCvEC26by', '未结算', '足球'), ('d0d1d2d32z', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 28), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi069', '4串1', '串关', '杜鑫test账号cz', 'odds_type', 'odds', 'XHwDBnEdvMCE', '未结算', '足球'), ('d0d1d2d30h', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 16), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi07', '3串1', '串关', '杜鑫test账号ah', 'odds_type', 'odds', 'XHwDxNJWmMuj', '未结算', '足球'), ('d0d1d2d31q', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 13, 20), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi042', '2串1', '复式串关', '杜鑫test账号bq', 'odds_type', 'odds', 'XHwDdSUnjHWZ', '未结算', '足球'), ('d0d1d2d32a', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 13, 6), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi044', '3串1', '串关', '杜鑫test账号ca', 'odds_type', 'odds', 'XHwD9kXZktsi', '未结算', '足球'), ('d0d1d2d32w', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 13, 2), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi066', '2串1', '串关', '杜鑫test账号cw', 'odds_type', 'odds', 'XHwD8cmU7M6b', '未结算', '足球'), ('d0d1d2d32y', Decimal('260.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 22), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi068', '5串26', '复式串关', '杜鑫test账号cy', 'odds_type', 'odds', 'XHwAQCrYtzZP', '未结算', '足球'), ('d0d1d2d30q', Decimal('50.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 19), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi016', '4串1', '复式串关', '杜鑫test账号aq', 'odds_type', 'odds', 'XHwAPu97BGnn', '未结算', '足球'), ('d0d1d2d32r', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 15), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi061', '3串1', '复式串关', '杜鑫test账号cr', 'odds_type', 'odds', 'XHwANk6HLGcS', '未结算', '足球'), ('d0d1d2d31i', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 11), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi034', '2串1', '复式串关', '杜鑫test账号bi', 'odds_type', 'odds', 'XHwAM46dA3Ep', '未结算', '足球'), ('d0d1d2d31f', Decimal('40.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi031', '3串1', '复式串关', '杜鑫test账号bf', 'odds_type', 'odds', 'XHwAHxWxiyA8', '未结算', '足球'), ('d0d1d2d32j', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 5, 51), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi053', '4串1', '串关', '杜鑫test账号cj', 'odds_type', 'odds', 'XHwAEL8PKvQT', '未结算', '足球'), ('d0d1d2d30w', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 5, 38), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi022', '3串1', '串关', '杜鑫test账号aw', 'odds_type', 'odds', 'XHwAAwyz67du', '未结算', '足球'), ('d0d1d2d31i', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 56), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi034', '9串1', '串关', '杜鑫test账号bi', 'odds_type', 'odds', 'XHwyYCeJNuDx', '未结算', '足球'), ('d0d1d2d32u', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 48), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi064', '7串1', '串关', '杜鑫test账号cu', 'odds_type', 'odds', 'XHwyWaC2x3bB', '未结算', '足球'), ('d0d1d2d30w', Decimal('570.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 45), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi022', '6串57', '复式串关', '杜鑫test账号aw', 'odds_type', 'odds', 'XHwyUYuABcWv', '未结算', '足球'), ('d0d1d2d32b', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 41), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi045', '5串1', '复式串关', '杜鑫test账号cb', 'odds_type', 'odds', 'XHwyTPAAShR8', '未结算', '足球'), ('d0d1d2d32o', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 37), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi058', '4串1', '复式串关', '杜鑫test账号co', 'odds_type', 'odds', 'XHwySEiELFJY', '未结算', '足球'), ('d0d1d2d31i', Decimal('200.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 33), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi034', '3串1', '复式串关', '杜鑫test账号bi', 'odds_type', 'odds', 'XHwyRqGF99ab', '未结算', '足球'), ('d0d1d2d30z', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 29), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi025', '2串1', '复式串关', '杜鑫test账号az', 'odds_type', 'odds', 'XHwyQ3rDrA6S', '未结算', '足球'), ('d0d1d2d31b', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 25), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi027', '6串1', '串关', '杜鑫test账号bb', 'odds_type', 'odds', 'XHwyNSceRwK2', '未结算', '足球'))]</t>
+  </si>
+  <si>
+    <t>["代理查询[]-SQL查询(('d0d1d2d30c', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 19), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi02', '9串1', '串关', '杜鑫test账号ac', 'odds_type', 'odds', 'XHwPNuS9cRJz', '未结算', '足球'), ('d0d1d2d32i', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 15), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi052', '8串1', '串关', '杜鑫test账号ci', 'odds_type', 'odds', 'XHwPMkawJQm4', '未结算', '足球'), ('d0d1d2d32c', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 11), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi046', '7串1', '串关', '杜鑫test账号cc', 'odds_type', 'odds', 'XHwPLazSv2uk', '未结算', '足球'), ('d0d1d2d31e', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 44, 1), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi030', '5串1', '复式串关', '杜鑫test账号be', 'odds_type', 'odds', 'XHwPH4nC9sYz', '未结算', '足球'), ('d0d1d2d32d', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 48), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi047', '4串1', '复式串关', '杜鑫test账号cd', 'odds_type', 'odds', 'XHwPCSGq3Vwt', '未结算', '足球'), ('d0d1d2d32f', Decimal('200.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 45), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi049', '3串1', '复式串关', '杜鑫test账号cf', 'odds_type', 'odds', 'XHwPBGBfb8sf', '未结算', '足球'), ('d0d1d2d30j', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 41), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi09', '2串1', '复式串关', '杜鑫test账号aj', 'odds_type', 'odds', 'XHwPAxhj928p', '未结算', '足球'), ('d0d1d2d32s', Decimal('50.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 30), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi062', '4串1', '复式串关', '杜鑫test账号cs', 'odds_type', 'odds', 'XHwPwYsD8Rhe', '未结算', '足球'), ('d0d1d2d30m', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 26), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi012', '3串1', '复式串关', '杜鑫test账号am', 'odds_type', 'odds', 'XHwPvMmteY95', '未结算', '足球'), ('d0d1d2d30x', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 22), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi023', '2串1', '复式串关', '杜鑫test账号ax', 'odds_type', 'odds', 'XHwPuBqMakDY', '未结算', '足球'), ('d0d1d2d30x', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 19), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi023', '5串1', '串关', '杜鑫test账号ax', 'odds_type', 'odds', 'XHwPttJm3L5Y', '未结算', '足球'), ('d0d1d2d32w', Decimal('110.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 13), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi066', '4串11', '复式串关', '杜鑫test账号cw', 'odds_type', 'odds', 'XHwPrsp223qL', '未结算', '足球'), ('d0d1d2d32h', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 43, 5), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi051', '2串1', '复式串关', '杜鑫test账号ch', 'odds_type', 'odds', 'XHwPp7Cdw3cU', '未结算', '足球'), ('d0d1d2d30k', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 29), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi010', '7串1', '串关', '杜鑫test账号ak', 'odds_type', 'odds', 'XHwDWTNm2xZJ', '未结算', '足球'), ('d0d1d2d31m', Decimal('570.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 25), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi038', '6串57', '复式串关', '杜鑫test账号bm', 'odds_type', 'odds', 'XHwDVJrkf2Ae', '未结算', '足球'), ('d0d1d2d31c', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 17), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi028', '4串1', '复式串关', '杜鑫test账号bc', 'odds_type', 'odds', 'XHwDTbqX9R2E', '未结算', '足球'), ('d0d1d2d32n', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 15, 6), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi057', '6串1', '串关', '杜鑫test账号cn', 'odds_type', 'odds', 'XHwDPCwPRKf3', '未结算', '足球'), ('d0d1d2d31j', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 43), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi035', '5串1', '串关', '杜鑫test账号bj', 'odds_type', 'odds', 'XHwDGhje6efE', '未结算', '足球'), ('d0d1d2d32w', Decimal('40.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 35), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi066', '3串1', '复式串关', '杜鑫test账号cw', 'odds_type', 'odds', 'XHwDDCZxhZNL', '未结算', '足球'), ('d0d1d2d31d', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 31), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi029', '2串1', '复式串关', '杜鑫test账号bd', 'odds_type', 'odds', 'XHwDCvEC26by', '未结算', '足球'), ('d0d1d2d32z', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 28), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi069', '4串1', '串关', '杜鑫test账号cz', 'odds_type', 'odds', 'XHwDBnEdvMCE', '未结算', '足球'), ('d0d1d2d30h', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 14, 16), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi07', '3串1', '串关', '杜鑫test账号ah', 'odds_type', 'odds', 'XHwDxNJWmMuj', '未结算', '足球'), ('d0d1d2d31q', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 13, 20), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi042', '2串1', '复式串关', '杜鑫test账号bq', 'odds_type', 'odds', 'XHwDdSUnjHWZ', '未结算', '足球'), ('d0d1d2d32a', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 13, 6), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi044', '3串1', '串关', '杜鑫test账号ca', 'odds_type', 'odds', 'XHwD9kXZktsi', '未结算', '足球'), ('d0d1d2d32w', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 13, 2), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi066', '2串1', '串关', '杜鑫test账号cw', 'odds_type', 'odds', 'XHwD8cmU7M6b', '未结算', '足球'), ('d0d1d2d32y', Decimal('260.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 22), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi068', '5串26', '复式串关', '杜鑫test账号cy', 'odds_type', 'odds', 'XHwAQCrYtzZP', '未结算', '足球'), ('d0d1d2d30q', Decimal('50.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 19), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi016', '4串1', '复式串关', '杜鑫test账号aq', 'odds_type', 'odds', 'XHwAPu97BGnn', '未结算', '足球'), ('d0d1d2d32r', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 15), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi061', '3串1', '复式串关', '杜鑫test账号cr', 'odds_type', 'odds', 'XHwANk6HLGcS', '未结算', '足球'), ('d0d1d2d31i', Decimal('100.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6, 11), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi034', '2串1', '复式串关', '杜鑫test账号bi', 'odds_type', 'odds', 'XHwAM46dA3Ep', '未结算', '足球'), ('d0d1d2d31f', Decimal('40.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 6), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi031', '3串1', '复式串关', '杜鑫test账号bf', 'odds_type', 'odds', 'XHwAHxWxiyA8', '未结算', '足球'), ('d0d1d2d32j', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 5, 51), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi053', '4串1', '串关', '杜鑫test账号cj', 'odds_type', 'odds', 'XHwAEL8PKvQT', '未结算', '足球'), ('d0d1d2d30w', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 5, 38), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi022', '3串1', '串关', '杜鑫test账号aw', 'odds_type', 'odds', 'XHwAAwyz67du', '未结算', '足球'), ('d0d1d2d31i', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 56), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi034', '9串1', '串关', '杜鑫test账号bi', 'odds_type', 'odds', 'XHwyYCeJNuDx', '未结算', '足球'), ('d0d1d2d32u', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 48), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi064', '7串1', '串关', '杜鑫test账号cu', 'odds_type', 'odds', 'XHwyWaC2x3bB', '未结算', '足球'), ('d0d1d2d30w', Decimal('570.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 45), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi022', '6串57', '复式串关', '杜鑫test账号aw', 'odds_type', 'odds', 'XHwyUYuABcWv', '未结算', '足球'), ('d0d1d2d32b', Decimal('60.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 41), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi045', '5串1', '复式串关', '杜鑫test账号cb', 'odds_type', 'odds', 'XHwyTPAAShR8', '未结算', '足球'), ('d0d1d2d32o', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 37), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi058', '4串1', '复式串关', '杜鑫test账号co', 'odds_type', 'odds', 'XHwySEiELFJY', '未结算', '足球'), ('d0d1d2d31i', Decimal('200.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 33), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi034', '3串1', '复式串关', '杜鑫test账号bi', 'odds_type', 'odds', 'XHwyRqGF99ab', '未结算', '足球'), ('d0d1d2d30z', Decimal('150.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 29), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi025', '2串1', '复式串关', '杜鑫test账号az', 'odds_type', 'odds', 'XHwyQ3rDrA6S', '未结算', '足球'), ('d0d1d2d31b', Decimal('10.00'), '192.168.10.120', datetime.datetime(2022, 6, 27, 8, 0, 25), 'CNY', '局域网', Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), Decimal('20.00'), 'fceshi027', '6串1', '串关', '杜鑫test账号bb', 'odds_type', 'odds', 'XHwyNSceRwK2', '未结算', '足球'))，比对SQL数据错误，需要比对"]</t>
+  </si>
+  <si>
+    <t>混合串关-注单号查询数据对比</t>
+  </si>
+  <si>
+    <t>总投注-混合串关-子查询(查询其注单号，包含的比赛)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["/betManagement/agent/mixBetOrder","/betManagement/agent/mixBetOrderInfo"]
+</t>
+  </si>
+  <si>
+    <t>[{"account":""},{"orderNo":"XFB6FPtyXDyB"}]</t>
+  </si>
+  <si>
+    <t>orderNo</t>
+  </si>
+  <si>
+    <t>@SELECT order_no,away_team_id,away_team_name,bet_score,home_team_id,home_team_name,market_name,match_time,CASE odds_type WHEN '1' THEN '欧赔' WHEN '2' THEN '港赔' WHEN '3' THEN '马来赔' WHEN '4' THEN '印尼赔' WHEN '5' THEN '美' END AS '赔率',credit_odds,outcome_name,is_live,specifier,CASE sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',tournament_id,tournament_name FROM o_account_order_match WHERE order_no IN(SELECT c.order_no '注单号' FROM o_account_order as c  WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type!=1 GROUP BY c.order_no) ORDER BY create_time DESC</t>
+  </si>
+  <si>
+    <t>tournamentId,sportName</t>
+  </si>
+  <si>
+    <t>测试不通过
+2022-07-19 14:25:14</t>
+  </si>
+  <si>
+    <t>[[], [[('sr:competitor:661', '莫尔德', None, 'sr:competitor:666', '汉坎', '汉坎 大/小', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('1.300'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:2696', 'Torino FC', None, 'sr:competitor:2729', 'AC Monza', '上半场 - 让球', datetime.datetime(2022, 8, 14, 13, 0), '港赔', Decimal('1.020'), '蒙扎 ', 3, 'hcp=0', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:34014', '奥地利', None, 'sr:competitor:7415', '英格兰', '奥地利 大/小', datetime.datetime(2022, 7, 6, 15, 0), '港赔', Decimal('1.110'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:477', '国际欧洲锦标赛，女子'), ('sr:competitor:42366', '伊斯梅利', None, 'sr:competitor:58319', '马哈拉加斯', '伊斯梅利 大/小', datetime.datetime(2022, 6, 28, 13, 0), '港赔', Decimal('0.420'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:808', '埃及足球甲级联赛'), ('sr:competitor:664', 'Lillestrom SK', None, 'sr:competitor:957', 'Kristiansund BK', '大/小', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('1.140'), '大3', 3, 'total=3', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:92923', '丹德农迅雷', None, 'sr:competitor:189013', '埃文代尔', '埃文代尔 大/小', datetime.datetime(2022, 7, 2, 1, 0), '港赔', Decimal('0.480'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:142724', '海德堡联', None, 'sr:competitor:92935', '墨尔本港鲨鱼', '让球', datetime.datetime(2022, 7, 9, 3, 30), '港赔', Decimal('1.190'), '墨尔本港鲨鱼 ', 3, 'hcp=-0.75', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:92931', '欧克莱卡诺', None, 'sr:competitor:189013', '埃文代尔', '欧克莱卡诺 大/小', datetime.datetime(2022, 7, 9, 1, 0), '港赔', Decimal('1.500'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:659', 'Odds BK', None, 'sr:competitor:1163', 'Stroemsgodset IF', 'Odds BK 大/小', datetime.datetime(2022, 7, 9, 12, 0), '港赔', Decimal('1.340'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:2334', 'FK Sochi', None, 'sr:competitor:2319', '莫斯科鱼雷', '上半场 - 莫斯科鱼雷 大/小', datetime.datetime(2022, 7, 17, 8, 0), '港赔', Decimal('1.320'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:1960', '戈伊亚斯GO', None, 'sr:competitor:1973', 'America FC MG', '上半场 - America FC MG 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('0.980'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:94', '格兰森林流浪者', None, 'sr:competitor:47113', '梅尔克舍姆镇', '上半场 - 大/小', datetime.datetime(2022, 6, 28, 14, 45), '港赔', Decimal('0.530'), '大1/1.5', 3, 'total=1.25', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:41099', '格罗塔', None, 'sr:competitor:330117', '唱诗班', '格罗塔 大/小', datetime.datetime(2022, 7, 1, 15, 15), '港赔', Decimal('1.200'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:675', '冰岛甲级联赛'), ('sr:competitor:1981', 'Sao Paulo FC SP', None, 'sr:competitor:7314', 'AC Goianiense GO', '上半场 - AC Goianiense GO 大/小', datetime.datetime(2022, 7, 3, 15, 0), '港赔', Decimal('1.390'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:7044', '卡尔塔吉尼斯', None, 'sr:competitor:6572', '阿拉捷伦瑟', '上半场 - 大/小', datetime.datetime(2022, 6, 30, 22, 0), '港赔', Decimal('0.610'), '大1', 3, 'total=1', '足球', 'sr:tournament:27094', '哥斯达黎加甲级联赛，秋季赛'), ('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '科克本市 大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.820'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:660', '特罗姆瑟', None, 'sr:competitor:661', '莫尔德', '上半场 - 让球', datetime.datetime(2022, 7, 10, 12, 0), '港赔', Decimal('0.650'), '莫尔德 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', '上半场 - 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('0.710'), '大1', 3, 'total=1', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2321', '圣彼得堡泽尼特', None, 'sr:competitor:2338', 'FK Khimki', '上半场 - FK Khimki 大/小', datetime.datetime(2022, 7, 15, 13, 0), '港赔', Decimal('1.800'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:3342', '塔林利瓦迪亚', None, 'sr:competitor:7106', 'FC Kuressaare', '上半场 - 塔林利瓦迪亚 大/小', datetime.datetime(2022, 6, 28, 11, 0), '港赔', Decimal('1.550'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:178', '爱沙尼亚足球甲级联赛'), ('sr:competitor:7121', '科帕沃古', None, 'sr:competitor:5374', '约尔尼', '上半场 - 约尔尼 大/小', datetime.datetime(2022, 6, 30, 14, 30), '港赔', Decimal('0.830'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:675', '冰岛甲级联赛'), ('sr:competitor:1836', 'Ostersunds FK', None, 'sr:competitor:1849', 'Norrby IF', '上半场 - 大/小', datetime.datetime(2022, 6, 28, 13, 0), '港赔', Decimal('0.760'), '大1', 3, 'total=1', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:1960', '戈伊亚斯GO', None, 'sr:competitor:1973', 'America FC MG', 'America FC MG 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('1.170'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:659', 'Odds BK', None, 'sr:competitor:1163', 'Stroemsgodset IF', '上半场 - 让球', datetime.datetime(2022, 7, 9, 12, 0), '港赔', Decimal('1.510'), '斯托姆加斯特 ', 3, 'hcp=-0.5', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '让球', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.710'), '科克本市 ', 3, 'hcp=0.25', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:3146', 'Vissel Kobe', None, 'sr:competitor:21904', 'Sagan Tosu', '上半场 - Vissel Kobe 大/小', datetime.datetime(2022, 7, 2, 6, 30), '港赔', Decimal('1.300'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:1893', '雷克雅未克弗拉姆', None, 'sr:competitor:1900', '凯夫拉维克', '凯夫拉维克 大/小', datetime.datetime(2022, 7, 3, 15, 15), '港赔', Decimal('0.750'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:188', '冰岛足球超级联赛'), ('sr:competitor:475928', '武汉三镇', None, 'sr:competitor:24156', '广州', '上半场 - 让球', datetime.datetime(2022, 6, 30, 5, 30), '港赔', Decimal('0.680'), '广州 ', 3, 'hcp=1.25', '足球', 'sr:tournament:649', '中国超级联赛'), ('sr:competitor:1967', 'CA Paranaense PR', None, 'sr:competitor:1963', 'SE Palmeiras SP', 'CA Paranaense PR 大/小', datetime.datetime(2022, 7, 2, 20, 0), '港赔', Decimal('0.910'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:1984', 'SC克里西乌马', None, 'sr:competitor:2025', 'SP伊图阿诺', '上半场 - SP伊图阿诺 大/小', datetime.datetime(2022, 7, 2, 15, 0), '港赔', Decimal('1.230'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:390', '巴西乙级联赛')], [('sr:competitor:23422', '耶尔文佩', None, 'sr:competitor:2249', '拉迪', '上半场 - 拉迪 大/小', datetime.datetime(2022, 6, 28, 11, 30), '港赔', Decimal('1.300'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:220', '芬兰杯'), ('sr:competitor:312232', '八打灵再也城', None, 'sr:competitor:3327', '柔佛', '上半场 - 八打灵再也城 大/小', datetime.datetime(2022, 6, 28, 9, 0), '港赔', Decimal('2.600'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:1000', '马来西亚超级联赛'), ('sr:competitor:2020', 'Fortaleza EC CE', None, 'sr:competitor:1982', 'Coritiba FC PR', '大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('0.650'), '大1.5/2', 3, 'total=1.75', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:7642', 'Busan I Park', None, 'sr:competitor:676363', 'Chungnam Asan FC', '大/小', datetime.datetime(2022, 7, 3, 5, 0), '港赔', Decimal('1.140'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:41261', '水原', None, 'sr:competitor:7644', '大邱', '让球', datetime.datetime(2022, 7, 3, 6, 0), '港赔', Decimal('1.080'), '大邱 ', 3, 'hcp=-0.5', '足球', 'sr:tournament:410', '韩国K1联赛'), ('sr:competitor:24782', '塔波斯科足球俱乐部', None, 'sr:competitor:6064', '波希米亚1905', '上半场 - 波希米亚1905 大/小', datetime.datetime(2022, 6, 28, 5, 0), '港赔', Decimal('0.450'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛')], [('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '因勒乌德联 大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.770'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:2504', 'Columbus Crew', None, 'sr:competitor:7080', 'Toronto FC', '角球让球', datetime.datetime(2022, 6, 29, 19, 30), '港赔', Decimal('1.130'), '多伦多 ', 3, 'hcp=-0.5', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:664', 'Lillestrom SK', None, 'sr:competitor:957', 'Kristiansund BK', '上半场 - 让球', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('0.880'), '克里斯恬桑德 ', 3, 'hcp=0.25', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:182526', '厄瓜多尔', None, 'sr:competitor:324681', '玻利维亚', '厄瓜多尔 大/小', datetime.datetime(2022, 7, 8, 17, 0), '港赔', Decimal('1.180'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:36571', '国际Copa America, Women'), ('sr:competitor:36839', '防卫者', None, 'sr:competitor:3205', '甘拿斯亚', '上半场 - 让球', datetime.datetime(2022, 7, 2, 19, 30), '港赔', Decimal('0.370'), '甘拿斯亚 ', 3, 'hcp=0.25', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:222968', '阿德萊德奧林匹克', None, 'sr:competitor:137692', '南阿德莱得黑豹', '南阿德莱得黑豹 大/小', datetime.datetime(2022, 7, 2, 1, 30), '港赔', Decimal('0.930'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚')], [('sr:competitor:92018', '湾水市', None, 'sr:competitor:319267', '戈维拉普克罗地亚', '大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('1.420'), '大4', 3, 'total=4', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:34035', '富山胜利', None, 'sr:competitor:38140', '福岛联队', '大/小', datetime.datetime(2022, 7, 2, 4, 0), '港赔', Decimal('1.020'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:659', 'Odds BK', None, 'sr:competitor:1163', 'Stroemsgodset IF', '上半场 - 大/小', datetime.datetime(2022, 7, 9, 12, 0), '港赔', Decimal('1.390'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:2696', 'Torino FC', None, 'sr:competitor:2729', 'AC Monza', '让球', datetime.datetime(2022, 8, 14, 13, 0), '港赔', Decimal('1.040'), '蒙扎 ', 3, 'hcp=0', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:1914', '黄昏', None, 'sr:competitor:1896', '费基尔', '费基尔 大/小', datetime.datetime(2022, 7, 1, 15, 15), '港赔', Decimal('1.330'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:675', '冰岛甲级联赛'), ('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:2333', '喀山鲁宾', '上半场 - 喀山鲁宾 大/小', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('1.180'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛')], [('sr:competitor:1161', '洛辛堡', None, 'sr:competitor:1164', 'Viking FK', '上半场 - 让球', datetime.datetime(2022, 7, 3, 14, 0), '港赔', Decimal('0.500'), '维京 ', 3, 'hcp=0', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:673', 'FK Haugesund', None, 'sr:competitor:862', 'FK Jerv', '上半场 - FK Jerv 大/小', datetime.datetime(2022, 7, 2, 10, 0), '港赔', Decimal('1.070'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:1783', 'Mjallby AIF', None, 'sr:competitor:1764', 'AIK', '上半场 - Mjallby AIF 大/小', datetime.datetime(2022, 7, 2, 9, 0), '港赔', Decimal('2.150'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:40', '瑞典超级联赛'), ('sr:competitor:1972', 'SP瓜拉尼', None, 'sr:competitor:22032', 'AL巴西雷加塔斯', 'SP瓜拉尼 大/小', datetime.datetime(2022, 7, 2, 19, 30), '港赔', Decimal('0.520'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:390', '巴西乙级联赛'), ('sr:competitor:26011', '松本山雅', None, 'sr:competitor:118478', 'Vanraure Hachinohe FC', '松本山雅 大/小', datetime.datetime(2022, 7, 2, 6, 0), '港赔', Decimal('0.990'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:2094', '日本丙级联赛')], [('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:2333', '喀山鲁宾', '上半场 - 让球', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('0.730'), '喀山鲁宾 ', 3, 'hcp=0.25', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:44528', '琉球', None, 'sr:competitor:3139', '东京绿茵', '上半场 - 东京绿茵 大/小', datetime.datetime(2022, 7, 3, 5, 0), '港赔', Decimal('0.690'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:3212', '纽维尔旧生', None, 'sr:competitor:36836', '艾度思维', '上半场 - 大/小', datetime.datetime(2022, 6, 29, 17, 5), '港赔', Decimal('1.510'), '大1/1.5', 3, 'total=1.25', '足球', 'sr:tournament:1024', '阿根廷杯'), ('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.540'), '大2.5/3', 3, 'total=2.75', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:2020', 'Fortaleza EC CE', None, 'sr:competitor:1982', 'Coritiba FC PR', '上半场 - Coritiba FC PR 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('1.350'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛')], [('sr:competitor:7476', '史克德二队', None, 'sr:competitor:282655', '基奥罗迪二队', '让球', datetime.datetime(2022, 6, 28, 13, 0), '港赔', Decimal('1.050'), '基奥罗迪二队 ', 3, 'hcp=0', '足球', 'sr:tournament:24642', '挪威丙级联赛第1组'), ('sr:competitor:79883', '长野帕塞罗', None, 'sr:competitor:190658', 'SC相模原', 'SC相模原 大/小', datetime.datetime(2022, 7, 2, 5, 0), '港赔', Decimal('1.500'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:41618', 'Minnesota United FC', None, 'sr:competitor:2513', 'Los Angeles Galaxy', '让球', datetime.datetime(2022, 6, 29, 22, 30), '港赔', Decimal('1.320'), '洛杉矶银河 ', 3, 'hcp=-1', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2350', 'Dunfermline Athletic FC', None, 'sr:competitor:2375', 'Forfar Athletic FC', '上半场 - Forfar Athletic FC 大/小', datetime.datetime(2022, 6, 28, 14, 30), '港赔', Decimal('1.160'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:34014', '奥地利', None, 'sr:competitor:7415', '英格兰', '上半场 - 英格兰 大/小', datetime.datetime(2022, 7, 6, 15, 0), '港赔', Decimal('1.320'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:477', '国际欧洲锦标赛，女子')], [('sr:competitor:7422', '挪威', None, 'sr:competitor:7414', '丹麦', '让球', datetime.datetime(2022, 6, 29, 12, 0), '港赔', Decimal('1.310'), '丹麦 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:852', '国际友谊赛，女子'), ('sr:competitor:2701', 'Hellas Verona', None, 'sr:competitor:2685', 'Bologna FC', '上半场 - 大/小', datetime.datetime(2022, 8, 21, 9, 0), '港赔', Decimal('0.880'), '大1', 3, 'total=1', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:66440', '沧州雄狮', None, 'sr:competitor:245357', '梅州客家', '上半场 - 让球', datetime.datetime(2022, 6, 29, 4, 30), '港赔', Decimal('1.280'), '梅州客家 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:649', '中国超级联赛'), ('sr:competitor:1957', 'SC Corinthians SP', None, 'sr:competitor:1961', 'Fluminense FC RJ', '上半场 - 大/小', datetime.datetime(2022, 7, 2, 15, 30), '港赔', Decimal('0.610'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:3216', '小阿根廷人', None, 'sr:competitor:65676', '科尔多瓦中央队', '上半场 - 科尔多瓦中央队 大/小', datetime.datetime(2022, 7, 1, 18, 0), '港赔', Decimal('1.290'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛')], [('sr:competitor:7643', 'Jeonnam Dragons', None, 'sr:competitor:191070', 'Seoul E-Land FC', 'Jeonnam Dragons 大/小', datetime.datetime(2022, 7, 3, 7, 0), '港赔', Decimal('0.460'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:26011', '松本山雅', None, 'sr:competitor:118478', 'Vanraure Hachinohe FC', 'Vanraure Hachinohe FC 大/小', datetime.datetime(2022, 7, 2, 6, 0), '港赔', Decimal('0.490'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:5130', '大宫松鼠', None, 'sr:competitor:44519', '盛冈仙鹤', '上半场 - 大/小', datetime.datetime(2022, 7, 2, 5, 0), '港赔', Decimal('0.610'), '大0.5/1', 3, 'total=0.75', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:1891', 'Kalmar FF', None, 'sr:competitor:1890', '赫尔辛堡', 'Kalmar FF 大/小', datetime.datetime(2022, 7, 2, 11, 30), '港赔', Decimal('1.050'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:40', '瑞典超级联赛')], [('sr:competitor:1891', 'Kalmar FF', None, 'sr:competitor:1890', '赫尔辛堡', '大/小', datetime.datetime(2022, 7, 2, 11, 30), '港赔', Decimal('0.880'), '大2/2.5', 3, 'total=2.25', '足球', 'sr:tournament:40', '瑞典超级联赛'), ('sr:competitor:7653', 'Ulsan Hyundai FC', None, 'sr:competitor:7650', '浦项制铁', 'Ulsan Hyundai FC 大/小', datetime.datetime(2022, 7, 2, 6, 0), '港赔', Decimal('1.300'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:410', '韩国K1联赛'), ('sr:competitor:2530', 'Schalke 04', None, 'sr:competitor:2671', '科隆', '上半场 - 大/小', datetime.datetime(2022, 8, 6, 9, 30), '港赔', Decimal('1.280'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:35', '德国足球甲级联赛'), ('sr:competitor:1949', 'Atlas FC', None, 'sr:competitor:1939', 'CF America', '上半场 - Atlas FC 大/小', datetime.datetime(2022, 7, 2, 22, 5), '港赔', Decimal('1.600'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:27464', '墨西哥甲级联赛，春季赛')], [('sr:competitor:22007', 'Portland Timbers', None, 'sr:competitor:668063', 'Nashville SC', '让球', datetime.datetime(2022, 7, 3, 20, 30), '港赔', Decimal('1.230'), '纳什维尔SC ', 3, 'hcp=-0.75', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2317', '沃罗涅日火炬II队', None, 'sr:competitor:34425', 'FK Krasnodar', 'FK Krasnodar 赢任何半场', datetime.datetime(2022, 7, 17, 13, 0), '欧赔', Decimal('2.800'), '不是', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:1984', 'SC克里西乌马', None, 'sr:competitor:2025', 'SP伊图阿诺', '双重机会&amp;大/小', datetime.datetime(2022, 7, 2, 15, 0), '欧赔', Decimal('20.950'), 'SP伊图阿诺/和局 &amp; 大 4.5', 3, 'total=4.5', '足球', 'sr:tournament:390', '巴西乙级联赛'), ('sr:competitor:3198', '亚隆城', None, 'sr:competitor:7128', '韦克斯福德', '韦克斯福德 胜利退款', datetime.datetime(2022, 7, 1, 14, 45), '欧赔', Decimal('1.710'), '和局', 3, '', '足球', 'sr:tournament:193', '爱尔兰甲级联赛'), ('sr:competitor:245305', 'FC Cincinnati', None, 'sr:competitor:2511', 'New England Revolution', '上半场 - 让球', datetime.datetime(2022, 7, 3, 19, 30), '港赔', Decimal('0.690'), '新英格兰革命 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:5981', '法林明高RJ', None, 'sr:competitor:6111', '托利马', '托利马 进球数', datetime.datetime(2022, 6, 29, 20, 30), '欧赔', Decimal('9.750'), '3+', 3, 'variant=sr:exact_goals:3+', '足球', 'sr:tournament:384', '国际俱乐部解放者杯'), ('sr:competitor:2508', 'Houston Dynamo', None, 'sr:competitor:22007', 'Portland Timbers', 'Houston Dynamo 不失球', datetime.datetime(2022, 6, 29, 22, 30), '欧赔', Decimal('1.160'), '不是', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟')], [('sr:competitor:1967', 'CA Paranaense PR', None, 'sr:competitor:1963', 'SE Palmeiras SP', 'CA Paranaense PR 大/小', datetime.datetime(2022, 7, 2, 20, 0), '港赔', Decimal('0.910'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:49936', '大连人', None, 'sr:competitor:3375', '广州城', '上半场 - 平局退款', datetime.datetime(2022, 6, 28, 7, 30), '欧赔', Decimal('1.440'), '大连人', 3, '', '足球', 'sr:tournament:649', '中国超级联赛'), ('sr:competitor:3359', '佐迪诺鱼雷', None, 'sr:competitor:3349', 'FC Gomel', '第1个进球', datetime.datetime(2022, 6, 29, 13, 0), '欧赔', Decimal('2.070'), '佐迪诺鱼雷', 3, 'goalnr=1', '足球', 'sr:tournament:169', '白俄罗斯足球超级联赛'), ('sr:competitor:40896', '科克城', None, 'sr:competitor:3171', '布雷', '布雷 进球数', datetime.datetime(2022, 7, 1, 14, 45), '欧赔', Decimal('2.500'), '1', 3, 'variant=sr:exact_goals:3+', '足球', 'sr:tournament:193', '爱尔兰甲级联赛'), ('sr:competitor:664', 'Lillestrom SK', None, 'sr:competitor:957', 'Kristiansund BK', 'Kristiansund BK 大/小', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('0.370'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:212844', 'FK Nizhny Novgorod', None, 'sr:competitor:2320', 'Lokomotiv Moscow', '双重机会', datetime.datetime(2022, 7, 17, 10, 30), '欧赔', Decimal('1.270'), '莫斯科火车头 或和局', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛')], [('sr:competitor:92036', '阿马达尔', None, 'sr:competitor:42505', '巴尔卡塔', '单/双', datetime.datetime(2022, 7, 2, 3, 0), '欧赔', Decimal('1.840'), '单', 3, '', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:7643', 'Jeonnam Dragons', None, 'sr:competitor:191070', 'Seoul E-Land FC', 'Seoul E-Land FC 最高进球数半场', datetime.datetime(2022, 7, 3, 7, 0), '欧赔', Decimal('3.500'), '上半场', 3, '', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:1957', 'SC Corinthians SP', None, 'sr:competitor:1961', 'Fluminense FC RJ', '上半场 - SC Corinthians SP 不失球', datetime.datetime(2022, 7, 2, 15, 30), '欧赔', Decimal('1.540'), '是', 3, '', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:5130', '大宫松鼠', None, 'sr:competitor:44519', '盛冈仙鹤', '大宫松鼠 不失球获胜', datetime.datetime(2022, 7, 2, 5, 0), '欧赔', Decimal('1.220'), '不是', 3, '', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:2598', '艾禾斯堡', None, 'sr:competitor:2576', 'SV Darmstadt 98', '艾禾斯堡 大/小', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('0.490'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:3359', '佐迪诺鱼雷', None, 'sr:competitor:3349', 'FC Gomel', '上半场 - 双重机会&amp;两队都进球', datetime.datetime(2022, 6, 29, 13, 0), '欧赔', Decimal('7.750'), '戈梅利/和局 &amp; 是', 3, '', '足球', 'sr:tournament:169', '白俄罗斯足球超级联赛')], [('sr:competitor:2729', 'AC Monza', None, 'sr:competitor:2714', 'SSC Napoli', '大/小', datetime.datetime(2022, 8, 21, 9, 0), '港赔', Decimal('0.680'), '大2.5/3', 3, 'total=2.75', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:22486', '奥地利', None, 'sr:competitor:22558', '斯洛伐克', '上半场 - 双重机会', datetime.datetime(2022, 6, 28, 11, 0), '欧赔', Decimal('1.740'), '斯洛伐克 或 奥地利', 3, '', '足球', 'sr:tournament:258', '国际青年U19欧洲锦标赛'), ('sr:competitor:1958', 'RJ博塔弗戈', None, 'sr:competitor:1999', 'Red Bull Bragantino SP', '上半场 - 双重机会', datetime.datetime(2022, 7, 4, 19, 0), '欧赔', Decimal('1.210'), '布拉甘蒂诺红牛 或和局', 3, '', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:862', 'FK Jerv', None, 'sr:competitor:1161', '洛辛堡', '总入球', datetime.datetime(2022, 7, 10, 12, 0), '欧赔', Decimal('28.950'), '7+', 3, 'variant=sr:goal_range:7+', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:1777', 'IK Brage', None, 'sr:competitor:1775', 'Vasteras SK', '上半场 - IK Brage 大/小', datetime.datetime(2022, 7, 3, 7, 0), '港赔', Decimal('0.870'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:79907', '今治足球俱乐部', None, 'sr:competitor:21900', 'FC岐埠', '平局退款', datetime.datetime(2022, 7, 3, 6, 0), '欧赔', Decimal('1.490'), 'FC岐埠', 3, '', '足球', 'sr:tournament:2094', '日本丙级联赛')], [('sr:competitor:222968', '阿德萊德奧林匹克', None, 'sr:competitor:137692', '南阿德莱得黑豹', '南阿德莱得黑豹 不失球获胜', datetime.datetime(2022, 7, 2, 1, 30), '欧赔', Decimal('1.090'), '不是', 3, '', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚'), ('sr:competitor:1836', 'Ostersunds FK', None, 'sr:competitor:1849', 'Norrby IF', '两队都进球', datetime.datetime(2022, 6, 28, 13, 0), '欧赔', Decimal('1.930'), '是', 3, '', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:3146', 'Vissel Kobe', None, 'sr:competitor:21904', 'Sagan Tosu', '波胆', datetime.datetime(2022, 7, 2, 6, 30), '欧赔', Decimal('99.950'), '4:1', 3, '', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:7529', 'FK Ural Yekaterinburg', None, 'sr:competitor:2325', 'CSKA Moscow', '净胜球数', datetime.datetime(2022, 7, 16, 8, 0), '欧赔', Decimal('3.550'), '莫斯科中央陆军 1', 3, 'variant=sr:winning_margin:3+', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:1161', '洛辛堡', None, 'sr:competitor:1164', 'Viking FK', '上半场 - 让球', datetime.datetime(2022, 7, 3, 14, 0), '港赔', Decimal('1.010'), '维京 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', 'New York City FC 赢任何半场', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('1.380'), '是', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2241', '坦佩雷联', None, 'sr:competitor:22388', 'KaaPo', 'KaaPo 不失球获胜', datetime.datetime(2022, 6, 28, 12, 0), '欧赔', Decimal('1.040'), '不是', 3, '', '足球', 'sr:tournament:180', '芬兰乙级联赛，B组'), ('sr:competitor:240776', '阿德莱德联(青年)', None, 'sr:competitor:222968', '阿德萊德奧林匹克', '大/小 &amp; 两队都进球', datetime.datetime(2022, 6, 29, 7, 0), '欧赔', Decimal('8.550'), '大 2.5 &amp; 不是', 3, 'total=2.5', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚'), ('sr:competitor:3170', '德利城', None, 'sr:competitor:3173', '布咸美恩斯', '德利城 大/小', datetime.datetime(2022, 7, 1, 14, 45), '港赔', Decimal('1.040'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:192', '爱尔兰足球超级联赛')], [('sr:competitor:1960', '戈伊亚斯GO', None, 'sr:competitor:1973', 'America FC MG', '上半场 - 两队都进球', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('4.950'), '是', 3, '', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:32675', '安阳FC', None, 'sr:competitor:319507', '安山木槿花足球俱乐部', '波胆', datetime.datetime(2022, 7, 2, 5, 0), '欧赔', Decimal('100.950'), '4:3', 3, '', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:38141', '鸟取飞翔', None, 'sr:competitor:312642', '沼津青蓝', '波胆', datetime.datetime(2022, 7, 2, 2, 0), '欧赔', Decimal('9.750'), '2:0', 3, '', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:2556', '美因茨05', None, 'sr:competitor:2542', 'VfL Bochum', '上半场 - VfL Bochum 大/小', datetime.datetime(2022, 8, 6, 9, 30), '港赔', Decimal('1.280'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:35', '德国足球甲级联赛')], [('sr:competitor:2598', '艾禾斯堡', None, 'sr:competitor:2576', 'SV Darmstadt 98', 'SV Darmstadt 98 大/小', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('0.830'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:151492', '阿东那', None, 'sr:competitor:243494', '丹德农城', '单/双', datetime.datetime(2022, 7, 9, 2, 45), '欧赔', Decimal('1.760'), '双', 3, '', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:3216', '小阿根廷人', None, 'sr:competitor:65676', '科尔多瓦中央队', '科尔多瓦中央队 两个半场都进球', datetime.datetime(2022, 7, 1, 18, 0), '欧赔', Decimal('1.160'), '不是', 3, '', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:2693', '佛罗伦萨', None, 'sr:competitor:2705', '恩波利', '恩波利 不失球', datetime.datetime(2022, 8, 21, 9, 0), '欧赔', Decimal('4.050'), '是', 3, '', '足球', 'sr:tournament:23', '意大利甲级联赛')], [('sr:competitor:22521', '以色列', None, 'sr:competitor:22509', '法国', '以色列 不失球获胜', datetime.datetime(2022, 6, 28, 14, 0), '欧赔', Decimal('8.150'), '是', 3, '', '足球', 'sr:tournament:258', '国际青年U19欧洲锦标赛'), ('sr:competitor:1777', 'IK Brage', None, 'sr:competitor:1775', 'Vasteras SK', 'Vasteras SK 两个半场都进球', datetime.datetime(2022, 7, 3, 7, 0), '欧赔', Decimal('1.290'), '不是', 3, '', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:957', 'Kristiansund BK', None, 'sr:competitor:1165', '瓦勒伦加', '上半场 - 波胆', datetime.datetime(2022, 7, 10, 12, 0), '欧赔', Decimal('9.150'), '2:0', 3, '', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:661', '莫尔德', None, 'sr:competitor:666', '汉坎', '双重机会&amp;两队都进球', datetime.datetime(2022, 7, 3, 12, 0), '欧赔', Decimal('2.550'), '汉坎/和局 &amp; 是', 3, '', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:3134', 'Kashima Antlers', None, 'sr:competitor:3140', 'Kashiwa Reysol', '最高进球数半场', datetime.datetime(2022, 7, 2, 5, 30), '欧赔', Decimal('2.000'), '下半场', 3, '', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:607728', '阿美尼亚诺体育', None, 'sr:competitor:36439', '美洲太阳', '美洲太阳 胜利退款', datetime.datetime(2022, 7, 2, 16, 0), '欧赔', Decimal('1.610'), '和局', 3, '', '足球', 'sr:tournament:27098', '巴拉圭甲级联赛，春季赛'), ('sr:competitor:2598', '艾禾斯堡', None, 'sr:competitor:2576', 'SV Darmstadt 98', 'SV Darmstadt 98 两个半场都进球', datetime.datetime(2022, 6, 28, 8, 0), '欧赔', Decimal('1.690'), '是', 3, '', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛')], [('sr:competitor:3134', 'Kashima Antlers', None, 'sr:competitor:3140', 'Kashiwa Reysol', '上半场 - 独赢 &amp; 大/小', datetime.datetime(2022, 7, 2, 5, 30), '欧赔', Decimal('5.750'), '柏雷素尔 &amp; 小 1.5', 3, 'total=1.5', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:863473', 'Charlotte FC', None, 'sr:competitor:2508', 'Houston Dynamo', 'Houston Dynamo 单/双', datetime.datetime(2022, 7, 3, 20, 30), '欧赔', Decimal('1.770'), '双', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:212844', 'FK Nizhny Novgorod', None, 'sr:competitor:2320', 'Lokomotiv Moscow', '平局退款', datetime.datetime(2022, 7, 17, 10, 30), '欧赔', Decimal('1.320'), '莫斯科火车头', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛')], [('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:2333', '喀山鲁宾', '萨马拉苏维埃之翼足球俱乐部 两个半场都进球', datetime.datetime(2022, 6, 28, 8, 0), '欧赔', Decimal('2.700'), '是', 3, '', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:1161', '洛辛堡', None, 'sr:competitor:1164', 'Viking FK', '洛辛堡 赢两个半场', datetime.datetime(2022, 7, 3, 14, 0), '欧赔', Decimal('8.350'), '是', 3, '', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:36833', '图库曼体育会', None, 'sr:competitor:3208', '沙士菲', '两个半场 大1.5', datetime.datetime(2022, 7, 2, 17, 0), '欧赔', Decimal('6.150'), '是', 3, 'total=1.5', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:34015', '威尔士', None, 'sr:competitor:7419', '新西兰', '总入球', datetime.datetime(2022, 6, 28, 13, 0), '欧赔', Decimal('3.950'), '0-1', 3, 'variant=sr:goal_range:7+', '足球', 'sr:tournament:852', '国际友谊赛，女子'), ('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', 'New York City FC 不失球', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('2.500'), '是', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:38096', '立陶宛', None, 'sr:competitor:38098', '摩尔多瓦', '哪队进球', datetime.datetime(2022, 6, 28, 11, 0), '欧赔', Decimal('13.950'), '无', 3, '', '足球', 'sr:tournament:780', '国际世界锦标赛欧洲区女子预选赛'), ('sr:competitor:5128', '新泻天鹅', None, 'sr:competitor:21906', '草津温泉群马', '最后进球的球队', datetime.datetime(2022, 7, 2, 6, 30), '欧赔', Decimal('9.150'), '无', 3, '', '足球', 'sr:tournament:402', '日本乙级联赛')], [('sr:competitor:2692', 'AC Milan', None, 'sr:competitor:2686', 'Atalanta BC', '独赢 &amp; 大/小', datetime.datetime(2022, 8, 21, 9, 0), '欧赔', Decimal('7.350'), '阿特兰大 &amp; 大 3.5', 3, 'total=3.5', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:90874', '坎贝尔市体育馆', None, 'sr:competitor:222542', '斯图特狮子', '独赢 &amp; 大/小', datetime.datetime(2022, 7, 2, 1, 30), '欧赔', Decimal('8.550'), '斯图特狮子 &amp; 大 3.5', 3, 'total=3.5', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚'), ('sr:competitor:38103', '瑞士', None, 'sr:competitor:22027', '葡萄牙', '哪队进球', datetime.datetime(2022, 7, 9, 12, 0), '欧赔', Decimal('17.950'), '无', 3, '', '足球', 'sr:tournament:477', '国际欧洲锦标赛，女子'), ('sr:competitor:7648', '仁川联队', None, 'sr:competitor:7652', '水原三星', '仁川联队 赢任何半场', datetime.datetime(2022, 7, 3, 6, 30), '欧赔', Decimal('1.910'), '是', 3, '', '足球', 'sr:tournament:410', '韩国K1联赛'), ('sr:competitor:3216', '小阿根廷人', None, 'sr:competitor:65676', '科尔多瓦中央队', '上半场 - 总入球 ', datetime.datetime(2022, 7, 1, 18, 0), '欧赔', Decimal('2.500'), '1', 3, 'variant=sr:exact_goals:3+', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛')], [('sr:competitor:3219', '班菲特', None, 'sr:competitor:3202', '小保加', '哪队进球', datetime.datetime(2022, 7, 1, 20, 30), '欧赔', Decimal('2.750'), '仅 小保加', 3, '', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:24118', '奥伦堡', '独赢', datetime.datetime(2022, 7, 16, 10, 30), '欧赔', Decimal('2.500'), '奥伦堡', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:7411', '巴西', None, 'sr:competitor:7423', '瑞典', '瑞典 单/双', datetime.datetime(2022, 6, 28, 12, 30), '欧赔', Decimal('1.890'), '单', 3, '', '足球', 'sr:tournament:852', '国际友谊赛，女子'), ('sr:competitor:3146', 'Vissel Kobe', None, 'sr:competitor:21904', 'Sagan Tosu', 'Sagan Tosu 胜利退款', datetime.datetime(2022, 7, 2, 6, 30), '欧赔', Decimal('1.900'), '和局', 3, '', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:1758', 'Hammarby IF', None, 'sr:competitor:1759', 'Djurgardens IF', '两个半场 小1.5', datetime.datetime(2022, 7, 3, 9, 0), '欧赔', Decimal('1.450'), '不是', 3, 'total=1.5', '足球', 'sr:tournament:40', '瑞典超级联赛')], [('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', '双重机会', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('1.320'), '纽约城 或 亚特兰大联', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:26011', '松本山雅', None, 'sr:competitor:118478', 'Vanraure Hachinohe FC', '双重机会', datetime.datetime(2022, 7, 2, 6, 0), '欧赔', Decimal('2.000'), 'Vanraure Hachinohe FC 或和局', 3, '', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:182526', '厄瓜多尔', None, 'sr:competitor:324681', '玻利维亚', '玻利维亚 单/双', datetime.datetime(2022, 7, 8, 17, 0), '欧赔', Decimal('1.590'), '双', 3, '', '足球', 'sr:tournament:36571', '国际Copa America, Women'), ('sr:competitor:40896', '科克城', None, 'sr:competitor:3171', '布雷', '第1个进球', datetime.datetime(2022, 7, 1, 14, 45), '欧赔', Decimal('3.200'), '布雷', 3, 'goalnr=1', '足球', 'sr:tournament:193', '爱尔兰甲级联赛'), ('sr:competitor:151492', '阿东那', None, 'sr:competitor:243494', '丹德农城', '阿东那 不失球获胜', datetime.datetime(2022, 7, 9, 2, 45), '欧赔', Decimal('1.210'), '不是', 3, '', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚')], [('sr:competitor:92539', '富川FC', None, 'sr:competitor:7653', 'Ulsan Hyundai FC', '哪队晋级', datetime.datetime(2022, 6, 29, 6, 0), '欧赔', Decimal('1.100'), '蔚山现代', 3, '', '足球', 'sr:tournament:615', '韩国足协杯'), ('sr:competitor:7061', '横滨', None, 'sr:competitor:21901', 'Mito Hollyhock', '第1个进球', datetime.datetime(2022, 7, 2, 5, 0), '欧赔', Decimal('1.950'), '横滨', 3, 'goalnr=1', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:1960', '戈伊亚斯G</t>
+  </si>
+  <si>
+    <t>["代理查询[]-SQL查询[[('sr:competitor:661', '莫尔德', None, 'sr:competitor:666', '汉坎', '汉坎 大/小', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('1.300'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:2696', 'Torino FC', None, 'sr:competitor:2729', 'AC Monza', '上半场 - 让球', datetime.datetime(2022, 8, 14, 13, 0), '港赔', Decimal('1.020'), '蒙扎 ', 3, 'hcp=0', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:34014', '奥地利', None, 'sr:competitor:7415', '英格兰', '奥地利 大/小', datetime.datetime(2022, 7, 6, 15, 0), '港赔', Decimal('1.110'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:477', '国际欧洲锦标赛，女子'), ('sr:competitor:42366', '伊斯梅利', None, 'sr:competitor:58319', '马哈拉加斯', '伊斯梅利 大/小', datetime.datetime(2022, 6, 28, 13, 0), '港赔', Decimal('0.420'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:808', '埃及足球甲级联赛'), ('sr:competitor:664', 'Lillestrom SK', None, 'sr:competitor:957', 'Kristiansund BK', '大/小', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('1.140'), '大3', 3, 'total=3', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:92923', '丹德农迅雷', None, 'sr:competitor:189013', '埃文代尔', '埃文代尔 大/小', datetime.datetime(2022, 7, 2, 1, 0), '港赔', Decimal('0.480'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:142724', '海德堡联', None, 'sr:competitor:92935', '墨尔本港鲨鱼', '让球', datetime.datetime(2022, 7, 9, 3, 30), '港赔', Decimal('1.190'), '墨尔本港鲨鱼 ', 3, 'hcp=-0.75', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:92931', '欧克莱卡诺', None, 'sr:competitor:189013', '埃文代尔', '欧克莱卡诺 大/小', datetime.datetime(2022, 7, 9, 1, 0), '港赔', Decimal('1.500'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:659', 'Odds BK', None, 'sr:competitor:1163', 'Stroemsgodset IF', 'Odds BK 大/小', datetime.datetime(2022, 7, 9, 12, 0), '港赔', Decimal('1.340'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:2334', 'FK Sochi', None, 'sr:competitor:2319', '莫斯科鱼雷', '上半场 - 莫斯科鱼雷 大/小', datetime.datetime(2022, 7, 17, 8, 0), '港赔', Decimal('1.320'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:1960', '戈伊亚斯GO', None, 'sr:competitor:1973', 'America FC MG', '上半场 - America FC MG 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('0.980'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:94', '格兰森林流浪者', None, 'sr:competitor:47113', '梅尔克舍姆镇', '上半场 - 大/小', datetime.datetime(2022, 6, 28, 14, 45), '港赔', Decimal('0.530'), '大1/1.5', 3, 'total=1.25', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:41099', '格罗塔', None, 'sr:competitor:330117', '唱诗班', '格罗塔 大/小', datetime.datetime(2022, 7, 1, 15, 15), '港赔', Decimal('1.200'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:675', '冰岛甲级联赛'), ('sr:competitor:1981', 'Sao Paulo FC SP', None, 'sr:competitor:7314', 'AC Goianiense GO', '上半场 - AC Goianiense GO 大/小', datetime.datetime(2022, 7, 3, 15, 0), '港赔', Decimal('1.390'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:7044', '卡尔塔吉尼斯', None, 'sr:competitor:6572', '阿拉捷伦瑟', '上半场 - 大/小', datetime.datetime(2022, 6, 30, 22, 0), '港赔', Decimal('0.610'), '大1', 3, 'total=1', '足球', 'sr:tournament:27094', '哥斯达黎加甲级联赛，秋季赛'), ('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '科克本市 大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.820'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:660', '特罗姆瑟', None, 'sr:competitor:661', '莫尔德', '上半场 - 让球', datetime.datetime(2022, 7, 10, 12, 0), '港赔', Decimal('0.650'), '莫尔德 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', '上半场 - 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('0.710'), '大1', 3, 'total=1', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2321', '圣彼得堡泽尼特', None, 'sr:competitor:2338', 'FK Khimki', '上半场 - FK Khimki 大/小', datetime.datetime(2022, 7, 15, 13, 0), '港赔', Decimal('1.800'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:3342', '塔林利瓦迪亚', None, 'sr:competitor:7106', 'FC Kuressaare', '上半场 - 塔林利瓦迪亚 大/小', datetime.datetime(2022, 6, 28, 11, 0), '港赔', Decimal('1.550'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:178', '爱沙尼亚足球甲级联赛'), ('sr:competitor:7121', '科帕沃古', None, 'sr:competitor:5374', '约尔尼', '上半场 - 约尔尼 大/小', datetime.datetime(2022, 6, 30, 14, 30), '港赔', Decimal('0.830'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:675', '冰岛甲级联赛'), ('sr:competitor:1836', 'Ostersunds FK', None, 'sr:competitor:1849', 'Norrby IF', '上半场 - 大/小', datetime.datetime(2022, 6, 28, 13, 0), '港赔', Decimal('0.760'), '大1', 3, 'total=1', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:1960', '戈伊亚斯GO', None, 'sr:competitor:1973', 'America FC MG', 'America FC MG 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('1.170'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:659', 'Odds BK', None, 'sr:competitor:1163', 'Stroemsgodset IF', '上半场 - 让球', datetime.datetime(2022, 7, 9, 12, 0), '港赔', Decimal('1.510'), '斯托姆加斯特 ', 3, 'hcp=-0.5', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '让球', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.710'), '科克本市 ', 3, 'hcp=0.25', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:3146', 'Vissel Kobe', None, 'sr:competitor:21904', 'Sagan Tosu', '上半场 - Vissel Kobe 大/小', datetime.datetime(2022, 7, 2, 6, 30), '港赔', Decimal('1.300'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:1893', '雷克雅未克弗拉姆', None, 'sr:competitor:1900', '凯夫拉维克', '凯夫拉维克 大/小', datetime.datetime(2022, 7, 3, 15, 15), '港赔', Decimal('0.750'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:188', '冰岛足球超级联赛'), ('sr:competitor:475928', '武汉三镇', None, 'sr:competitor:24156', '广州', '上半场 - 让球', datetime.datetime(2022, 6, 30, 5, 30), '港赔', Decimal('0.680'), '广州 ', 3, 'hcp=1.25', '足球', 'sr:tournament:649', '中国超级联赛'), ('sr:competitor:1967', 'CA Paranaense PR', None, 'sr:competitor:1963', 'SE Palmeiras SP', 'CA Paranaense PR 大/小', datetime.datetime(2022, 7, 2, 20, 0), '港赔', Decimal('0.910'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:1984', 'SC克里西乌马', None, 'sr:competitor:2025', 'SP伊图阿诺', '上半场 - SP伊图阿诺 大/小', datetime.datetime(2022, 7, 2, 15, 0), '港赔', Decimal('1.230'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:390', '巴西乙级联赛')], [('sr:competitor:23422', '耶尔文佩', None, 'sr:competitor:2249', '拉迪', '上半场 - 拉迪 大/小', datetime.datetime(2022, 6, 28, 11, 30), '港赔', Decimal('1.300'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:220', '芬兰杯'), ('sr:competitor:312232', '八打灵再也城', None, 'sr:competitor:3327', '柔佛', '上半场 - 八打灵再也城 大/小', datetime.datetime(2022, 6, 28, 9, 0), '港赔', Decimal('2.600'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:1000', '马来西亚超级联赛'), ('sr:competitor:2020', 'Fortaleza EC CE', None, 'sr:competitor:1982', 'Coritiba FC PR', '大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('0.650'), '大1.5/2', 3, 'total=1.75', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:7642', 'Busan I Park', None, 'sr:competitor:676363', 'Chungnam Asan FC', '大/小', datetime.datetime(2022, 7, 3, 5, 0), '港赔', Decimal('1.140'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:41261', '水原', None, 'sr:competitor:7644', '大邱', '让球', datetime.datetime(2022, 7, 3, 6, 0), '港赔', Decimal('1.080'), '大邱 ', 3, 'hcp=-0.5', '足球', 'sr:tournament:410', '韩国K1联赛'), ('sr:competitor:24782', '塔波斯科足球俱乐部', None, 'sr:competitor:6064', '波希米亚1905', '上半场 - 波希米亚1905 大/小', datetime.datetime(2022, 6, 28, 5, 0), '港赔', Decimal('0.450'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛')], [('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '因勒乌德联 大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.770'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:2504', 'Columbus Crew', None, 'sr:competitor:7080', 'Toronto FC', '角球让球', datetime.datetime(2022, 6, 29, 19, 30), '港赔', Decimal('1.130'), '多伦多 ', 3, 'hcp=-0.5', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:664', 'Lillestrom SK', None, 'sr:competitor:957', 'Kristiansund BK', '上半场 - 让球', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('0.880'), '克里斯恬桑德 ', 3, 'hcp=0.25', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:182526', '厄瓜多尔', None, 'sr:competitor:324681', '玻利维亚', '厄瓜多尔 大/小', datetime.datetime(2022, 7, 8, 17, 0), '港赔', Decimal('1.180'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:36571', '国际Copa America, Women'), ('sr:competitor:36839', '防卫者', None, 'sr:competitor:3205', '甘拿斯亚', '上半场 - 让球', datetime.datetime(2022, 7, 2, 19, 30), '港赔', Decimal('0.370'), '甘拿斯亚 ', 3, 'hcp=0.25', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:222968', '阿德萊德奧林匹克', None, 'sr:competitor:137692', '南阿德莱得黑豹', '南阿德莱得黑豹 大/小', datetime.datetime(2022, 7, 2, 1, 30), '港赔', Decimal('0.930'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚')], [('sr:competitor:92018', '湾水市', None, 'sr:competitor:319267', '戈维拉普克罗地亚', '大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('1.420'), '大4', 3, 'total=4', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:34035', '富山胜利', None, 'sr:competitor:38140', '福岛联队', '大/小', datetime.datetime(2022, 7, 2, 4, 0), '港赔', Decimal('1.020'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:659', 'Odds BK', None, 'sr:competitor:1163', 'Stroemsgodset IF', '上半场 - 大/小', datetime.datetime(2022, 7, 9, 12, 0), '港赔', Decimal('1.390'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:2696', 'Torino FC', None, 'sr:competitor:2729', 'AC Monza', '让球', datetime.datetime(2022, 8, 14, 13, 0), '港赔', Decimal('1.040'), '蒙扎 ', 3, 'hcp=0', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:1914', '黄昏', None, 'sr:competitor:1896', '费基尔', '费基尔 大/小', datetime.datetime(2022, 7, 1, 15, 15), '港赔', Decimal('1.330'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:675', '冰岛甲级联赛'), ('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:2333', '喀山鲁宾', '上半场 - 喀山鲁宾 大/小', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('1.180'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛')], [('sr:competitor:1161', '洛辛堡', None, 'sr:competitor:1164', 'Viking FK', '上半场 - 让球', datetime.datetime(2022, 7, 3, 14, 0), '港赔', Decimal('0.500'), '维京 ', 3, 'hcp=0', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:673', 'FK Haugesund', None, 'sr:competitor:862', 'FK Jerv', '上半场 - FK Jerv 大/小', datetime.datetime(2022, 7, 2, 10, 0), '港赔', Decimal('1.070'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:1783', 'Mjallby AIF', None, 'sr:competitor:1764', 'AIK', '上半场 - Mjallby AIF 大/小', datetime.datetime(2022, 7, 2, 9, 0), '港赔', Decimal('2.150'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:40', '瑞典超级联赛'), ('sr:competitor:1972', 'SP瓜拉尼', None, 'sr:competitor:22032', 'AL巴西雷加塔斯', 'SP瓜拉尼 大/小', datetime.datetime(2022, 7, 2, 19, 30), '港赔', Decimal('0.520'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:390', '巴西乙级联赛'), ('sr:competitor:26011', '松本山雅', None, 'sr:competitor:118478', 'Vanraure Hachinohe FC', '松本山雅 大/小', datetime.datetime(2022, 7, 2, 6, 0), '港赔', Decimal('0.990'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:2094', '日本丙级联赛')], [('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:2333', '喀山鲁宾', '上半场 - 让球', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('0.730'), '喀山鲁宾 ', 3, 'hcp=0.25', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:44528', '琉球', None, 'sr:competitor:3139', '东京绿茵', '上半场 - 东京绿茵 大/小', datetime.datetime(2022, 7, 3, 5, 0), '港赔', Decimal('0.690'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:3212', '纽维尔旧生', None, 'sr:competitor:36836', '艾度思维', '上半场 - 大/小', datetime.datetime(2022, 6, 29, 17, 5), '港赔', Decimal('1.510'), '大1/1.5', 3, 'total=1.25', '足球', 'sr:tournament:1024', '阿根廷杯'), ('sr:competitor:92028', '因勒乌德联', None, 'sr:competitor:92022', '科克本市', '大/小', datetime.datetime(2022, 7, 2, 3, 0), '港赔', Decimal('0.540'), '大2.5/3', 3, 'total=2.75', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:2020', 'Fortaleza EC CE', None, 'sr:competitor:1982', 'Coritiba FC PR', '上半场 - Coritiba FC PR 大/小', datetime.datetime(2022, 7, 3, 17, 0), '港赔', Decimal('1.350'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛')], [('sr:competitor:7476', '史克德二队', None, 'sr:competitor:282655', '基奥罗迪二队', '让球', datetime.datetime(2022, 6, 28, 13, 0), '港赔', Decimal('1.050'), '基奥罗迪二队 ', 3, 'hcp=0', '足球', 'sr:tournament:24642', '挪威丙级联赛第1组'), ('sr:competitor:79883', '长野帕塞罗', None, 'sr:competitor:190658', 'SC相模原', 'SC相模原 大/小', datetime.datetime(2022, 7, 2, 5, 0), '港赔', Decimal('1.500'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:41618', 'Minnesota United FC', None, 'sr:competitor:2513', 'Los Angeles Galaxy', '让球', datetime.datetime(2022, 6, 29, 22, 30), '港赔', Decimal('1.320'), '洛杉矶银河 ', 3, 'hcp=-1', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2350', 'Dunfermline Athletic FC', None, 'sr:competitor:2375', 'Forfar Athletic FC', '上半场 - Forfar Athletic FC 大/小', datetime.datetime(2022, 6, 28, 14, 30), '港赔', Decimal('1.160'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:34014', '奥地利', None, 'sr:competitor:7415', '英格兰', '上半场 - 英格兰 大/小', datetime.datetime(2022, 7, 6, 15, 0), '港赔', Decimal('1.320'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:477', '国际欧洲锦标赛，女子')], [('sr:competitor:7422', '挪威', None, 'sr:competitor:7414', '丹麦', '让球', datetime.datetime(2022, 6, 29, 12, 0), '港赔', Decimal('1.310'), '丹麦 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:852', '国际友谊赛，女子'), ('sr:competitor:2701', 'Hellas Verona', None, 'sr:competitor:2685', 'Bologna FC', '上半场 - 大/小', datetime.datetime(2022, 8, 21, 9, 0), '港赔', Decimal('0.880'), '大1', 3, 'total=1', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:66440', '沧州雄狮', None, 'sr:competitor:245357', '梅州客家', '上半场 - 让球', datetime.datetime(2022, 6, 29, 4, 30), '港赔', Decimal('1.280'), '梅州客家 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:649', '中国超级联赛'), ('sr:competitor:1957', 'SC Corinthians SP', None, 'sr:competitor:1961', 'Fluminense FC RJ', '上半场 - 大/小', datetime.datetime(2022, 7, 2, 15, 30), '港赔', Decimal('0.610'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:3216', '小阿根廷人', None, 'sr:competitor:65676', '科尔多瓦中央队', '上半场 - 科尔多瓦中央队 大/小', datetime.datetime(2022, 7, 1, 18, 0), '港赔', Decimal('1.290'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛')], [('sr:competitor:7643', 'Jeonnam Dragons', None, 'sr:competitor:191070', 'Seoul E-Land FC', 'Jeonnam Dragons 大/小', datetime.datetime(2022, 7, 3, 7, 0), '港赔', Decimal('0.460'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:26011', '松本山雅', None, 'sr:competitor:118478', 'Vanraure Hachinohe FC', 'Vanraure Hachinohe FC 大/小', datetime.datetime(2022, 7, 2, 6, 0), '港赔', Decimal('0.490'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:5130', '大宫松鼠', None, 'sr:competitor:44519', '盛冈仙鹤', '上半场 - 大/小', datetime.datetime(2022, 7, 2, 5, 0), '港赔', Decimal('0.610'), '大0.5/1', 3, 'total=0.75', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:1891', 'Kalmar FF', None, 'sr:competitor:1890', '赫尔辛堡', 'Kalmar FF 大/小', datetime.datetime(2022, 7, 2, 11, 30), '港赔', Decimal('1.050'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:40', '瑞典超级联赛')], [('sr:competitor:1891', 'Kalmar FF', None, 'sr:competitor:1890', '赫尔辛堡', '大/小', datetime.datetime(2022, 7, 2, 11, 30), '港赔', Decimal('0.880'), '大2/2.5', 3, 'total=2.25', '足球', 'sr:tournament:40', '瑞典超级联赛'), ('sr:competitor:7653', 'Ulsan Hyundai FC', None, 'sr:competitor:7650', '浦项制铁', 'Ulsan Hyundai FC 大/小', datetime.datetime(2022, 7, 2, 6, 0), '港赔', Decimal('1.300'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:410', '韩国K1联赛'), ('sr:competitor:2530', 'Schalke 04', None, 'sr:competitor:2671', '科隆', '上半场 - 大/小', datetime.datetime(2022, 8, 6, 9, 30), '港赔', Decimal('1.280'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:35', '德国足球甲级联赛'), ('sr:competitor:1949', 'Atlas FC', None, 'sr:competitor:1939', 'CF America', '上半场 - Atlas FC 大/小', datetime.datetime(2022, 7, 2, 22, 5), '港赔', Decimal('1.600'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:27464', '墨西哥甲级联赛，春季赛')], [('sr:competitor:22007', 'Portland Timbers', None, 'sr:competitor:668063', 'Nashville SC', '让球', datetime.datetime(2022, 7, 3, 20, 30), '港赔', Decimal('1.230'), '纳什维尔SC ', 3, 'hcp=-0.75', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2317', '沃罗涅日火炬II队', None, 'sr:competitor:34425', 'FK Krasnodar', 'FK Krasnodar 赢任何半场', datetime.datetime(2022, 7, 17, 13, 0), '欧赔', Decimal('2.800'), '不是', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:1984', 'SC克里西乌马', None, 'sr:competitor:2025', 'SP伊图阿诺', '双重机会&amp;大/小', datetime.datetime(2022, 7, 2, 15, 0), '欧赔', Decimal('20.950'), 'SP伊图阿诺/和局 &amp; 大 4.5', 3, 'total=4.5', '足球', 'sr:tournament:390', '巴西乙级联赛'), ('sr:competitor:3198', '亚隆城', None, 'sr:competitor:7128', '韦克斯福德', '韦克斯福德 胜利退款', datetime.datetime(2022, 7, 1, 14, 45), '欧赔', Decimal('1.710'), '和局', 3, '', '足球', 'sr:tournament:193', '爱尔兰甲级联赛'), ('sr:competitor:245305', 'FC Cincinnati', None, 'sr:competitor:2511', 'New England Revolution', '上半场 - 让球', datetime.datetime(2022, 7, 3, 19, 30), '港赔', Decimal('0.690'), '新英格兰革命 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:5981', '法林明高RJ', None, 'sr:competitor:6111', '托利马', '托利马 进球数', datetime.datetime(2022, 6, 29, 20, 30), '欧赔', Decimal('9.750'), '3+', 3, 'variant=sr:exact_goals:3+', '足球', 'sr:tournament:384', '国际俱乐部解放者杯'), ('sr:competitor:2508', 'Houston Dynamo', None, 'sr:competitor:22007', 'Portland Timbers', 'Houston Dynamo 不失球', datetime.datetime(2022, 6, 29, 22, 30), '欧赔', Decimal('1.160'), '不是', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟')], [('sr:competitor:1967', 'CA Paranaense PR', None, 'sr:competitor:1963', 'SE Palmeiras SP', 'CA Paranaense PR 大/小', datetime.datetime(2022, 7, 2, 20, 0), '港赔', Decimal('0.910'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:49936', '大连人', None, 'sr:competitor:3375', '广州城', '上半场 - 平局退款', datetime.datetime(2022, 6, 28, 7, 30), '欧赔', Decimal('1.440'), '大连人', 3, '', '足球', 'sr:tournament:649', '中国超级联赛'), ('sr:competitor:3359', '佐迪诺鱼雷', None, 'sr:competitor:3349', 'FC Gomel', '第1个进球', datetime.datetime(2022, 6, 29, 13, 0), '欧赔', Decimal('2.070'), '佐迪诺鱼雷', 3, 'goalnr=1', '足球', 'sr:tournament:169', '白俄罗斯足球超级联赛'), ('sr:competitor:40896', '科克城', None, 'sr:competitor:3171', '布雷', '布雷 进球数', datetime.datetime(2022, 7, 1, 14, 45), '欧赔', Decimal('2.500'), '1', 3, 'variant=sr:exact_goals:3+', '足球', 'sr:tournament:193', '爱尔兰甲级联赛'), ('sr:competitor:664', 'Lillestrom SK', None, 'sr:competitor:957', 'Kristiansund BK', 'Kristiansund BK 大/小', datetime.datetime(2022, 7, 3, 12, 0), '港赔', Decimal('0.370'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:212844', 'FK Nizhny Novgorod', None, 'sr:competitor:2320', 'Lokomotiv Moscow', '双重机会', datetime.datetime(2022, 7, 17, 10, 30), '欧赔', Decimal('1.270'), '莫斯科火车头 或和局', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛')], [('sr:competitor:92036', '阿马达尔', None, 'sr:competitor:42505', '巴尔卡塔', '单/双', datetime.datetime(2022, 7, 2, 3, 0), '欧赔', Decimal('1.840'), '单', 3, '', '足球', 'sr:tournament:1270', '澳大利亚全国超级联赛,西澳大利亚'), ('sr:competitor:7643', 'Jeonnam Dragons', None, 'sr:competitor:191070', 'Seoul E-Land FC', 'Seoul E-Land FC 最高进球数半场', datetime.datetime(2022, 7, 3, 7, 0), '欧赔', Decimal('3.500'), '上半场', 3, '', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:1957', 'SC Corinthians SP', None, 'sr:competitor:1961', 'Fluminense FC RJ', '上半场 - SC Corinthians SP 不失球', datetime.datetime(2022, 7, 2, 15, 30), '欧赔', Decimal('1.540'), '是', 3, '', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:5130', '大宫松鼠', None, 'sr:competitor:44519', '盛冈仙鹤', '大宫松鼠 不失球获胜', datetime.datetime(2022, 7, 2, 5, 0), '欧赔', Decimal('1.220'), '不是', 3, '', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:2598', '艾禾斯堡', None, 'sr:competitor:2576', 'SV Darmstadt 98', '艾禾斯堡 大/小', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('0.490'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:3359', '佐迪诺鱼雷', None, 'sr:competitor:3349', 'FC Gomel', '上半场 - 双重机会&amp;两队都进球', datetime.datetime(2022, 6, 29, 13, 0), '欧赔', Decimal('7.750'), '戈梅利/和局 &amp; 是', 3, '', '足球', 'sr:tournament:169', '白俄罗斯足球超级联赛')], [('sr:competitor:2729', 'AC Monza', None, 'sr:competitor:2714', 'SSC Napoli', '大/小', datetime.datetime(2022, 8, 21, 9, 0), '港赔', Decimal('0.680'), '大2.5/3', 3, 'total=2.75', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:22486', '奥地利', None, 'sr:competitor:22558', '斯洛伐克', '上半场 - 双重机会', datetime.datetime(2022, 6, 28, 11, 0), '欧赔', Decimal('1.740'), '斯洛伐克 或 奥地利', 3, '', '足球', 'sr:tournament:258', '国际青年U19欧洲锦标赛'), ('sr:competitor:1958', 'RJ博塔弗戈', None, 'sr:competitor:1999', 'Red Bull Bragantino SP', '上半场 - 双重机会', datetime.datetime(2022, 7, 4, 19, 0), '欧赔', Decimal('1.210'), '布拉甘蒂诺红牛 或和局', 3, '', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:862', 'FK Jerv', None, 'sr:competitor:1161', '洛辛堡', '总入球', datetime.datetime(2022, 7, 10, 12, 0), '欧赔', Decimal('28.950'), '7+', 3, 'variant=sr:goal_range:7+', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:1777', 'IK Brage', None, 'sr:competitor:1775', 'Vasteras SK', '上半场 - IK Brage 大/小', datetime.datetime(2022, 7, 3, 7, 0), '港赔', Decimal('0.870'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:79907', '今治足球俱乐部', None, 'sr:competitor:21900', 'FC岐埠', '平局退款', datetime.datetime(2022, 7, 3, 6, 0), '欧赔', Decimal('1.490'), 'FC岐埠', 3, '', '足球', 'sr:tournament:2094', '日本丙级联赛')], [('sr:competitor:222968', '阿德萊德奧林匹克', None, 'sr:competitor:137692', '南阿德莱得黑豹', '南阿德莱得黑豹 不失球获胜', datetime.datetime(2022, 7, 2, 1, 30), '欧赔', Decimal('1.090'), '不是', 3, '', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚'), ('sr:competitor:1836', 'Ostersunds FK', None, 'sr:competitor:1849', 'Norrby IF', '两队都进球', datetime.datetime(2022, 6, 28, 13, 0), '欧赔', Decimal('1.930'), '是', 3, '', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:3146', 'Vissel Kobe', None, 'sr:competitor:21904', 'Sagan Tosu', '波胆', datetime.datetime(2022, 7, 2, 6, 30), '欧赔', Decimal('99.950'), '4:1', 3, '', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:7529', 'FK Ural Yekaterinburg', None, 'sr:competitor:2325', 'CSKA Moscow', '净胜球数', datetime.datetime(2022, 7, 16, 8, 0), '欧赔', Decimal('3.550'), '莫斯科中央陆军 1', 3, 'variant=sr:winning_margin:3+', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:1161', '洛辛堡', None, 'sr:competitor:1164', 'Viking FK', '上半场 - 让球', datetime.datetime(2022, 7, 3, 14, 0), '港赔', Decimal('1.010'), '维京 ', 3, 'hcp=-0.25', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', 'New York City FC 赢任何半场', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('1.380'), '是', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:2241', '坦佩雷联', None, 'sr:competitor:22388', 'KaaPo', 'KaaPo 不失球获胜', datetime.datetime(2022, 6, 28, 12, 0), '欧赔', Decimal('1.040'), '不是', 3, '', '足球', 'sr:tournament:180', '芬兰乙级联赛，B组'), ('sr:competitor:240776', '阿德莱德联(青年)', None, 'sr:competitor:222968', '阿德萊德奧林匹克', '大/小 &amp; 两队都进球', datetime.datetime(2022, 6, 29, 7, 0), '欧赔', Decimal('8.550'), '大 2.5 &amp; 不是', 3, 'total=2.5', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚'), ('sr:competitor:3170', '德利城', None, 'sr:competitor:3173', '布咸美恩斯', '德利城 大/小', datetime.datetime(2022, 7, 1, 14, 45), '港赔', Decimal('1.040'), '大1.5', 3, 'total=1.5', '足球', 'sr:tournament:192', '爱尔兰足球超级联赛')], [('sr:competitor:1960', '戈伊亚斯GO', None, 'sr:competitor:1973', 'America FC MG', '上半场 - 两队都进球', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('4.950'), '是', 3, '', '足球', 'sr:tournament:325', '巴西甲级联赛'), ('sr:competitor:32675', '安阳FC', None, 'sr:competitor:319507', '安山木槿花足球俱乐部', '波胆', datetime.datetime(2022, 7, 2, 5, 0), '欧赔', Decimal('100.950'), '4:3', 3, '', '足球', 'sr:tournament:777', '韩国职业足球乙级联赛'), ('sr:competitor:38141', '鸟取飞翔', None, 'sr:competitor:312642', '沼津青蓝', '波胆', datetime.datetime(2022, 7, 2, 2, 0), '欧赔', Decimal('9.750'), '2:0', 3, '', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:2556', '美因茨05', None, 'sr:competitor:2542', 'VfL Bochum', '上半场 - VfL Bochum 大/小', datetime.datetime(2022, 8, 6, 9, 30), '港赔', Decimal('1.280'), '大0.5', 3, 'total=0.5', '足球', 'sr:tournament:35', '德国足球甲级联赛')], [('sr:competitor:2598', '艾禾斯堡', None, 'sr:competitor:2576', 'SV Darmstadt 98', 'SV Darmstadt 98 大/小', datetime.datetime(2022, 6, 28, 8, 0), '港赔', Decimal('0.830'), '大2.5', 3, 'total=2.5', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:151492', '阿东那', None, 'sr:competitor:243494', '丹德农城', '单/双', datetime.datetime(2022, 7, 9, 2, 45), '欧赔', Decimal('1.760'), '双', 3, '', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚'), ('sr:competitor:3216', '小阿根廷人', None, 'sr:competitor:65676', '科尔多瓦中央队', '科尔多瓦中央队 两个半场都进球', datetime.datetime(2022, 7, 1, 18, 0), '欧赔', Decimal('1.160'), '不是', 3, '', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:2693', '佛罗伦萨', None, 'sr:competitor:2705', '恩波利', '恩波利 不失球', datetime.datetime(2022, 8, 21, 9, 0), '欧赔', Decimal('4.050'), '是', 3, '', '足球', 'sr:tournament:23', '意大利甲级联赛')], [('sr:competitor:22521', '以色列', None, 'sr:competitor:22509', '法国', '以色列 不失球获胜', datetime.datetime(2022, 6, 28, 14, 0), '欧赔', Decimal('8.150'), '是', 3, '', '足球', 'sr:tournament:258', '国际青年U19欧洲锦标赛'), ('sr:competitor:1777', 'IK Brage', None, 'sr:competitor:1775', 'Vasteras SK', 'Vasteras SK 两个半场都进球', datetime.datetime(2022, 7, 3, 7, 0), '欧赔', Decimal('1.290'), '不是', 3, '', '足球', 'sr:tournament:46', '瑞典超甲级联赛'), ('sr:competitor:957', 'Kristiansund BK', None, 'sr:competitor:1165', '瓦勒伦加', '上半场 - 波胆', datetime.datetime(2022, 7, 10, 12, 0), '欧赔', Decimal('9.150'), '2:0', 3, '', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:661', '莫尔德', None, 'sr:competitor:666', '汉坎', '双重机会&amp;两队都进球', datetime.datetime(2022, 7, 3, 12, 0), '欧赔', Decimal('2.550'), '汉坎/和局 &amp; 是', 3, '', '足球', 'sr:tournament:20', '挪威超级联赛'), ('sr:competitor:3134', 'Kashima Antlers', None, 'sr:competitor:3140', 'Kashiwa Reysol', '最高进球数半场', datetime.datetime(2022, 7, 2, 5, 30), '欧赔', Decimal('2.000'), '下半场', 3, '', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:607728', '阿美尼亚诺体育', None, 'sr:competitor:36439', '美洲太阳', '美洲太阳 胜利退款', datetime.datetime(2022, 7, 2, 16, 0), '欧赔', Decimal('1.610'), '和局', 3, '', '足球', 'sr:tournament:27098', '巴拉圭甲级联赛，春季赛'), ('sr:competitor:2598', '艾禾斯堡', None, 'sr:competitor:2576', 'SV Darmstadt 98', 'SV Darmstadt 98 两个半场都进球', datetime.datetime(2022, 6, 28, 8, 0), '欧赔', Decimal('1.690'), '是', 3, '', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛')], [('sr:competitor:3134', 'Kashima Antlers', None, 'sr:competitor:3140', 'Kashiwa Reysol', '上半场 - 独赢 &amp; 大/小', datetime.datetime(2022, 7, 2, 5, 30), '欧赔', Decimal('5.750'), '柏雷素尔 &amp; 小 1.5', 3, 'total=1.5', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:863473', 'Charlotte FC', None, 'sr:competitor:2508', 'Houston Dynamo', 'Houston Dynamo 单/双', datetime.datetime(2022, 7, 3, 20, 30), '欧赔', Decimal('1.770'), '双', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:212844', 'FK Nizhny Novgorod', None, 'sr:competitor:2320', 'Lokomotiv Moscow', '平局退款', datetime.datetime(2022, 7, 17, 10, 30), '欧赔', Decimal('1.320'), '莫斯科火车头', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛')], [('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:2333', '喀山鲁宾', '萨马拉苏维埃之翼足球俱乐部 两个半场都进球', datetime.datetime(2022, 6, 28, 8, 0), '欧赔', Decimal('2.700'), '是', 3, '', '足球', 'sr:tournament:853', '国际俱乐部俱乐部友谊赛'), ('sr:competitor:1161', '洛辛堡', None, 'sr:competitor:1164', 'Viking FK', '洛辛堡 赢两个半场', datetime.datetime(2022, 7, 3, 14, 0), '欧赔', Decimal('8.350'), '是', 3, '', '足球', 'sr:tournament:20', '挪威超级联赛')], [('sr:competitor:36833', '图库曼体育会', None, 'sr:competitor:3208', '沙士菲', '两个半场 大1.5', datetime.datetime(2022, 7, 2, 17, 0), '欧赔', Decimal('6.150'), '是', 3, 'total=1.5', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:34015', '威尔士', None, 'sr:competitor:7419', '新西兰', '总入球', datetime.datetime(2022, 6, 28, 13, 0), '欧赔', Decimal('3.950'), '0-1', 3, 'variant=sr:goal_range:7+', '足球', 'sr:tournament:852', '国际友谊赛，女子'), ('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', 'New York City FC 不失球', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('2.500'), '是', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:38096', '立陶宛', None, 'sr:competitor:38098', '摩尔多瓦', '哪队进球', datetime.datetime(2022, 6, 28, 11, 0), '欧赔', Decimal('13.950'), '无', 3, '', '足球', 'sr:tournament:780', '国际世界锦标赛欧洲区女子预选赛'), ('sr:competitor:5128', '新泻天鹅', None, 'sr:competitor:21906', '草津温泉群马', '最后进球的球队', datetime.datetime(2022, 7, 2, 6, 30), '欧赔', Decimal('9.150'), '无', 3, '', '足球', 'sr:tournament:402', '日本乙级联赛')], [('sr:competitor:2692', 'AC Milan', None, 'sr:competitor:2686', 'Atalanta BC', '独赢 &amp; 大/小', datetime.datetime(2022, 8, 21, 9, 0), '欧赔', Decimal('7.350'), '阿特兰大 &amp; 大 3.5', 3, 'total=3.5', '足球', 'sr:tournament:23', '意大利甲级联赛'), ('sr:competitor:90874', '坎贝尔市体育馆', None, 'sr:competitor:222542', '斯图特狮子', '独赢 &amp; 大/小', datetime.datetime(2022, 7, 2, 1, 30), '欧赔', Decimal('8.550'), '斯图特狮子 &amp; 大 3.5', 3, 'total=3.5', '足球', 'sr:tournament:1258', '澳大利亚全国超级联赛,南澳大利亚'), ('sr:competitor:38103', '瑞士', None, 'sr:competitor:22027', '葡萄牙', '哪队进球', datetime.datetime(2022, 7, 9, 12, 0), '欧赔', Decimal('17.950'), '无', 3, '', '足球', 'sr:tournament:477', '国际欧洲锦标赛，女子'), ('sr:competitor:7648', '仁川联队', None, 'sr:competitor:7652', '水原三星', '仁川联队 赢任何半场', datetime.datetime(2022, 7, 3, 6, 30), '欧赔', Decimal('1.910'), '是', 3, '', '足球', 'sr:tournament:410', '韩国K1联赛'), ('sr:competitor:3216', '小阿根廷人', None, 'sr:competitor:65676', '科尔多瓦中央队', '上半场 - 总入球 ', datetime.datetime(2022, 7, 1, 18, 0), '欧赔', Decimal('2.500'), '1', 3, 'variant=sr:exact_goals:3+', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛')], [('sr:competitor:3219', '班菲特', None, 'sr:competitor:3202', '小保加', '哪队进球', datetime.datetime(2022, 7, 1, 20, 30), '欧赔', Decimal('2.750'), '仅 小保加', 3, '', '足球', 'sr:tournament:155', '阿根廷足球甲级联赛'), ('sr:competitor:2322', '萨马拉苏维埃之翼足球俱乐部', None, 'sr:competitor:24118', '奥伦堡', '独赢', datetime.datetime(2022, 7, 16, 10, 30), '欧赔', Decimal('2.500'), '奥伦堡', 3, '', '足球', 'sr:tournament:203', '俄罗斯足球超级联赛'), ('sr:competitor:7411', '巴西', None, 'sr:competitor:7423', '瑞典', '瑞典 单/双', datetime.datetime(2022, 6, 28, 12, 30), '欧赔', Decimal('1.890'), '单', 3, '', '足球', 'sr:tournament:852', '国际友谊赛，女子'), ('sr:competitor:3146', 'Vissel Kobe', None, 'sr:competitor:21904', 'Sagan Tosu', 'Sagan Tosu 胜利退款', datetime.datetime(2022, 7, 2, 6, 30), '欧赔', Decimal('1.900'), '和局', 3, '', '足球', 'sr:tournament:196', '日本J联赛'), ('sr:competitor:1758', 'Hammarby IF', None, 'sr:competitor:1759', 'Djurgardens IF', '两个半场 小1.5', datetime.datetime(2022, 7, 3, 9, 0), '欧赔', Decimal('1.450'), '不是', 3, 'total=1.5', '足球', 'sr:tournament:40', '瑞典超级联赛')], [('sr:competitor:305920', 'Atlanta United FC', None, 'sr:competitor:167510', 'New York City FC', '双重机会', datetime.datetime(2022, 7, 3, 17, 0), '欧赔', Decimal('1.320'), '纽约城 或 亚特兰大联', 3, '', '足球', 'sr:tournament:242', '美国职业足球大联盟'), ('sr:competitor:26011', '松本山雅', None, 'sr:competitor:118478', 'Vanraure Hachinohe FC', '双重机会', datetime.datetime(2022, 7, 2, 6, 0), '欧赔', Decimal('2.000'), 'Vanraure Hachinohe FC 或和局', 3, '', '足球', 'sr:tournament:2094', '日本丙级联赛'), ('sr:competitor:182526', '厄瓜多尔', None, 'sr:competitor:324681', '玻利维亚', '玻利维亚 单/双', datetime.datetime(2022, 7, 8, 17, 0), '欧赔', Decimal('1.590'), '双', 3, '', '足球', 'sr:tournament:36571', '国际Copa America, Women'), ('sr:competitor:40896', '科克城', None, 'sr:competitor:3171', '布雷', '第1个进球', datetime.datetime(2022, 7, 1, 14, 45), '欧赔', Decimal('3.200'), '布雷', 3, 'goalnr=1', '足球', 'sr:tournament:193', '爱尔兰甲级联赛'), ('sr:competitor:151492', '阿东那', None, 'sr:competitor:243494', '丹德农城', '阿东那 不失球获胜', datetime.datetime(2022, 7, 9, 2, 45), '欧赔', Decimal('1.210'), '不是', 3, '', '足球', 'sr:tournament:1275', '澳大利亚全国超级联赛,维多利亚')], [('sr:competitor:92539', '富川FC', None, 'sr:competitor:7653', 'Ulsan Hyundai FC', '哪队晋级', datetime.datetime(2022, 6, 29, 6, 0), '欧赔', Decimal('1.100'), '蔚山现代', 3, '', '足球', 'sr:tournament:615', '韩国足协杯'), ('sr:competitor:7061', '横滨', None, 'sr:competitor:21901', 'Mito Hollyhock', '第1个进球', datetime.datetime(2022, 7, 2, 5, 0), '欧赔', Decimal('1.950'), '横滨', 3, 'goalnr=1', '足球', 'sr:tournament:402', '日本乙级联赛'), ('sr:competitor:1960</t>
   </si>
   <si>
     <t>未完成交易-登0代理查询下级跳转</t>
@@ -340,9 +636,6 @@
   </si>
   <si>
     <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442"}]</t>
-  </si>
-  <si>
-    <t>parentId</t>
   </si>
   <si>
     <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
@@ -350,11 +643,11 @@
 @f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID',SUM(c.company_actual_percentage*c.bet_amount) '公司占成',b.currency '货币',SUM(c.level0_actual_percentage*c.bet_amount) '总代理占成',SUM(c.level1_actual_percentage*c.bet_amount) '一级代理占成',SUM(c.level2_actual_percentage*c.bet_amount) '二级代理占成',SUM(c.level3_actual_percentage*c.bet_amount) '三级代理占成',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS IN (1,2) AND c.proxy{num}_id='{all}' AND c.award_time IS NULL GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency"</t>
   </si>
   <si>
-    <t>account,parentId</t>
-  </si>
-  <si>
     <t>测试通过
-2022-07-11 19:56:26</t>
+2022-07-19 14:25:15</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的未完成交易-登0-主查询  /agentBackground/UndoneTransaction/queryProxyUndoneTransactionList，接口数据比对全部正确\n\n\x1b[0m']</t>
   </si>
   <si>
     <t>未完成交易-登0,登3跳转会员代理查询下级跳转</t>
@@ -370,6 +663,13 @@
 WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency,c.proxy3_id</t>
   </si>
   <si>
+    <t>测试通过
+2022-07-19 14:25:16</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的未完成交易-登0-登3-会员-子查询  /agentBackground/UndoneTransaction/queryProxyUndoneTransactionList，接口数据比对全部正确\n\n\x1b[0m']</t>
+  </si>
+  <si>
     <t>未完成交易-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
   </si>
   <si>
@@ -383,9 +683,6 @@
   </si>
   <si>
     <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074"},{"page":1,"limit":50,"account":"","parentId":"jnj"}]</t>
-  </si>
-  <si>
-    <t>accountId</t>
   </si>
   <si>
     <t>@SELECT CONCAT(user_name,'/',login_account),SUM(bet_amount) FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id LEFT JOIN m_account AS a ON a.id=c.proxy3_id WHERE c.STATUS IN (1,2) AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy3_id) AND c.award_time IS NULL GROUP BY c.user_id) AND STATUS IN (1,2)  AND award_time IS NULL 
@@ -395,141 +692,10 @@
   </si>
   <si>
     <t>测试通过
-2022-07-11 19:58:12</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0-主查询</t>
-  </si>
-  <si>
-    <t>/agentBackground/profitAndLoss/queryProxyProfitAndLossList</t>
-  </si>
-  <si>
-    <t>companyCommission,companyWinOrLose,id,payout,settlementDate,updateTime</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531516017847869442","startTime":begin,"endTime":end}]</t>
-  </si>
-  <si>
-    <t>@SELECT b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS IN (1,2) AND b.award_time IS NULL GROUP BY b.proxy0_id,b.proxy1_id,b.proxy2_id,b.proxy3_id
-@f"SELECT id,role_id FROM m_account WHERE id='{all}'"
-@f"SELECT CONCAT(a.account,'/',a.login_account) AS '账号/登入账号',a.id '下级代理ID','公司总计' AS '公司总计',b.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID',CASE a.role_id WHEN 0 THEN '登0' WHEN 1 THEN '登1' WHEN 2 THEN '登2' WHEN 3 THEN '登3' WHEN 4 THEN '子账号角色' WHEN 5 THEN '子账号角色' END AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',a.NAME '名称',COUNT(c.order_no) '注单数量',a.parent_id '本级代理ID',SUM(c.bet_amount) '总投注额','总佣金' AS '总佣金',SUM(c.efficient_amount) '总有效金额' FROM m_account AS a LEFT JOIN m_account_credits AS b ON a.id=b.account_id LEFT JOIN o_account_order AS c ON a.id=c.proxy{num}_id WHERE c.STATUS=2 AND c.proxy{num}_id='{all}' \
-AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY a.account,a.login_account,a.NAME,a.role_id,b.currency ORDER BY SUM(c.bet_amount) DESC"</t>
-  </si>
-  <si>
-    <t>测试不通过
-2022-07-11 19:58:16</t>
-  </si>
-  <si>
-    <t>[[{'account': 'd0d1/d10', 'accountId': '1531517033355976705', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 1, 'levelName': '登1', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登1', 'numberOfBets': 51, 'parentId': '1531516017847869442', 'totalBet': 1890.0, 'totalCommission': -2.930009, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2/d2', 'accountId': '1531517351158390786', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 2, 'levelName': '登2', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登2', 'numberOfBets': 51, 'parentId': '1531517033355976705', 'totalBet': 1890.0, 'totalCommission': -2.930009, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2d3/d3', 'accountId': '1531517760300163074', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 3, 'levelName': '登3', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登3', 'numberOfBets': 51, 'parentId': '1531517351158390786', 'totalBet': 1890.0, 'totalCommission': -2.930009, 'totalEfficientAmount': 1542.11}], [{'account': 'd0d1/d10', 'accountId': '1531517033355976705', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 1, 'levelName': '登1', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登1', 'numberOfBets': 51, 'parentId': '1531516017847869442', 'totalBet': 1890.0, 'totalCommission': 1.19, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2/d2', 'accountId': '1531517351158390786', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 2, 'levelName': '登2', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登2', 'numberOfBets': 51, 'parentId': '1531517033355976705', 'totalBet': 1890.0, 'totalCommission': 1.19, 'totalEfficientAmount': 1542.11}, {'account': 'd0d1d2d3/d3', 'accountId': '1531517760300163074', 'companyTotal': -151.07, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -150.84, 'level0WinOrLose': -150.65, 'level1Commission': -0.18, 'level1Total': -150.83, 'level1WinOrLose': -150.65, 'level2Commission': -0.15, 'level2Total': -150.8, 'level2WinOrLose': -150.65, 'level3Commission': 0.64, 'level3Total': -150.01, 'level3WinOrLose': -150.65, 'levelId': 3, 'levelName': '登3', 'memberCommission': 0.22, 'memberTotal': 753.55, 'memberWinOrLose': 753.33, 'name': '杜鑫登3', 'numberOfBets': 51, 'parentId': '1531517351158390786', 'totalBet': 1890.0, 'totalCommission': 1.19, 'totalEfficientAmount': 1542.11}]]</t>
-  </si>
-  <si>
-    <t>['d0d1/d10-1531516017847869442/1531516017847869442/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.930009/1.19', 'd0d1d2/d2-1531517033355976705/1531517033355976705/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.930009/1.19', 'd0d1d2d3/d3-1531517351158390786/1531517351158390786/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-2.930009/1.19']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的盈亏详情-登0-主查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,3,0\x1b[0m']</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0,登3跳转会员代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0-登3-会员-子查询</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end}]</t>
-  </si>
-  <si>
-    <t>@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',c.user_id '下级代理ID','公司总计' AS '公司总计',c.currency '货币',SUM(c.level0_backwater_amount) '总代佣金',SUM(c.level0_win_or_lose) '总代总计',(SUM(c.level0_win_or_lose)-SUM(c.level0_backwater_amount)) '总代输/赢',SUM(c.level1_backwater_amount) '一级代理佣金',SUM(c.level1_win_or_lose) '一级代理总计',(SUM(c.level1_win_or_lose)-SUM(c.level1_backwater_amount)) '一级代理输/赢',SUM(c.level2_backwater_amount) '二级代理佣金',SUM(c.level2_win_or_lose) '二级代理总计',(SUM(c.level2_win_or_lose)-SUM(c.level2_backwater_amount)) '二级代理输/赢',SUM(c.level3_backwater_amount) '三级代理佣金',SUM(c.level3_win_or_lose) '三级代理总计',(SUM(c.level3_win_or_lose)-SUM(c.level3_backwater_amount)) '三级代理输/赢',a.role_id '代理角色ID','会员' AS '代理级别',SUM(c.backwater_amount) '会员佣金',(SUM(c.handicap_win_or_lose)+SUM(c.backwater_amount)) '会员总计',SUM(c.handicap_win_or_lose) '会员输/赢',b.NAME '名称',COUNT(c.order_no) '注单数量',c.proxy3_id '本级代理ID',SUM(c.bet_amount)as '总投注额','总佣金' as '总佣金',SUM(c.efficient_amount)as '总有效金额' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=1531517760300163074 AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_name,c.login_account,a.role_id,b.currency,c.user_id,c.currency ORDER BY c.login_account ASC"</t>
-  </si>
-  <si>
-    <t>测试不通过
-2022-07-11 19:58:42</t>
-  </si>
-  <si>
-    <t>[[{'account': 'd0d1d2d33a/fceshi070', 'accountId': '1531519743081881601', 'companyTotal': -55.96, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -55.92, 'level0WinOrLose': -55.92, 'level1Commission': 0.0, 'level1Total': -55.92, 'level1WinOrLose': -55.92, 'level2Commission': 0.0, 'level2Total': -55.92, 'level2WinOrLose': -55.92, 'level3Commission': 0.0, 'level3Total': -55.92, 'level3WinOrLose': -55.92, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 279.64, 'memberWinOrLose': 279.64, 'name': '杜鑫test账号da', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 40.0}, {'account': 'd0d1d2d3bm/fceshi0290', 'accountId': '1531520793293660162', 'companyTotal': -8.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -8.3, 'level0WinOrLose': -8.3, 'level1Commission': 0.0, 'level1Total': -8.3, 'level1WinOrLose': -8.3, 'level2Commission': 0.0, 'level2Total': -8.3, 'level2WinOrLose': -8.3, 'level3Commission': 0.0, 'level3Total': -8.3, 'level3WinOrLose': -8.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 41.5, 'memberWinOrLose': 41.5, 'name': '杜鑫test账号bm', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3dg/fceshi0336', 'accountId': '1531520984797192194', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dg', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jh/fceshi0493', 'accountId': '1531521651876077570', 'companyTotal': -3.6, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -3.6, 'level0WinOrLose': -3.6, 'level1Commission': 0.0, 'level1Total': -3.6, 'level1WinOrLose': -3.6, 'level2Commission': 0.0, 'level2Total': -3.6, 'level2WinOrLose': -3.6, 'level3Commission': 0.0, 'level3Total': -3.6, 'level3WinOrLose': -3.6, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 18.0, 'memberWinOrLose': 18.0, 'name': '杜鑫test账号jh', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jo/fceshi0500', 'accountId': '1531521680581894146', 'companyTotal': -48.32, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -48.29, 'level0WinOrLose': -48.1, 'level1Commission': -0.18, 'level1Total': -48.28, 'level1WinOrLose': -48.1, 'level2Commission': -0.15, 'level2Total': -48.25, 'level2WinOrLose': -48.1, 'level3Commission': 0.54, 'level3Total': -47.56, 'level3WinOrLose': -48.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.2, 'memberTotal': 240.7, 'memberWinOrLose': 240.5, 'name': '杜鑫test账号jo', 'numberOfBets': 6, 'parentId': '1531517760300163074', 'totalBet': 760.0, 'totalCommission': -1.06305, 'totalEfficientAmount': 559.5}, {'account': 'd0d1d2d3pe/fceshi0646', 'accountId': '1531522297580789762', 'companyTotal': -2.79, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.78, 'level0WinOrLose': -2.78, 'level1Commission': 0.0, 'level1Total': -2.78, 'level1WinOrLose': -2.78, 'level2Commission': 0.0, 'level2Total': -2.78, 'level2WinOrLose': -2.78, 'level3Commission': 0.01, 'level3Total': -2.77, 'level3WinOrLose': -2.78, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 13.9, 'memberWinOrLose': 13.9, 'name': '杜鑫test账号pe', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3pu/fceshi0662', 'accountId': '1531522363683020801', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pu', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3sw/fceshi0742', 'accountId': '1531522711202078722', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号sw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30b/fceshi01', 'accountId': '1531519190650101761', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ab', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30m/fceshi012', 'accountId': '1531519243502526466', 'companyTotal': 1.58, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 1.56, 'level0WinOrLose': 1.56, 'level1Commission': 0.0, 'level1Total': 1.56, 'level1WinOrLose': 1.56, 'level2Commission': 0.0, 'level2Total': 1.56, 'level2WinOrLose': 1.56, 'level3Commission': 0.0, 'level3Total': 1.56, 'level3WinOrLose': 1.56, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -7.82, 'memberWinOrLose': -7.82, 'name': '杜鑫test账号am', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 7.82}, {'account': 'd0d1d2d30q/fceshi016', 'accountId': '1531519261340901378', 'companyTotal': -4.05, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -4.01, 'level0WinOrLose': -4.01, 'level1Commission': 0.0, 'level1Total': -4.01, 'level1WinOrLose': -4.01, 'level2Commission': 0.0, 'level2Total': -4.01, 'level2WinOrLose': -4.01, 'level3Commission': 0.0, 'level3Total': -4.01, 'level3WinOrLose': -4.01, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 20.09, 'memberWinOrLose': 20.09, 'name': '杜鑫test账号aq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 20.09}, {'account': 'd0d1d2d31e/fceshi030', 'accountId': '1531519318890946562', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号be', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d31o/fceshi040', 'accountId': '1531519360410361857', 'companyTotal': -55.85, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -55.82, 'level0WinOrLose': -55.82, 'level1Commission': 0.0, 'level1Total': -55.82, 'level1WinOrLose': -55.82, 'level2Commission': 0.0, 'level2Total': -55.82, 'level2WinOrLose': -55.82, 'level3Commission': 0.0, 'level3Total': -55.82, 'level3WinOrLose': -55.82, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 279.13, 'memberWinOrLose': 279.13, 'name': '杜鑫test账号bo', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 260.0, 'totalCommission': 0.0, 'totalEfficientAmount': 260.0}, {'account': 'd0d1d2d32d/fceshi047', 'accountId': '1531519648210919426', 'companyTotal': -12.15, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -12.15, 'level0WinOrLose': -12.15, 'level1Commission': 0.0, 'level1Total': -12.15, 'level1WinOrLose': -12.15, 'level2Commission': 0.0, 'level2Total': -12.15, 'level2WinOrLose': -12.15, 'level3Commission': 0.0, 'level3Total': -12.15, 'level3WinOrLose': -12.15, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 60.75, 'memberWinOrLose': 60.75, 'name': '杜鑫test账号cd', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 40.0, 'totalCommission': 0.0, 'totalEfficientAmount': 40.0}, {'account': 'd0d1d2d32e/fceshi048', 'accountId': '1531519652338114562', 'companyTotal': 0.46, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 0.44, 'level0WinOrLose': 0.44, 'level1Commission': 0.0, 'level1Total': 0.44, 'level1WinOrLose': 0.44, 'level2Commission': 0.0, 'level2Total': 0.44, 'level2WinOrLose': 0.44, 'level3Commission': 0.0, 'level3Total': 0.44, 'level3WinOrLose': 0.44, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -2.22, 'memberWinOrLose': -2.22, 'name': '杜鑫test账号ce', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 2.22}, {'account': 'd0d1d2d32l/fceshi055', 'accountId': '1531519681106845698', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32p/fceshi059', 'accountId': '1531519697598849026', 'companyTotal': 22.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 22.0, 'level0WinOrLose': 22.0, 'level1Commission': 0.0, 'level1Total': 22.0, 'level1WinOrLose': 22.0, 'level2Commission': 0.0, 'level2Total': 22.0, 'level2WinOrLose': 22.0, 'level3Commission': 0.0, 'level3Total': 22.0, 'level3WinOrLose': 22.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -110.0, 'memberWinOrLose': -110.0, 'name': '杜鑫test账号cp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 110.0}, {'account': 'd0d1d2d32t/fceshi063', 'accountId': '1531519714225070082', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ct', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d32y/fceshi068', 'accountId': '1531519734840074241', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号cy', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d33p/fceshi085', 'accountId': '1531519808219422721', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号dp', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d33q/fceshi086', 'accountId': '1531519812338229249', 'companyTotal': -1.28, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.28, 'level0WinOrLose': -1.28, 'level1Commission': 0.0, 'level1Total': -1.28, 'level1WinOrLose': -1.28, 'level2Commission': 0.0, 'level2Total': -1.28, 'level2WinOrLose': -1.28, 'level3Commission': 0.0, 'level3Total': -1.28, 'level3WinOrLose': -1.28, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.4, 'memberWinOrLose': 6.4, 'name': '杜鑫test账号dq', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.4}, {'account': 'd0d1d2d34c/fceshi098', 'accountId': '1531519865471672322', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ec', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d34i/fceshi0104', 'accountId': '1531519890058682370', 'companyTotal': -2.4, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.4, 'level0WinOrLose': -2.4, 'level1Commission': 0.0, 'level1Total': -2.4, 'level1WinOrLose': -2.4, 'level2Commission': 0.0, 'level2Total': -2.4, 'level2WinOrLose': -2.4, 'level3Commission': 0.0, 'level3Total': -2.4, 'level3WinOrLose': -2.4, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 12.0, 'memberWinOrLose': 12.0, 'name': '杜鑫test账号ei', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d35s/fceshi0140', 'accountId': '1531520059173019649', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号fs', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d38g/fceshi0206', 'accountId': '1531520338475917314', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号ig', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d39k/fceshi0236', 'accountId': '1531520470793625602', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号jk', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3aw/fceshi0274', 'accountId': '1531520727564722177', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号aw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3dk/fceshi0340', 'accountId': '1531521003319238657', 'companyTotal': -1.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.3, 'level0WinOrLose': -1.3, 'level1Commission': 0.0, 'level1Total': -1.3, 'level1WinOrLose': -1.3, 'level2Commission': 0.0, 'level2Total': -1.3, 'level2WinOrLose': -1.3, 'level3Commission': 0.0, 'level3Total': -1.3, 'level3WinOrLose': -1.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.5, 'memberWinOrLose': 6.5, 'name': '杜鑫test账号dk', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.5}, {'account': 'd0d1d2d3ex/fceshi0379', 'accountId': '1531521169552089090', 'companyTotal': -9.1, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -9.1, 'level0WinOrLose': -9.1, 'level1Commission': 0.0, 'level1Total': -9.1, 'level1WinOrLose': -9.1, 'level2Commission': 0.0, 'level2Total': -9.1, 'level2WinOrLose': -9.1, 'level3Commission': 0.0, 'level3Total': -9.1, 'level3WinOrLose': -9.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 45.5, 'memberWinOrLose': 45.5, 'name': '杜鑫test账号ex', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3gc/fceshi0410', 'accountId': '1531521297901985794', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号gc', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3il/fceshi0471', 'accountId': '1531521561669181442', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号il', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3im/fceshi0472', 'accountId': '1531521565716684801', 'companyTotal': -1.34, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.34, 'level0WinOrLose': -1.34, 'level1Commission': 0.0, 'level1Total': -1.34, 'level1WinOrLose': -1.34, 'level2Commission': 0.0, 'level2Total': -1.34, 'level2WinOrLose': -1.34, 'level3Commission': 0.0, 'level3Total': -1.34, 'level3WinOrLose': -1.34, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 6.7, 'memberWinOrLose': 6.7, 'name': '杜鑫test账号im', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 6.7}, {'account': 'd0d1d2d3it/fceshi0479', 'accountId': '1531521594141483009', 'companyTotal': -2.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -2.3, 'level0WinOrLose': -2.3, 'level1Commission': 0.0, 'level1Total': -2.3, 'level1WinOrLose': -2.3, 'level2Commission': 0.0, 'level2Total': -2.3, 'level2WinOrLose': -2.3, 'level3Commission': 0.0, 'level3Total': -2.3, 'level3WinOrLose': -2.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 11.5, 'memberWinOrLose': 11.5, 'name': '杜鑫test账号it', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jl/fceshi0497', 'accountId': '1531521668368080897', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号jl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3pn/fceshi0655', 'accountId': '1531522334364835842', 'companyTotal': 2.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号pn', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3rn/fceshi0707', 'accountId': '1531522550153388034', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号rn', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3rv/fceshi0715', 'accountId': '1531522585666560002', 'companyTotal': -5.31, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -5.3, 'level0WinOrLose': -5.3, 'level1Commission': 0.0, 'level1Total': -5.3, 'level1WinOrLose': -5.3, 'level2Commission': 0.0, 'level2Total': -5.3, 'level2WinOrLose': -5.3, 'level3Commission': 0.01, 'level3Total': -5.29, 'level3WinOrLose': -5.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 26.5, 'memberWinOrLose': 26.5, 'name': '杜鑫test账号rv', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3sb/fceshi0721', 'accountId': '1531522614112329730', 'companyTotal': -3.3, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -3.3, 'level0WinOrLose': -3.3, 'level1Commission': 0.0, 'level1Total': -3.3, 'level1WinOrLose': -3.3, 'level2Commission': 0.0, 'level2Total': -3.3, 'level2WinOrLose': -3.3, 'level3Commission': 0.0, 'level3Total': -3.3, 'level3WinOrLose': -3.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 16.5, 'memberWinOrLose': 16.5, 'name': '杜鑫test账号sb', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3sk/fceshi0730', 'accountId': '1531522658584535041', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号sk', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3uh/fceshi0779', 'accountId': '1531522866433269761', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.01, 'level3Total': 2.01, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -10.0, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号uh', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d30v/fceshi021', 'accountId': '1531519281897185282', 'companyTotal': -1.81, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -1.8, 'level0WinOrLose': -1.8, 'level1Commission': 0.0, 'level1Total': -1.8, 'level1WinOrLose': -1.8, 'level2Commission': 0.0, 'level2Total': -1.8, 'level2WinOrLose': -1.8, 'level3Commission': 0.01, 'level3Total': -1.79, 'level3WinOrLose': -1.8, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 9.0, 'memberWinOrLose': 9.0, 'name': '杜鑫test账号av', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 9.0}, {'account': 'd0d1d2d31a/fceshi026', 'accountId': '1531519302432497666', 'companyTotal': 6.0, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 6.0, 'level0WinOrLose': 6.0, 'level1Commission': 0.0, 'level1Total': 6.0, 'level1WinOrLose': 6.0, 'level2Commission': 0.0, 'level2Total': 6.0, 'level2WinOrLose': 6.0, 'level3Commission': 0.0, 'level3Total': 6.0, 'level3WinOrLose': 6.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -30.0, 'memberWinOrLose': -30.0, 'name': '杜鑫test账号ba', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 30.0}, {'account': 'd0d1d2d31l/fceshi037', 'accountId': '1531519348049747969', 'companyTotal': -21.1, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -21.06, 'level0WinOrLose': -21.06, 'level1Commission': 0.0, 'level1Total': -21.06, 'level1WinOrLose': -21.06, 'level2Commission': 0.0, 'level2Total': -21.06, 'level2WinOrLose': -21.06, 'level3Commission': 0.0, 'level3Total': -21.06, 'level3WinOrLose': -21.06, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 105.34, 'memberWinOrLose': 105.34, 'name': '杜鑫test账号bl', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 60.0, 'totalCommission': 0.0, 'totalEfficientAmount': 60.0}, {'account': 'd0d1d2d32z/fceshi069', 'accountId': '1531519738950492161', 'companyTotal': 15.7, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 15.69, 'level0WinOrLose': 15.69, 'level1Commission': 0.0, 'level1Total': 15.69, 'level1WinOrLose': 15.69, 'level2Commission': 0.0, 'level2Total': 15.69, 'level2WinOrLose': 15.69, 'level3Commission': 0.0, 'level3Total': 15.69, 'level3WinOrLose': 15.69, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -78.46, 'memberWinOrLose': -78.46, 'name': '杜鑫test账号cz', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 110.0, 'totalCommission': 0.0, 'totalEfficientAmount': 78.46}, {'account': 'd0d1d2d33b/fceshi071', 'accountId': '1531519747196493826', 'companyTotal': 2.32, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.3, 'level0WinOrLose': 2.3, 'level1Commission': 0.0, 'level1Total': 2.3, 'level1WinOrLose': 2.3, 'level2Commission': 0.0, 'level2Total': 2.3, 'level2WinOrLose': 2.3, 'level3Commission': 0.0, 'level3Total': 2.3, 'level3WinOrLose': 2.3, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': -11.52, 'memberWinOrLose': -11.52, 'name': '杜鑫test账号db', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 30.0, 'totalCommission': 0.0, 'totalEfficientAmount': 11.52}, {'account': 'd0d1d2d3mt/fceshi0583', 'accountId': '1531522035277406210', 'companyTotal': -0.78, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': -0.78, 'level0WinOrLose': -0.78, 'level1Commission': 0.0, 'level1Total': -0.78, 'level1WinOrLose': -0.78, 'level2Commission': 0.0, 'level2Total': -0.78, 'level2WinOrLose': -0.78, 'level3Commission': 0.0, 'level3Total': -0.78, 'level3WinOrLose': -0.78, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.0, 'memberTotal': 3.9, 'memberWinOrLose': 3.9, 'name': '杜鑫test账号mt', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.0, 'totalEfficientAmount': 3.9}], [{'account': 'd0d1d2d3aw/fceshi0274', 'accountId': '1531520727564722177', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号aw', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3il/fceshi0471', 'accountId': '1531521561669181442', 'companyTotal': 1.99, 'currency': 'CNY', 'level0Commission': 0.0, 'level0Total': 2.0, 'level0WinOrLose': 2.0, 'level1Commission': 0.0, 'level1Total': 2.0, 'level1WinOrLose': 2.0, 'level2Commission': 0.0, 'level2Total': 2.0, 'level2WinOrLose': 2.0, 'level3Commission': 0.0, 'level3Total': 2.0, 'level3WinOrLose': 2.0, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.01, 'memberTotal': -9.99, 'memberWinOrLose': -10.0, 'name': '杜鑫test账号il', 'numberOfBets': 1, 'parentId': '1531517760300163074', 'totalBet': 10.0, 'totalCommission': 0.01, 'totalEfficientAmount': 10.0}, {'account': 'd0d1d2d3jo/fceshi0500', 'accountId': '1531521680581894146', 'companyTotal': -48.32, 'currency': 'CNY', 'level0Commission': -0.19, 'level0Total': -48.29, 'level0WinOrLose': -48.1, 'level1Commission': -0.18, 'level1Total': -48.28, 'level1WinOrLose': -48.1, 'level2Commission': -0.15, 'level2Total': -48.25, 'level2WinOrLose': -48.1, 'level3Commission': 0.54, 'level3Total': -47.56, 'level3WinOrLose': -48.1, 'levelId': 4, 'levelName': '会员', 'memberCommission': 0.2, 'memberTotal': 240.7, 'memberWinOrLose': 240.5, 'name': '杜鑫test账号jo', 'numberOfBets': 6, 'parentId': '1531517760300163074', 'totalBet': 760.0, 'totalCommission': 0.22, 'totalEfficientAmount': 559.5}]]</t>
-  </si>
-  <si>
-    <t>['d0d1d2d3jo/fceshi0500-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：-1.06305/0.22', 'd0d1d2d3aw/fceshi0274-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01', 'd0d1d2d3il/fceshi0471-1531517760300163074/totalCommission的数据对比错误,请检查SQL查询的字段与接口字段数据是否一致,数据对比：0.0/0.01']</t>
-  </si>
-  <si>
-    <t>['\x1b[31m代理d0的盈亏详情-登0-登3-会员-子查询  /agentBackground/profitAndLoss/queryProxyProfitAndLossList，数据错误，需要比对,46,43\x1b[0m']</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0,登3跳转会员后会员查看订单详情代理查询下级跳转</t>
-  </si>
-  <si>
-    <t>盈亏详情-登0-登3-会员-查看订单详情-子查询</t>
-  </si>
-  <si>
-    <t>"/agentBackground/profitAndLoss/queryProxyProfitAndLossList","/agentBackground/profitAndLoss/queryMemberProfitAndLossOrderList"</t>
-  </si>
-  <si>
-    <t>betTime,companyCommission,companyCommissionRatio,companyPercentage,companyTotal,companyWinOrLose,settlementTime,betMix</t>
-  </si>
-  <si>
-    <t>[{"page":1,"limit":50,"account":"","parentId":"1531517760300163074","startTime":begin,"endTime":end},{"page":1,"limit":50,"account":"","parentId":"1531519668859478017"}]</t>
-  </si>
-  <si>
-    <t>@f"SELECT CONCAT(user_name,'/',login_account) AS '账号/登入账号',SUM(level0_backwater_amount),SUM(level0_win_or_lose),SUM(level0_win_or_lose-level0_backwater_amount),SUM(level1_backwater_amount),SUM(level1_win_or_lose),SUM(level1_win_or_lose-level1_backwater_amount),SUM(level2_backwater_amount),SUM(level2_win_or_lose),SUM(level2_win_or_lose-level2_backwater_amount),SUM(level3_backwater_amount),SUM(level3_win_or_lose),SUM(level3_win_or_lose-level3_backwater_amount),SUM(backwater_amount) '会员佣金',SUM(handicap_win_or_lose+backwater_amount) '会员总计',SUM(handicap_win_or_lose) '会员输/赢',SUM(efficient_amount),SUM(handicap_win_or_lose) '会员输/赢' FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id) AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id) AND STATUS=2 AND award_time IS NOT NULL GROUP BY user_name,login_account"
-@f"SELECT CONCAT(c.user_name,'/',c.login_account) AS '账号/登入账号',any_value (c.bet_amount) '投注额',any_value (c.bet_ip),any_value (c.ip_address),(CASE any_value (c.settlement_result) WHEN '1' THEN '赢' WHEN '2' THEN '输' WHEN '5' THEN '平局走水' WHEN '6' THEN '注单取消' END) AS '注单状态',any_value (c.create_time),any_value (c.bet_type) '注单状态',any_value (c.level0_backwater_amount) '总代佣金',c.company_retreat_proportion '总代佣金比例',c.level0_actual_percentage '总代占成数',any_value (c.level0_win_or_lose) '总代总计',(any_value (c.level0_win_or_lose)-any_value (c.level0_backwater_amount)) '总代输/赢',any_value (c.level1_backwater_amount) '一级代理佣金',c.level0_retreat_proportion '一级代理佣金比例',c.level1_actual_percentage '一级代理占成数',any_value (c.level1_win_or_lose) '一级代理总计',(any_value (c.level1_win_or_lose)-any_value (c.level1_backwater_amount)) '一级代理输/赢',any_value (c.level2_backwater_amount) '二级代理佣金',c.level1_retreat_proportion '二级代理佣金比例',c.level2_actual_percentage '二级代理占成数',any_value (c.level2_win_or_lose) '二级代理总计',(any_value (c.level2_win_or_lose)-any_value (c.level2_backwater_amount)) '二级代理输/赢',any_value (c.level3_backwater_amount) '三级代理佣金',c.level2_retreat_proportion '三级代理佣金比例',c.level3_actual_percentage '三级代理占成数',any_value (c.level3_win_or_lose) '三级代理总计',(any_value (c.level3_win_or_lose)-any_value (c.level3_backwater_amount)) '三级代理输/赢',any_value (c.backwater_amount) '会员佣金',c.level3_retreat_proportion '会员佣金比例',(any_value (c.handicap_win_or_lose)+any_value (c.backwater_amount)) '会员总计',any_value (c.handicap_win_or_lose) '会员输/赢',any_value(c.mix_num),any_value (b.NAME) '名称','odds' as '总赔率','odds_type'as '赔率类型','options' AS '比赛',c.order_no,c.award_time,c.sport_id, CASE c.sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',c.efficient_amount,any_value (c.handicap_win_or_lose) '会员输/赢' FROM o_account_order AS c LEFT JOIN u_user AS b ON b.id=c.user_id WHERE c.STATUS=2 AND order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id)  AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) AND STATUS=2  AND award_time IS NOT NULL GROUP BY order_no,award_time ORDER BY award_time ASC) AND c.award_time IS NOT NULL GROUP BY c.user_name,c.login_account,c.user_id,c.currency,sport_id,c.order_no,c.sport_id,c.company_retreat_proportion,c.level0_actual_percentage,c.level1_actual_percentage,c.level2_actual_percentage,c.level3_actual_percentage,c.level0_retreat_proportion,c.level1_retreat_proportion,c.level2_retreat_proportion,c.level3_retreat_proportion,c.award_time,c.efficient_amount"
-@f"SELECT away_team_name,bet_score,home_team_name,market_name,match_time,CASE is_live WHEN '1' THEN '滚球盘' WHEN '3' THEN '早盘' END '盘口类型',credit_odds,odds_type AS '赔率类型',order_no,outcome_name,specifier,tournament_name FROM o_account_order_match WHERE order_no IN(SELECT order_no FROM o_account_order WHERE user_id IN(SELECT c.user_id '下级代理ID' FROM o_account_order as c left join u_user as b ON b.id=c.user_id LEFT JOIN m_account as a ON a.id=c.proxy3_id WHERE c.STATUS=2 AND c.proxy3_id=(SELECT b.proxy3_id FROM o_account_order AS b LEFT JOIN m_account AS a ON a.id=b.proxy0_id  WHERE a.id=(SELECT id FROM m_account WHERE login_account='d0') AND b.STATUS=2 GROUP BY b.proxy3_id)  AND c.award_time IS NOT NULL AND c.award_time&gt;='{begin}' AND c.award_time&lt;='{end}' GROUP BY c.user_id,c.award_time ORDER BY c.award_time ASC) AND STATUS=2  AND award_time IS NOT NULL GROUP BY order_no,award_time ORDER BY award_time ASC)"</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-07-12 13:58:46</t>
-  </si>
-  <si>
-    <t>备注1</t>
-  </si>
-  <si>
-    <t>混合串关-全部账号查询数据对比</t>
-  </si>
-  <si>
-    <t>总投注-混合串关-主查询</t>
-  </si>
-  <si>
-    <t>/betManagement/agent/mixBetOrder</t>
-  </si>
-  <si>
-    <t>companyActualPercentage,companyRetreatProportion,level0RetreatProportion,level1RetreatProportion,level2RetreatProportion,level3RetreatProportion</t>
-  </si>
-  <si>
-    <t>[{"account":""}]</t>
-  </si>
-  <si>
-    <t>@SELECT any_value (c.user_name) '账号',any_value (c.bet_amount) AS '投注金额',any_value (c.bet_ip) AS 'IP地址',any_value (c.create_time) AS '投注时间',any_value (c.currency) '币种',any_value (c.ip_address) AS 'IP位置',any_value (c.level0_actual_percentage*100) AS '总代占成',any_value (c.level1_actual_percentage*100) AS '一级代理占成',any_value (c.level2_actual_percentage*100) AS '二级代理占成',any_value (c.level3_actual_percentage*100) AS '三级代理占成',any_value (c.login_account) '登入账号',CASE any_value (c.mix_num) WHEN '2_1_0' THEN '2串1' WHEN '3_1_0' THEN '3串1' WHEN '4_1_0' THEN '4串1' WHEN '5_1_0' THEN '5串1' WHEN '6_1_0' THEN '6串1' WHEN '7_1_0' THEN '7串1' WHEN '8_1_0' THEN '8串1' WHEN '9_1_0' THEN '9串1' WHEN '10_1_0' THEN '10串1' WHEN '2_3_0' THEN '2串1' WHEN '3_4_1' THEN '3串4' WHEN '3_4_0' THEN '3串1' WHEN '2_6_0' THEN '2串1' WHEN '4_11_1' THEN '4串11' WHEN '4_5_0' THEN '4串1' WHEN '3_10_0' THEN '3串1' WHEN '2_10_0' THEN '2串1' WHEN '5_26_1' THEN '5串26' WHEN '5_6_0' THEN '5串1' WHEN '4_15_0' THEN '4串1' WHEN '3_20_0' THEN '3串1' WHEN '2_15_0' THEN '2串1' WHEN '6_57_1' THEN '6串57' END AS '注单类型',CASE any_value (c.bet_type) WHEN '1' THEN '单注' WHEN '2' THEN '串关' WHEN '3' THEN '复式串关' END AS '类型',any_value (a.NAME) '名称',"欧赔" AS '赔率','odds' AS 'odds',c.order_no '注单号',(CASE any_value (c.STATUS) WHEN '0' THEN '待确认' WHEN '1' THEN '未结算' WHEN '2' THEN '已结算' WHEN '3' THEN '已取消' END) AS '注单状态',CASE any_value (c.sport_id) WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类' FROM o_account_order AS c LEFT JOIN u_user AS a ON a.id=c.user_id LEFT JOIN o_account_order_match AS b ON b.order_no=c.order_no WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type !=1 GROUP BY c.order_no,c.create_time ORDER BY c.create_time DESC</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-07-12 10:44:42</t>
-  </si>
-  <si>
-    <t>混合串关-注单号查询数据对比</t>
-  </si>
-  <si>
-    <t>总投注-混合串关-子查询(查询其注单号，包含的比赛)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">["/betManagement/agent/mixBetOrder","/betManagement/agent/mixBetOrderInfo"]
-</t>
-  </si>
-  <si>
-    <t>[{"account":""},{"orderNo":"XFB6FPtyXDyB"}]</t>
-  </si>
-  <si>
-    <t>orderNo</t>
-  </si>
-  <si>
-    <t>@SELECT order_no,away_team_id,away_team_name,bet_score,home_team_id,home_team_name,market_name,match_time,CASE odds_type WHEN '1' THEN '欧赔' WHEN '2' THEN '港赔' WHEN '3' THEN '马来赔' WHEN '4' THEN '印尼赔' WHEN '5' THEN '美' END AS '赔率',credit_odds,outcome_name,is_live,specifier,CASE sport_id WHEN 'sr:sport:1' THEN '足球' WHEN 'sr:sport:20' THEN '乒乓球' WHEN 'sr:sport:5' THEN '网球' WHEN 'sr:sport:3' THEN '棒球' WHEN 'sr:sport:2' THEN '篮球' WHEN 'sr:sport:31' THEN '羽毛球' WHEN 'sr:sport:4' THEN '冰球' WHEN 'sr:sport:23' THEN '排球' END AS '球类',tournament_id,tournament_name FROM o_account_order_match WHERE order_no IN(SELECT c.order_no '注单号' FROM o_account_order as c  WHERE c.STATUS=1 AND c.proxy0_id=(SELECT id FROM m_account WHERE login_account='d0') AND c.bet_type!=1 GROUP BY c.order_no) ORDER BY create_time DESC</t>
-  </si>
-  <si>
-    <t>tournamentId,sportName</t>
-  </si>
-  <si>
-    <t>测试通过
-2022-07-12 12:18:30</t>
+2022-07-19 14:26:57</t>
+  </si>
+  <si>
+    <t>['\x1b[32m代理d0的未完成交易-登0-登3-会员-查看订单详情-子查询  "/agentBackground/UndoneTransaction/queryProxyUndoneTransactionList","/agentBackground/UndoneTransaction/queryMemberUndoneOrderList"，接口数据比对全部正确\n\n\x1b[0m']</t>
   </si>
   <si>
     <t>让球/大小/独赢/滚球全部球类查询数据对比</t>
@@ -560,7 +726,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +804,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="6" tint="-0.5"/>
       <name val="Courier New"/>
@@ -652,6 +825,12 @@
       <sz val="10"/>
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1107,10 +1286,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1119,37 +1298,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
@@ -1158,98 +1331,104 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1298,9 +1477,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1317,6 +1493,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1325,10 +1508,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1340,26 +1519,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1713,23 +1901,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29" style="2" customWidth="1"/>
     <col min="2" max="2" width="45" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="22" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="20" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="19" customWidth="1"/>
     <col min="8" max="9" width="9" style="3" customWidth="1"/>
     <col min="10" max="10" width="35" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.875" style="2" customWidth="1"/>
@@ -1744,34 +1932,34 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1784,60 +1972,152 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:15">
+    <row r="2" ht="16" customHeight="1" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
       <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="38" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1"/>
-    <row r="4" ht="13.5" customHeight="1"/>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="5" ht="13.5" customHeight="1"/>
-    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1" spans="7:7">
+      <c r="G6"/>
+    </row>
     <row r="7" ht="13.5" customHeight="1"/>
     <row r="9" spans="7:7">
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,18 +2129,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="24" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
@@ -1886,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -1924,16 +2204,16 @@
     </row>
     <row r="2" ht="108" customHeight="1" spans="1:15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
@@ -1942,43 +2222,43 @@
         <v>19</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="135" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
@@ -1987,90 +2267,92 @@
         <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="33" t="s">
+      <c r="J4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" ht="135" customHeight="1" spans="1:15">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>57</v>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
         <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="135" customHeight="1" spans="1:15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2079,90 +2361,90 @@
         <v>19</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" customHeight="1" spans="1:15">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>79</v>
+      <c r="G6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="135" customHeight="1" spans="1:15">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2171,53 +2453,231 @@
         <v>19</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="8"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="8"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" customHeight="1" spans="1:15">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="54" customHeight="1" spans="1:15">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" ht="135" customHeight="1" spans="1:15">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="16" customHeight="1" spans="1:15">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12" s="8"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="8"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,13 +2689,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -2261,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2297,284 +2757,146 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="118" customHeight="1" spans="1:16">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
+    <row r="2" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>94</v>
+      <c r="G2" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>96</v>
+        <v>141</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="P2"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="100" customHeight="1" spans="1:16">
+    <row r="3" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>102</v>
+        <v>148</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" t="s">
+        <v>152</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="P3"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="134" customHeight="1" spans="1:16">
-      <c r="A4" s="18" t="s">
-        <v>103</v>
+    <row r="4" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
+      <c r="A4" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>155</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>107</v>
+      <c r="G4" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>109</v>
+        <v>159</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="P4"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="175.5" customHeight="1" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" t="s">
-        <v>118</v>
-      </c>
-      <c r="N5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" t="s">
-        <v>120</v>
-      </c>
-      <c r="P5"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="123" customHeight="1" spans="1:16">
-      <c r="A6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" t="s">
-        <v>127</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="170" customHeight="1" spans="1:16">
-      <c r="A7" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2586,12 +2908,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -2651,21 +2973,21 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" ht="143" customHeight="1" spans="1:15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2674,40 +2996,41 @@
         <v>19</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>22</v>
+        <v>168</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" ht="142" customHeight="1" spans="1:15">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>146</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D3"/>
       <c r="E3">
         <v>2</v>
       </c>
@@ -2715,36 +3038,171 @@
         <v>19</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>22</v>
+        <v>177</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1"/>
-    <row r="5" ht="13.5" customHeight="1"/>
-    <row r="6" ht="13.5" customHeight="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="118" customHeight="1" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="100" customHeight="1" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="134" customHeight="1" spans="1:16">
+      <c r="A6" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6"/>
+    </row>
     <row r="7" ht="13.5" customHeight="1" spans="7:7">
       <c r="G7" s="9"/>
     </row>
@@ -2778,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>4</v>
@@ -2813,13 +3271,13 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -2848,67 +3306,67 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
